--- a/BackTest/2020-01-16 BackTest ARN.xlsx
+++ b/BackTest/2020-01-16 BackTest ARN.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M145"/>
+  <dimension ref="A1:M146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>145.9</v>
+        <v>144.6</v>
       </c>
       <c r="C2" t="n">
-        <v>145.9</v>
+        <v>146.9</v>
       </c>
       <c r="D2" t="n">
-        <v>145.9</v>
+        <v>146.9</v>
       </c>
       <c r="E2" t="n">
-        <v>145.9</v>
+        <v>144.6</v>
       </c>
       <c r="F2" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G2" t="n">
-        <v>150.3966666666667</v>
+        <v>150.6133333333334</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>145.7</v>
+        <v>145.9</v>
       </c>
       <c r="C3" t="n">
-        <v>147</v>
+        <v>145.9</v>
       </c>
       <c r="D3" t="n">
-        <v>147</v>
+        <v>145.9</v>
       </c>
       <c r="E3" t="n">
-        <v>145.7</v>
+        <v>145.9</v>
       </c>
       <c r="F3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G3" t="n">
-        <v>150.2550000000001</v>
+        <v>150.3966666666667</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,7 +503,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>146.7</v>
+        <v>145.7</v>
       </c>
       <c r="C4" t="n">
         <v>147</v>
@@ -512,13 +512,13 @@
         <v>147</v>
       </c>
       <c r="E4" t="n">
-        <v>146.7</v>
+        <v>145.7</v>
       </c>
       <c r="F4" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G4" t="n">
-        <v>150.0566666666667</v>
+        <v>150.2550000000001</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,7 +538,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>147</v>
+        <v>146.7</v>
       </c>
       <c r="C5" t="n">
         <v>147</v>
@@ -547,13 +547,13 @@
         <v>147</v>
       </c>
       <c r="E5" t="n">
-        <v>147</v>
+        <v>146.7</v>
       </c>
       <c r="F5" t="n">
-        <v>336</v>
+        <v>11</v>
       </c>
       <c r="G5" t="n">
-        <v>149.9233333333334</v>
+        <v>150.0566666666667</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>146.7</v>
+        <v>147</v>
       </c>
       <c r="C6" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D6" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E6" t="n">
-        <v>146.7</v>
+        <v>147</v>
       </c>
       <c r="F6" t="n">
-        <v>700</v>
+        <v>336</v>
       </c>
       <c r="G6" t="n">
-        <v>149.7616666666667</v>
+        <v>149.9233333333334</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>146.4</v>
+        <v>146.7</v>
       </c>
       <c r="C7" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D7" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E7" t="n">
-        <v>145.9</v>
+        <v>146.7</v>
       </c>
       <c r="F7" t="n">
-        <v>727</v>
+        <v>700</v>
       </c>
       <c r="G7" t="n">
-        <v>149.6616666666667</v>
+        <v>149.7616666666667</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,7 +643,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>149</v>
+        <v>146.4</v>
       </c>
       <c r="C8" t="n">
         <v>149</v>
@@ -652,13 +652,13 @@
         <v>149</v>
       </c>
       <c r="E8" t="n">
-        <v>149</v>
+        <v>145.9</v>
       </c>
       <c r="F8" t="n">
-        <v>20966.0828</v>
+        <v>727</v>
       </c>
       <c r="G8" t="n">
-        <v>149.5766666666667</v>
+        <v>149.6616666666667</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>149</v>
       </c>
       <c r="F9" t="n">
-        <v>5790.0684</v>
+        <v>20966.0828</v>
       </c>
       <c r="G9" t="n">
-        <v>149.51</v>
+        <v>149.5766666666667</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C10" t="n">
-        <v>141.5</v>
+        <v>149</v>
       </c>
       <c r="D10" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E10" t="n">
-        <v>141.5</v>
+        <v>149</v>
       </c>
       <c r="F10" t="n">
-        <v>237.9128</v>
+        <v>5790.0684</v>
       </c>
       <c r="G10" t="n">
-        <v>149.3183333333334</v>
+        <v>149.51</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C11" t="n">
-        <v>141.6</v>
+        <v>141.5</v>
       </c>
       <c r="D11" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E11" t="n">
-        <v>141.6</v>
+        <v>141.5</v>
       </c>
       <c r="F11" t="n">
-        <v>15.9908</v>
+        <v>237.9128</v>
       </c>
       <c r="G11" t="n">
-        <v>149.145</v>
+        <v>149.3183333333334</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>145.6</v>
+        <v>149</v>
       </c>
       <c r="C12" t="n">
-        <v>145.6</v>
+        <v>141.6</v>
       </c>
       <c r="D12" t="n">
-        <v>145.6</v>
+        <v>149</v>
       </c>
       <c r="E12" t="n">
-        <v>145.6</v>
+        <v>141.6</v>
       </c>
       <c r="F12" t="n">
-        <v>3.9889</v>
+        <v>15.9908</v>
       </c>
       <c r="G12" t="n">
-        <v>149.0383333333334</v>
+        <v>149.145</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>145.6</v>
       </c>
       <c r="C13" t="n">
-        <v>142.1</v>
+        <v>145.6</v>
       </c>
       <c r="D13" t="n">
         <v>145.6</v>
       </c>
       <c r="E13" t="n">
-        <v>142.1</v>
+        <v>145.6</v>
       </c>
       <c r="F13" t="n">
-        <v>14</v>
+        <v>3.9889</v>
       </c>
       <c r="G13" t="n">
-        <v>148.8850000000001</v>
+        <v>149.0383333333334</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -856,16 +856,16 @@
         <v>145.6</v>
       </c>
       <c r="C14" t="n">
-        <v>153.9</v>
+        <v>142.1</v>
       </c>
       <c r="D14" t="n">
-        <v>153.9</v>
+        <v>145.6</v>
       </c>
       <c r="E14" t="n">
-        <v>145.6</v>
+        <v>142.1</v>
       </c>
       <c r="F14" t="n">
-        <v>5372.56903976</v>
+        <v>14</v>
       </c>
       <c r="G14" t="n">
         <v>148.8850000000001</v>
@@ -888,19 +888,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>152</v>
+        <v>145.6</v>
       </c>
       <c r="C15" t="n">
-        <v>152</v>
+        <v>153.9</v>
       </c>
       <c r="D15" t="n">
-        <v>152</v>
+        <v>153.9</v>
       </c>
       <c r="E15" t="n">
-        <v>152</v>
+        <v>145.6</v>
       </c>
       <c r="F15" t="n">
-        <v>8.1096</v>
+        <v>5372.56903976</v>
       </c>
       <c r="G15" t="n">
         <v>148.8850000000001</v>
@@ -926,19 +926,19 @@
         <v>152</v>
       </c>
       <c r="C16" t="n">
-        <v>143.7</v>
+        <v>152</v>
       </c>
       <c r="D16" t="n">
         <v>152</v>
       </c>
       <c r="E16" t="n">
-        <v>143.7</v>
+        <v>152</v>
       </c>
       <c r="F16" t="n">
-        <v>16</v>
+        <v>8.1096</v>
       </c>
       <c r="G16" t="n">
-        <v>148.7583333333334</v>
+        <v>148.8850000000001</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -961,19 +961,19 @@
         <v>152</v>
       </c>
       <c r="C17" t="n">
-        <v>152</v>
+        <v>143.7</v>
       </c>
       <c r="D17" t="n">
         <v>152</v>
       </c>
       <c r="E17" t="n">
-        <v>152</v>
+        <v>143.7</v>
       </c>
       <c r="F17" t="n">
-        <v>3.8908</v>
+        <v>16</v>
       </c>
       <c r="G17" t="n">
-        <v>148.7700000000001</v>
+        <v>148.7583333333334</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -996,19 +996,19 @@
         <v>152</v>
       </c>
       <c r="C18" t="n">
-        <v>143.7</v>
+        <v>152</v>
       </c>
       <c r="D18" t="n">
         <v>152</v>
       </c>
       <c r="E18" t="n">
-        <v>143.7</v>
+        <v>152</v>
       </c>
       <c r="F18" t="n">
-        <v>10</v>
+        <v>3.8908</v>
       </c>
       <c r="G18" t="n">
-        <v>148.6000000000001</v>
+        <v>148.7700000000001</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>152</v>
       </c>
       <c r="C19" t="n">
-        <v>144.7</v>
+        <v>143.7</v>
       </c>
       <c r="D19" t="n">
         <v>152</v>
       </c>
       <c r="E19" t="n">
-        <v>144.7</v>
+        <v>143.7</v>
       </c>
       <c r="F19" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G19" t="n">
-        <v>148.4933333333335</v>
+        <v>148.6000000000001</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1066,19 +1066,19 @@
         <v>152</v>
       </c>
       <c r="C20" t="n">
-        <v>152</v>
+        <v>144.7</v>
       </c>
       <c r="D20" t="n">
         <v>152</v>
       </c>
       <c r="E20" t="n">
-        <v>152</v>
+        <v>144.7</v>
       </c>
       <c r="F20" t="n">
-        <v>3.8098</v>
+        <v>16</v>
       </c>
       <c r="G20" t="n">
-        <v>148.5083333333335</v>
+        <v>148.4933333333335</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>152</v>
       </c>
       <c r="E21" t="n">
-        <v>144.7</v>
+        <v>152</v>
       </c>
       <c r="F21" t="n">
-        <v>20.0012</v>
+        <v>3.8098</v>
       </c>
       <c r="G21" t="n">
-        <v>148.5250000000001</v>
+        <v>148.5083333333335</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1142,13 +1142,13 @@
         <v>152</v>
       </c>
       <c r="E22" t="n">
-        <v>152</v>
+        <v>144.7</v>
       </c>
       <c r="F22" t="n">
-        <v>3.2991</v>
+        <v>20.0012</v>
       </c>
       <c r="G22" t="n">
-        <v>148.5416666666668</v>
+        <v>148.5250000000001</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1171,19 +1171,19 @@
         <v>152</v>
       </c>
       <c r="C23" t="n">
-        <v>144.7</v>
+        <v>152</v>
       </c>
       <c r="D23" t="n">
         <v>152</v>
       </c>
       <c r="E23" t="n">
-        <v>144.7</v>
+        <v>152</v>
       </c>
       <c r="F23" t="n">
-        <v>8</v>
+        <v>3.2991</v>
       </c>
       <c r="G23" t="n">
-        <v>148.4350000000001</v>
+        <v>148.5416666666668</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1206,19 +1206,19 @@
         <v>152</v>
       </c>
       <c r="C24" t="n">
-        <v>152</v>
+        <v>144.7</v>
       </c>
       <c r="D24" t="n">
         <v>152</v>
       </c>
       <c r="E24" t="n">
-        <v>152</v>
+        <v>144.7</v>
       </c>
       <c r="F24" t="n">
-        <v>3.67</v>
+        <v>8</v>
       </c>
       <c r="G24" t="n">
-        <v>148.4683333333334</v>
+        <v>148.4350000000001</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>152</v>
       </c>
       <c r="E25" t="n">
-        <v>144.7</v>
+        <v>152</v>
       </c>
       <c r="F25" t="n">
-        <v>15.9999</v>
+        <v>3.67</v>
       </c>
       <c r="G25" t="n">
-        <v>148.5016666666668</v>
+        <v>148.4683333333334</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>148.1</v>
+        <v>152</v>
       </c>
       <c r="C26" t="n">
-        <v>145.7</v>
+        <v>152</v>
       </c>
       <c r="D26" t="n">
-        <v>148.1</v>
+        <v>152</v>
       </c>
       <c r="E26" t="n">
-        <v>145.7</v>
+        <v>144.7</v>
       </c>
       <c r="F26" t="n">
-        <v>1581.9718</v>
+        <v>15.9999</v>
       </c>
       <c r="G26" t="n">
-        <v>148.5116666666668</v>
+        <v>148.5016666666668</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>148.7</v>
+        <v>148.1</v>
       </c>
       <c r="C27" t="n">
-        <v>148.7</v>
+        <v>145.7</v>
       </c>
       <c r="D27" t="n">
-        <v>148.7</v>
+        <v>148.1</v>
       </c>
       <c r="E27" t="n">
-        <v>148.7</v>
+        <v>145.7</v>
       </c>
       <c r="F27" t="n">
-        <v>3.6809</v>
+        <v>1581.9718</v>
       </c>
       <c r="G27" t="n">
-        <v>148.4083333333335</v>
+        <v>148.5116666666668</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>147.6</v>
+        <v>148.7</v>
       </c>
       <c r="C28" t="n">
-        <v>147.6</v>
+        <v>148.7</v>
       </c>
       <c r="D28" t="n">
-        <v>147.6</v>
+        <v>148.7</v>
       </c>
       <c r="E28" t="n">
-        <v>147.6</v>
+        <v>148.7</v>
       </c>
       <c r="F28" t="n">
-        <v>233</v>
+        <v>3.6809</v>
       </c>
       <c r="G28" t="n">
-        <v>148.3566666666668</v>
+        <v>148.4083333333335</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>150.9</v>
+        <v>147.6</v>
       </c>
       <c r="C29" t="n">
-        <v>150.9</v>
+        <v>147.6</v>
       </c>
       <c r="D29" t="n">
-        <v>150.9</v>
+        <v>147.6</v>
       </c>
       <c r="E29" t="n">
-        <v>143.7</v>
+        <v>147.6</v>
       </c>
       <c r="F29" t="n">
-        <v>27.9089</v>
+        <v>233</v>
       </c>
       <c r="G29" t="n">
-        <v>148.3050000000001</v>
+        <v>148.3566666666668</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>148.7</v>
+        <v>150.9</v>
       </c>
       <c r="C30" t="n">
-        <v>147.7</v>
+        <v>150.9</v>
       </c>
       <c r="D30" t="n">
-        <v>148.7</v>
+        <v>150.9</v>
       </c>
       <c r="E30" t="n">
-        <v>147.7</v>
+        <v>143.7</v>
       </c>
       <c r="F30" t="n">
-        <v>2010.5098</v>
+        <v>27.9089</v>
       </c>
       <c r="G30" t="n">
-        <v>148.2516666666668</v>
+        <v>148.3050000000001</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>150.9</v>
+        <v>148.7</v>
       </c>
       <c r="C31" t="n">
-        <v>149.9</v>
+        <v>147.7</v>
       </c>
       <c r="D31" t="n">
-        <v>150.9</v>
+        <v>148.7</v>
       </c>
       <c r="E31" t="n">
-        <v>143.7</v>
+        <v>147.7</v>
       </c>
       <c r="F31" t="n">
-        <v>18</v>
+        <v>2010.5098</v>
       </c>
       <c r="G31" t="n">
-        <v>148.3166666666668</v>
+        <v>148.2516666666668</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>147.7</v>
+        <v>150.9</v>
       </c>
       <c r="C32" t="n">
-        <v>143.8</v>
+        <v>149.9</v>
       </c>
       <c r="D32" t="n">
-        <v>151</v>
+        <v>150.9</v>
       </c>
       <c r="E32" t="n">
         <v>143.7</v>
       </c>
       <c r="F32" t="n">
-        <v>21.6544</v>
+        <v>18</v>
       </c>
       <c r="G32" t="n">
-        <v>148.2433333333335</v>
+        <v>148.3166666666668</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>147.9</v>
+        <v>147.7</v>
       </c>
       <c r="C33" t="n">
-        <v>147.9</v>
+        <v>143.8</v>
       </c>
       <c r="D33" t="n">
-        <v>147.9</v>
+        <v>151</v>
       </c>
       <c r="E33" t="n">
-        <v>147.9</v>
+        <v>143.7</v>
       </c>
       <c r="F33" t="n">
-        <v>3.5669</v>
+        <v>21.6544</v>
       </c>
       <c r="G33" t="n">
-        <v>148.2916666666668</v>
+        <v>148.2433333333335</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1556,19 +1556,19 @@
         <v>147.9</v>
       </c>
       <c r="C34" t="n">
-        <v>143.7</v>
+        <v>147.9</v>
       </c>
       <c r="D34" t="n">
-        <v>148.5</v>
+        <v>147.9</v>
       </c>
       <c r="E34" t="n">
-        <v>143.7</v>
+        <v>147.9</v>
       </c>
       <c r="F34" t="n">
-        <v>152</v>
+        <v>3.5669</v>
       </c>
       <c r="G34" t="n">
-        <v>148.1650000000001</v>
+        <v>148.2916666666668</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1591,19 +1591,19 @@
         <v>147.9</v>
       </c>
       <c r="C35" t="n">
-        <v>147.9</v>
+        <v>143.7</v>
       </c>
       <c r="D35" t="n">
-        <v>147.9</v>
+        <v>148.5</v>
       </c>
       <c r="E35" t="n">
-        <v>147.9</v>
+        <v>143.7</v>
       </c>
       <c r="F35" t="n">
-        <v>3.78</v>
+        <v>152</v>
       </c>
       <c r="G35" t="n">
-        <v>148.2616666666668</v>
+        <v>148.1650000000001</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1626,19 +1626,19 @@
         <v>147.9</v>
       </c>
       <c r="C36" t="n">
-        <v>148</v>
+        <v>147.9</v>
       </c>
       <c r="D36" t="n">
-        <v>148</v>
+        <v>147.9</v>
       </c>
       <c r="E36" t="n">
         <v>147.9</v>
       </c>
       <c r="F36" t="n">
-        <v>2357.2797</v>
+        <v>3.78</v>
       </c>
       <c r="G36" t="n">
-        <v>148.2150000000001</v>
+        <v>148.2616666666668</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>148.6</v>
+        <v>147.9</v>
       </c>
       <c r="C37" t="n">
-        <v>148.6</v>
+        <v>148</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6</v>
+        <v>148</v>
       </c>
       <c r="E37" t="n">
-        <v>148.6</v>
+        <v>147.9</v>
       </c>
       <c r="F37" t="n">
-        <v>472.4663</v>
+        <v>2357.2797</v>
       </c>
       <c r="G37" t="n">
-        <v>148.3233333333335</v>
+        <v>148.2150000000001</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1705,10 +1705,10 @@
         <v>148.6</v>
       </c>
       <c r="F38" t="n">
-        <v>301.6493</v>
+        <v>472.4663</v>
       </c>
       <c r="G38" t="n">
-        <v>148.4166666666668</v>
+        <v>148.3233333333335</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>149.9</v>
+        <v>148.6</v>
       </c>
       <c r="C39" t="n">
-        <v>150</v>
+        <v>148.6</v>
       </c>
       <c r="D39" t="n">
-        <v>150</v>
+        <v>148.6</v>
       </c>
       <c r="E39" t="n">
-        <v>149.9</v>
+        <v>148.6</v>
       </c>
       <c r="F39" t="n">
-        <v>2573.2263</v>
+        <v>301.6493</v>
       </c>
       <c r="G39" t="n">
-        <v>148.3833333333335</v>
+        <v>148.4166666666668</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
+        <v>149.9</v>
+      </c>
+      <c r="C40" t="n">
         <v>150</v>
       </c>
-      <c r="C40" t="n">
-        <v>150.9</v>
-      </c>
       <c r="D40" t="n">
-        <v>150.9</v>
+        <v>150</v>
       </c>
       <c r="E40" t="n">
-        <v>150</v>
+        <v>149.9</v>
       </c>
       <c r="F40" t="n">
-        <v>6351.5289</v>
+        <v>2573.2263</v>
       </c>
       <c r="G40" t="n">
-        <v>148.3500000000002</v>
+        <v>148.3833333333335</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C41" t="n">
-        <v>151</v>
+        <v>150.9</v>
       </c>
       <c r="D41" t="n">
-        <v>151</v>
+        <v>150.9</v>
       </c>
       <c r="E41" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F41" t="n">
-        <v>719.1695</v>
+        <v>6351.5289</v>
       </c>
       <c r="G41" t="n">
-        <v>148.3166666666668</v>
+        <v>148.3500000000002</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1845,10 +1845,10 @@
         <v>151</v>
       </c>
       <c r="F42" t="n">
-        <v>1035.998</v>
+        <v>719.1695</v>
       </c>
       <c r="G42" t="n">
-        <v>148.3000000000002</v>
+        <v>148.3166666666668</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>150.9</v>
+        <v>151</v>
       </c>
       <c r="C43" t="n">
-        <v>150.9</v>
+        <v>151</v>
       </c>
       <c r="D43" t="n">
-        <v>150.9</v>
+        <v>151</v>
       </c>
       <c r="E43" t="n">
-        <v>150.9</v>
+        <v>151</v>
       </c>
       <c r="F43" t="n">
-        <v>7.3469</v>
+        <v>1035.998</v>
       </c>
       <c r="G43" t="n">
-        <v>148.2666666666668</v>
+        <v>148.3000000000002</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>150.9</v>
       </c>
       <c r="F44" t="n">
-        <v>83.82980000000001</v>
+        <v>7.3469</v>
       </c>
       <c r="G44" t="n">
-        <v>148.2366666666668</v>
+        <v>148.2666666666668</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>145.7</v>
+        <v>150.9</v>
       </c>
       <c r="C45" t="n">
-        <v>142.1</v>
+        <v>150.9</v>
       </c>
       <c r="D45" t="n">
-        <v>145.7</v>
+        <v>150.9</v>
       </c>
       <c r="E45" t="n">
-        <v>142.1</v>
+        <v>150.9</v>
       </c>
       <c r="F45" t="n">
-        <v>5372.5691</v>
+        <v>83.82980000000001</v>
       </c>
       <c r="G45" t="n">
-        <v>148.0666666666668</v>
+        <v>148.2366666666668</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>143.3</v>
+        <v>145.7</v>
       </c>
       <c r="C46" t="n">
-        <v>146.6</v>
+        <v>142.1</v>
       </c>
       <c r="D46" t="n">
-        <v>146.6</v>
+        <v>145.7</v>
       </c>
       <c r="E46" t="n">
-        <v>142.3</v>
+        <v>142.1</v>
       </c>
       <c r="F46" t="n">
-        <v>1927.2109</v>
+        <v>5372.5691</v>
       </c>
       <c r="G46" t="n">
-        <v>148.0100000000002</v>
+        <v>148.0666666666668</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>147.7</v>
+        <v>143.3</v>
       </c>
       <c r="C47" t="n">
-        <v>146.7</v>
+        <v>146.6</v>
       </c>
       <c r="D47" t="n">
-        <v>147.7</v>
+        <v>146.6</v>
       </c>
       <c r="E47" t="n">
-        <v>146.7</v>
+        <v>142.3</v>
       </c>
       <c r="F47" t="n">
-        <v>17981.0959</v>
+        <v>1927.2109</v>
       </c>
       <c r="G47" t="n">
-        <v>147.9566666666668</v>
+        <v>148.0100000000002</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>142.3</v>
+        <v>147.7</v>
       </c>
       <c r="C48" t="n">
-        <v>142.3</v>
+        <v>146.7</v>
       </c>
       <c r="D48" t="n">
-        <v>142.3</v>
+        <v>147.7</v>
       </c>
       <c r="E48" t="n">
-        <v>142.3</v>
+        <v>146.7</v>
       </c>
       <c r="F48" t="n">
-        <v>884.2729</v>
+        <v>17981.0959</v>
       </c>
       <c r="G48" t="n">
-        <v>147.7916666666668</v>
+        <v>147.9566666666668</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>142.1</v>
+        <v>142.3</v>
       </c>
       <c r="C49" t="n">
-        <v>142.1</v>
+        <v>142.3</v>
       </c>
       <c r="D49" t="n">
-        <v>142.1</v>
+        <v>142.3</v>
       </c>
       <c r="E49" t="n">
-        <v>142.1</v>
+        <v>142.3</v>
       </c>
       <c r="F49" t="n">
-        <v>721.7712</v>
+        <v>884.2729</v>
       </c>
       <c r="G49" t="n">
-        <v>147.6566666666668</v>
+        <v>147.7916666666668</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>142.1</v>
       </c>
       <c r="F50" t="n">
-        <v>2583.4435</v>
+        <v>721.7712</v>
       </c>
       <c r="G50" t="n">
-        <v>147.5233333333335</v>
+        <v>147.6566666666668</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>146</v>
+        <v>142.1</v>
       </c>
       <c r="C51" t="n">
-        <v>146</v>
+        <v>142.1</v>
       </c>
       <c r="D51" t="n">
-        <v>146</v>
+        <v>142.1</v>
       </c>
       <c r="E51" t="n">
-        <v>146</v>
+        <v>142.1</v>
       </c>
       <c r="F51" t="n">
-        <v>4</v>
+        <v>2583.4435</v>
       </c>
       <c r="G51" t="n">
-        <v>147.5566666666668</v>
+        <v>147.5233333333335</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>142.4</v>
+        <v>146</v>
       </c>
       <c r="C52" t="n">
-        <v>142.3</v>
+        <v>146</v>
       </c>
       <c r="D52" t="n">
-        <v>142.4</v>
+        <v>146</v>
       </c>
       <c r="E52" t="n">
-        <v>142.3</v>
+        <v>146</v>
       </c>
       <c r="F52" t="n">
-        <v>4136.108</v>
+        <v>4</v>
       </c>
       <c r="G52" t="n">
-        <v>147.3800000000001</v>
+        <v>147.5566666666668</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2230,10 +2230,10 @@
         <v>142.3</v>
       </c>
       <c r="F53" t="n">
-        <v>1449.5242</v>
+        <v>4136.108</v>
       </c>
       <c r="G53" t="n">
-        <v>147.2250000000001</v>
+        <v>147.3800000000001</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2256,19 +2256,19 @@
         <v>142.4</v>
       </c>
       <c r="C54" t="n">
-        <v>142.4</v>
+        <v>142.3</v>
       </c>
       <c r="D54" t="n">
         <v>142.4</v>
       </c>
       <c r="E54" t="n">
-        <v>142.4</v>
+        <v>142.3</v>
       </c>
       <c r="F54" t="n">
-        <v>1000</v>
+        <v>1449.5242</v>
       </c>
       <c r="G54" t="n">
-        <v>147.0716666666668</v>
+        <v>147.2250000000001</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>142.3</v>
+        <v>142.4</v>
       </c>
       <c r="C55" t="n">
-        <v>142.3</v>
+        <v>142.4</v>
       </c>
       <c r="D55" t="n">
-        <v>142.3</v>
+        <v>142.4</v>
       </c>
       <c r="E55" t="n">
-        <v>142.3</v>
+        <v>142.4</v>
       </c>
       <c r="F55" t="n">
-        <v>2730.6006</v>
+        <v>1000</v>
       </c>
       <c r="G55" t="n">
-        <v>146.9166666666668</v>
+        <v>147.0716666666668</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>143</v>
+        <v>142.3</v>
       </c>
       <c r="C56" t="n">
-        <v>143</v>
+        <v>142.3</v>
       </c>
       <c r="D56" t="n">
-        <v>143</v>
+        <v>142.3</v>
       </c>
       <c r="E56" t="n">
-        <v>143</v>
+        <v>142.3</v>
       </c>
       <c r="F56" t="n">
-        <v>327.9006</v>
+        <v>2730.6006</v>
       </c>
       <c r="G56" t="n">
-        <v>146.9466666666667</v>
+        <v>146.9166666666668</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>142.3</v>
+        <v>143</v>
       </c>
       <c r="C57" t="n">
-        <v>142.3</v>
+        <v>143</v>
       </c>
       <c r="D57" t="n">
-        <v>142.3</v>
+        <v>143</v>
       </c>
       <c r="E57" t="n">
-        <v>142.3</v>
+        <v>143</v>
       </c>
       <c r="F57" t="n">
-        <v>947.6273</v>
+        <v>327.9006</v>
       </c>
       <c r="G57" t="n">
-        <v>146.9633333333334</v>
+        <v>146.9466666666667</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>142.1</v>
+        <v>142.3</v>
       </c>
       <c r="C58" t="n">
-        <v>142.1</v>
+        <v>142.3</v>
       </c>
       <c r="D58" t="n">
-        <v>142.1</v>
+        <v>142.3</v>
       </c>
       <c r="E58" t="n">
-        <v>142.1</v>
+        <v>142.3</v>
       </c>
       <c r="F58" t="n">
-        <v>1583.8256</v>
+        <v>947.6273</v>
       </c>
       <c r="G58" t="n">
-        <v>146.9033333333334</v>
+        <v>146.9633333333334</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>141.7</v>
+        <v>142.1</v>
       </c>
       <c r="C59" t="n">
-        <v>141.7</v>
+        <v>142.1</v>
       </c>
       <c r="D59" t="n">
-        <v>141.7</v>
+        <v>142.1</v>
       </c>
       <c r="E59" t="n">
-        <v>141.7</v>
+        <v>142.1</v>
       </c>
       <c r="F59" t="n">
-        <v>551.9638</v>
+        <v>1583.8256</v>
       </c>
       <c r="G59" t="n">
-        <v>146.8350000000001</v>
+        <v>146.9033333333334</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2466,19 +2466,19 @@
         <v>141.7</v>
       </c>
       <c r="C60" t="n">
-        <v>141.3</v>
+        <v>141.7</v>
       </c>
       <c r="D60" t="n">
         <v>141.7</v>
       </c>
       <c r="E60" t="n">
-        <v>141.3</v>
+        <v>141.7</v>
       </c>
       <c r="F60" t="n">
-        <v>3829.1975</v>
+        <v>551.9638</v>
       </c>
       <c r="G60" t="n">
-        <v>146.7600000000001</v>
+        <v>146.8350000000001</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
+        <v>141.7</v>
+      </c>
+      <c r="C61" t="n">
         <v>141.3</v>
       </c>
-      <c r="C61" t="n">
-        <v>141.2</v>
-      </c>
       <c r="D61" t="n">
+        <v>141.7</v>
+      </c>
+      <c r="E61" t="n">
         <v>141.3</v>
       </c>
-      <c r="E61" t="n">
-        <v>141.2</v>
-      </c>
       <c r="F61" t="n">
-        <v>3112.4519</v>
+        <v>3829.1975</v>
       </c>
       <c r="G61" t="n">
-        <v>146.6650000000001</v>
+        <v>146.7600000000001</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>141.2</v>
+        <v>141.3</v>
       </c>
       <c r="C62" t="n">
         <v>141.2</v>
       </c>
       <c r="D62" t="n">
-        <v>141.2</v>
+        <v>141.3</v>
       </c>
       <c r="E62" t="n">
         <v>141.2</v>
       </c>
       <c r="F62" t="n">
-        <v>1705.6744</v>
+        <v>3112.4519</v>
       </c>
       <c r="G62" t="n">
-        <v>146.5866666666668</v>
+        <v>146.6650000000001</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2580,10 +2580,10 @@
         <v>141.2</v>
       </c>
       <c r="F63" t="n">
-        <v>234.3453</v>
+        <v>1705.6744</v>
       </c>
       <c r="G63" t="n">
-        <v>146.4900000000002</v>
+        <v>146.5866666666668</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,35 +2603,31 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>136.2</v>
+        <v>141.2</v>
       </c>
       <c r="C64" t="n">
-        <v>136.2</v>
+        <v>141.2</v>
       </c>
       <c r="D64" t="n">
-        <v>136.2</v>
+        <v>141.2</v>
       </c>
       <c r="E64" t="n">
-        <v>136.2</v>
+        <v>141.2</v>
       </c>
       <c r="F64" t="n">
-        <v>3198.8671</v>
+        <v>234.3453</v>
       </c>
       <c r="G64" t="n">
-        <v>146.3100000000001</v>
+        <v>146.4900000000002</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>141.2</v>
-      </c>
-      <c r="K64" t="n">
-        <v>141.2</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
@@ -2642,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>136.6</v>
+        <v>136.2</v>
       </c>
       <c r="C65" t="n">
-        <v>136.6</v>
+        <v>136.2</v>
       </c>
       <c r="D65" t="n">
-        <v>136.6</v>
+        <v>136.2</v>
       </c>
       <c r="E65" t="n">
-        <v>136.6</v>
+        <v>136.2</v>
       </c>
       <c r="F65" t="n">
-        <v>3483.2893</v>
+        <v>3198.8671</v>
       </c>
       <c r="G65" t="n">
-        <v>146.1366666666668</v>
+        <v>146.3100000000001</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2666,14 +2662,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>141.2</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2683,419 +2673,357 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="C66" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="D66" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="E66" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="F66" t="n">
+        <v>3483.2893</v>
+      </c>
+      <c r="G66" t="n">
+        <v>146.1366666666668</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
         <v>137.7</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C67" t="n">
         <v>136.7</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D67" t="n">
         <v>137.7</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E67" t="n">
         <v>136.7</v>
       </c>
-      <c r="F66" t="n">
+      <c r="F67" t="n">
         <v>12</v>
       </c>
-      <c r="G66" t="n">
+      <c r="G67" t="n">
         <v>145.9483333333335</v>
       </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="n">
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>141.8</v>
+      </c>
+      <c r="C68" t="n">
+        <v>141.8</v>
+      </c>
+      <c r="D68" t="n">
+        <v>141.8</v>
+      </c>
+      <c r="E68" t="n">
+        <v>141.8</v>
+      </c>
+      <c r="F68" t="n">
+        <v>384</v>
+      </c>
+      <c r="G68" t="n">
+        <v>145.8283333333335</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>142</v>
+      </c>
+      <c r="C69" t="n">
+        <v>137.6</v>
+      </c>
+      <c r="D69" t="n">
+        <v>142</v>
+      </c>
+      <c r="E69" t="n">
+        <v>137.6</v>
+      </c>
+      <c r="F69" t="n">
+        <v>5050.8311</v>
+      </c>
+      <c r="G69" t="n">
+        <v>145.6383333333335</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>136.3</v>
+      </c>
+      <c r="C70" t="n">
+        <v>136.3</v>
+      </c>
+      <c r="D70" t="n">
+        <v>136.3</v>
+      </c>
+      <c r="E70" t="n">
+        <v>136.3</v>
+      </c>
+      <c r="F70" t="n">
+        <v>784.8547</v>
+      </c>
+      <c r="G70" t="n">
+        <v>145.4266666666668</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>137.6</v>
+      </c>
+      <c r="C71" t="n">
+        <v>138</v>
+      </c>
+      <c r="D71" t="n">
+        <v>138</v>
+      </c>
+      <c r="E71" t="n">
+        <v>137.6</v>
+      </c>
+      <c r="F71" t="n">
+        <v>5788.9025</v>
+      </c>
+      <c r="G71" t="n">
+        <v>145.3683333333335</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>138</v>
+      </c>
+      <c r="C72" t="n">
+        <v>138</v>
+      </c>
+      <c r="D72" t="n">
+        <v>138</v>
+      </c>
+      <c r="E72" t="n">
+        <v>138</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1265.9897</v>
+      </c>
+      <c r="G72" t="n">
+        <v>145.3083333333335</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
         <v>136.6</v>
       </c>
-      <c r="K66" t="n">
-        <v>141.2</v>
-      </c>
-      <c r="L66" t="inlineStr">
+      <c r="C73" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="D73" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="E73" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1343.2549</v>
+      </c>
+      <c r="G73" t="n">
+        <v>145.1583333333335</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>138</v>
+      </c>
+      <c r="C74" t="n">
+        <v>138</v>
+      </c>
+      <c r="D74" t="n">
+        <v>138</v>
+      </c>
+      <c r="E74" t="n">
+        <v>138</v>
+      </c>
+      <c r="F74" t="n">
+        <v>1236.3853</v>
+      </c>
+      <c r="G74" t="n">
+        <v>145.0900000000001</v>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="K74" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>136.7</v>
+      </c>
+      <c r="C75" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="D75" t="n">
+        <v>136.7</v>
+      </c>
+      <c r="E75" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="F75" t="n">
+        <v>5792.9077</v>
+      </c>
+      <c r="G75" t="n">
+        <v>144.8016666666668</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="L75" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>141.8</v>
-      </c>
-      <c r="C67" t="n">
-        <v>141.8</v>
-      </c>
-      <c r="D67" t="n">
-        <v>141.8</v>
-      </c>
-      <c r="E67" t="n">
-        <v>141.8</v>
-      </c>
-      <c r="F67" t="n">
-        <v>384</v>
-      </c>
-      <c r="G67" t="n">
-        <v>145.8283333333335</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="n">
-        <v>136.7</v>
-      </c>
-      <c r="K67" t="n">
-        <v>141.2</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>142</v>
-      </c>
-      <c r="C68" t="n">
-        <v>137.6</v>
-      </c>
-      <c r="D68" t="n">
-        <v>142</v>
-      </c>
-      <c r="E68" t="n">
-        <v>137.6</v>
-      </c>
-      <c r="F68" t="n">
-        <v>5050.8311</v>
-      </c>
-      <c r="G68" t="n">
-        <v>145.6383333333335</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="n">
-        <v>141.8</v>
-      </c>
-      <c r="K68" t="n">
-        <v>141.2</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>136.3</v>
-      </c>
-      <c r="C69" t="n">
-        <v>136.3</v>
-      </c>
-      <c r="D69" t="n">
-        <v>136.3</v>
-      </c>
-      <c r="E69" t="n">
-        <v>136.3</v>
-      </c>
-      <c r="F69" t="n">
-        <v>784.8547</v>
-      </c>
-      <c r="G69" t="n">
-        <v>145.4266666666668</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>137.6</v>
-      </c>
-      <c r="K69" t="n">
-        <v>141.2</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>137.6</v>
-      </c>
-      <c r="C70" t="n">
-        <v>138</v>
-      </c>
-      <c r="D70" t="n">
-        <v>138</v>
-      </c>
-      <c r="E70" t="n">
-        <v>137.6</v>
-      </c>
-      <c r="F70" t="n">
-        <v>5788.9025</v>
-      </c>
-      <c r="G70" t="n">
-        <v>145.3683333333335</v>
-      </c>
-      <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="n">
-        <v>136.3</v>
-      </c>
-      <c r="K70" t="n">
-        <v>141.2</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>138</v>
-      </c>
-      <c r="C71" t="n">
-        <v>138</v>
-      </c>
-      <c r="D71" t="n">
-        <v>138</v>
-      </c>
-      <c r="E71" t="n">
-        <v>138</v>
-      </c>
-      <c r="F71" t="n">
-        <v>1265.9897</v>
-      </c>
-      <c r="G71" t="n">
-        <v>145.3083333333335</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="n">
-        <v>138</v>
-      </c>
-      <c r="K71" t="n">
-        <v>141.2</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>136.6</v>
-      </c>
-      <c r="C72" t="n">
-        <v>136.6</v>
-      </c>
-      <c r="D72" t="n">
-        <v>136.6</v>
-      </c>
-      <c r="E72" t="n">
-        <v>136.6</v>
-      </c>
-      <c r="F72" t="n">
-        <v>1343.2549</v>
-      </c>
-      <c r="G72" t="n">
-        <v>145.1583333333335</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>141.2</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>138</v>
-      </c>
-      <c r="C73" t="n">
-        <v>138</v>
-      </c>
-      <c r="D73" t="n">
-        <v>138</v>
-      </c>
-      <c r="E73" t="n">
-        <v>138</v>
-      </c>
-      <c r="F73" t="n">
-        <v>1236.3853</v>
-      </c>
-      <c r="G73" t="n">
-        <v>145.0900000000001</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>141.2</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>136.7</v>
-      </c>
-      <c r="C74" t="n">
-        <v>136.6</v>
-      </c>
-      <c r="D74" t="n">
-        <v>136.7</v>
-      </c>
-      <c r="E74" t="n">
-        <v>136.6</v>
-      </c>
-      <c r="F74" t="n">
-        <v>5792.9077</v>
-      </c>
-      <c r="G74" t="n">
-        <v>144.8016666666668</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>141.2</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>141.8</v>
-      </c>
-      <c r="C75" t="n">
-        <v>138</v>
-      </c>
-      <c r="D75" t="n">
-        <v>141.8</v>
-      </c>
-      <c r="E75" t="n">
-        <v>138</v>
-      </c>
-      <c r="F75" t="n">
-        <v>92.46380000000001</v>
-      </c>
-      <c r="G75" t="n">
-        <v>144.5683333333335</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>141.2</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3105,32 +3033,34 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
+        <v>141.8</v>
+      </c>
+      <c r="C76" t="n">
+        <v>138</v>
+      </c>
+      <c r="D76" t="n">
+        <v>141.8</v>
+      </c>
+      <c r="E76" t="n">
+        <v>138</v>
+      </c>
+      <c r="F76" t="n">
+        <v>92.46380000000001</v>
+      </c>
+      <c r="G76" t="n">
+        <v>144.5683333333335</v>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
         <v>136.6</v>
       </c>
-      <c r="C76" t="n">
+      <c r="K76" t="n">
         <v>136.6</v>
-      </c>
-      <c r="D76" t="n">
-        <v>136.6</v>
-      </c>
-      <c r="E76" t="n">
-        <v>136.6</v>
-      </c>
-      <c r="F76" t="n">
-        <v>615.8954</v>
-      </c>
-      <c r="G76" t="n">
-        <v>144.4500000000002</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>141.2</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3146,22 +3076,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>140.9</v>
+        <v>136.6</v>
       </c>
       <c r="C77" t="n">
-        <v>140.9</v>
+        <v>136.6</v>
       </c>
       <c r="D77" t="n">
-        <v>140.9</v>
+        <v>136.6</v>
       </c>
       <c r="E77" t="n">
-        <v>140.9</v>
+        <v>136.6</v>
       </c>
       <c r="F77" t="n">
-        <v>10</v>
+        <v>615.8954</v>
       </c>
       <c r="G77" t="n">
-        <v>144.2650000000002</v>
+        <v>144.4500000000002</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3171,7 +3101,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>141.2</v>
+        <v>136.6</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3187,22 +3117,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>136.6</v>
+        <v>140.9</v>
       </c>
       <c r="C78" t="n">
-        <v>136.6</v>
+        <v>140.9</v>
       </c>
       <c r="D78" t="n">
-        <v>136.6</v>
+        <v>140.9</v>
       </c>
       <c r="E78" t="n">
-        <v>136.6</v>
+        <v>140.9</v>
       </c>
       <c r="F78" t="n">
-        <v>3.6884</v>
+        <v>10</v>
       </c>
       <c r="G78" t="n">
-        <v>144.1466666666668</v>
+        <v>144.2650000000002</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3212,7 +3142,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>141.2</v>
+        <v>136.6</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3240,10 +3170,10 @@
         <v>136.6</v>
       </c>
       <c r="F79" t="n">
-        <v>548.625</v>
+        <v>3.6884</v>
       </c>
       <c r="G79" t="n">
-        <v>144.0116666666668</v>
+        <v>144.1466666666668</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3253,7 +3183,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>141.2</v>
+        <v>136.6</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3269,22 +3199,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>138.1</v>
+        <v>136.6</v>
       </c>
       <c r="C80" t="n">
-        <v>139.9</v>
+        <v>136.6</v>
       </c>
       <c r="D80" t="n">
-        <v>139.9</v>
+        <v>136.6</v>
       </c>
       <c r="E80" t="n">
-        <v>136.9</v>
+        <v>136.6</v>
       </c>
       <c r="F80" t="n">
-        <v>1415.9897</v>
+        <v>548.625</v>
       </c>
       <c r="G80" t="n">
-        <v>143.8100000000001</v>
+        <v>144.0116666666668</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3294,7 +3224,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>141.2</v>
+        <v>136.6</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3310,22 +3240,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>137.1</v>
+        <v>138.1</v>
       </c>
       <c r="C81" t="n">
-        <v>136.9</v>
+        <v>139.9</v>
       </c>
       <c r="D81" t="n">
-        <v>137.1</v>
+        <v>139.9</v>
       </c>
       <c r="E81" t="n">
         <v>136.9</v>
       </c>
       <c r="F81" t="n">
-        <v>17495.8684</v>
+        <v>1415.9897</v>
       </c>
       <c r="G81" t="n">
-        <v>143.5583333333335</v>
+        <v>143.8100000000001</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3335,7 +3265,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>141.2</v>
+        <v>136.6</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3351,22 +3281,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>139.5</v>
+        <v>137.1</v>
       </c>
       <c r="C82" t="n">
-        <v>139.5</v>
+        <v>136.9</v>
       </c>
       <c r="D82" t="n">
-        <v>139.5</v>
+        <v>137.1</v>
       </c>
       <c r="E82" t="n">
-        <v>139.5</v>
+        <v>136.9</v>
       </c>
       <c r="F82" t="n">
-        <v>2096.922</v>
+        <v>17495.8684</v>
       </c>
       <c r="G82" t="n">
-        <v>143.3500000000001</v>
+        <v>143.5583333333335</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3376,7 +3306,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>141.2</v>
+        <v>136.6</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3392,22 +3322,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>139.9</v>
+        <v>139.5</v>
       </c>
       <c r="C83" t="n">
-        <v>139.9</v>
+        <v>139.5</v>
       </c>
       <c r="D83" t="n">
-        <v>139.9</v>
+        <v>139.5</v>
       </c>
       <c r="E83" t="n">
-        <v>139.8</v>
+        <v>139.5</v>
       </c>
       <c r="F83" t="n">
-        <v>4384.448</v>
+        <v>2096.922</v>
       </c>
       <c r="G83" t="n">
-        <v>143.2700000000001</v>
+        <v>143.3500000000001</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3417,7 +3347,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>141.2</v>
+        <v>136.6</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -3433,22 +3363,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>139.8</v>
+        <v>139.9</v>
       </c>
       <c r="C84" t="n">
-        <v>140</v>
+        <v>139.9</v>
       </c>
       <c r="D84" t="n">
-        <v>140</v>
+        <v>139.9</v>
       </c>
       <c r="E84" t="n">
         <v>139.8</v>
       </c>
       <c r="F84" t="n">
-        <v>6840.905</v>
+        <v>4384.448</v>
       </c>
       <c r="G84" t="n">
-        <v>143.0700000000001</v>
+        <v>143.2700000000001</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3458,7 +3388,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>141.2</v>
+        <v>136.6</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -3474,22 +3404,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>140.8</v>
+        <v>139.8</v>
       </c>
       <c r="C85" t="n">
-        <v>140.9</v>
+        <v>140</v>
       </c>
       <c r="D85" t="n">
-        <v>140.9</v>
+        <v>140</v>
       </c>
       <c r="E85" t="n">
-        <v>140.8</v>
+        <v>139.8</v>
       </c>
       <c r="F85" t="n">
-        <v>3000</v>
+        <v>6840.905</v>
       </c>
       <c r="G85" t="n">
-        <v>142.8850000000001</v>
+        <v>143.0700000000001</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3499,7 +3429,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>141.2</v>
+        <v>136.6</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -3515,22 +3445,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
+        <v>140.8</v>
+      </c>
+      <c r="C86" t="n">
         <v>140.9</v>
-      </c>
-      <c r="C86" t="n">
-        <v>140</v>
       </c>
       <c r="D86" t="n">
         <v>140.9</v>
       </c>
       <c r="E86" t="n">
-        <v>140</v>
+        <v>140.8</v>
       </c>
       <c r="F86" t="n">
-        <v>1606.4054</v>
+        <v>3000</v>
       </c>
       <c r="G86" t="n">
-        <v>142.7900000000001</v>
+        <v>142.8850000000001</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3540,7 +3470,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>141.2</v>
+        <v>136.6</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -3556,22 +3486,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>140.1</v>
+        <v>140.9</v>
       </c>
       <c r="C87" t="n">
-        <v>140.1</v>
+        <v>140</v>
       </c>
       <c r="D87" t="n">
-        <v>140.1</v>
+        <v>140.9</v>
       </c>
       <c r="E87" t="n">
-        <v>140.1</v>
+        <v>140</v>
       </c>
       <c r="F87" t="n">
-        <v>1206.2047</v>
+        <v>1606.4054</v>
       </c>
       <c r="G87" t="n">
-        <v>142.6466666666667</v>
+        <v>142.7900000000001</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3581,7 +3511,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>141.2</v>
+        <v>136.6</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -3597,22 +3527,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>140</v>
+        <v>140.1</v>
       </c>
       <c r="C88" t="n">
-        <v>140</v>
+        <v>140.1</v>
       </c>
       <c r="D88" t="n">
-        <v>140</v>
+        <v>140.1</v>
       </c>
       <c r="E88" t="n">
-        <v>140</v>
+        <v>140.1</v>
       </c>
       <c r="F88" t="n">
-        <v>1443.7855</v>
+        <v>1206.2047</v>
       </c>
       <c r="G88" t="n">
-        <v>142.5200000000001</v>
+        <v>142.6466666666667</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3622,7 +3552,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>141.2</v>
+        <v>136.6</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -3638,22 +3568,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>139.1</v>
+        <v>140</v>
       </c>
       <c r="C89" t="n">
-        <v>138.1</v>
+        <v>140</v>
       </c>
       <c r="D89" t="n">
-        <v>139.1</v>
+        <v>140</v>
       </c>
       <c r="E89" t="n">
-        <v>138.1</v>
+        <v>140</v>
       </c>
       <c r="F89" t="n">
-        <v>1801.0868</v>
+        <v>1443.7855</v>
       </c>
       <c r="G89" t="n">
-        <v>142.3066666666668</v>
+        <v>142.5200000000001</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3663,7 +3593,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>141.2</v>
+        <v>136.6</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -3679,22 +3609,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>138.2</v>
+        <v>139.1</v>
       </c>
       <c r="C90" t="n">
-        <v>138.2</v>
+        <v>138.1</v>
       </c>
       <c r="D90" t="n">
-        <v>138.2</v>
+        <v>139.1</v>
       </c>
       <c r="E90" t="n">
-        <v>138.2</v>
+        <v>138.1</v>
       </c>
       <c r="F90" t="n">
-        <v>1169.8378</v>
+        <v>1801.0868</v>
       </c>
       <c r="G90" t="n">
-        <v>142.1483333333334</v>
+        <v>142.3066666666668</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3704,7 +3634,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>141.2</v>
+        <v>136.6</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -3723,19 +3653,19 @@
         <v>138.2</v>
       </c>
       <c r="C91" t="n">
-        <v>138</v>
+        <v>138.2</v>
       </c>
       <c r="D91" t="n">
         <v>138.2</v>
       </c>
       <c r="E91" t="n">
-        <v>138</v>
+        <v>138.2</v>
       </c>
       <c r="F91" t="n">
-        <v>4115.3403</v>
+        <v>1169.8378</v>
       </c>
       <c r="G91" t="n">
-        <v>141.9500000000001</v>
+        <v>142.1483333333334</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3745,7 +3675,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>141.2</v>
+        <v>136.6</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -3761,22 +3691,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
+        <v>138.2</v>
+      </c>
+      <c r="C92" t="n">
         <v>138</v>
       </c>
-      <c r="C92" t="n">
-        <v>136.7</v>
-      </c>
       <c r="D92" t="n">
+        <v>138.2</v>
+      </c>
+      <c r="E92" t="n">
         <v>138</v>
       </c>
-      <c r="E92" t="n">
-        <v>136.7</v>
-      </c>
       <c r="F92" t="n">
-        <v>3000</v>
+        <v>4115.3403</v>
       </c>
       <c r="G92" t="n">
-        <v>141.8316666666668</v>
+        <v>141.9500000000001</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3786,7 +3716,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>141.2</v>
+        <v>136.6</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -3802,22 +3732,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>140.9</v>
+        <v>138</v>
       </c>
       <c r="C93" t="n">
-        <v>140.9</v>
+        <v>136.7</v>
       </c>
       <c r="D93" t="n">
-        <v>140.9</v>
+        <v>138</v>
       </c>
       <c r="E93" t="n">
-        <v>140.9</v>
+        <v>136.7</v>
       </c>
       <c r="F93" t="n">
-        <v>6.9933</v>
+        <v>3000</v>
       </c>
       <c r="G93" t="n">
-        <v>141.7150000000001</v>
+        <v>141.8316666666668</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3827,7 +3757,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>141.2</v>
+        <v>136.6</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -3843,22 +3773,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>140.8</v>
+        <v>140.9</v>
       </c>
       <c r="C94" t="n">
-        <v>140.8</v>
+        <v>140.9</v>
       </c>
       <c r="D94" t="n">
-        <v>140.8</v>
+        <v>140.9</v>
       </c>
       <c r="E94" t="n">
-        <v>140.8</v>
+        <v>140.9</v>
       </c>
       <c r="F94" t="n">
-        <v>885.5684</v>
+        <v>6.9933</v>
       </c>
       <c r="G94" t="n">
-        <v>141.6666666666668</v>
+        <v>141.7150000000001</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3868,7 +3798,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>141.2</v>
+        <v>136.6</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -3884,22 +3814,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>140.7</v>
+        <v>140.8</v>
       </c>
       <c r="C95" t="n">
-        <v>140.7</v>
+        <v>140.8</v>
       </c>
       <c r="D95" t="n">
-        <v>140.7</v>
+        <v>140.8</v>
       </c>
       <c r="E95" t="n">
-        <v>140.7</v>
+        <v>140.8</v>
       </c>
       <c r="F95" t="n">
-        <v>5.1684</v>
+        <v>885.5684</v>
       </c>
       <c r="G95" t="n">
-        <v>141.5466666666668</v>
+        <v>141.6666666666668</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3909,7 +3839,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>141.2</v>
+        <v>136.6</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -3925,22 +3855,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>141.9</v>
+        <v>140.7</v>
       </c>
       <c r="C96" t="n">
-        <v>144</v>
+        <v>140.7</v>
       </c>
       <c r="D96" t="n">
-        <v>144</v>
+        <v>140.7</v>
       </c>
       <c r="E96" t="n">
-        <v>141.9</v>
+        <v>140.7</v>
       </c>
       <c r="F96" t="n">
-        <v>2806.403</v>
+        <v>5.1684</v>
       </c>
       <c r="G96" t="n">
-        <v>141.4800000000001</v>
+        <v>141.5466666666668</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3950,7 +3880,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>141.2</v>
+        <v>136.6</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -3966,22 +3896,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>145</v>
+        <v>141.9</v>
       </c>
       <c r="C97" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D97" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E97" t="n">
-        <v>145</v>
+        <v>141.9</v>
       </c>
       <c r="F97" t="n">
-        <v>1000</v>
+        <v>2806.403</v>
       </c>
       <c r="G97" t="n">
-        <v>141.4200000000001</v>
+        <v>141.4800000000001</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3991,7 +3921,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>141.2</v>
+        <v>136.6</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -4019,10 +3949,10 @@
         <v>145</v>
       </c>
       <c r="F98" t="n">
-        <v>60.4902</v>
+        <v>1000</v>
       </c>
       <c r="G98" t="n">
-        <v>141.3600000000001</v>
+        <v>141.4200000000001</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4032,7 +3962,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>141.2</v>
+        <v>136.6</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -4048,22 +3978,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C99" t="n">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D99" t="n">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E99" t="n">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F99" t="n">
-        <v>212</v>
+        <v>60.4902</v>
       </c>
       <c r="G99" t="n">
-        <v>141.2433333333334</v>
+        <v>141.3600000000001</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4073,7 +4003,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>141.2</v>
+        <v>136.6</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -4089,22 +4019,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C100" t="n">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D100" t="n">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E100" t="n">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F100" t="n">
-        <v>246</v>
+        <v>212</v>
       </c>
       <c r="G100" t="n">
-        <v>141.1616666666668</v>
+        <v>141.2433333333334</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4114,7 +4044,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>141.2</v>
+        <v>136.6</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -4142,10 +4072,10 @@
         <v>146</v>
       </c>
       <c r="F101" t="n">
-        <v>212</v>
+        <v>246</v>
       </c>
       <c r="G101" t="n">
-        <v>141.0783333333334</v>
+        <v>141.1616666666668</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4155,7 +4085,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>141.2</v>
+        <v>136.6</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -4171,22 +4101,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C102" t="n">
-        <v>147.9</v>
+        <v>146</v>
       </c>
       <c r="D102" t="n">
-        <v>147.9</v>
+        <v>146</v>
       </c>
       <c r="E102" t="n">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F102" t="n">
-        <v>5624.1496</v>
+        <v>212</v>
       </c>
       <c r="G102" t="n">
-        <v>141.0266666666668</v>
+        <v>141.0783333333334</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4196,7 +4126,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>141.2</v>
+        <v>136.6</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -4212,22 +4142,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C103" t="n">
-        <v>148</v>
+        <v>147.9</v>
       </c>
       <c r="D103" t="n">
-        <v>148</v>
+        <v>147.9</v>
       </c>
       <c r="E103" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F103" t="n">
-        <v>2052.2179</v>
+        <v>5624.1496</v>
       </c>
       <c r="G103" t="n">
-        <v>140.9783333333334</v>
+        <v>141.0266666666668</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4237,7 +4167,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>141.2</v>
+        <v>136.6</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -4253,22 +4183,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>147.9</v>
+        <v>148</v>
       </c>
       <c r="C104" t="n">
-        <v>147.9</v>
+        <v>148</v>
       </c>
       <c r="D104" t="n">
-        <v>147.9</v>
+        <v>148</v>
       </c>
       <c r="E104" t="n">
-        <v>147.9</v>
+        <v>148</v>
       </c>
       <c r="F104" t="n">
-        <v>246</v>
+        <v>2052.2179</v>
       </c>
       <c r="G104" t="n">
-        <v>140.9283333333334</v>
+        <v>140.9783333333334</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4278,7 +4208,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>141.2</v>
+        <v>136.6</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -4294,40 +4224,40 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>148</v>
+        <v>147.9</v>
       </c>
       <c r="C105" t="n">
-        <v>148</v>
+        <v>147.9</v>
       </c>
       <c r="D105" t="n">
-        <v>148</v>
+        <v>147.9</v>
       </c>
       <c r="E105" t="n">
-        <v>148</v>
+        <v>147.9</v>
       </c>
       <c r="F105" t="n">
-        <v>4531.7167</v>
+        <v>246</v>
       </c>
       <c r="G105" t="n">
-        <v>141.0266666666668</v>
+        <v>140.9283333333334</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>141.2</v>
+        <v>136.6</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M105" t="n">
-        <v>1</v>
+        <v>1.077723279648609</v>
       </c>
     </row>
     <row r="106">
@@ -4347,10 +4277,10 @@
         <v>148</v>
       </c>
       <c r="F106" t="n">
-        <v>152.7465</v>
+        <v>4531.7167</v>
       </c>
       <c r="G106" t="n">
-        <v>141.0500000000001</v>
+        <v>141.0266666666668</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4359,14 +4289,8 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>141.2</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4376,38 +4300,32 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>147.9</v>
+        <v>148</v>
       </c>
       <c r="C107" t="n">
-        <v>147.9</v>
+        <v>148</v>
       </c>
       <c r="D107" t="n">
-        <v>147.9</v>
+        <v>148</v>
       </c>
       <c r="E107" t="n">
-        <v>147.9</v>
+        <v>148</v>
       </c>
       <c r="F107" t="n">
-        <v>1263.3586</v>
+        <v>152.7465</v>
       </c>
       <c r="G107" t="n">
-        <v>141.0700000000001</v>
+        <v>141.0500000000001</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>141.2</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4417,38 +4335,32 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>144</v>
+        <v>147.9</v>
       </c>
       <c r="C108" t="n">
-        <v>144</v>
+        <v>147.9</v>
       </c>
       <c r="D108" t="n">
-        <v>144</v>
+        <v>147.9</v>
       </c>
       <c r="E108" t="n">
-        <v>144</v>
+        <v>147.9</v>
       </c>
       <c r="F108" t="n">
-        <v>820</v>
+        <v>1263.3586</v>
       </c>
       <c r="G108" t="n">
-        <v>141.0983333333334</v>
+        <v>141.0700000000001</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>141.2</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4458,38 +4370,32 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C109" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D109" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E109" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F109" t="n">
-        <v>12.8153</v>
+        <v>820</v>
       </c>
       <c r="G109" t="n">
-        <v>141.1133333333334</v>
+        <v>141.0983333333334</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>141.2</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4499,38 +4405,32 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C110" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D110" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E110" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F110" t="n">
-        <v>1682.375</v>
+        <v>12.8153</v>
       </c>
       <c r="G110" t="n">
-        <v>141.1450000000001</v>
+        <v>141.1133333333334</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>141.2</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4540,38 +4440,32 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>148.6</v>
+        <v>144</v>
       </c>
       <c r="C111" t="n">
-        <v>148.6</v>
+        <v>144</v>
       </c>
       <c r="D111" t="n">
-        <v>148.6</v>
+        <v>144</v>
       </c>
       <c r="E111" t="n">
-        <v>148.6</v>
+        <v>144</v>
       </c>
       <c r="F111" t="n">
-        <v>269.1077</v>
+        <v>1682.375</v>
       </c>
       <c r="G111" t="n">
-        <v>141.1883333333334</v>
+        <v>141.1450000000001</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>141.2</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4581,22 +4475,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>145.1</v>
+        <v>148.6</v>
       </c>
       <c r="C112" t="n">
-        <v>145.1</v>
+        <v>148.6</v>
       </c>
       <c r="D112" t="n">
-        <v>145.1</v>
+        <v>148.6</v>
       </c>
       <c r="E112" t="n">
-        <v>145.1</v>
+        <v>148.6</v>
       </c>
       <c r="F112" t="n">
-        <v>1671.261</v>
+        <v>269.1077</v>
       </c>
       <c r="G112" t="n">
-        <v>141.2350000000001</v>
+        <v>141.1883333333334</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4605,14 +4499,8 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>141.2</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4622,40 +4510,34 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>143</v>
+        <v>145.1</v>
       </c>
       <c r="C113" t="n">
-        <v>143</v>
+        <v>145.1</v>
       </c>
       <c r="D113" t="n">
-        <v>143</v>
+        <v>145.1</v>
       </c>
       <c r="E113" t="n">
-        <v>143</v>
+        <v>145.1</v>
       </c>
       <c r="F113" t="n">
-        <v>5.1221</v>
+        <v>1671.261</v>
       </c>
       <c r="G113" t="n">
-        <v>141.2466666666668</v>
+        <v>141.2350000000001</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>141.2</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
-        <v>1.007747875354108</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -4663,22 +4545,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>144.1</v>
+        <v>143</v>
       </c>
       <c r="C114" t="n">
         <v>143</v>
       </c>
       <c r="D114" t="n">
-        <v>144.1</v>
+        <v>143</v>
       </c>
       <c r="E114" t="n">
         <v>143</v>
       </c>
       <c r="F114" t="n">
-        <v>361.588</v>
+        <v>5.1221</v>
       </c>
       <c r="G114" t="n">
-        <v>141.2566666666668</v>
+        <v>141.2466666666668</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4698,22 +4580,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
+        <v>144.1</v>
+      </c>
+      <c r="C115" t="n">
         <v>143</v>
       </c>
-      <c r="C115" t="n">
-        <v>142</v>
-      </c>
       <c r="D115" t="n">
+        <v>144.1</v>
+      </c>
+      <c r="E115" t="n">
         <v>143</v>
       </c>
-      <c r="E115" t="n">
-        <v>142</v>
-      </c>
       <c r="F115" t="n">
-        <v>1589.8947</v>
+        <v>361.588</v>
       </c>
       <c r="G115" t="n">
-        <v>141.2516666666668</v>
+        <v>141.2566666666668</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4733,22 +4615,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C116" t="n">
         <v>142</v>
       </c>
       <c r="D116" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E116" t="n">
         <v>142</v>
       </c>
       <c r="F116" t="n">
-        <v>8.688800000000001</v>
+        <v>1589.8947</v>
       </c>
       <c r="G116" t="n">
-        <v>141.2350000000001</v>
+        <v>141.2516666666668</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4771,19 +4653,19 @@
         <v>142</v>
       </c>
       <c r="C117" t="n">
-        <v>140.8</v>
+        <v>142</v>
       </c>
       <c r="D117" t="n">
         <v>142</v>
       </c>
       <c r="E117" t="n">
-        <v>140.8</v>
+        <v>142</v>
       </c>
       <c r="F117" t="n">
-        <v>4112.5943</v>
+        <v>8.688800000000001</v>
       </c>
       <c r="G117" t="n">
-        <v>141.2100000000001</v>
+        <v>141.2350000000001</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4803,22 +4685,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
+        <v>142</v>
+      </c>
+      <c r="C118" t="n">
         <v>140.8</v>
-      </c>
-      <c r="C118" t="n">
-        <v>142</v>
       </c>
       <c r="D118" t="n">
         <v>142</v>
       </c>
       <c r="E118" t="n">
-        <v>140.7</v>
+        <v>140.8</v>
       </c>
       <c r="F118" t="n">
-        <v>1469.0014</v>
+        <v>4112.5943</v>
       </c>
       <c r="G118" t="n">
-        <v>141.2083333333335</v>
+        <v>141.2100000000001</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4838,19 +4720,19 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>141</v>
+        <v>140.8</v>
       </c>
       <c r="C119" t="n">
-        <v>141.7</v>
+        <v>142</v>
       </c>
       <c r="D119" t="n">
-        <v>141.7</v>
+        <v>142</v>
       </c>
       <c r="E119" t="n">
-        <v>141</v>
+        <v>140.7</v>
       </c>
       <c r="F119" t="n">
-        <v>3548.3433</v>
+        <v>1469.0014</v>
       </c>
       <c r="G119" t="n">
         <v>141.2083333333335</v>
@@ -4873,22 +4755,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C120" t="n">
-        <v>143</v>
+        <v>141.7</v>
       </c>
       <c r="D120" t="n">
-        <v>144</v>
+        <v>141.7</v>
       </c>
       <c r="E120" t="n">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F120" t="n">
-        <v>205.3243</v>
+        <v>3548.3433</v>
       </c>
       <c r="G120" t="n">
-        <v>141.2366666666668</v>
+        <v>141.2083333333335</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4908,22 +4790,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C121" t="n">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D121" t="n">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E121" t="n">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F121" t="n">
-        <v>3448.3433</v>
+        <v>205.3243</v>
       </c>
       <c r="G121" t="n">
-        <v>141.2000000000001</v>
+        <v>141.2366666666668</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4943,22 +4825,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>145.6</v>
+        <v>140</v>
       </c>
       <c r="C122" t="n">
-        <v>145.6</v>
+        <v>139</v>
       </c>
       <c r="D122" t="n">
-        <v>145.6</v>
+        <v>140</v>
       </c>
       <c r="E122" t="n">
-        <v>145.6</v>
+        <v>139</v>
       </c>
       <c r="F122" t="n">
-        <v>10</v>
+        <v>3448.3433</v>
       </c>
       <c r="G122" t="n">
-        <v>141.2733333333335</v>
+        <v>141.2000000000001</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4978,22 +4860,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>144.7</v>
+        <v>145.6</v>
       </c>
       <c r="C123" t="n">
-        <v>144.7</v>
+        <v>145.6</v>
       </c>
       <c r="D123" t="n">
-        <v>144.7</v>
+        <v>145.6</v>
       </c>
       <c r="E123" t="n">
-        <v>144.7</v>
+        <v>145.6</v>
       </c>
       <c r="F123" t="n">
         <v>10</v>
       </c>
       <c r="G123" t="n">
-        <v>141.3316666666668</v>
+        <v>141.2733333333335</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5013,22 +4895,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>142.9</v>
+        <v>144.7</v>
       </c>
       <c r="C124" t="n">
-        <v>141</v>
+        <v>144.7</v>
       </c>
       <c r="D124" t="n">
-        <v>142.9</v>
+        <v>144.7</v>
       </c>
       <c r="E124" t="n">
-        <v>141</v>
+        <v>144.7</v>
       </c>
       <c r="F124" t="n">
-        <v>210.9828</v>
+        <v>10</v>
       </c>
       <c r="G124" t="n">
-        <v>141.4116666666668</v>
+        <v>141.3316666666668</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5048,22 +4930,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>140</v>
+        <v>142.9</v>
       </c>
       <c r="C125" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D125" t="n">
-        <v>140</v>
+        <v>142.9</v>
       </c>
       <c r="E125" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F125" t="n">
-        <v>9397.7261</v>
+        <v>210.9828</v>
       </c>
       <c r="G125" t="n">
-        <v>141.4683333333334</v>
+        <v>141.4116666666668</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5083,22 +4965,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C126" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D126" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E126" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F126" t="n">
-        <v>368.8861</v>
+        <v>9397.7261</v>
       </c>
       <c r="G126" t="n">
-        <v>141.5400000000001</v>
+        <v>141.4683333333334</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5118,22 +5000,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C127" t="n">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D127" t="n">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E127" t="n">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F127" t="n">
-        <v>10</v>
+        <v>368.8861</v>
       </c>
       <c r="G127" t="n">
-        <v>141.5600000000001</v>
+        <v>141.5400000000001</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5156,19 +5038,19 @@
         <v>143</v>
       </c>
       <c r="C128" t="n">
-        <v>143.9</v>
+        <v>143</v>
       </c>
       <c r="D128" t="n">
-        <v>143.9</v>
+        <v>143</v>
       </c>
       <c r="E128" t="n">
         <v>143</v>
       </c>
       <c r="F128" t="n">
-        <v>1374.6977</v>
+        <v>10</v>
       </c>
       <c r="G128" t="n">
-        <v>141.6650000000001</v>
+        <v>141.5600000000001</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5188,22 +5070,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>142.2</v>
+        <v>143</v>
       </c>
       <c r="C129" t="n">
-        <v>142.2</v>
+        <v>143.9</v>
       </c>
       <c r="D129" t="n">
-        <v>142.2</v>
+        <v>143.9</v>
       </c>
       <c r="E129" t="n">
-        <v>142.2</v>
+        <v>143</v>
       </c>
       <c r="F129" t="n">
         <v>1374.6977</v>
       </c>
       <c r="G129" t="n">
-        <v>141.7633333333334</v>
+        <v>141.6650000000001</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5223,22 +5105,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>147.8</v>
+        <v>142.2</v>
       </c>
       <c r="C130" t="n">
-        <v>148.9</v>
+        <v>142.2</v>
       </c>
       <c r="D130" t="n">
-        <v>148.9</v>
+        <v>142.2</v>
       </c>
       <c r="E130" t="n">
-        <v>147.8</v>
+        <v>142.2</v>
       </c>
       <c r="F130" t="n">
-        <v>1672.874</v>
+        <v>1374.6977</v>
       </c>
       <c r="G130" t="n">
-        <v>141.9450000000001</v>
+        <v>141.7633333333334</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5258,22 +5140,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>150.8</v>
+        <v>147.8</v>
       </c>
       <c r="C131" t="n">
-        <v>150.8</v>
+        <v>148.9</v>
       </c>
       <c r="D131" t="n">
-        <v>150.8</v>
+        <v>148.9</v>
       </c>
       <c r="E131" t="n">
-        <v>150.8</v>
+        <v>147.8</v>
       </c>
       <c r="F131" t="n">
-        <v>10</v>
+        <v>1672.874</v>
       </c>
       <c r="G131" t="n">
-        <v>142.1583333333334</v>
+        <v>141.9450000000001</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5296,19 +5178,19 @@
         <v>150.8</v>
       </c>
       <c r="C132" t="n">
-        <v>144</v>
+        <v>150.8</v>
       </c>
       <c r="D132" t="n">
         <v>150.8</v>
       </c>
       <c r="E132" t="n">
-        <v>144</v>
+        <v>150.8</v>
       </c>
       <c r="F132" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G132" t="n">
-        <v>142.2816666666668</v>
+        <v>142.1583333333334</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5328,28 +5210,28 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>147.1</v>
+        <v>150.8</v>
       </c>
       <c r="C133" t="n">
-        <v>146.1</v>
+        <v>144</v>
       </c>
       <c r="D133" t="n">
-        <v>147.1</v>
+        <v>150.8</v>
       </c>
       <c r="E133" t="n">
-        <v>146.1</v>
+        <v>144</v>
       </c>
       <c r="F133" t="n">
-        <v>1379.277</v>
+        <v>8</v>
       </c>
       <c r="G133" t="n">
-        <v>142.4166666666668</v>
+        <v>142.2816666666668</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
@@ -5363,22 +5245,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>146</v>
+        <v>147.1</v>
       </c>
       <c r="C134" t="n">
-        <v>144</v>
+        <v>146.1</v>
       </c>
       <c r="D134" t="n">
-        <v>148.9</v>
+        <v>147.1</v>
       </c>
       <c r="E134" t="n">
-        <v>144</v>
+        <v>146.1</v>
       </c>
       <c r="F134" t="n">
-        <v>10726.12261618</v>
+        <v>1379.277</v>
       </c>
       <c r="G134" t="n">
-        <v>142.5400000000001</v>
+        <v>142.4166666666668</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5398,22 +5280,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C135" t="n">
         <v>144</v>
       </c>
       <c r="D135" t="n">
-        <v>144</v>
+        <v>148.9</v>
       </c>
       <c r="E135" t="n">
         <v>144</v>
       </c>
       <c r="F135" t="n">
-        <v>2337.8456</v>
+        <v>10726.12261618</v>
       </c>
       <c r="G135" t="n">
-        <v>142.6400000000001</v>
+        <v>142.5400000000001</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5436,19 +5318,19 @@
         <v>144</v>
       </c>
       <c r="C136" t="n">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D136" t="n">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E136" t="n">
-        <v>143.3</v>
+        <v>144</v>
       </c>
       <c r="F136" t="n">
-        <v>2698.633</v>
+        <v>2337.8456</v>
       </c>
       <c r="G136" t="n">
-        <v>142.8466666666667</v>
+        <v>142.6400000000001</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5468,22 +5350,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C137" t="n">
-        <v>142.2</v>
+        <v>149</v>
       </c>
       <c r="D137" t="n">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E137" t="n">
-        <v>142.2</v>
+        <v>143.3</v>
       </c>
       <c r="F137" t="n">
-        <v>10158.7416</v>
+        <v>2698.633</v>
       </c>
       <c r="G137" t="n">
-        <v>142.8683333333334</v>
+        <v>142.8466666666667</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5503,22 +5385,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>145.6</v>
+        <v>145</v>
       </c>
       <c r="C138" t="n">
-        <v>145.6</v>
+        <v>142.2</v>
       </c>
       <c r="D138" t="n">
-        <v>145.6</v>
+        <v>145</v>
       </c>
       <c r="E138" t="n">
-        <v>145.6</v>
+        <v>142.2</v>
       </c>
       <c r="F138" t="n">
-        <v>6</v>
+        <v>10158.7416</v>
       </c>
       <c r="G138" t="n">
-        <v>143.0183333333334</v>
+        <v>142.8683333333334</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5541,19 +5423,19 @@
         <v>145.6</v>
       </c>
       <c r="C139" t="n">
-        <v>152</v>
+        <v>145.6</v>
       </c>
       <c r="D139" t="n">
-        <v>152</v>
+        <v>145.6</v>
       </c>
       <c r="E139" t="n">
         <v>145.6</v>
       </c>
       <c r="F139" t="n">
-        <v>5620.2866</v>
+        <v>6</v>
       </c>
       <c r="G139" t="n">
-        <v>143.2750000000001</v>
+        <v>143.0183333333334</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5573,22 +5455,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
+        <v>145.6</v>
+      </c>
+      <c r="C140" t="n">
         <v>152</v>
       </c>
-      <c r="C140" t="n">
-        <v>153.8</v>
-      </c>
       <c r="D140" t="n">
-        <v>153.8</v>
+        <v>152</v>
       </c>
       <c r="E140" t="n">
-        <v>152</v>
+        <v>145.6</v>
       </c>
       <c r="F140" t="n">
-        <v>2581.487</v>
+        <v>5620.2866</v>
       </c>
       <c r="G140" t="n">
-        <v>143.5066666666667</v>
+        <v>143.2750000000001</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5608,22 +5490,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>153.7</v>
+        <v>152</v>
       </c>
       <c r="C141" t="n">
-        <v>153.9</v>
+        <v>153.8</v>
       </c>
       <c r="D141" t="n">
-        <v>153.9</v>
+        <v>153.8</v>
       </c>
       <c r="E141" t="n">
-        <v>153.7</v>
+        <v>152</v>
       </c>
       <c r="F141" t="n">
-        <v>5228.1627</v>
+        <v>2581.487</v>
       </c>
       <c r="G141" t="n">
-        <v>143.7900000000001</v>
+        <v>143.5066666666667</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5643,22 +5525,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>153.8</v>
+        <v>153.7</v>
       </c>
       <c r="C142" t="n">
-        <v>153.3</v>
+        <v>153.9</v>
       </c>
       <c r="D142" t="n">
-        <v>153.8</v>
+        <v>153.9</v>
       </c>
       <c r="E142" t="n">
-        <v>153.3</v>
+        <v>153.7</v>
       </c>
       <c r="F142" t="n">
-        <v>227</v>
+        <v>5228.1627</v>
       </c>
       <c r="G142" t="n">
-        <v>144.0200000000001</v>
+        <v>143.7900000000001</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5678,22 +5560,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>153</v>
+        <v>153.8</v>
       </c>
       <c r="C143" t="n">
-        <v>153</v>
+        <v>153.3</v>
       </c>
       <c r="D143" t="n">
-        <v>153</v>
+        <v>153.8</v>
       </c>
       <c r="E143" t="n">
-        <v>153</v>
+        <v>153.3</v>
       </c>
       <c r="F143" t="n">
-        <v>5</v>
+        <v>227</v>
       </c>
       <c r="G143" t="n">
-        <v>144.2383333333334</v>
+        <v>144.0200000000001</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5713,22 +5595,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>152.9</v>
+        <v>153</v>
       </c>
       <c r="C144" t="n">
-        <v>152.9</v>
+        <v>153</v>
       </c>
       <c r="D144" t="n">
-        <v>152.9</v>
+        <v>153</v>
       </c>
       <c r="E144" t="n">
-        <v>152.9</v>
+        <v>153</v>
       </c>
       <c r="F144" t="n">
-        <v>972</v>
+        <v>5</v>
       </c>
       <c r="G144" t="n">
-        <v>144.4533333333334</v>
+        <v>144.2383333333334</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5748,7 +5630,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>152.2</v>
+        <v>152.9</v>
       </c>
       <c r="C145" t="n">
         <v>152.9</v>
@@ -5757,13 +5639,13 @@
         <v>152.9</v>
       </c>
       <c r="E145" t="n">
-        <v>152.2</v>
+        <v>152.9</v>
       </c>
       <c r="F145" t="n">
-        <v>5527.8557</v>
+        <v>972</v>
       </c>
       <c r="G145" t="n">
-        <v>144.6533333333334</v>
+        <v>144.4533333333334</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5778,6 +5660,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="C146" t="n">
+        <v>152.9</v>
+      </c>
+      <c r="D146" t="n">
+        <v>152.9</v>
+      </c>
+      <c r="E146" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="F146" t="n">
+        <v>5527.8557</v>
+      </c>
+      <c r="G146" t="n">
+        <v>144.6533333333334</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-16 BackTest ARN.xlsx
+++ b/BackTest/2020-01-16 BackTest ARN.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M146"/>
+  <dimension ref="A1:N156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>17</v>
       </c>
       <c r="G2" t="n">
+        <v>148.0533333333333</v>
+      </c>
+      <c r="H2" t="n">
         <v>150.6133333333334</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>13</v>
       </c>
       <c r="G3" t="n">
+        <v>147.7866666666666</v>
+      </c>
+      <c r="H3" t="n">
         <v>150.3966666666667</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>15</v>
       </c>
       <c r="G4" t="n">
+        <v>147.44</v>
+      </c>
+      <c r="H4" t="n">
         <v>150.2550000000001</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>11</v>
       </c>
       <c r="G5" t="n">
+        <v>147.2266666666666</v>
+      </c>
+      <c r="H5" t="n">
         <v>150.0566666666667</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>336</v>
       </c>
       <c r="G6" t="n">
+        <v>147.02</v>
+      </c>
+      <c r="H6" t="n">
         <v>149.9233333333334</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>700</v>
       </c>
       <c r="G7" t="n">
+        <v>147.2866666666667</v>
+      </c>
+      <c r="H7" t="n">
         <v>149.7616666666667</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>727</v>
       </c>
       <c r="G8" t="n">
+        <v>147.0266666666666</v>
+      </c>
+      <c r="H8" t="n">
         <v>149.6616666666667</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>20966.0828</v>
       </c>
       <c r="G9" t="n">
+        <v>146.8533333333333</v>
+      </c>
+      <c r="H9" t="n">
         <v>149.5766666666667</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>5790.0684</v>
       </c>
       <c r="G10" t="n">
+        <v>146.68</v>
+      </c>
+      <c r="H10" t="n">
         <v>149.51</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>237.9128</v>
       </c>
       <c r="G11" t="n">
+        <v>146.0066666666667</v>
+      </c>
+      <c r="H11" t="n">
         <v>149.3183333333334</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>15.9908</v>
       </c>
       <c r="G12" t="n">
+        <v>146.0333333333333</v>
+      </c>
+      <c r="H12" t="n">
         <v>149.145</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>3.9889</v>
       </c>
       <c r="G13" t="n">
+        <v>146.32</v>
+      </c>
+      <c r="H13" t="n">
         <v>149.0383333333334</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>14</v>
       </c>
       <c r="G14" t="n">
+        <v>146.08</v>
+      </c>
+      <c r="H14" t="n">
         <v>148.8850000000001</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>5372.56903976</v>
       </c>
       <c r="G15" t="n">
+        <v>146.62</v>
+      </c>
+      <c r="H15" t="n">
         <v>148.8850000000001</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>8.1096</v>
       </c>
       <c r="G16" t="n">
+        <v>147.0333333333333</v>
+      </c>
+      <c r="H16" t="n">
         <v>148.8850000000001</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>16</v>
       </c>
       <c r="G17" t="n">
+        <v>146.82</v>
+      </c>
+      <c r="H17" t="n">
         <v>148.7583333333334</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>3.8908</v>
       </c>
       <c r="G18" t="n">
+        <v>147.2266666666666</v>
+      </c>
+      <c r="H18" t="n">
         <v>148.7700000000001</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>10</v>
       </c>
       <c r="G19" t="n">
+        <v>147.0066666666666</v>
+      </c>
+      <c r="H19" t="n">
         <v>148.6000000000001</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>16</v>
       </c>
       <c r="G20" t="n">
+        <v>146.8533333333333</v>
+      </c>
+      <c r="H20" t="n">
         <v>148.4933333333335</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>3.8098</v>
       </c>
       <c r="G21" t="n">
+        <v>147.1866666666666</v>
+      </c>
+      <c r="H21" t="n">
         <v>148.5083333333335</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>20.0012</v>
       </c>
       <c r="G22" t="n">
+        <v>147.4533333333333</v>
+      </c>
+      <c r="H22" t="n">
         <v>148.5250000000001</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>3.2991</v>
       </c>
       <c r="G23" t="n">
+        <v>147.6533333333333</v>
+      </c>
+      <c r="H23" t="n">
         <v>148.5416666666668</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>8</v>
       </c>
       <c r="G24" t="n">
+        <v>147.3666666666666</v>
+      </c>
+      <c r="H24" t="n">
         <v>148.4350000000001</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>3.67</v>
       </c>
       <c r="G25" t="n">
+        <v>147.5666666666666</v>
+      </c>
+      <c r="H25" t="n">
         <v>148.4683333333334</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>15.9999</v>
       </c>
       <c r="G26" t="n">
+        <v>148.2666666666666</v>
+      </c>
+      <c r="H26" t="n">
         <v>148.5016666666668</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>1581.9718</v>
       </c>
       <c r="G27" t="n">
+        <v>148.5399999999999</v>
+      </c>
+      <c r="H27" t="n">
         <v>148.5116666666668</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>3.6809</v>
       </c>
       <c r="G28" t="n">
+        <v>148.7466666666666</v>
+      </c>
+      <c r="H28" t="n">
         <v>148.4083333333335</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>233</v>
       </c>
       <c r="G29" t="n">
+        <v>149.1133333333332</v>
+      </c>
+      <c r="H29" t="n">
         <v>148.3566666666668</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>27.9089</v>
       </c>
       <c r="G30" t="n">
+        <v>148.9133333333332</v>
+      </c>
+      <c r="H30" t="n">
         <v>148.3050000000001</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>2010.5098</v>
       </c>
       <c r="G31" t="n">
+        <v>148.6266666666666</v>
+      </c>
+      <c r="H31" t="n">
         <v>148.2516666666668</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>18</v>
       </c>
       <c r="G32" t="n">
+        <v>149.0399999999999</v>
+      </c>
+      <c r="H32" t="n">
         <v>148.3166666666668</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>1</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>21.6544</v>
       </c>
       <c r="G33" t="n">
+        <v>148.4933333333333</v>
+      </c>
+      <c r="H33" t="n">
         <v>148.2433333333335</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>1</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>3.5669</v>
       </c>
       <c r="G34" t="n">
+        <v>148.7733333333333</v>
+      </c>
+      <c r="H34" t="n">
         <v>148.2916666666668</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>152</v>
       </c>
       <c r="G35" t="n">
+        <v>148.7066666666666</v>
+      </c>
+      <c r="H35" t="n">
         <v>148.1650000000001</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>3.78</v>
       </c>
       <c r="G36" t="n">
+        <v>148.4333333333333</v>
+      </c>
+      <c r="H36" t="n">
         <v>148.2616666666668</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>2357.2797</v>
       </c>
       <c r="G37" t="n">
+        <v>148.1666666666666</v>
+      </c>
+      <c r="H37" t="n">
         <v>148.2150000000001</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>472.4663</v>
       </c>
       <c r="G38" t="n">
+        <v>147.9399999999999</v>
+      </c>
+      <c r="H38" t="n">
         <v>148.3233333333335</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>301.6493</v>
       </c>
       <c r="G39" t="n">
+        <v>148.1999999999999</v>
+      </c>
+      <c r="H39" t="n">
         <v>148.4166666666668</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>2573.2263</v>
       </c>
       <c r="G40" t="n">
+        <v>148.0666666666666</v>
+      </c>
+      <c r="H40" t="n">
         <v>148.3833333333335</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>6351.5289</v>
       </c>
       <c r="G41" t="n">
+        <v>147.9933333333333</v>
+      </c>
+      <c r="H41" t="n">
         <v>148.3500000000002</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>719.1695</v>
       </c>
       <c r="G42" t="n">
+        <v>148.3466666666666</v>
+      </c>
+      <c r="H42" t="n">
         <v>148.3166666666668</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>1035.998</v>
       </c>
       <c r="G43" t="n">
+        <v>148.5</v>
+      </c>
+      <c r="H43" t="n">
         <v>148.3000000000002</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>7.3469</v>
       </c>
       <c r="G44" t="n">
+        <v>148.72</v>
+      </c>
+      <c r="H44" t="n">
         <v>148.2666666666668</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>83.82980000000001</v>
       </c>
       <c r="G45" t="n">
+        <v>148.72</v>
+      </c>
+      <c r="H45" t="n">
         <v>148.2366666666668</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>1</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>5372.5691</v>
       </c>
       <c r="G46" t="n">
+        <v>148.3466666666667</v>
+      </c>
+      <c r="H46" t="n">
         <v>148.0666666666668</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>1927.2109</v>
       </c>
       <c r="G47" t="n">
+        <v>148.1266666666666</v>
+      </c>
+      <c r="H47" t="n">
         <v>148.0100000000002</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>17981.0959</v>
       </c>
       <c r="G48" t="n">
+        <v>148.32</v>
+      </c>
+      <c r="H48" t="n">
         <v>147.9566666666668</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>884.2729</v>
       </c>
       <c r="G49" t="n">
+        <v>147.9466666666666</v>
+      </c>
+      <c r="H49" t="n">
         <v>147.7916666666668</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>721.7712</v>
       </c>
       <c r="G50" t="n">
+        <v>147.84</v>
+      </c>
+      <c r="H50" t="n">
         <v>147.6566666666668</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>2583.4435</v>
       </c>
       <c r="G51" t="n">
+        <v>147.4533333333333</v>
+      </c>
+      <c r="H51" t="n">
         <v>147.5233333333335</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>4</v>
       </c>
       <c r="G52" t="n">
+        <v>147.32</v>
+      </c>
+      <c r="H52" t="n">
         <v>147.5566666666668</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>4136.108</v>
       </c>
       <c r="G53" t="n">
+        <v>146.9</v>
+      </c>
+      <c r="H53" t="n">
         <v>147.3800000000001</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>1449.5242</v>
       </c>
       <c r="G54" t="n">
+        <v>146.48</v>
+      </c>
+      <c r="H54" t="n">
         <v>147.2250000000001</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>1000</v>
       </c>
       <c r="G55" t="n">
+        <v>145.9733333333333</v>
+      </c>
+      <c r="H55" t="n">
         <v>147.0716666666668</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>2730.6006</v>
       </c>
       <c r="G56" t="n">
+        <v>145.4</v>
+      </c>
+      <c r="H56" t="n">
         <v>146.9166666666668</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>327.9006</v>
       </c>
       <c r="G57" t="n">
+        <v>144.8666666666667</v>
+      </c>
+      <c r="H57" t="n">
         <v>146.9466666666667</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>947.6273</v>
       </c>
       <c r="G58" t="n">
+        <v>144.2866666666667</v>
+      </c>
+      <c r="H58" t="n">
         <v>146.9633333333334</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>1583.8256</v>
       </c>
       <c r="G59" t="n">
+        <v>143.7</v>
+      </c>
+      <c r="H59" t="n">
         <v>146.9033333333334</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>551.9638</v>
       </c>
       <c r="G60" t="n">
+        <v>143.0866666666666</v>
+      </c>
+      <c r="H60" t="n">
         <v>146.8350000000001</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>3829.1975</v>
       </c>
       <c r="G61" t="n">
+        <v>143.0333333333333</v>
+      </c>
+      <c r="H61" t="n">
         <v>146.7600000000001</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>3112.4519</v>
       </c>
       <c r="G62" t="n">
+        <v>142.6733333333333</v>
+      </c>
+      <c r="H62" t="n">
         <v>146.6650000000001</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>1705.6744</v>
       </c>
       <c r="G63" t="n">
+        <v>142.3066666666667</v>
+      </c>
+      <c r="H63" t="n">
         <v>146.5866666666668</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>234.3453</v>
       </c>
       <c r="G64" t="n">
+        <v>142.2333333333333</v>
+      </c>
+      <c r="H64" t="n">
         <v>146.4900000000002</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>3198.8671</v>
       </c>
       <c r="G65" t="n">
+        <v>141.84</v>
+      </c>
+      <c r="H65" t="n">
         <v>146.3100000000001</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>3483.2893</v>
       </c>
       <c r="G66" t="n">
+        <v>141.4733333333333</v>
+      </c>
+      <c r="H66" t="n">
         <v>146.1366666666668</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>12</v>
       </c>
       <c r="G67" t="n">
+        <v>140.8533333333333</v>
+      </c>
+      <c r="H67" t="n">
         <v>145.9483333333335</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>384</v>
       </c>
       <c r="G68" t="n">
+        <v>140.82</v>
+      </c>
+      <c r="H68" t="n">
         <v>145.8283333333335</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>5050.8311</v>
       </c>
       <c r="G69" t="n">
+        <v>140.5066666666666</v>
+      </c>
+      <c r="H69" t="n">
         <v>145.6383333333335</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>784.8547</v>
       </c>
       <c r="G70" t="n">
+        <v>140.0999999999999</v>
+      </c>
+      <c r="H70" t="n">
         <v>145.4266666666668</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>5788.9025</v>
       </c>
       <c r="G71" t="n">
+        <v>139.8133333333332</v>
+      </c>
+      <c r="H71" t="n">
         <v>145.3683333333335</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>1265.9897</v>
       </c>
       <c r="G72" t="n">
+        <v>139.4799999999999</v>
+      </c>
+      <c r="H72" t="n">
         <v>145.3083333333335</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>1343.2549</v>
       </c>
       <c r="G73" t="n">
+        <v>139.0999999999999</v>
+      </c>
+      <c r="H73" t="n">
         <v>145.1583333333335</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,22 +3189,21 @@
         <v>1236.3853</v>
       </c>
       <c r="G74" t="n">
+        <v>138.8266666666666</v>
+      </c>
+      <c r="H74" t="n">
         <v>145.0900000000001</v>
       </c>
-      <c r="H74" t="n">
-        <v>1</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>136.6</v>
-      </c>
-      <c r="K74" t="n">
-        <v>136.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3007,24 +3227,21 @@
         <v>5792.9077</v>
       </c>
       <c r="G75" t="n">
+        <v>138.4866666666666</v>
+      </c>
+      <c r="H75" t="n">
         <v>144.8016666666668</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>136.6</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3048,26 +3265,21 @@
         <v>92.46380000000001</v>
       </c>
       <c r="G76" t="n">
+        <v>138.2666666666666</v>
+      </c>
+      <c r="H76" t="n">
         <v>144.5683333333335</v>
       </c>
-      <c r="H76" t="n">
-        <v>1</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>136.6</v>
-      </c>
-      <c r="K76" t="n">
-        <v>136.6</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3091,24 +3303,21 @@
         <v>615.8954</v>
       </c>
       <c r="G77" t="n">
+        <v>137.9599999999999</v>
+      </c>
+      <c r="H77" t="n">
         <v>144.4500000000002</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>136.6</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3132,24 +3341,21 @@
         <v>10</v>
       </c>
       <c r="G78" t="n">
+        <v>137.9399999999999</v>
+      </c>
+      <c r="H78" t="n">
         <v>144.2650000000002</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>136.6</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3173,24 +3379,21 @@
         <v>3.6884</v>
       </c>
       <c r="G79" t="n">
+        <v>137.6333333333333</v>
+      </c>
+      <c r="H79" t="n">
         <v>144.1466666666668</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>136.6</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3214,24 +3417,21 @@
         <v>548.625</v>
       </c>
       <c r="G80" t="n">
+        <v>137.6599999999999</v>
+      </c>
+      <c r="H80" t="n">
         <v>144.0116666666668</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>136.6</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3255,24 +3455,21 @@
         <v>1415.9897</v>
       </c>
       <c r="G81" t="n">
+        <v>137.88</v>
+      </c>
+      <c r="H81" t="n">
         <v>143.8100000000001</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>136.6</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3296,24 +3493,21 @@
         <v>17495.8684</v>
       </c>
       <c r="G82" t="n">
+        <v>137.8933333333333</v>
+      </c>
+      <c r="H82" t="n">
         <v>143.5583333333335</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>136.6</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3337,24 +3531,21 @@
         <v>2096.922</v>
       </c>
       <c r="G83" t="n">
+        <v>137.74</v>
+      </c>
+      <c r="H83" t="n">
         <v>143.3500000000001</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>136.6</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3378,24 +3569,21 @@
         <v>4384.448</v>
       </c>
       <c r="G84" t="n">
+        <v>137.8933333333333</v>
+      </c>
+      <c r="H84" t="n">
         <v>143.2700000000001</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>136.6</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3419,24 +3607,21 @@
         <v>6840.905</v>
       </c>
       <c r="G85" t="n">
+        <v>138.14</v>
+      </c>
+      <c r="H85" t="n">
         <v>143.0700000000001</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>136.6</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3460,24 +3645,21 @@
         <v>3000</v>
       </c>
       <c r="G86" t="n">
+        <v>138.3333333333333</v>
+      </c>
+      <c r="H86" t="n">
         <v>142.8850000000001</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>136.6</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3501,24 +3683,21 @@
         <v>1606.4054</v>
       </c>
       <c r="G87" t="n">
+        <v>138.4666666666666</v>
+      </c>
+      <c r="H87" t="n">
         <v>142.7900000000001</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>136.6</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3542,24 +3721,21 @@
         <v>1206.2047</v>
       </c>
       <c r="G88" t="n">
+        <v>138.7</v>
+      </c>
+      <c r="H88" t="n">
         <v>142.6466666666667</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>136.6</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3583,24 +3759,21 @@
         <v>1443.7855</v>
       </c>
       <c r="G89" t="n">
+        <v>138.8333333333333</v>
+      </c>
+      <c r="H89" t="n">
         <v>142.5200000000001</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>136.6</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3624,24 +3797,27 @@
         <v>1801.0868</v>
       </c>
       <c r="G90" t="n">
+        <v>138.9333333333333</v>
+      </c>
+      <c r="H90" t="n">
         <v>142.3066666666668</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="n">
-        <v>136.6</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
+        <v>140</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3665,24 +3841,27 @@
         <v>1169.8378</v>
       </c>
       <c r="G91" t="n">
+        <v>138.9466666666666</v>
+      </c>
+      <c r="H91" t="n">
         <v>142.1483333333334</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="n">
-        <v>136.6</v>
-      </c>
-      <c r="L91" t="inlineStr">
+        <v>138.1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M91" t="n">
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3706,24 +3885,27 @@
         <v>4115.3403</v>
       </c>
       <c r="G92" t="n">
+        <v>139.04</v>
+      </c>
+      <c r="H92" t="n">
         <v>141.9500000000001</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="n">
-        <v>136.6</v>
-      </c>
-      <c r="L92" t="inlineStr">
+        <v>138.2</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M92" t="n">
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3747,24 +3929,27 @@
         <v>3000</v>
       </c>
       <c r="G93" t="n">
+        <v>138.7599999999999</v>
+      </c>
+      <c r="H93" t="n">
         <v>141.8316666666668</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="n">
-        <v>136.6</v>
-      </c>
-      <c r="L93" t="inlineStr">
+        <v>138</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M93" t="n">
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3788,24 +3973,25 @@
         <v>6.9933</v>
       </c>
       <c r="G94" t="n">
+        <v>139.0466666666666</v>
+      </c>
+      <c r="H94" t="n">
         <v>141.7150000000001</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>136.6</v>
-      </c>
-      <c r="L94" t="inlineStr">
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M94" t="n">
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3829,24 +4015,25 @@
         <v>885.5684</v>
       </c>
       <c r="G95" t="n">
+        <v>139.3266666666667</v>
+      </c>
+      <c r="H95" t="n">
         <v>141.6666666666668</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>136.6</v>
-      </c>
-      <c r="L95" t="inlineStr">
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M95" t="n">
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3870,24 +4057,25 @@
         <v>5.1684</v>
       </c>
       <c r="G96" t="n">
+        <v>139.38</v>
+      </c>
+      <c r="H96" t="n">
         <v>141.5466666666668</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>136.6</v>
-      </c>
-      <c r="L96" t="inlineStr">
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M96" t="n">
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3911,24 +4099,25 @@
         <v>2806.403</v>
       </c>
       <c r="G97" t="n">
+        <v>139.8533333333333</v>
+      </c>
+      <c r="H97" t="n">
         <v>141.4800000000001</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>136.6</v>
-      </c>
-      <c r="L97" t="inlineStr">
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M97" t="n">
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3952,24 +4141,25 @@
         <v>1000</v>
       </c>
       <c r="G98" t="n">
+        <v>140.2199999999999</v>
+      </c>
+      <c r="H98" t="n">
         <v>141.4200000000001</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>136.6</v>
-      </c>
-      <c r="L98" t="inlineStr">
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M98" t="n">
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3993,24 +4183,25 @@
         <v>60.4902</v>
       </c>
       <c r="G99" t="n">
+        <v>140.5599999999999</v>
+      </c>
+      <c r="H99" t="n">
         <v>141.3600000000001</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>136.6</v>
-      </c>
-      <c r="L99" t="inlineStr">
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M99" t="n">
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4034,24 +4225,25 @@
         <v>212</v>
       </c>
       <c r="G100" t="n">
+        <v>140.7599999999999</v>
+      </c>
+      <c r="H100" t="n">
         <v>141.2433333333334</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>136.6</v>
-      </c>
-      <c r="L100" t="inlineStr">
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M100" t="n">
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4075,24 +4267,25 @@
         <v>246</v>
       </c>
       <c r="G101" t="n">
+        <v>141.0999999999999</v>
+      </c>
+      <c r="H101" t="n">
         <v>141.1616666666668</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>136.6</v>
-      </c>
-      <c r="L101" t="inlineStr">
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M101" t="n">
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4116,24 +4309,25 @@
         <v>212</v>
       </c>
       <c r="G102" t="n">
+        <v>141.4999999999999</v>
+      </c>
+      <c r="H102" t="n">
         <v>141.0783333333334</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>136.6</v>
-      </c>
-      <c r="L102" t="inlineStr">
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M102" t="n">
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4157,24 +4351,25 @@
         <v>5624.1496</v>
       </c>
       <c r="G103" t="n">
+        <v>142.02</v>
+      </c>
+      <c r="H103" t="n">
         <v>141.0266666666668</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>136.6</v>
-      </c>
-      <c r="L103" t="inlineStr">
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M103" t="n">
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4198,24 +4393,25 @@
         <v>2052.2179</v>
       </c>
       <c r="G104" t="n">
+        <v>142.5533333333333</v>
+      </c>
+      <c r="H104" t="n">
         <v>140.9783333333334</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>136.6</v>
-      </c>
-      <c r="L104" t="inlineStr">
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M104" t="n">
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4239,25 +4435,26 @@
         <v>246</v>
       </c>
       <c r="G105" t="n">
+        <v>143.2066666666666</v>
+      </c>
+      <c r="H105" t="n">
         <v>140.9283333333334</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
-        <v>1</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>136.6</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1.077723279648609</v>
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -4280,18 +4477,25 @@
         <v>4531.7167</v>
       </c>
       <c r="G106" t="n">
+        <v>143.86</v>
+      </c>
+      <c r="H106" t="n">
         <v>141.0266666666668</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4315,18 +4519,25 @@
         <v>152.7465</v>
       </c>
       <c r="G107" t="n">
+        <v>144.5266666666666</v>
+      </c>
+      <c r="H107" t="n">
         <v>141.0500000000001</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
-        <v>1</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4350,18 +4561,25 @@
         <v>1263.3586</v>
       </c>
       <c r="G108" t="n">
+        <v>145.2733333333333</v>
+      </c>
+      <c r="H108" t="n">
         <v>141.0700000000001</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
-        <v>1</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4385,18 +4603,25 @@
         <v>820</v>
       </c>
       <c r="G109" t="n">
+        <v>145.48</v>
+      </c>
+      <c r="H109" t="n">
         <v>141.0983333333334</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
-        <v>1</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4420,18 +4645,25 @@
         <v>12.8153</v>
       </c>
       <c r="G110" t="n">
+        <v>145.6266666666666</v>
+      </c>
+      <c r="H110" t="n">
         <v>141.1133333333334</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
-        <v>1</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4455,18 +4687,25 @@
         <v>1682.375</v>
       </c>
       <c r="G111" t="n">
+        <v>145.8466666666667</v>
+      </c>
+      <c r="H111" t="n">
         <v>141.1450000000001</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
-        <v>1</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4490,18 +4729,25 @@
         <v>269.1077</v>
       </c>
       <c r="G112" t="n">
+        <v>146.1533333333333</v>
+      </c>
+      <c r="H112" t="n">
         <v>141.1883333333334</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4525,18 +4771,25 @@
         <v>1671.261</v>
       </c>
       <c r="G113" t="n">
+        <v>146.16</v>
+      </c>
+      <c r="H113" t="n">
         <v>141.2350000000001</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4560,18 +4813,25 @@
         <v>5.1221</v>
       </c>
       <c r="G114" t="n">
+        <v>146.0266666666666</v>
+      </c>
+      <c r="H114" t="n">
         <v>141.2466666666668</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4595,18 +4855,25 @@
         <v>361.588</v>
       </c>
       <c r="G115" t="n">
+        <v>146.0266666666666</v>
+      </c>
+      <c r="H115" t="n">
         <v>141.2566666666668</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4630,18 +4897,25 @@
         <v>1589.8947</v>
       </c>
       <c r="G116" t="n">
+        <v>145.76</v>
+      </c>
+      <c r="H116" t="n">
         <v>141.2516666666668</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4665,18 +4939,25 @@
         <v>8.688800000000001</v>
       </c>
       <c r="G117" t="n">
+        <v>145.4933333333333</v>
+      </c>
+      <c r="H117" t="n">
         <v>141.2350000000001</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4700,18 +4981,25 @@
         <v>4112.5943</v>
       </c>
       <c r="G118" t="n">
+        <v>145.02</v>
+      </c>
+      <c r="H118" t="n">
         <v>141.2100000000001</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4735,18 +5023,25 @@
         <v>1469.0014</v>
       </c>
       <c r="G119" t="n">
+        <v>144.62</v>
+      </c>
+      <c r="H119" t="n">
         <v>141.2083333333335</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4770,18 +5065,25 @@
         <v>3548.3433</v>
       </c>
       <c r="G120" t="n">
+        <v>144.2066666666666</v>
+      </c>
+      <c r="H120" t="n">
         <v>141.2083333333335</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4805,18 +5107,27 @@
         <v>205.3243</v>
       </c>
       <c r="G121" t="n">
+        <v>143.8733333333333</v>
+      </c>
+      <c r="H121" t="n">
         <v>141.2366666666668</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="n">
+        <v>141.7</v>
+      </c>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4840,18 +5151,25 @@
         <v>3448.3433</v>
       </c>
       <c r="G122" t="n">
+        <v>143.2733333333333</v>
+      </c>
+      <c r="H122" t="n">
         <v>141.2000000000001</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4875,18 +5193,27 @@
         <v>10</v>
       </c>
       <c r="G123" t="n">
+        <v>143.1199999999999</v>
+      </c>
+      <c r="H123" t="n">
         <v>141.2733333333335</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="n">
+        <v>139</v>
+      </c>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4910,18 +5237,25 @@
         <v>10</v>
       </c>
       <c r="G124" t="n">
+        <v>143.1666666666666</v>
+      </c>
+      <c r="H124" t="n">
         <v>141.3316666666668</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4945,18 +5279,25 @@
         <v>210.9828</v>
       </c>
       <c r="G125" t="n">
+        <v>143.0333333333333</v>
+      </c>
+      <c r="H125" t="n">
         <v>141.4116666666668</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4980,18 +5321,25 @@
         <v>9397.7261</v>
       </c>
       <c r="G126" t="n">
+        <v>142.7666666666666</v>
+      </c>
+      <c r="H126" t="n">
         <v>141.4683333333334</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5015,18 +5363,25 @@
         <v>368.8861</v>
       </c>
       <c r="G127" t="n">
+        <v>142.2599999999999</v>
+      </c>
+      <c r="H127" t="n">
         <v>141.5400000000001</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5050,18 +5405,25 @@
         <v>10</v>
       </c>
       <c r="G128" t="n">
+        <v>142.1199999999999</v>
+      </c>
+      <c r="H128" t="n">
         <v>141.5600000000001</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5085,18 +5447,25 @@
         <v>1374.6977</v>
       </c>
       <c r="G129" t="n">
+        <v>142.1799999999999</v>
+      </c>
+      <c r="H129" t="n">
         <v>141.6650000000001</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5120,18 +5489,25 @@
         <v>1374.6977</v>
       </c>
       <c r="G130" t="n">
+        <v>142.1266666666666</v>
+      </c>
+      <c r="H130" t="n">
         <v>141.7633333333334</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5155,18 +5531,25 @@
         <v>1672.874</v>
       </c>
       <c r="G131" t="n">
+        <v>142.5866666666666</v>
+      </c>
+      <c r="H131" t="n">
         <v>141.9450000000001</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5190,18 +5573,25 @@
         <v>10</v>
       </c>
       <c r="G132" t="n">
+        <v>143.1733333333333</v>
+      </c>
+      <c r="H132" t="n">
         <v>142.1583333333334</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5225,18 +5615,25 @@
         <v>8</v>
       </c>
       <c r="G133" t="n">
+        <v>143.3866666666666</v>
+      </c>
+      <c r="H133" t="n">
         <v>142.2816666666668</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5260,18 +5657,25 @@
         <v>1379.277</v>
       </c>
       <c r="G134" t="n">
+        <v>143.6599999999999</v>
+      </c>
+      <c r="H134" t="n">
         <v>142.4166666666668</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5295,18 +5699,25 @@
         <v>10726.12261618</v>
       </c>
       <c r="G135" t="n">
+        <v>143.8133333333333</v>
+      </c>
+      <c r="H135" t="n">
         <v>142.5400000000001</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5330,18 +5741,25 @@
         <v>2337.8456</v>
       </c>
       <c r="G136" t="n">
+        <v>143.88</v>
+      </c>
+      <c r="H136" t="n">
         <v>142.6400000000001</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5365,18 +5783,25 @@
         <v>2698.633</v>
       </c>
       <c r="G137" t="n">
+        <v>144.5466666666666</v>
+      </c>
+      <c r="H137" t="n">
         <v>142.8466666666667</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5400,18 +5825,25 @@
         <v>10158.7416</v>
       </c>
       <c r="G138" t="n">
+        <v>144.32</v>
+      </c>
+      <c r="H138" t="n">
         <v>142.8683333333334</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5435,18 +5867,25 @@
         <v>6</v>
       </c>
       <c r="G139" t="n">
+        <v>144.38</v>
+      </c>
+      <c r="H139" t="n">
         <v>143.0183333333334</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5470,18 +5909,25 @@
         <v>5620.2866</v>
       </c>
       <c r="G140" t="n">
+        <v>145.1133333333333</v>
+      </c>
+      <c r="H140" t="n">
         <v>143.2750000000001</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5505,18 +5951,25 @@
         <v>2581.487</v>
       </c>
       <c r="G141" t="n">
+        <v>146.0333333333333</v>
+      </c>
+      <c r="H141" t="n">
         <v>143.5066666666667</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5540,18 +5993,25 @@
         <v>5228.1627</v>
       </c>
       <c r="G142" t="n">
+        <v>146.8933333333333</v>
+      </c>
+      <c r="H142" t="n">
         <v>143.7900000000001</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5575,18 +6035,25 @@
         <v>227</v>
       </c>
       <c r="G143" t="n">
+        <v>147.58</v>
+      </c>
+      <c r="H143" t="n">
         <v>144.0200000000001</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5610,18 +6077,25 @@
         <v>5</v>
       </c>
       <c r="G144" t="n">
+        <v>148.1866666666666</v>
+      </c>
+      <c r="H144" t="n">
         <v>144.2383333333334</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5645,20 +6119,25 @@
         <v>972</v>
       </c>
       <c r="G145" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="H145" t="n">
         <v>144.4533333333334</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>1</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5680,18 +6159,401 @@
         <v>5527.8557</v>
       </c>
       <c r="G146" t="n">
+        <v>149.1666666666667</v>
+      </c>
+      <c r="H146" t="n">
         <v>144.6533333333334</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>1</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="C147" t="n">
+        <v>149.1</v>
+      </c>
+      <c r="D147" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="E147" t="n">
+        <v>149.1</v>
+      </c>
+      <c r="F147" t="n">
+        <v>835</v>
+      </c>
+      <c r="G147" t="n">
+        <v>149.0533333333333</v>
+      </c>
+      <c r="H147" t="n">
+        <v>144.8050000000001</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>1</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>151.9</v>
+      </c>
+      <c r="C148" t="n">
+        <v>151.9</v>
+      </c>
+      <c r="D148" t="n">
+        <v>151.9</v>
+      </c>
+      <c r="E148" t="n">
+        <v>151.9</v>
+      </c>
+      <c r="F148" t="n">
+        <v>5</v>
+      </c>
+      <c r="G148" t="n">
+        <v>149.58</v>
+      </c>
+      <c r="H148" t="n">
+        <v>145.0016666666667</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>1</v>
+      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>151.9</v>
+      </c>
+      <c r="C149" t="n">
+        <v>151.9</v>
+      </c>
+      <c r="D149" t="n">
+        <v>151.9</v>
+      </c>
+      <c r="E149" t="n">
+        <v>151.9</v>
+      </c>
+      <c r="F149" t="n">
+        <v>5</v>
+      </c>
+      <c r="G149" t="n">
+        <v>149.9666666666667</v>
+      </c>
+      <c r="H149" t="n">
+        <v>145.2000000000001</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>1</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>145.6</v>
+      </c>
+      <c r="C150" t="n">
+        <v>147.9</v>
+      </c>
+      <c r="D150" t="n">
+        <v>150.8</v>
+      </c>
+      <c r="E150" t="n">
+        <v>143.2</v>
+      </c>
+      <c r="F150" t="n">
+        <v>5244.1627</v>
+      </c>
+      <c r="G150" t="n">
+        <v>150.2266666666667</v>
+      </c>
+      <c r="H150" t="n">
+        <v>145.3633333333334</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>1</v>
+      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>148</v>
+      </c>
+      <c r="C151" t="n">
+        <v>149.9</v>
+      </c>
+      <c r="D151" t="n">
+        <v>149.9</v>
+      </c>
+      <c r="E151" t="n">
+        <v>148</v>
+      </c>
+      <c r="F151" t="n">
+        <v>11</v>
+      </c>
+      <c r="G151" t="n">
+        <v>150.62</v>
+      </c>
+      <c r="H151" t="n">
+        <v>145.5583333333334</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>148.8</v>
+      </c>
+      <c r="C152" t="n">
+        <v>143.2</v>
+      </c>
+      <c r="D152" t="n">
+        <v>148.8</v>
+      </c>
+      <c r="E152" t="n">
+        <v>143.2</v>
+      </c>
+      <c r="F152" t="n">
+        <v>3187.486</v>
+      </c>
+      <c r="G152" t="n">
+        <v>150.2333333333333</v>
+      </c>
+      <c r="H152" t="n">
+        <v>145.645</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>144</v>
+      </c>
+      <c r="C153" t="n">
+        <v>144</v>
+      </c>
+      <c r="D153" t="n">
+        <v>144</v>
+      </c>
+      <c r="E153" t="n">
+        <v>144</v>
+      </c>
+      <c r="F153" t="n">
+        <v>219.0164</v>
+      </c>
+      <c r="G153" t="n">
+        <v>150.3533333333334</v>
+      </c>
+      <c r="H153" t="n">
+        <v>145.7666666666667</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>144</v>
+      </c>
+      <c r="C154" t="n">
+        <v>144</v>
+      </c>
+      <c r="D154" t="n">
+        <v>144</v>
+      </c>
+      <c r="E154" t="n">
+        <v>144</v>
+      </c>
+      <c r="F154" t="n">
+        <v>97.95489999999999</v>
+      </c>
+      <c r="G154" t="n">
+        <v>150.2466666666667</v>
+      </c>
+      <c r="H154" t="n">
+        <v>145.8183333333334</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>143</v>
+      </c>
+      <c r="C155" t="n">
+        <v>142.2</v>
+      </c>
+      <c r="D155" t="n">
+        <v>143</v>
+      </c>
+      <c r="E155" t="n">
+        <v>142.2</v>
+      </c>
+      <c r="F155" t="n">
+        <v>5283.4723</v>
+      </c>
+      <c r="G155" t="n">
+        <v>149.5933333333333</v>
+      </c>
+      <c r="H155" t="n">
+        <v>145.8416666666667</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>142.2</v>
+      </c>
+      <c r="C156" t="n">
+        <v>142.2</v>
+      </c>
+      <c r="D156" t="n">
+        <v>142.2</v>
+      </c>
+      <c r="E156" t="n">
+        <v>142.2</v>
+      </c>
+      <c r="F156" t="n">
+        <v>239.3834</v>
+      </c>
+      <c r="G156" t="n">
+        <v>148.82</v>
+      </c>
+      <c r="H156" t="n">
+        <v>145.8666666666667</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-16 BackTest ARN.xlsx
+++ b/BackTest/2020-01-16 BackTest ARN.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N156"/>
+  <dimension ref="A1:M185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>MA60</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>144.6</v>
+        <v>148.2</v>
       </c>
       <c r="C2" t="n">
-        <v>146.9</v>
+        <v>148.2</v>
       </c>
       <c r="D2" t="n">
-        <v>146.9</v>
+        <v>148.2</v>
       </c>
       <c r="E2" t="n">
-        <v>144.6</v>
+        <v>148.2</v>
       </c>
       <c r="F2" t="n">
-        <v>17</v>
+        <v>182</v>
       </c>
       <c r="G2" t="n">
-        <v>148.0533333333333</v>
+        <v>16156.87841076001</v>
       </c>
       <c r="H2" t="n">
-        <v>150.6133333333334</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>145.9</v>
+        <v>146.2</v>
       </c>
       <c r="C3" t="n">
-        <v>145.9</v>
+        <v>145</v>
       </c>
       <c r="D3" t="n">
-        <v>145.9</v>
+        <v>146.2</v>
       </c>
       <c r="E3" t="n">
-        <v>145.9</v>
+        <v>145</v>
       </c>
       <c r="F3" t="n">
-        <v>13</v>
+        <v>4878.7779</v>
       </c>
       <c r="G3" t="n">
-        <v>147.7866666666666</v>
+        <v>11278.10051076001</v>
       </c>
       <c r="H3" t="n">
-        <v>150.3966666666667</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>145.7</v>
+        <v>144.9</v>
       </c>
       <c r="C4" t="n">
-        <v>147</v>
+        <v>151.3</v>
       </c>
       <c r="D4" t="n">
-        <v>147</v>
+        <v>151.3</v>
       </c>
       <c r="E4" t="n">
-        <v>145.7</v>
+        <v>141.5</v>
       </c>
       <c r="F4" t="n">
-        <v>15</v>
+        <v>1477.6074</v>
       </c>
       <c r="G4" t="n">
-        <v>147.44</v>
+        <v>12755.70791076001</v>
       </c>
       <c r="H4" t="n">
-        <v>150.2550000000001</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>146.7</v>
+        <v>142.1</v>
       </c>
       <c r="C5" t="n">
-        <v>147</v>
+        <v>142.1</v>
       </c>
       <c r="D5" t="n">
-        <v>147</v>
+        <v>142.1</v>
       </c>
       <c r="E5" t="n">
-        <v>146.7</v>
+        <v>142.1</v>
       </c>
       <c r="F5" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G5" t="n">
-        <v>147.2266666666666</v>
+        <v>12749.70791076001</v>
       </c>
       <c r="H5" t="n">
-        <v>150.0566666666667</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>147</v>
+        <v>150.8</v>
       </c>
       <c r="C6" t="n">
-        <v>147</v>
+        <v>150.8</v>
       </c>
       <c r="D6" t="n">
-        <v>147</v>
+        <v>150.8</v>
       </c>
       <c r="E6" t="n">
-        <v>147</v>
+        <v>150.8</v>
       </c>
       <c r="F6" t="n">
-        <v>336</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>147.02</v>
+        <v>12753.70791076001</v>
       </c>
       <c r="H6" t="n">
-        <v>149.9233333333334</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>146.7</v>
+        <v>142.1</v>
       </c>
       <c r="C7" t="n">
-        <v>148</v>
+        <v>142.1</v>
       </c>
       <c r="D7" t="n">
-        <v>148</v>
+        <v>142.1</v>
       </c>
       <c r="E7" t="n">
-        <v>146.7</v>
+        <v>142.1</v>
       </c>
       <c r="F7" t="n">
-        <v>700</v>
+        <v>6</v>
       </c>
       <c r="G7" t="n">
-        <v>147.2866666666667</v>
+        <v>12747.70791076001</v>
       </c>
       <c r="H7" t="n">
-        <v>149.7616666666667</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,37 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>146.4</v>
+        <v>143</v>
       </c>
       <c r="C8" t="n">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D8" t="n">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E8" t="n">
-        <v>145.9</v>
+        <v>143</v>
       </c>
       <c r="F8" t="n">
-        <v>727</v>
+        <v>10758.3309</v>
       </c>
       <c r="G8" t="n">
-        <v>147.0266666666666</v>
+        <v>23506.03881076002</v>
       </c>
       <c r="H8" t="n">
-        <v>149.6616666666667</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
+        <v>142.1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>142.1</v>
+      </c>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +682,41 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C9" t="n">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D9" t="n">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E9" t="n">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F9" t="n">
-        <v>20966.0828</v>
+        <v>16410.861</v>
       </c>
       <c r="G9" t="n">
-        <v>146.8533333333333</v>
+        <v>39916.89981076002</v>
       </c>
       <c r="H9" t="n">
-        <v>149.5766666666667</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+        <v>143</v>
+      </c>
+      <c r="K9" t="n">
+        <v>142.1</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +725,41 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C10" t="n">
-        <v>149</v>
+        <v>152.9</v>
       </c>
       <c r="D10" t="n">
-        <v>149</v>
+        <v>152.9</v>
       </c>
       <c r="E10" t="n">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F10" t="n">
-        <v>5790.0684</v>
+        <v>83</v>
       </c>
       <c r="G10" t="n">
-        <v>146.68</v>
+        <v>39999.89981076002</v>
       </c>
       <c r="H10" t="n">
-        <v>149.51</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+        <v>152</v>
+      </c>
+      <c r="K10" t="n">
+        <v>142.1</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +768,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C11" t="n">
-        <v>141.5</v>
+        <v>153</v>
       </c>
       <c r="D11" t="n">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E11" t="n">
-        <v>141.5</v>
+        <v>153</v>
       </c>
       <c r="F11" t="n">
-        <v>237.9128</v>
+        <v>4</v>
       </c>
       <c r="G11" t="n">
-        <v>146.0066666666667</v>
+        <v>40003.89981076002</v>
       </c>
       <c r="H11" t="n">
-        <v>149.3183333333334</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +803,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>149</v>
+        <v>152.7</v>
       </c>
       <c r="C12" t="n">
-        <v>141.6</v>
+        <v>152</v>
       </c>
       <c r="D12" t="n">
-        <v>149</v>
+        <v>152.9</v>
       </c>
       <c r="E12" t="n">
-        <v>141.6</v>
+        <v>147.1</v>
       </c>
       <c r="F12" t="n">
-        <v>15.9908</v>
+        <v>158.3056</v>
       </c>
       <c r="G12" t="n">
-        <v>146.0333333333333</v>
+        <v>39845.59421076002</v>
       </c>
       <c r="H12" t="n">
-        <v>149.145</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +838,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>145.6</v>
+        <v>152</v>
       </c>
       <c r="C13" t="n">
-        <v>145.6</v>
+        <v>152.9</v>
       </c>
       <c r="D13" t="n">
-        <v>145.6</v>
+        <v>152.9</v>
       </c>
       <c r="E13" t="n">
-        <v>145.6</v>
+        <v>152</v>
       </c>
       <c r="F13" t="n">
-        <v>3.9889</v>
+        <v>187</v>
       </c>
       <c r="G13" t="n">
-        <v>146.32</v>
+        <v>40032.59421076002</v>
       </c>
       <c r="H13" t="n">
-        <v>149.0383333333334</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +873,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>145.6</v>
+        <v>151.5</v>
       </c>
       <c r="C14" t="n">
-        <v>142.1</v>
+        <v>152.7</v>
       </c>
       <c r="D14" t="n">
-        <v>145.6</v>
+        <v>152.7</v>
       </c>
       <c r="E14" t="n">
-        <v>142.1</v>
+        <v>143</v>
       </c>
       <c r="F14" t="n">
-        <v>14</v>
+        <v>223.4128</v>
       </c>
       <c r="G14" t="n">
-        <v>146.08</v>
+        <v>39809.18141076002</v>
       </c>
       <c r="H14" t="n">
-        <v>148.8850000000001</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +908,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>145.6</v>
+        <v>152.5</v>
       </c>
       <c r="C15" t="n">
-        <v>153.9</v>
+        <v>152.3</v>
       </c>
       <c r="D15" t="n">
-        <v>153.9</v>
+        <v>152.5</v>
       </c>
       <c r="E15" t="n">
-        <v>145.6</v>
+        <v>143.5</v>
       </c>
       <c r="F15" t="n">
-        <v>5372.56903976</v>
+        <v>24</v>
       </c>
       <c r="G15" t="n">
-        <v>146.62</v>
+        <v>39785.18141076002</v>
       </c>
       <c r="H15" t="n">
-        <v>148.8850000000001</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +943,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>152</v>
+        <v>151.8</v>
       </c>
       <c r="C16" t="n">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D16" t="n">
-        <v>152</v>
+        <v>151.8</v>
       </c>
       <c r="E16" t="n">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F16" t="n">
-        <v>8.1096</v>
+        <v>26</v>
       </c>
       <c r="G16" t="n">
-        <v>147.0333333333333</v>
+        <v>39759.18141076002</v>
       </c>
       <c r="H16" t="n">
-        <v>148.8850000000001</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +978,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>152</v>
+        <v>149.9</v>
       </c>
       <c r="C17" t="n">
-        <v>143.7</v>
+        <v>149.9</v>
       </c>
       <c r="D17" t="n">
-        <v>152</v>
+        <v>149.9</v>
       </c>
       <c r="E17" t="n">
-        <v>143.7</v>
+        <v>149.9</v>
       </c>
       <c r="F17" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G17" t="n">
-        <v>146.82</v>
+        <v>39755.18141076002</v>
       </c>
       <c r="H17" t="n">
-        <v>148.7583333333334</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +1013,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>152</v>
+        <v>152.9</v>
       </c>
       <c r="C18" t="n">
-        <v>152</v>
+        <v>152.2</v>
       </c>
       <c r="D18" t="n">
-        <v>152</v>
+        <v>152.9</v>
       </c>
       <c r="E18" t="n">
-        <v>152</v>
+        <v>151.3</v>
       </c>
       <c r="F18" t="n">
-        <v>3.8908</v>
+        <v>109</v>
       </c>
       <c r="G18" t="n">
-        <v>147.2266666666666</v>
+        <v>39864.18141076002</v>
       </c>
       <c r="H18" t="n">
-        <v>148.7700000000001</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1087,33 +1051,30 @@
         <v>152</v>
       </c>
       <c r="C19" t="n">
-        <v>143.7</v>
+        <v>150.2</v>
       </c>
       <c r="D19" t="n">
         <v>152</v>
       </c>
       <c r="E19" t="n">
-        <v>143.7</v>
+        <v>150.2</v>
       </c>
       <c r="F19" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G19" t="n">
-        <v>147.0066666666666</v>
+        <v>39844.18141076002</v>
       </c>
       <c r="H19" t="n">
-        <v>148.6000000000001</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1083,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>152</v>
+        <v>150.1</v>
       </c>
       <c r="C20" t="n">
-        <v>144.7</v>
+        <v>150.1</v>
       </c>
       <c r="D20" t="n">
-        <v>152</v>
+        <v>150.1</v>
       </c>
       <c r="E20" t="n">
-        <v>144.7</v>
+        <v>150.1</v>
       </c>
       <c r="F20" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="G20" t="n">
-        <v>146.8533333333333</v>
+        <v>39839.18141076002</v>
       </c>
       <c r="H20" t="n">
-        <v>148.4933333333335</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1118,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>152</v>
+        <v>149.7</v>
       </c>
       <c r="C21" t="n">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D21" t="n">
-        <v>152</v>
+        <v>149.7</v>
       </c>
       <c r="E21" t="n">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="F21" t="n">
-        <v>3.8098</v>
+        <v>119.4444</v>
       </c>
       <c r="G21" t="n">
-        <v>147.1866666666666</v>
+        <v>39719.73701076002</v>
       </c>
       <c r="H21" t="n">
-        <v>148.5083333333335</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1153,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C22" t="n">
-        <v>152</v>
+        <v>152.9</v>
       </c>
       <c r="D22" t="n">
-        <v>152</v>
+        <v>152.9</v>
       </c>
       <c r="E22" t="n">
-        <v>144.7</v>
+        <v>144</v>
       </c>
       <c r="F22" t="n">
-        <v>20.0012</v>
+        <v>26</v>
       </c>
       <c r="G22" t="n">
-        <v>147.4533333333333</v>
+        <v>39745.73701076002</v>
       </c>
       <c r="H22" t="n">
-        <v>148.5250000000001</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1188,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>152</v>
+        <v>151.6</v>
       </c>
       <c r="C23" t="n">
-        <v>152</v>
+        <v>151.6</v>
       </c>
       <c r="D23" t="n">
-        <v>152</v>
+        <v>151.6</v>
       </c>
       <c r="E23" t="n">
-        <v>152</v>
+        <v>151.6</v>
       </c>
       <c r="F23" t="n">
-        <v>3.2991</v>
+        <v>4</v>
       </c>
       <c r="G23" t="n">
-        <v>147.6533333333333</v>
+        <v>39741.73701076002</v>
       </c>
       <c r="H23" t="n">
-        <v>148.5416666666668</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1223,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>152</v>
+        <v>144.5</v>
       </c>
       <c r="C24" t="n">
-        <v>144.7</v>
+        <v>151.6</v>
       </c>
       <c r="D24" t="n">
-        <v>152</v>
+        <v>151.6</v>
       </c>
       <c r="E24" t="n">
-        <v>144.7</v>
+        <v>144.5</v>
       </c>
       <c r="F24" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G24" t="n">
-        <v>147.3666666666666</v>
+        <v>39741.73701076002</v>
       </c>
       <c r="H24" t="n">
-        <v>148.4350000000001</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,36 +1258,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>152</v>
+        <v>151.6</v>
       </c>
       <c r="C25" t="n">
-        <v>152</v>
+        <v>151.6</v>
       </c>
       <c r="D25" t="n">
-        <v>152</v>
+        <v>151.6</v>
       </c>
       <c r="E25" t="n">
-        <v>152</v>
+        <v>151.6</v>
       </c>
       <c r="F25" t="n">
-        <v>3.67</v>
+        <v>5</v>
       </c>
       <c r="G25" t="n">
-        <v>147.5666666666666</v>
+        <v>39741.73701076002</v>
       </c>
       <c r="H25" t="n">
-        <v>148.4683333333334</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,36 +1293,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>152</v>
+        <v>144.4</v>
       </c>
       <c r="C26" t="n">
-        <v>152</v>
+        <v>141.2</v>
       </c>
       <c r="D26" t="n">
-        <v>152</v>
+        <v>144.4</v>
       </c>
       <c r="E26" t="n">
-        <v>144.7</v>
+        <v>141.2</v>
       </c>
       <c r="F26" t="n">
-        <v>15.9999</v>
+        <v>10468.5481</v>
       </c>
       <c r="G26" t="n">
-        <v>148.2666666666666</v>
+        <v>29273.18891076002</v>
       </c>
       <c r="H26" t="n">
-        <v>148.5016666666668</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1328,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>148.1</v>
+        <v>141.5</v>
       </c>
       <c r="C27" t="n">
-        <v>145.7</v>
+        <v>141.3</v>
       </c>
       <c r="D27" t="n">
-        <v>148.1</v>
+        <v>141.5</v>
       </c>
       <c r="E27" t="n">
-        <v>145.7</v>
+        <v>141.3</v>
       </c>
       <c r="F27" t="n">
-        <v>1581.9718</v>
+        <v>11539.7764</v>
       </c>
       <c r="G27" t="n">
-        <v>148.5399999999999</v>
+        <v>40812.96531076002</v>
       </c>
       <c r="H27" t="n">
-        <v>148.5116666666668</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1363,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>148.7</v>
+        <v>145.7</v>
       </c>
       <c r="C28" t="n">
-        <v>148.7</v>
+        <v>145.7</v>
       </c>
       <c r="D28" t="n">
-        <v>148.7</v>
+        <v>145.7</v>
       </c>
       <c r="E28" t="n">
-        <v>148.7</v>
+        <v>145.7</v>
       </c>
       <c r="F28" t="n">
-        <v>3.6809</v>
+        <v>4.0096</v>
       </c>
       <c r="G28" t="n">
-        <v>148.7466666666666</v>
+        <v>40816.97491076002</v>
       </c>
       <c r="H28" t="n">
-        <v>148.4083333333335</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,36 +1398,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>147.6</v>
+        <v>145.8</v>
       </c>
       <c r="C29" t="n">
-        <v>147.6</v>
+        <v>145.8</v>
       </c>
       <c r="D29" t="n">
-        <v>147.6</v>
+        <v>145.8</v>
       </c>
       <c r="E29" t="n">
-        <v>147.6</v>
+        <v>145.8</v>
       </c>
       <c r="F29" t="n">
-        <v>233</v>
+        <v>3.9998</v>
       </c>
       <c r="G29" t="n">
-        <v>149.1133333333332</v>
+        <v>40820.97471076002</v>
       </c>
       <c r="H29" t="n">
-        <v>148.3566666666668</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,36 +1433,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>150.9</v>
+        <v>145.9</v>
       </c>
       <c r="C30" t="n">
-        <v>150.9</v>
+        <v>145.8</v>
       </c>
       <c r="D30" t="n">
-        <v>150.9</v>
+        <v>145.9</v>
       </c>
       <c r="E30" t="n">
-        <v>143.7</v>
+        <v>145.8</v>
       </c>
       <c r="F30" t="n">
-        <v>27.9089</v>
+        <v>12</v>
       </c>
       <c r="G30" t="n">
-        <v>148.9133333333332</v>
+        <v>40820.97471076002</v>
       </c>
       <c r="H30" t="n">
-        <v>148.3050000000001</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,36 +1468,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>148.7</v>
+        <v>144.6</v>
       </c>
       <c r="C31" t="n">
-        <v>147.7</v>
+        <v>146.9</v>
       </c>
       <c r="D31" t="n">
-        <v>148.7</v>
+        <v>146.9</v>
       </c>
       <c r="E31" t="n">
-        <v>147.7</v>
+        <v>144.6</v>
       </c>
       <c r="F31" t="n">
-        <v>2010.5098</v>
+        <v>17</v>
       </c>
       <c r="G31" t="n">
-        <v>148.6266666666666</v>
+        <v>40837.97471076002</v>
       </c>
       <c r="H31" t="n">
-        <v>148.2516666666668</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,36 +1503,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>150.9</v>
+        <v>145.9</v>
       </c>
       <c r="C32" t="n">
-        <v>149.9</v>
+        <v>145.9</v>
       </c>
       <c r="D32" t="n">
-        <v>150.9</v>
+        <v>145.9</v>
       </c>
       <c r="E32" t="n">
-        <v>143.7</v>
+        <v>145.9</v>
       </c>
       <c r="F32" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G32" t="n">
-        <v>149.0399999999999</v>
+        <v>40824.97471076002</v>
       </c>
       <c r="H32" t="n">
-        <v>148.3166666666668</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>1</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,36 +1538,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>147.7</v>
+        <v>145.7</v>
       </c>
       <c r="C33" t="n">
-        <v>143.8</v>
+        <v>147</v>
       </c>
       <c r="D33" t="n">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E33" t="n">
-        <v>143.7</v>
+        <v>145.7</v>
       </c>
       <c r="F33" t="n">
-        <v>21.6544</v>
+        <v>15</v>
       </c>
       <c r="G33" t="n">
-        <v>148.4933333333333</v>
+        <v>40839.97471076002</v>
       </c>
       <c r="H33" t="n">
-        <v>148.2433333333335</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>1</v>
+        <v>145.9</v>
       </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,36 +1579,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>147.9</v>
+        <v>146.7</v>
       </c>
       <c r="C34" t="n">
-        <v>147.9</v>
+        <v>147</v>
       </c>
       <c r="D34" t="n">
-        <v>147.9</v>
+        <v>147</v>
       </c>
       <c r="E34" t="n">
-        <v>147.9</v>
+        <v>146.7</v>
       </c>
       <c r="F34" t="n">
-        <v>3.5669</v>
+        <v>11</v>
       </c>
       <c r="G34" t="n">
-        <v>148.7733333333333</v>
+        <v>40839.97471076002</v>
       </c>
       <c r="H34" t="n">
-        <v>148.2916666666668</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,36 +1620,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>147.9</v>
+        <v>147</v>
       </c>
       <c r="C35" t="n">
-        <v>143.7</v>
+        <v>147</v>
       </c>
       <c r="D35" t="n">
-        <v>148.5</v>
+        <v>147</v>
       </c>
       <c r="E35" t="n">
-        <v>143.7</v>
+        <v>147</v>
       </c>
       <c r="F35" t="n">
-        <v>152</v>
+        <v>336</v>
       </c>
       <c r="G35" t="n">
-        <v>148.7066666666666</v>
+        <v>40839.97471076002</v>
       </c>
       <c r="H35" t="n">
-        <v>148.1650000000001</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,36 +1661,37 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>147.9</v>
+        <v>146.7</v>
       </c>
       <c r="C36" t="n">
-        <v>147.9</v>
+        <v>148</v>
       </c>
       <c r="D36" t="n">
-        <v>147.9</v>
+        <v>148</v>
       </c>
       <c r="E36" t="n">
-        <v>147.9</v>
+        <v>146.7</v>
       </c>
       <c r="F36" t="n">
-        <v>3.78</v>
+        <v>700</v>
       </c>
       <c r="G36" t="n">
-        <v>148.4333333333333</v>
+        <v>41539.97471076002</v>
       </c>
       <c r="H36" t="n">
-        <v>148.2616666666668</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,36 +1700,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>147.9</v>
+        <v>146.4</v>
       </c>
       <c r="C37" t="n">
+        <v>149</v>
+      </c>
+      <c r="D37" t="n">
+        <v>149</v>
+      </c>
+      <c r="E37" t="n">
+        <v>145.9</v>
+      </c>
+      <c r="F37" t="n">
+        <v>727</v>
+      </c>
+      <c r="G37" t="n">
+        <v>42266.97471076002</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
         <v>148</v>
       </c>
-      <c r="D37" t="n">
-        <v>148</v>
-      </c>
-      <c r="E37" t="n">
-        <v>147.9</v>
-      </c>
-      <c r="F37" t="n">
-        <v>2357.2797</v>
-      </c>
-      <c r="G37" t="n">
-        <v>148.1666666666666</v>
-      </c>
-      <c r="H37" t="n">
-        <v>148.2150000000001</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,36 +1741,37 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>148.6</v>
+        <v>149</v>
       </c>
       <c r="C38" t="n">
-        <v>148.6</v>
+        <v>149</v>
       </c>
       <c r="D38" t="n">
-        <v>148.6</v>
+        <v>149</v>
       </c>
       <c r="E38" t="n">
-        <v>148.6</v>
+        <v>149</v>
       </c>
       <c r="F38" t="n">
-        <v>472.4663</v>
+        <v>20966.0828</v>
       </c>
       <c r="G38" t="n">
-        <v>147.9399999999999</v>
+        <v>42266.97471076002</v>
       </c>
       <c r="H38" t="n">
-        <v>148.3233333333335</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,36 +1780,37 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>148.6</v>
+        <v>149</v>
       </c>
       <c r="C39" t="n">
-        <v>148.6</v>
+        <v>149</v>
       </c>
       <c r="D39" t="n">
-        <v>148.6</v>
+        <v>149</v>
       </c>
       <c r="E39" t="n">
-        <v>148.6</v>
+        <v>149</v>
       </c>
       <c r="F39" t="n">
-        <v>301.6493</v>
+        <v>5790.0684</v>
       </c>
       <c r="G39" t="n">
-        <v>148.1999999999999</v>
+        <v>42266.97471076002</v>
       </c>
       <c r="H39" t="n">
-        <v>148.4166666666668</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1882,36 +1819,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>149.9</v>
+        <v>150</v>
       </c>
       <c r="C40" t="n">
-        <v>150</v>
+        <v>141.5</v>
       </c>
       <c r="D40" t="n">
         <v>150</v>
       </c>
       <c r="E40" t="n">
-        <v>149.9</v>
+        <v>141.5</v>
       </c>
       <c r="F40" t="n">
-        <v>2573.2263</v>
+        <v>237.9128</v>
       </c>
       <c r="G40" t="n">
-        <v>148.0666666666666</v>
+        <v>42029.06191076002</v>
       </c>
       <c r="H40" t="n">
-        <v>148.3833333333335</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1920,36 +1860,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C41" t="n">
-        <v>150.9</v>
+        <v>141.6</v>
       </c>
       <c r="D41" t="n">
-        <v>150.9</v>
+        <v>149</v>
       </c>
       <c r="E41" t="n">
-        <v>150</v>
+        <v>141.6</v>
       </c>
       <c r="F41" t="n">
-        <v>6351.5289</v>
+        <v>15.9908</v>
       </c>
       <c r="G41" t="n">
-        <v>147.9933333333333</v>
+        <v>42045.05271076002</v>
       </c>
       <c r="H41" t="n">
-        <v>148.3500000000002</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>141.5</v>
       </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1958,36 +1901,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>151</v>
+        <v>145.6</v>
       </c>
       <c r="C42" t="n">
-        <v>151</v>
+        <v>145.6</v>
       </c>
       <c r="D42" t="n">
-        <v>151</v>
+        <v>145.6</v>
       </c>
       <c r="E42" t="n">
-        <v>151</v>
+        <v>145.6</v>
       </c>
       <c r="F42" t="n">
-        <v>719.1695</v>
+        <v>3.9889</v>
       </c>
       <c r="G42" t="n">
-        <v>148.3466666666666</v>
+        <v>42049.04161076002</v>
       </c>
       <c r="H42" t="n">
-        <v>148.3166666666668</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>1</v>
+        <v>141.6</v>
       </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,36 +1942,37 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>151</v>
+        <v>145.6</v>
       </c>
       <c r="C43" t="n">
-        <v>151</v>
+        <v>142.1</v>
       </c>
       <c r="D43" t="n">
-        <v>151</v>
+        <v>145.6</v>
       </c>
       <c r="E43" t="n">
-        <v>151</v>
+        <v>142.1</v>
       </c>
       <c r="F43" t="n">
-        <v>1035.998</v>
+        <v>14</v>
       </c>
       <c r="G43" t="n">
-        <v>148.5</v>
+        <v>42035.04161076002</v>
       </c>
       <c r="H43" t="n">
-        <v>148.3000000000002</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>1</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,36 +1981,37 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>150.9</v>
+        <v>145.6</v>
       </c>
       <c r="C44" t="n">
-        <v>150.9</v>
+        <v>153.9</v>
       </c>
       <c r="D44" t="n">
-        <v>150.9</v>
+        <v>153.9</v>
       </c>
       <c r="E44" t="n">
-        <v>150.9</v>
+        <v>145.6</v>
       </c>
       <c r="F44" t="n">
-        <v>7.3469</v>
+        <v>5372.56903976</v>
       </c>
       <c r="G44" t="n">
-        <v>148.72</v>
+        <v>47407.61065052002</v>
       </c>
       <c r="H44" t="n">
-        <v>148.2666666666668</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>1</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2072,36 +2020,37 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>150.9</v>
+        <v>152</v>
       </c>
       <c r="C45" t="n">
-        <v>150.9</v>
+        <v>152</v>
       </c>
       <c r="D45" t="n">
-        <v>150.9</v>
+        <v>152</v>
       </c>
       <c r="E45" t="n">
-        <v>150.9</v>
+        <v>152</v>
       </c>
       <c r="F45" t="n">
-        <v>83.82980000000001</v>
+        <v>8.1096</v>
       </c>
       <c r="G45" t="n">
-        <v>148.72</v>
+        <v>47399.50105052001</v>
       </c>
       <c r="H45" t="n">
-        <v>148.2366666666668</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>1</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,36 +2059,37 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>145.7</v>
+        <v>152</v>
       </c>
       <c r="C46" t="n">
-        <v>142.1</v>
+        <v>143.7</v>
       </c>
       <c r="D46" t="n">
-        <v>145.7</v>
+        <v>152</v>
       </c>
       <c r="E46" t="n">
-        <v>142.1</v>
+        <v>143.7</v>
       </c>
       <c r="F46" t="n">
-        <v>5372.5691</v>
+        <v>16</v>
       </c>
       <c r="G46" t="n">
-        <v>148.3466666666667</v>
+        <v>47383.50105052001</v>
       </c>
       <c r="H46" t="n">
-        <v>148.0666666666668</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>1</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,36 +2098,37 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>143.3</v>
+        <v>152</v>
       </c>
       <c r="C47" t="n">
-        <v>146.6</v>
+        <v>152</v>
       </c>
       <c r="D47" t="n">
-        <v>146.6</v>
+        <v>152</v>
       </c>
       <c r="E47" t="n">
-        <v>142.3</v>
+        <v>152</v>
       </c>
       <c r="F47" t="n">
-        <v>1927.2109</v>
+        <v>3.8908</v>
       </c>
       <c r="G47" t="n">
-        <v>148.1266666666666</v>
+        <v>47387.39185052001</v>
       </c>
       <c r="H47" t="n">
-        <v>148.0100000000002</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2186,36 +2137,37 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>147.7</v>
+        <v>152</v>
       </c>
       <c r="C48" t="n">
-        <v>146.7</v>
+        <v>143.7</v>
       </c>
       <c r="D48" t="n">
-        <v>147.7</v>
+        <v>152</v>
       </c>
       <c r="E48" t="n">
-        <v>146.7</v>
+        <v>143.7</v>
       </c>
       <c r="F48" t="n">
-        <v>17981.0959</v>
+        <v>10</v>
       </c>
       <c r="G48" t="n">
-        <v>148.32</v>
+        <v>47377.39185052001</v>
       </c>
       <c r="H48" t="n">
-        <v>147.9566666666668</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,36 +2176,37 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>142.3</v>
+        <v>152</v>
       </c>
       <c r="C49" t="n">
-        <v>142.3</v>
+        <v>144.7</v>
       </c>
       <c r="D49" t="n">
-        <v>142.3</v>
+        <v>152</v>
       </c>
       <c r="E49" t="n">
-        <v>142.3</v>
+        <v>144.7</v>
       </c>
       <c r="F49" t="n">
-        <v>884.2729</v>
+        <v>16</v>
       </c>
       <c r="G49" t="n">
-        <v>147.9466666666666</v>
+        <v>47393.39185052001</v>
       </c>
       <c r="H49" t="n">
-        <v>147.7916666666668</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,36 +2215,37 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>142.1</v>
+        <v>152</v>
       </c>
       <c r="C50" t="n">
-        <v>142.1</v>
+        <v>152</v>
       </c>
       <c r="D50" t="n">
-        <v>142.1</v>
+        <v>152</v>
       </c>
       <c r="E50" t="n">
-        <v>142.1</v>
+        <v>152</v>
       </c>
       <c r="F50" t="n">
-        <v>721.7712</v>
+        <v>3.8098</v>
       </c>
       <c r="G50" t="n">
-        <v>147.84</v>
+        <v>47397.20165052002</v>
       </c>
       <c r="H50" t="n">
-        <v>147.6566666666668</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,36 +2254,37 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>142.1</v>
+        <v>152</v>
       </c>
       <c r="C51" t="n">
-        <v>142.1</v>
+        <v>152</v>
       </c>
       <c r="D51" t="n">
-        <v>142.1</v>
+        <v>152</v>
       </c>
       <c r="E51" t="n">
-        <v>142.1</v>
+        <v>144.7</v>
       </c>
       <c r="F51" t="n">
-        <v>2583.4435</v>
+        <v>20.0012</v>
       </c>
       <c r="G51" t="n">
-        <v>147.4533333333333</v>
+        <v>47397.20165052002</v>
       </c>
       <c r="H51" t="n">
-        <v>147.5233333333335</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,36 +2293,37 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C52" t="n">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D52" t="n">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E52" t="n">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F52" t="n">
-        <v>4</v>
+        <v>3.2991</v>
       </c>
       <c r="G52" t="n">
-        <v>147.32</v>
+        <v>47397.20165052002</v>
       </c>
       <c r="H52" t="n">
-        <v>147.5566666666668</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2376,36 +2332,37 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>142.4</v>
+        <v>152</v>
       </c>
       <c r="C53" t="n">
-        <v>142.3</v>
+        <v>144.7</v>
       </c>
       <c r="D53" t="n">
-        <v>142.4</v>
+        <v>152</v>
       </c>
       <c r="E53" t="n">
-        <v>142.3</v>
+        <v>144.7</v>
       </c>
       <c r="F53" t="n">
-        <v>4136.108</v>
+        <v>8</v>
       </c>
       <c r="G53" t="n">
-        <v>146.9</v>
+        <v>47389.20165052002</v>
       </c>
       <c r="H53" t="n">
-        <v>147.3800000000001</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2414,36 +2371,37 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>142.4</v>
+        <v>152</v>
       </c>
       <c r="C54" t="n">
-        <v>142.3</v>
+        <v>152</v>
       </c>
       <c r="D54" t="n">
-        <v>142.4</v>
+        <v>152</v>
       </c>
       <c r="E54" t="n">
-        <v>142.3</v>
+        <v>152</v>
       </c>
       <c r="F54" t="n">
-        <v>1449.5242</v>
+        <v>3.67</v>
       </c>
       <c r="G54" t="n">
-        <v>146.48</v>
+        <v>47392.87165052001</v>
       </c>
       <c r="H54" t="n">
-        <v>147.2250000000001</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2452,36 +2410,37 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>142.4</v>
+        <v>152</v>
       </c>
       <c r="C55" t="n">
-        <v>142.4</v>
+        <v>152</v>
       </c>
       <c r="D55" t="n">
-        <v>142.4</v>
+        <v>152</v>
       </c>
       <c r="E55" t="n">
-        <v>142.4</v>
+        <v>144.7</v>
       </c>
       <c r="F55" t="n">
-        <v>1000</v>
+        <v>15.9999</v>
       </c>
       <c r="G55" t="n">
-        <v>145.9733333333333</v>
+        <v>47392.87165052001</v>
       </c>
       <c r="H55" t="n">
-        <v>147.0716666666668</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2490,36 +2449,37 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>142.3</v>
+        <v>148.1</v>
       </c>
       <c r="C56" t="n">
-        <v>142.3</v>
+        <v>145.7</v>
       </c>
       <c r="D56" t="n">
-        <v>142.3</v>
+        <v>148.1</v>
       </c>
       <c r="E56" t="n">
-        <v>142.3</v>
+        <v>145.7</v>
       </c>
       <c r="F56" t="n">
-        <v>2730.6006</v>
+        <v>1581.9718</v>
       </c>
       <c r="G56" t="n">
-        <v>145.4</v>
+        <v>45810.89985052001</v>
       </c>
       <c r="H56" t="n">
-        <v>146.9166666666668</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2528,36 +2488,37 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>143</v>
+        <v>148.7</v>
       </c>
       <c r="C57" t="n">
-        <v>143</v>
+        <v>148.7</v>
       </c>
       <c r="D57" t="n">
-        <v>143</v>
+        <v>148.7</v>
       </c>
       <c r="E57" t="n">
-        <v>143</v>
+        <v>148.7</v>
       </c>
       <c r="F57" t="n">
-        <v>327.9006</v>
+        <v>3.6809</v>
       </c>
       <c r="G57" t="n">
-        <v>144.8666666666667</v>
+        <v>45814.58075052001</v>
       </c>
       <c r="H57" t="n">
-        <v>146.9466666666667</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,36 +2527,37 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>142.3</v>
+        <v>147.6</v>
       </c>
       <c r="C58" t="n">
-        <v>142.3</v>
+        <v>147.6</v>
       </c>
       <c r="D58" t="n">
-        <v>142.3</v>
+        <v>147.6</v>
       </c>
       <c r="E58" t="n">
-        <v>142.3</v>
+        <v>147.6</v>
       </c>
       <c r="F58" t="n">
-        <v>947.6273</v>
+        <v>233</v>
       </c>
       <c r="G58" t="n">
-        <v>144.2866666666667</v>
+        <v>45581.58075052001</v>
       </c>
       <c r="H58" t="n">
-        <v>146.9633333333334</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2604,36 +2566,37 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>142.1</v>
+        <v>150.9</v>
       </c>
       <c r="C59" t="n">
-        <v>142.1</v>
+        <v>150.9</v>
       </c>
       <c r="D59" t="n">
-        <v>142.1</v>
+        <v>150.9</v>
       </c>
       <c r="E59" t="n">
-        <v>142.1</v>
+        <v>143.7</v>
       </c>
       <c r="F59" t="n">
-        <v>1583.8256</v>
+        <v>27.9089</v>
       </c>
       <c r="G59" t="n">
-        <v>143.7</v>
+        <v>45609.48965052002</v>
       </c>
       <c r="H59" t="n">
-        <v>146.9033333333334</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2642,36 +2605,37 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>141.7</v>
+        <v>148.7</v>
       </c>
       <c r="C60" t="n">
-        <v>141.7</v>
+        <v>147.7</v>
       </c>
       <c r="D60" t="n">
-        <v>141.7</v>
+        <v>148.7</v>
       </c>
       <c r="E60" t="n">
-        <v>141.7</v>
+        <v>147.7</v>
       </c>
       <c r="F60" t="n">
-        <v>551.9638</v>
+        <v>2010.5098</v>
       </c>
       <c r="G60" t="n">
-        <v>143.0866666666666</v>
+        <v>43598.97985052002</v>
       </c>
       <c r="H60" t="n">
-        <v>146.8350000000001</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2680,36 +2644,37 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>141.7</v>
+        <v>150.9</v>
       </c>
       <c r="C61" t="n">
-        <v>141.3</v>
+        <v>149.9</v>
       </c>
       <c r="D61" t="n">
-        <v>141.7</v>
+        <v>150.9</v>
       </c>
       <c r="E61" t="n">
-        <v>141.3</v>
+        <v>143.7</v>
       </c>
       <c r="F61" t="n">
-        <v>3829.1975</v>
+        <v>18</v>
       </c>
       <c r="G61" t="n">
-        <v>143.0333333333333</v>
+        <v>43616.97985052002</v>
       </c>
       <c r="H61" t="n">
-        <v>146.7600000000001</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2718,36 +2683,37 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>141.3</v>
+        <v>147.7</v>
       </c>
       <c r="C62" t="n">
-        <v>141.2</v>
+        <v>143.8</v>
       </c>
       <c r="D62" t="n">
-        <v>141.3</v>
+        <v>151</v>
       </c>
       <c r="E62" t="n">
-        <v>141.2</v>
+        <v>143.7</v>
       </c>
       <c r="F62" t="n">
-        <v>3112.4519</v>
+        <v>21.6544</v>
       </c>
       <c r="G62" t="n">
-        <v>142.6733333333333</v>
+        <v>43595.32545052002</v>
       </c>
       <c r="H62" t="n">
-        <v>146.6650000000001</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2756,36 +2722,37 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>141.2</v>
+        <v>147.9</v>
       </c>
       <c r="C63" t="n">
-        <v>141.2</v>
+        <v>147.9</v>
       </c>
       <c r="D63" t="n">
-        <v>141.2</v>
+        <v>147.9</v>
       </c>
       <c r="E63" t="n">
-        <v>141.2</v>
+        <v>147.9</v>
       </c>
       <c r="F63" t="n">
-        <v>1705.6744</v>
+        <v>3.5669</v>
       </c>
       <c r="G63" t="n">
-        <v>142.3066666666667</v>
+        <v>43598.89235052001</v>
       </c>
       <c r="H63" t="n">
-        <v>146.5866666666668</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,36 +2761,37 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>141.2</v>
+        <v>147.9</v>
       </c>
       <c r="C64" t="n">
-        <v>141.2</v>
+        <v>143.7</v>
       </c>
       <c r="D64" t="n">
-        <v>141.2</v>
+        <v>148.5</v>
       </c>
       <c r="E64" t="n">
-        <v>141.2</v>
+        <v>143.7</v>
       </c>
       <c r="F64" t="n">
-        <v>234.3453</v>
+        <v>152</v>
       </c>
       <c r="G64" t="n">
-        <v>142.2333333333333</v>
+        <v>43446.89235052001</v>
       </c>
       <c r="H64" t="n">
-        <v>146.4900000000002</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2832,36 +2800,37 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>136.2</v>
+        <v>147.9</v>
       </c>
       <c r="C65" t="n">
-        <v>136.2</v>
+        <v>147.9</v>
       </c>
       <c r="D65" t="n">
-        <v>136.2</v>
+        <v>147.9</v>
       </c>
       <c r="E65" t="n">
-        <v>136.2</v>
+        <v>147.9</v>
       </c>
       <c r="F65" t="n">
-        <v>3198.8671</v>
+        <v>3.78</v>
       </c>
       <c r="G65" t="n">
-        <v>141.84</v>
+        <v>43450.67235052001</v>
       </c>
       <c r="H65" t="n">
-        <v>146.3100000000001</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2870,36 +2839,37 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>136.6</v>
+        <v>147.9</v>
       </c>
       <c r="C66" t="n">
-        <v>136.6</v>
+        <v>148</v>
       </c>
       <c r="D66" t="n">
-        <v>136.6</v>
+        <v>148</v>
       </c>
       <c r="E66" t="n">
-        <v>136.6</v>
+        <v>147.9</v>
       </c>
       <c r="F66" t="n">
-        <v>3483.2893</v>
+        <v>2357.2797</v>
       </c>
       <c r="G66" t="n">
-        <v>141.4733333333333</v>
+        <v>45807.95205052001</v>
       </c>
       <c r="H66" t="n">
-        <v>146.1366666666668</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2908,36 +2878,37 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>137.7</v>
+        <v>148.6</v>
       </c>
       <c r="C67" t="n">
-        <v>136.7</v>
+        <v>148.6</v>
       </c>
       <c r="D67" t="n">
-        <v>137.7</v>
+        <v>148.6</v>
       </c>
       <c r="E67" t="n">
-        <v>136.7</v>
+        <v>148.6</v>
       </c>
       <c r="F67" t="n">
-        <v>12</v>
+        <v>472.4663</v>
       </c>
       <c r="G67" t="n">
-        <v>140.8533333333333</v>
+        <v>46280.41835052001</v>
       </c>
       <c r="H67" t="n">
-        <v>145.9483333333335</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2946,36 +2917,37 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>141.8</v>
+        <v>148.6</v>
       </c>
       <c r="C68" t="n">
-        <v>141.8</v>
+        <v>148.6</v>
       </c>
       <c r="D68" t="n">
-        <v>141.8</v>
+        <v>148.6</v>
       </c>
       <c r="E68" t="n">
-        <v>141.8</v>
+        <v>148.6</v>
       </c>
       <c r="F68" t="n">
-        <v>384</v>
+        <v>301.6493</v>
       </c>
       <c r="G68" t="n">
-        <v>140.82</v>
+        <v>46280.41835052001</v>
       </c>
       <c r="H68" t="n">
-        <v>145.8283333333335</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,74 +2956,70 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>142</v>
+        <v>149.9</v>
       </c>
       <c r="C69" t="n">
-        <v>137.6</v>
+        <v>150</v>
       </c>
       <c r="D69" t="n">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E69" t="n">
-        <v>137.6</v>
+        <v>149.9</v>
       </c>
       <c r="F69" t="n">
-        <v>5050.8311</v>
+        <v>2573.2263</v>
       </c>
       <c r="G69" t="n">
-        <v>140.5066666666666</v>
+        <v>48853.64465052001</v>
       </c>
       <c r="H69" t="n">
-        <v>145.6383333333335</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>136.3</v>
+        <v>150</v>
       </c>
       <c r="C70" t="n">
-        <v>136.3</v>
+        <v>150.9</v>
       </c>
       <c r="D70" t="n">
-        <v>136.3</v>
+        <v>150.9</v>
       </c>
       <c r="E70" t="n">
-        <v>136.3</v>
+        <v>150</v>
       </c>
       <c r="F70" t="n">
-        <v>784.8547</v>
+        <v>6351.5289</v>
       </c>
       <c r="G70" t="n">
-        <v>140.0999999999999</v>
+        <v>55205.17355052001</v>
       </c>
       <c r="H70" t="n">
-        <v>145.4266666666668</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3060,36 +3028,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>137.6</v>
+        <v>151</v>
       </c>
       <c r="C71" t="n">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="D71" t="n">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="E71" t="n">
-        <v>137.6</v>
+        <v>151</v>
       </c>
       <c r="F71" t="n">
-        <v>5788.9025</v>
+        <v>719.1695</v>
       </c>
       <c r="G71" t="n">
-        <v>139.8133333333332</v>
+        <v>55924.34305052001</v>
       </c>
       <c r="H71" t="n">
-        <v>145.3683333333335</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3098,36 +3063,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="C72" t="n">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="D72" t="n">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="E72" t="n">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="F72" t="n">
-        <v>1265.9897</v>
+        <v>1035.998</v>
       </c>
       <c r="G72" t="n">
-        <v>139.4799999999999</v>
+        <v>55924.34305052001</v>
       </c>
       <c r="H72" t="n">
-        <v>145.3083333333335</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3136,36 +3098,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>136.6</v>
+        <v>150.9</v>
       </c>
       <c r="C73" t="n">
-        <v>136.6</v>
+        <v>150.9</v>
       </c>
       <c r="D73" t="n">
-        <v>136.6</v>
+        <v>150.9</v>
       </c>
       <c r="E73" t="n">
-        <v>136.6</v>
+        <v>150.9</v>
       </c>
       <c r="F73" t="n">
-        <v>1343.2549</v>
+        <v>7.3469</v>
       </c>
       <c r="G73" t="n">
-        <v>139.0999999999999</v>
+        <v>55916.99615052001</v>
       </c>
       <c r="H73" t="n">
-        <v>145.1583333333335</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3174,36 +3133,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>138</v>
+        <v>150.9</v>
       </c>
       <c r="C74" t="n">
-        <v>138</v>
+        <v>150.9</v>
       </c>
       <c r="D74" t="n">
-        <v>138</v>
+        <v>150.9</v>
       </c>
       <c r="E74" t="n">
-        <v>138</v>
+        <v>150.9</v>
       </c>
       <c r="F74" t="n">
-        <v>1236.3853</v>
+        <v>83.82980000000001</v>
       </c>
       <c r="G74" t="n">
-        <v>138.8266666666666</v>
+        <v>55916.99615052001</v>
       </c>
       <c r="H74" t="n">
-        <v>145.0900000000001</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3212,36 +3168,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>136.7</v>
+        <v>145.7</v>
       </c>
       <c r="C75" t="n">
-        <v>136.6</v>
+        <v>142.1</v>
       </c>
       <c r="D75" t="n">
-        <v>136.7</v>
+        <v>145.7</v>
       </c>
       <c r="E75" t="n">
-        <v>136.6</v>
+        <v>142.1</v>
       </c>
       <c r="F75" t="n">
-        <v>5792.9077</v>
+        <v>5372.5691</v>
       </c>
       <c r="G75" t="n">
-        <v>138.4866666666666</v>
+        <v>50544.42705052001</v>
       </c>
       <c r="H75" t="n">
-        <v>144.8016666666668</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3250,36 +3203,33 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>141.8</v>
+        <v>143.3</v>
       </c>
       <c r="C76" t="n">
-        <v>138</v>
+        <v>146.6</v>
       </c>
       <c r="D76" t="n">
-        <v>141.8</v>
+        <v>146.6</v>
       </c>
       <c r="E76" t="n">
-        <v>138</v>
+        <v>142.3</v>
       </c>
       <c r="F76" t="n">
-        <v>92.46380000000001</v>
+        <v>1927.2109</v>
       </c>
       <c r="G76" t="n">
-        <v>138.2666666666666</v>
+        <v>52471.63795052001</v>
       </c>
       <c r="H76" t="n">
-        <v>144.5683333333335</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3288,36 +3238,37 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>136.6</v>
+        <v>147.7</v>
       </c>
       <c r="C77" t="n">
-        <v>136.6</v>
+        <v>146.7</v>
       </c>
       <c r="D77" t="n">
-        <v>136.6</v>
+        <v>147.7</v>
       </c>
       <c r="E77" t="n">
-        <v>136.6</v>
+        <v>146.7</v>
       </c>
       <c r="F77" t="n">
-        <v>615.8954</v>
+        <v>17981.0959</v>
       </c>
       <c r="G77" t="n">
-        <v>137.9599999999999</v>
+        <v>70452.73385052002</v>
       </c>
       <c r="H77" t="n">
-        <v>144.4500000000002</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
+        <v>146.6</v>
+      </c>
+      <c r="K77" t="n">
+        <v>146.6</v>
+      </c>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3326,36 +3277,41 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>140.9</v>
+        <v>142.3</v>
       </c>
       <c r="C78" t="n">
-        <v>140.9</v>
+        <v>142.3</v>
       </c>
       <c r="D78" t="n">
-        <v>140.9</v>
+        <v>142.3</v>
       </c>
       <c r="E78" t="n">
-        <v>140.9</v>
+        <v>142.3</v>
       </c>
       <c r="F78" t="n">
-        <v>10</v>
+        <v>884.2729</v>
       </c>
       <c r="G78" t="n">
-        <v>137.9399999999999</v>
+        <v>69568.46095052002</v>
       </c>
       <c r="H78" t="n">
-        <v>144.2650000000002</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+        <v>146.7</v>
+      </c>
+      <c r="K78" t="n">
+        <v>146.6</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3364,36 +3320,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>136.6</v>
+        <v>142.1</v>
       </c>
       <c r="C79" t="n">
-        <v>136.6</v>
+        <v>142.1</v>
       </c>
       <c r="D79" t="n">
-        <v>136.6</v>
+        <v>142.1</v>
       </c>
       <c r="E79" t="n">
-        <v>136.6</v>
+        <v>142.1</v>
       </c>
       <c r="F79" t="n">
-        <v>3.6884</v>
+        <v>721.7712</v>
       </c>
       <c r="G79" t="n">
-        <v>137.6333333333333</v>
+        <v>68846.68975052002</v>
       </c>
       <c r="H79" t="n">
-        <v>144.1466666666668</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+        <v>1</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>146.6</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3402,36 +3361,37 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>136.6</v>
+        <v>142.1</v>
       </c>
       <c r="C80" t="n">
-        <v>136.6</v>
+        <v>142.1</v>
       </c>
       <c r="D80" t="n">
-        <v>136.6</v>
+        <v>142.1</v>
       </c>
       <c r="E80" t="n">
-        <v>136.6</v>
+        <v>142.1</v>
       </c>
       <c r="F80" t="n">
-        <v>548.625</v>
+        <v>2583.4435</v>
       </c>
       <c r="G80" t="n">
-        <v>137.6599999999999</v>
+        <v>68846.68975052002</v>
       </c>
       <c r="H80" t="n">
-        <v>144.0116666666668</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>0</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
+        <v>142.1</v>
+      </c>
+      <c r="K80" t="n">
+        <v>142.1</v>
+      </c>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3440,36 +3400,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>138.1</v>
+        <v>146</v>
       </c>
       <c r="C81" t="n">
-        <v>139.9</v>
+        <v>146</v>
       </c>
       <c r="D81" t="n">
-        <v>139.9</v>
+        <v>146</v>
       </c>
       <c r="E81" t="n">
-        <v>136.9</v>
+        <v>146</v>
       </c>
       <c r="F81" t="n">
-        <v>1415.9897</v>
+        <v>4</v>
       </c>
       <c r="G81" t="n">
-        <v>137.88</v>
+        <v>68850.68975052002</v>
       </c>
       <c r="H81" t="n">
-        <v>143.8100000000001</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>142.1</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3478,36 +3441,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>137.1</v>
+        <v>142.4</v>
       </c>
       <c r="C82" t="n">
-        <v>136.9</v>
+        <v>142.3</v>
       </c>
       <c r="D82" t="n">
-        <v>137.1</v>
+        <v>142.4</v>
       </c>
       <c r="E82" t="n">
-        <v>136.9</v>
+        <v>142.3</v>
       </c>
       <c r="F82" t="n">
-        <v>17495.8684</v>
+        <v>4136.108</v>
       </c>
       <c r="G82" t="n">
-        <v>137.8933333333333</v>
+        <v>64714.58175052002</v>
       </c>
       <c r="H82" t="n">
-        <v>143.5583333333335</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>142.1</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3516,36 +3482,33 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>139.5</v>
+        <v>142.4</v>
       </c>
       <c r="C83" t="n">
-        <v>139.5</v>
+        <v>142.3</v>
       </c>
       <c r="D83" t="n">
-        <v>139.5</v>
+        <v>142.4</v>
       </c>
       <c r="E83" t="n">
-        <v>139.5</v>
+        <v>142.3</v>
       </c>
       <c r="F83" t="n">
-        <v>2096.922</v>
+        <v>1449.5242</v>
       </c>
       <c r="G83" t="n">
-        <v>137.74</v>
+        <v>64714.58175052002</v>
       </c>
       <c r="H83" t="n">
-        <v>143.3500000000001</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3554,36 +3517,33 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>139.9</v>
+        <v>142.4</v>
       </c>
       <c r="C84" t="n">
-        <v>139.9</v>
+        <v>142.4</v>
       </c>
       <c r="D84" t="n">
-        <v>139.9</v>
+        <v>142.4</v>
       </c>
       <c r="E84" t="n">
-        <v>139.8</v>
+        <v>142.4</v>
       </c>
       <c r="F84" t="n">
-        <v>4384.448</v>
+        <v>1000</v>
       </c>
       <c r="G84" t="n">
-        <v>137.8933333333333</v>
+        <v>65714.58175052001</v>
       </c>
       <c r="H84" t="n">
-        <v>143.2700000000001</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3592,36 +3552,33 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>139.8</v>
+        <v>142.3</v>
       </c>
       <c r="C85" t="n">
-        <v>140</v>
+        <v>142.3</v>
       </c>
       <c r="D85" t="n">
-        <v>140</v>
+        <v>142.3</v>
       </c>
       <c r="E85" t="n">
-        <v>139.8</v>
+        <v>142.3</v>
       </c>
       <c r="F85" t="n">
-        <v>6840.905</v>
+        <v>2730.6006</v>
       </c>
       <c r="G85" t="n">
-        <v>138.14</v>
+        <v>62983.98115052001</v>
       </c>
       <c r="H85" t="n">
-        <v>143.0700000000001</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3630,36 +3587,33 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>140.8</v>
+        <v>143</v>
       </c>
       <c r="C86" t="n">
-        <v>140.9</v>
+        <v>143</v>
       </c>
       <c r="D86" t="n">
-        <v>140.9</v>
+        <v>143</v>
       </c>
       <c r="E86" t="n">
-        <v>140.8</v>
+        <v>143</v>
       </c>
       <c r="F86" t="n">
-        <v>3000</v>
+        <v>327.9006</v>
       </c>
       <c r="G86" t="n">
-        <v>138.3333333333333</v>
+        <v>63311.88175052001</v>
       </c>
       <c r="H86" t="n">
-        <v>142.8850000000001</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,36 +3622,33 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>140.9</v>
+        <v>142.3</v>
       </c>
       <c r="C87" t="n">
-        <v>140</v>
+        <v>142.3</v>
       </c>
       <c r="D87" t="n">
-        <v>140.9</v>
+        <v>142.3</v>
       </c>
       <c r="E87" t="n">
-        <v>140</v>
+        <v>142.3</v>
       </c>
       <c r="F87" t="n">
-        <v>1606.4054</v>
+        <v>947.6273</v>
       </c>
       <c r="G87" t="n">
-        <v>138.4666666666666</v>
+        <v>62364.25445052001</v>
       </c>
       <c r="H87" t="n">
-        <v>142.7900000000001</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3706,36 +3657,33 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>140.1</v>
+        <v>142.1</v>
       </c>
       <c r="C88" t="n">
-        <v>140.1</v>
+        <v>142.1</v>
       </c>
       <c r="D88" t="n">
-        <v>140.1</v>
+        <v>142.1</v>
       </c>
       <c r="E88" t="n">
-        <v>140.1</v>
+        <v>142.1</v>
       </c>
       <c r="F88" t="n">
-        <v>1206.2047</v>
+        <v>1583.8256</v>
       </c>
       <c r="G88" t="n">
-        <v>138.7</v>
+        <v>60780.42885052002</v>
       </c>
       <c r="H88" t="n">
-        <v>142.6466666666667</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3744,36 +3692,33 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>140</v>
+        <v>141.7</v>
       </c>
       <c r="C89" t="n">
-        <v>140</v>
+        <v>141.7</v>
       </c>
       <c r="D89" t="n">
-        <v>140</v>
+        <v>141.7</v>
       </c>
       <c r="E89" t="n">
-        <v>140</v>
+        <v>141.7</v>
       </c>
       <c r="F89" t="n">
-        <v>1443.7855</v>
+        <v>551.9638</v>
       </c>
       <c r="G89" t="n">
-        <v>138.8333333333333</v>
+        <v>60228.46505052002</v>
       </c>
       <c r="H89" t="n">
-        <v>142.5200000000001</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3782,42 +3727,33 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>139.1</v>
+        <v>141.7</v>
       </c>
       <c r="C90" t="n">
-        <v>138.1</v>
+        <v>141.3</v>
       </c>
       <c r="D90" t="n">
-        <v>139.1</v>
+        <v>141.7</v>
       </c>
       <c r="E90" t="n">
-        <v>138.1</v>
+        <v>141.3</v>
       </c>
       <c r="F90" t="n">
-        <v>1801.0868</v>
+        <v>3829.1975</v>
       </c>
       <c r="G90" t="n">
-        <v>138.9333333333333</v>
+        <v>56399.26755052002</v>
       </c>
       <c r="H90" t="n">
-        <v>142.3066666666668</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
-      <c r="K90" t="n">
-        <v>140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N90" t="n">
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3826,42 +3762,33 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>138.2</v>
+        <v>141.3</v>
       </c>
       <c r="C91" t="n">
-        <v>138.2</v>
+        <v>141.2</v>
       </c>
       <c r="D91" t="n">
-        <v>138.2</v>
+        <v>141.3</v>
       </c>
       <c r="E91" t="n">
-        <v>138.2</v>
+        <v>141.2</v>
       </c>
       <c r="F91" t="n">
-        <v>1169.8378</v>
+        <v>3112.4519</v>
       </c>
       <c r="G91" t="n">
-        <v>138.9466666666666</v>
+        <v>53286.81565052002</v>
       </c>
       <c r="H91" t="n">
-        <v>142.1483333333334</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" t="n">
-        <v>138.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N91" t="n">
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3870,42 +3797,33 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>138.2</v>
+        <v>141.2</v>
       </c>
       <c r="C92" t="n">
-        <v>138</v>
+        <v>141.2</v>
       </c>
       <c r="D92" t="n">
-        <v>138.2</v>
+        <v>141.2</v>
       </c>
       <c r="E92" t="n">
-        <v>138</v>
+        <v>141.2</v>
       </c>
       <c r="F92" t="n">
-        <v>4115.3403</v>
+        <v>1705.6744</v>
       </c>
       <c r="G92" t="n">
-        <v>139.04</v>
+        <v>53286.81565052002</v>
       </c>
       <c r="H92" t="n">
-        <v>141.9500000000001</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" t="n">
-        <v>138.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N92" t="n">
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3914,42 +3832,37 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>138</v>
+        <v>141.2</v>
       </c>
       <c r="C93" t="n">
-        <v>136.7</v>
+        <v>141.2</v>
       </c>
       <c r="D93" t="n">
-        <v>138</v>
+        <v>141.2</v>
       </c>
       <c r="E93" t="n">
-        <v>136.7</v>
+        <v>141.2</v>
       </c>
       <c r="F93" t="n">
-        <v>3000</v>
+        <v>234.3453</v>
       </c>
       <c r="G93" t="n">
-        <v>138.7599999999999</v>
+        <v>53286.81565052002</v>
       </c>
       <c r="H93" t="n">
-        <v>141.8316666666668</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>0</v>
+        <v>141.2</v>
       </c>
       <c r="K93" t="n">
-        <v>138</v>
+        <v>141.2</v>
       </c>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N93" t="n">
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3958,40 +3871,41 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>140.9</v>
+        <v>136.2</v>
       </c>
       <c r="C94" t="n">
-        <v>140.9</v>
+        <v>136.2</v>
       </c>
       <c r="D94" t="n">
-        <v>140.9</v>
+        <v>136.2</v>
       </c>
       <c r="E94" t="n">
-        <v>140.9</v>
+        <v>136.2</v>
       </c>
       <c r="F94" t="n">
-        <v>6.9933</v>
+        <v>3198.8671</v>
       </c>
       <c r="G94" t="n">
-        <v>139.0466666666666</v>
+        <v>50087.94855052001</v>
       </c>
       <c r="H94" t="n">
-        <v>141.7150000000001</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr">
+        <v>141.2</v>
+      </c>
+      <c r="K94" t="n">
+        <v>141.2</v>
+      </c>
+      <c r="L94" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="N94" t="n">
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4000,40 +3914,41 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>140.8</v>
+        <v>136.6</v>
       </c>
       <c r="C95" t="n">
-        <v>140.8</v>
+        <v>136.6</v>
       </c>
       <c r="D95" t="n">
-        <v>140.8</v>
+        <v>136.6</v>
       </c>
       <c r="E95" t="n">
-        <v>140.8</v>
+        <v>136.6</v>
       </c>
       <c r="F95" t="n">
-        <v>885.5684</v>
+        <v>3483.2893</v>
       </c>
       <c r="G95" t="n">
-        <v>139.3266666666667</v>
+        <v>53571.23785052001</v>
       </c>
       <c r="H95" t="n">
-        <v>141.6666666666668</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>0</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr">
+        <v>136.2</v>
+      </c>
+      <c r="K95" t="n">
+        <v>141.2</v>
+      </c>
+      <c r="L95" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="N95" t="n">
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4042,40 +3957,33 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>140.7</v>
+        <v>137.7</v>
       </c>
       <c r="C96" t="n">
-        <v>140.7</v>
+        <v>136.7</v>
       </c>
       <c r="D96" t="n">
-        <v>140.7</v>
+        <v>137.7</v>
       </c>
       <c r="E96" t="n">
-        <v>140.7</v>
+        <v>136.7</v>
       </c>
       <c r="F96" t="n">
-        <v>5.1684</v>
+        <v>12</v>
       </c>
       <c r="G96" t="n">
-        <v>139.38</v>
+        <v>53583.23785052001</v>
       </c>
       <c r="H96" t="n">
-        <v>141.5466666666668</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N96" t="n">
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4084,40 +3992,33 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>141.9</v>
+        <v>141.8</v>
       </c>
       <c r="C97" t="n">
-        <v>144</v>
+        <v>141.8</v>
       </c>
       <c r="D97" t="n">
-        <v>144</v>
+        <v>141.8</v>
       </c>
       <c r="E97" t="n">
-        <v>141.9</v>
+        <v>141.8</v>
       </c>
       <c r="F97" t="n">
-        <v>2806.403</v>
+        <v>384</v>
       </c>
       <c r="G97" t="n">
-        <v>139.8533333333333</v>
+        <v>53967.23785052001</v>
       </c>
       <c r="H97" t="n">
-        <v>141.4800000000001</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N97" t="n">
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4126,40 +4027,33 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C98" t="n">
-        <v>145</v>
+        <v>137.6</v>
       </c>
       <c r="D98" t="n">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E98" t="n">
-        <v>145</v>
+        <v>137.6</v>
       </c>
       <c r="F98" t="n">
-        <v>1000</v>
+        <v>5050.8311</v>
       </c>
       <c r="G98" t="n">
-        <v>140.2199999999999</v>
+        <v>48916.40675052001</v>
       </c>
       <c r="H98" t="n">
-        <v>141.4200000000001</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N98" t="n">
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4168,40 +4062,33 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>145</v>
+        <v>136.3</v>
       </c>
       <c r="C99" t="n">
-        <v>145</v>
+        <v>136.3</v>
       </c>
       <c r="D99" t="n">
-        <v>145</v>
+        <v>136.3</v>
       </c>
       <c r="E99" t="n">
-        <v>145</v>
+        <v>136.3</v>
       </c>
       <c r="F99" t="n">
-        <v>60.4902</v>
+        <v>784.8547</v>
       </c>
       <c r="G99" t="n">
-        <v>140.5599999999999</v>
+        <v>48131.55205052</v>
       </c>
       <c r="H99" t="n">
-        <v>141.3600000000001</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N99" t="n">
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4210,40 +4097,33 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>143</v>
+        <v>137.6</v>
       </c>
       <c r="C100" t="n">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D100" t="n">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E100" t="n">
-        <v>143</v>
+        <v>137.6</v>
       </c>
       <c r="F100" t="n">
-        <v>212</v>
+        <v>5788.9025</v>
       </c>
       <c r="G100" t="n">
-        <v>140.7599999999999</v>
+        <v>53920.45455052001</v>
       </c>
       <c r="H100" t="n">
-        <v>141.2433333333334</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N100" t="n">
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4252,40 +4132,33 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C101" t="n">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D101" t="n">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E101" t="n">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="F101" t="n">
-        <v>246</v>
+        <v>1265.9897</v>
       </c>
       <c r="G101" t="n">
-        <v>141.0999999999999</v>
+        <v>53920.45455052001</v>
       </c>
       <c r="H101" t="n">
-        <v>141.1616666666668</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N101" t="n">
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4294,40 +4167,33 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>146</v>
+        <v>136.6</v>
       </c>
       <c r="C102" t="n">
-        <v>146</v>
+        <v>136.6</v>
       </c>
       <c r="D102" t="n">
-        <v>146</v>
+        <v>136.6</v>
       </c>
       <c r="E102" t="n">
-        <v>146</v>
+        <v>136.6</v>
       </c>
       <c r="F102" t="n">
-        <v>212</v>
+        <v>1343.2549</v>
       </c>
       <c r="G102" t="n">
-        <v>141.4999999999999</v>
+        <v>52577.19965052001</v>
       </c>
       <c r="H102" t="n">
-        <v>141.0783333333334</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N102" t="n">
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4336,40 +4202,33 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C103" t="n">
-        <v>147.9</v>
+        <v>138</v>
       </c>
       <c r="D103" t="n">
-        <v>147.9</v>
+        <v>138</v>
       </c>
       <c r="E103" t="n">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="F103" t="n">
-        <v>5624.1496</v>
+        <v>1236.3853</v>
       </c>
       <c r="G103" t="n">
-        <v>142.02</v>
+        <v>53813.58495052001</v>
       </c>
       <c r="H103" t="n">
-        <v>141.0266666666668</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N103" t="n">
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4378,40 +4237,33 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>148</v>
+        <v>136.7</v>
       </c>
       <c r="C104" t="n">
-        <v>148</v>
+        <v>136.6</v>
       </c>
       <c r="D104" t="n">
-        <v>148</v>
+        <v>136.7</v>
       </c>
       <c r="E104" t="n">
-        <v>148</v>
+        <v>136.6</v>
       </c>
       <c r="F104" t="n">
-        <v>2052.2179</v>
+        <v>5792.9077</v>
       </c>
       <c r="G104" t="n">
-        <v>142.5533333333333</v>
+        <v>48020.67725052001</v>
       </c>
       <c r="H104" t="n">
-        <v>140.9783333333334</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N104" t="n">
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4420,40 +4272,33 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>147.9</v>
+        <v>141.8</v>
       </c>
       <c r="C105" t="n">
-        <v>147.9</v>
+        <v>138</v>
       </c>
       <c r="D105" t="n">
-        <v>147.9</v>
+        <v>141.8</v>
       </c>
       <c r="E105" t="n">
-        <v>147.9</v>
+        <v>138</v>
       </c>
       <c r="F105" t="n">
-        <v>246</v>
+        <v>92.46380000000001</v>
       </c>
       <c r="G105" t="n">
-        <v>143.2066666666666</v>
+        <v>48113.14105052</v>
       </c>
       <c r="H105" t="n">
-        <v>140.9283333333334</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N105" t="n">
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4462,40 +4307,33 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>148</v>
+        <v>136.6</v>
       </c>
       <c r="C106" t="n">
-        <v>148</v>
+        <v>136.6</v>
       </c>
       <c r="D106" t="n">
-        <v>148</v>
+        <v>136.6</v>
       </c>
       <c r="E106" t="n">
-        <v>148</v>
+        <v>136.6</v>
       </c>
       <c r="F106" t="n">
-        <v>4531.7167</v>
+        <v>615.8954</v>
       </c>
       <c r="G106" t="n">
-        <v>143.86</v>
+        <v>47497.24565052</v>
       </c>
       <c r="H106" t="n">
-        <v>141.0266666666668</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N106" t="n">
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4504,40 +4342,33 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>148</v>
+        <v>140.9</v>
       </c>
       <c r="C107" t="n">
-        <v>148</v>
+        <v>140.9</v>
       </c>
       <c r="D107" t="n">
-        <v>148</v>
+        <v>140.9</v>
       </c>
       <c r="E107" t="n">
-        <v>148</v>
+        <v>140.9</v>
       </c>
       <c r="F107" t="n">
-        <v>152.7465</v>
+        <v>10</v>
       </c>
       <c r="G107" t="n">
-        <v>144.5266666666666</v>
+        <v>47507.24565052</v>
       </c>
       <c r="H107" t="n">
-        <v>141.0500000000001</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N107" t="n">
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4546,40 +4377,33 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>147.9</v>
+        <v>136.6</v>
       </c>
       <c r="C108" t="n">
-        <v>147.9</v>
+        <v>136.6</v>
       </c>
       <c r="D108" t="n">
-        <v>147.9</v>
+        <v>136.6</v>
       </c>
       <c r="E108" t="n">
-        <v>147.9</v>
+        <v>136.6</v>
       </c>
       <c r="F108" t="n">
-        <v>1263.3586</v>
+        <v>3.6884</v>
       </c>
       <c r="G108" t="n">
-        <v>145.2733333333333</v>
+        <v>47503.55725052</v>
       </c>
       <c r="H108" t="n">
-        <v>141.0700000000001</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N108" t="n">
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4588,40 +4412,33 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>144</v>
+        <v>136.6</v>
       </c>
       <c r="C109" t="n">
-        <v>144</v>
+        <v>136.6</v>
       </c>
       <c r="D109" t="n">
-        <v>144</v>
+        <v>136.6</v>
       </c>
       <c r="E109" t="n">
-        <v>144</v>
+        <v>136.6</v>
       </c>
       <c r="F109" t="n">
-        <v>820</v>
+        <v>548.625</v>
       </c>
       <c r="G109" t="n">
-        <v>145.48</v>
+        <v>47503.55725052</v>
       </c>
       <c r="H109" t="n">
-        <v>141.0983333333334</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N109" t="n">
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4630,40 +4447,33 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>143</v>
+        <v>138.1</v>
       </c>
       <c r="C110" t="n">
-        <v>143</v>
+        <v>139.9</v>
       </c>
       <c r="D110" t="n">
-        <v>143</v>
+        <v>139.9</v>
       </c>
       <c r="E110" t="n">
-        <v>143</v>
+        <v>136.9</v>
       </c>
       <c r="F110" t="n">
-        <v>12.8153</v>
+        <v>1415.9897</v>
       </c>
       <c r="G110" t="n">
-        <v>145.6266666666666</v>
+        <v>48919.54695052</v>
       </c>
       <c r="H110" t="n">
-        <v>141.1133333333334</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N110" t="n">
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4672,40 +4482,33 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>144</v>
+        <v>137.1</v>
       </c>
       <c r="C111" t="n">
-        <v>144</v>
+        <v>136.9</v>
       </c>
       <c r="D111" t="n">
-        <v>144</v>
+        <v>137.1</v>
       </c>
       <c r="E111" t="n">
-        <v>144</v>
+        <v>136.9</v>
       </c>
       <c r="F111" t="n">
-        <v>1682.375</v>
+        <v>17495.8684</v>
       </c>
       <c r="G111" t="n">
-        <v>145.8466666666667</v>
+        <v>31423.67855052</v>
       </c>
       <c r="H111" t="n">
-        <v>141.1450000000001</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N111" t="n">
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4714,40 +4517,33 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>148.6</v>
+        <v>139.5</v>
       </c>
       <c r="C112" t="n">
-        <v>148.6</v>
+        <v>139.5</v>
       </c>
       <c r="D112" t="n">
-        <v>148.6</v>
+        <v>139.5</v>
       </c>
       <c r="E112" t="n">
-        <v>148.6</v>
+        <v>139.5</v>
       </c>
       <c r="F112" t="n">
-        <v>269.1077</v>
+        <v>2096.922</v>
       </c>
       <c r="G112" t="n">
-        <v>146.1533333333333</v>
+        <v>33520.60055052</v>
       </c>
       <c r="H112" t="n">
-        <v>141.1883333333334</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N112" t="n">
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4756,40 +4552,33 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>145.1</v>
+        <v>139.9</v>
       </c>
       <c r="C113" t="n">
-        <v>145.1</v>
+        <v>139.9</v>
       </c>
       <c r="D113" t="n">
-        <v>145.1</v>
+        <v>139.9</v>
       </c>
       <c r="E113" t="n">
-        <v>145.1</v>
+        <v>139.8</v>
       </c>
       <c r="F113" t="n">
-        <v>1671.261</v>
+        <v>4384.448</v>
       </c>
       <c r="G113" t="n">
-        <v>146.16</v>
+        <v>37905.04855052</v>
       </c>
       <c r="H113" t="n">
-        <v>141.2350000000001</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N113" t="n">
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4798,40 +4587,33 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>143</v>
+        <v>139.8</v>
       </c>
       <c r="C114" t="n">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D114" t="n">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E114" t="n">
-        <v>143</v>
+        <v>139.8</v>
       </c>
       <c r="F114" t="n">
-        <v>5.1221</v>
+        <v>6840.905</v>
       </c>
       <c r="G114" t="n">
-        <v>146.0266666666666</v>
+        <v>44745.95355052</v>
       </c>
       <c r="H114" t="n">
-        <v>141.2466666666668</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N114" t="n">
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4840,40 +4622,33 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>144.1</v>
+        <v>140.8</v>
       </c>
       <c r="C115" t="n">
-        <v>143</v>
+        <v>140.9</v>
       </c>
       <c r="D115" t="n">
-        <v>144.1</v>
+        <v>140.9</v>
       </c>
       <c r="E115" t="n">
-        <v>143</v>
+        <v>140.8</v>
       </c>
       <c r="F115" t="n">
-        <v>361.588</v>
+        <v>3000</v>
       </c>
       <c r="G115" t="n">
-        <v>146.0266666666666</v>
+        <v>47745.95355052</v>
       </c>
       <c r="H115" t="n">
-        <v>141.2566666666668</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N115" t="n">
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4882,40 +4657,33 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>143</v>
+        <v>140.9</v>
       </c>
       <c r="C116" t="n">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D116" t="n">
-        <v>143</v>
+        <v>140.9</v>
       </c>
       <c r="E116" t="n">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F116" t="n">
-        <v>1589.8947</v>
+        <v>1606.4054</v>
       </c>
       <c r="G116" t="n">
-        <v>145.76</v>
+        <v>46139.54815052</v>
       </c>
       <c r="H116" t="n">
-        <v>141.2516666666668</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N116" t="n">
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4924,40 +4692,33 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>142</v>
+        <v>140.1</v>
       </c>
       <c r="C117" t="n">
-        <v>142</v>
+        <v>140.1</v>
       </c>
       <c r="D117" t="n">
-        <v>142</v>
+        <v>140.1</v>
       </c>
       <c r="E117" t="n">
-        <v>142</v>
+        <v>140.1</v>
       </c>
       <c r="F117" t="n">
-        <v>8.688800000000001</v>
+        <v>1206.2047</v>
       </c>
       <c r="G117" t="n">
-        <v>145.4933333333333</v>
+        <v>47345.75285052</v>
       </c>
       <c r="H117" t="n">
-        <v>141.2350000000001</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N117" t="n">
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4966,40 +4727,33 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C118" t="n">
-        <v>140.8</v>
+        <v>140</v>
       </c>
       <c r="D118" t="n">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E118" t="n">
-        <v>140.8</v>
+        <v>140</v>
       </c>
       <c r="F118" t="n">
-        <v>4112.5943</v>
+        <v>1443.7855</v>
       </c>
       <c r="G118" t="n">
-        <v>145.02</v>
+        <v>45901.96735052</v>
       </c>
       <c r="H118" t="n">
-        <v>141.2100000000001</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N118" t="n">
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5008,40 +4762,33 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>140.8</v>
+        <v>139.1</v>
       </c>
       <c r="C119" t="n">
-        <v>142</v>
+        <v>138.1</v>
       </c>
       <c r="D119" t="n">
-        <v>142</v>
+        <v>139.1</v>
       </c>
       <c r="E119" t="n">
-        <v>140.7</v>
+        <v>138.1</v>
       </c>
       <c r="F119" t="n">
-        <v>1469.0014</v>
+        <v>1801.0868</v>
       </c>
       <c r="G119" t="n">
-        <v>144.62</v>
+        <v>44100.88055052001</v>
       </c>
       <c r="H119" t="n">
-        <v>141.2083333333335</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N119" t="n">
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5050,40 +4797,33 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>141</v>
+        <v>138.2</v>
       </c>
       <c r="C120" t="n">
-        <v>141.7</v>
+        <v>138.2</v>
       </c>
       <c r="D120" t="n">
-        <v>141.7</v>
+        <v>138.2</v>
       </c>
       <c r="E120" t="n">
-        <v>141</v>
+        <v>138.2</v>
       </c>
       <c r="F120" t="n">
-        <v>3548.3433</v>
+        <v>1169.8378</v>
       </c>
       <c r="G120" t="n">
-        <v>144.2066666666666</v>
+        <v>45270.71835052001</v>
       </c>
       <c r="H120" t="n">
-        <v>141.2083333333335</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N120" t="n">
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5092,42 +4832,33 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>144</v>
+        <v>138.2</v>
       </c>
       <c r="C121" t="n">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D121" t="n">
-        <v>144</v>
+        <v>138.2</v>
       </c>
       <c r="E121" t="n">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F121" t="n">
-        <v>205.3243</v>
+        <v>4115.3403</v>
       </c>
       <c r="G121" t="n">
-        <v>143.8733333333333</v>
+        <v>41155.37805052001</v>
       </c>
       <c r="H121" t="n">
-        <v>141.2366666666668</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
-      </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
-      <c r="K121" t="n">
-        <v>141.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N121" t="n">
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5136,40 +4867,33 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C122" t="n">
-        <v>139</v>
+        <v>136.7</v>
       </c>
       <c r="D122" t="n">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E122" t="n">
-        <v>139</v>
+        <v>136.7</v>
       </c>
       <c r="F122" t="n">
-        <v>3448.3433</v>
+        <v>3000</v>
       </c>
       <c r="G122" t="n">
-        <v>143.2733333333333</v>
+        <v>38155.37805052001</v>
       </c>
       <c r="H122" t="n">
-        <v>141.2000000000001</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N122" t="n">
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5178,42 +4902,33 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>145.6</v>
+        <v>140.9</v>
       </c>
       <c r="C123" t="n">
-        <v>145.6</v>
+        <v>140.9</v>
       </c>
       <c r="D123" t="n">
-        <v>145.6</v>
+        <v>140.9</v>
       </c>
       <c r="E123" t="n">
-        <v>145.6</v>
+        <v>140.9</v>
       </c>
       <c r="F123" t="n">
-        <v>10</v>
+        <v>6.9933</v>
       </c>
       <c r="G123" t="n">
-        <v>143.1199999999999</v>
+        <v>38162.37135052001</v>
       </c>
       <c r="H123" t="n">
-        <v>141.2733333333335</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
-      </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
-      <c r="K123" t="n">
-        <v>139</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N123" t="n">
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5222,40 +4937,33 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>144.7</v>
+        <v>140.8</v>
       </c>
       <c r="C124" t="n">
-        <v>144.7</v>
+        <v>140.8</v>
       </c>
       <c r="D124" t="n">
-        <v>144.7</v>
+        <v>140.8</v>
       </c>
       <c r="E124" t="n">
-        <v>144.7</v>
+        <v>140.8</v>
       </c>
       <c r="F124" t="n">
-        <v>10</v>
+        <v>885.5684</v>
       </c>
       <c r="G124" t="n">
-        <v>143.1666666666666</v>
+        <v>37276.80295052002</v>
       </c>
       <c r="H124" t="n">
-        <v>141.3316666666668</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N124" t="n">
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5264,40 +4972,33 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>142.9</v>
+        <v>140.7</v>
       </c>
       <c r="C125" t="n">
-        <v>141</v>
+        <v>140.7</v>
       </c>
       <c r="D125" t="n">
-        <v>142.9</v>
+        <v>140.7</v>
       </c>
       <c r="E125" t="n">
-        <v>141</v>
+        <v>140.7</v>
       </c>
       <c r="F125" t="n">
-        <v>210.9828</v>
+        <v>5.1684</v>
       </c>
       <c r="G125" t="n">
-        <v>143.0333333333333</v>
+        <v>37271.63455052002</v>
       </c>
       <c r="H125" t="n">
-        <v>141.4116666666668</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N125" t="n">
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5306,40 +5007,33 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>140</v>
+        <v>141.9</v>
       </c>
       <c r="C126" t="n">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D126" t="n">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E126" t="n">
-        <v>140</v>
+        <v>141.9</v>
       </c>
       <c r="F126" t="n">
-        <v>9397.7261</v>
+        <v>2806.403</v>
       </c>
       <c r="G126" t="n">
-        <v>142.7666666666666</v>
+        <v>40078.03755052001</v>
       </c>
       <c r="H126" t="n">
-        <v>141.4683333333334</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>0</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N126" t="n">
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5348,40 +5042,33 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C127" t="n">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D127" t="n">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E127" t="n">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F127" t="n">
-        <v>368.8861</v>
+        <v>1000</v>
       </c>
       <c r="G127" t="n">
-        <v>142.2599999999999</v>
+        <v>41078.03755052001</v>
       </c>
       <c r="H127" t="n">
-        <v>141.5400000000001</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N127" t="n">
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5390,40 +5077,33 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C128" t="n">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D128" t="n">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E128" t="n">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F128" t="n">
-        <v>10</v>
+        <v>60.4902</v>
       </c>
       <c r="G128" t="n">
-        <v>142.1199999999999</v>
+        <v>41078.03755052001</v>
       </c>
       <c r="H128" t="n">
-        <v>141.5600000000001</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>0</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N128" t="n">
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5435,37 +5115,30 @@
         <v>143</v>
       </c>
       <c r="C129" t="n">
-        <v>143.9</v>
+        <v>143</v>
       </c>
       <c r="D129" t="n">
-        <v>143.9</v>
+        <v>143</v>
       </c>
       <c r="E129" t="n">
         <v>143</v>
       </c>
       <c r="F129" t="n">
-        <v>1374.6977</v>
+        <v>212</v>
       </c>
       <c r="G129" t="n">
-        <v>142.1799999999999</v>
+        <v>40866.03755052001</v>
       </c>
       <c r="H129" t="n">
-        <v>141.6650000000001</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>0</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N129" t="n">
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5474,40 +5147,33 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>142.2</v>
+        <v>146</v>
       </c>
       <c r="C130" t="n">
-        <v>142.2</v>
+        <v>146</v>
       </c>
       <c r="D130" t="n">
-        <v>142.2</v>
+        <v>146</v>
       </c>
       <c r="E130" t="n">
-        <v>142.2</v>
+        <v>146</v>
       </c>
       <c r="F130" t="n">
-        <v>1374.6977</v>
+        <v>246</v>
       </c>
       <c r="G130" t="n">
-        <v>142.1266666666666</v>
+        <v>41112.03755052001</v>
       </c>
       <c r="H130" t="n">
-        <v>141.7633333333334</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>0</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N130" t="n">
+      <c r="M130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5516,40 +5182,33 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>147.8</v>
+        <v>146</v>
       </c>
       <c r="C131" t="n">
-        <v>148.9</v>
+        <v>146</v>
       </c>
       <c r="D131" t="n">
-        <v>148.9</v>
+        <v>146</v>
       </c>
       <c r="E131" t="n">
-        <v>147.8</v>
+        <v>146</v>
       </c>
       <c r="F131" t="n">
-        <v>1672.874</v>
+        <v>212</v>
       </c>
       <c r="G131" t="n">
-        <v>142.5866666666666</v>
+        <v>41112.03755052001</v>
       </c>
       <c r="H131" t="n">
-        <v>141.9450000000001</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>0</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N131" t="n">
+      <c r="M131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5558,40 +5217,33 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>150.8</v>
+        <v>147</v>
       </c>
       <c r="C132" t="n">
-        <v>150.8</v>
+        <v>147.9</v>
       </c>
       <c r="D132" t="n">
-        <v>150.8</v>
+        <v>147.9</v>
       </c>
       <c r="E132" t="n">
-        <v>150.8</v>
+        <v>147</v>
       </c>
       <c r="F132" t="n">
-        <v>10</v>
+        <v>5624.1496</v>
       </c>
       <c r="G132" t="n">
-        <v>143.1733333333333</v>
+        <v>46736.18715052001</v>
       </c>
       <c r="H132" t="n">
-        <v>142.1583333333334</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>0</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N132" t="n">
+      <c r="M132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5600,40 +5252,33 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>150.8</v>
+        <v>148</v>
       </c>
       <c r="C133" t="n">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D133" t="n">
-        <v>150.8</v>
+        <v>148</v>
       </c>
       <c r="E133" t="n">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F133" t="n">
-        <v>8</v>
+        <v>2052.2179</v>
       </c>
       <c r="G133" t="n">
-        <v>143.3866666666666</v>
+        <v>48788.40505052001</v>
       </c>
       <c r="H133" t="n">
-        <v>142.2816666666668</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>0</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N133" t="n">
+      <c r="M133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5642,40 +5287,33 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>147.1</v>
+        <v>147.9</v>
       </c>
       <c r="C134" t="n">
-        <v>146.1</v>
+        <v>147.9</v>
       </c>
       <c r="D134" t="n">
-        <v>147.1</v>
+        <v>147.9</v>
       </c>
       <c r="E134" t="n">
-        <v>146.1</v>
+        <v>147.9</v>
       </c>
       <c r="F134" t="n">
-        <v>1379.277</v>
+        <v>246</v>
       </c>
       <c r="G134" t="n">
-        <v>143.6599999999999</v>
+        <v>48542.40505052001</v>
       </c>
       <c r="H134" t="n">
-        <v>142.4166666666668</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>0</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N134" t="n">
+      <c r="M134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5684,40 +5322,33 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C135" t="n">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D135" t="n">
-        <v>148.9</v>
+        <v>148</v>
       </c>
       <c r="E135" t="n">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F135" t="n">
-        <v>10726.12261618</v>
+        <v>4531.7167</v>
       </c>
       <c r="G135" t="n">
-        <v>143.8133333333333</v>
+        <v>53074.12175052001</v>
       </c>
       <c r="H135" t="n">
-        <v>142.5400000000001</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>0</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N135" t="n">
+      <c r="M135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5726,40 +5357,33 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C136" t="n">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D136" t="n">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E136" t="n">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F136" t="n">
-        <v>2337.8456</v>
+        <v>152.7465</v>
       </c>
       <c r="G136" t="n">
-        <v>143.88</v>
+        <v>53074.12175052001</v>
       </c>
       <c r="H136" t="n">
-        <v>142.6400000000001</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>0</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N136" t="n">
+      <c r="M136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5768,40 +5392,33 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>144</v>
+        <v>147.9</v>
       </c>
       <c r="C137" t="n">
-        <v>149</v>
+        <v>147.9</v>
       </c>
       <c r="D137" t="n">
-        <v>149</v>
+        <v>147.9</v>
       </c>
       <c r="E137" t="n">
-        <v>143.3</v>
+        <v>147.9</v>
       </c>
       <c r="F137" t="n">
-        <v>2698.633</v>
+        <v>1263.3586</v>
       </c>
       <c r="G137" t="n">
-        <v>144.5466666666666</v>
+        <v>51810.76315052001</v>
       </c>
       <c r="H137" t="n">
-        <v>142.8466666666667</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>0</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N137" t="n">
+      <c r="M137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5810,40 +5427,33 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C138" t="n">
-        <v>142.2</v>
+        <v>144</v>
       </c>
       <c r="D138" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E138" t="n">
-        <v>142.2</v>
+        <v>144</v>
       </c>
       <c r="F138" t="n">
-        <v>10158.7416</v>
+        <v>820</v>
       </c>
       <c r="G138" t="n">
-        <v>144.32</v>
+        <v>50990.76315052001</v>
       </c>
       <c r="H138" t="n">
-        <v>142.8683333333334</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>0</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N138" t="n">
+      <c r="M138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5852,40 +5462,33 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>145.6</v>
+        <v>143</v>
       </c>
       <c r="C139" t="n">
-        <v>145.6</v>
+        <v>143</v>
       </c>
       <c r="D139" t="n">
-        <v>145.6</v>
+        <v>143</v>
       </c>
       <c r="E139" t="n">
-        <v>145.6</v>
+        <v>143</v>
       </c>
       <c r="F139" t="n">
-        <v>6</v>
+        <v>12.8153</v>
       </c>
       <c r="G139" t="n">
-        <v>144.38</v>
+        <v>50977.94785052001</v>
       </c>
       <c r="H139" t="n">
-        <v>143.0183333333334</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>0</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N139" t="n">
+      <c r="M139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5894,40 +5497,33 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>145.6</v>
+        <v>144</v>
       </c>
       <c r="C140" t="n">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D140" t="n">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E140" t="n">
-        <v>145.6</v>
+        <v>144</v>
       </c>
       <c r="F140" t="n">
-        <v>5620.2866</v>
+        <v>1682.375</v>
       </c>
       <c r="G140" t="n">
-        <v>145.1133333333333</v>
+        <v>52660.32285052001</v>
       </c>
       <c r="H140" t="n">
-        <v>143.2750000000001</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>0</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N140" t="n">
+      <c r="M140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5936,40 +5532,33 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>152</v>
+        <v>148.6</v>
       </c>
       <c r="C141" t="n">
-        <v>153.8</v>
+        <v>148.6</v>
       </c>
       <c r="D141" t="n">
-        <v>153.8</v>
+        <v>148.6</v>
       </c>
       <c r="E141" t="n">
-        <v>152</v>
+        <v>148.6</v>
       </c>
       <c r="F141" t="n">
-        <v>2581.487</v>
+        <v>269.1077</v>
       </c>
       <c r="G141" t="n">
-        <v>146.0333333333333</v>
+        <v>52929.43055052001</v>
       </c>
       <c r="H141" t="n">
-        <v>143.5066666666667</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>0</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N141" t="n">
+      <c r="M141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5978,40 +5567,33 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>153.7</v>
+        <v>145.1</v>
       </c>
       <c r="C142" t="n">
-        <v>153.9</v>
+        <v>145.1</v>
       </c>
       <c r="D142" t="n">
-        <v>153.9</v>
+        <v>145.1</v>
       </c>
       <c r="E142" t="n">
-        <v>153.7</v>
+        <v>145.1</v>
       </c>
       <c r="F142" t="n">
-        <v>5228.1627</v>
+        <v>1671.261</v>
       </c>
       <c r="G142" t="n">
-        <v>146.8933333333333</v>
+        <v>51258.16955052001</v>
       </c>
       <c r="H142" t="n">
-        <v>143.7900000000001</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>0</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N142" t="n">
+      <c r="M142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6020,40 +5602,33 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>153.8</v>
+        <v>143</v>
       </c>
       <c r="C143" t="n">
-        <v>153.3</v>
+        <v>143</v>
       </c>
       <c r="D143" t="n">
-        <v>153.8</v>
+        <v>143</v>
       </c>
       <c r="E143" t="n">
-        <v>153.3</v>
+        <v>143</v>
       </c>
       <c r="F143" t="n">
-        <v>227</v>
+        <v>5.1221</v>
       </c>
       <c r="G143" t="n">
-        <v>147.58</v>
+        <v>51253.04745052001</v>
       </c>
       <c r="H143" t="n">
-        <v>144.0200000000001</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>0</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N143" t="n">
+      <c r="M143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6062,40 +5637,33 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>153</v>
+        <v>144.1</v>
       </c>
       <c r="C144" t="n">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="D144" t="n">
-        <v>153</v>
+        <v>144.1</v>
       </c>
       <c r="E144" t="n">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="F144" t="n">
-        <v>5</v>
+        <v>361.588</v>
       </c>
       <c r="G144" t="n">
-        <v>148.1866666666666</v>
+        <v>51253.04745052001</v>
       </c>
       <c r="H144" t="n">
-        <v>144.2383333333334</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>0</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N144" t="n">
+      <c r="M144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6104,76 +5672,68 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>152.9</v>
+        <v>143</v>
       </c>
       <c r="C145" t="n">
-        <v>152.9</v>
+        <v>142</v>
       </c>
       <c r="D145" t="n">
-        <v>152.9</v>
+        <v>143</v>
       </c>
       <c r="E145" t="n">
-        <v>152.9</v>
+        <v>142</v>
       </c>
       <c r="F145" t="n">
-        <v>972</v>
+        <v>1589.8947</v>
       </c>
       <c r="G145" t="n">
-        <v>148.9</v>
+        <v>49663.15275052001</v>
       </c>
       <c r="H145" t="n">
-        <v>144.4533333333334</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>1</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>152.2</v>
+        <v>142</v>
       </c>
       <c r="C146" t="n">
-        <v>152.9</v>
+        <v>142</v>
       </c>
       <c r="D146" t="n">
-        <v>152.9</v>
+        <v>142</v>
       </c>
       <c r="E146" t="n">
-        <v>152.2</v>
+        <v>142</v>
       </c>
       <c r="F146" t="n">
-        <v>5527.8557</v>
+        <v>8.688800000000001</v>
       </c>
       <c r="G146" t="n">
-        <v>149.1666666666667</v>
+        <v>49663.15275052001</v>
       </c>
       <c r="H146" t="n">
-        <v>144.6533333333334</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>1</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="inlineStr"/>
-      <c r="N146" t="n">
+      <c r="M146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6182,36 +5742,33 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>151.6</v>
+        <v>142</v>
       </c>
       <c r="C147" t="n">
-        <v>149.1</v>
+        <v>140.8</v>
       </c>
       <c r="D147" t="n">
-        <v>151.6</v>
+        <v>142</v>
       </c>
       <c r="E147" t="n">
-        <v>149.1</v>
+        <v>140.8</v>
       </c>
       <c r="F147" t="n">
-        <v>835</v>
+        <v>4112.5943</v>
       </c>
       <c r="G147" t="n">
-        <v>149.0533333333333</v>
+        <v>45550.55845052002</v>
       </c>
       <c r="H147" t="n">
-        <v>144.8050000000001</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>1</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="inlineStr"/>
-      <c r="N147" t="n">
+      <c r="M147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6220,36 +5777,33 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>151.9</v>
+        <v>140.8</v>
       </c>
       <c r="C148" t="n">
-        <v>151.9</v>
+        <v>142</v>
       </c>
       <c r="D148" t="n">
-        <v>151.9</v>
+        <v>142</v>
       </c>
       <c r="E148" t="n">
-        <v>151.9</v>
+        <v>140.7</v>
       </c>
       <c r="F148" t="n">
-        <v>5</v>
+        <v>1469.0014</v>
       </c>
       <c r="G148" t="n">
-        <v>149.58</v>
+        <v>47019.55985052002</v>
       </c>
       <c r="H148" t="n">
-        <v>145.0016666666667</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>1</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="inlineStr"/>
-      <c r="N148" t="n">
+      <c r="M148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6258,36 +5812,33 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>151.9</v>
+        <v>141</v>
       </c>
       <c r="C149" t="n">
-        <v>151.9</v>
+        <v>141.7</v>
       </c>
       <c r="D149" t="n">
-        <v>151.9</v>
+        <v>141.7</v>
       </c>
       <c r="E149" t="n">
-        <v>151.9</v>
+        <v>141</v>
       </c>
       <c r="F149" t="n">
-        <v>5</v>
+        <v>3548.3433</v>
       </c>
       <c r="G149" t="n">
-        <v>149.9666666666667</v>
+        <v>43471.21655052002</v>
       </c>
       <c r="H149" t="n">
-        <v>145.2000000000001</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>1</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="inlineStr"/>
-      <c r="N149" t="n">
+      <c r="M149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6296,36 +5847,33 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>145.6</v>
+        <v>144</v>
       </c>
       <c r="C150" t="n">
-        <v>147.9</v>
+        <v>143</v>
       </c>
       <c r="D150" t="n">
-        <v>150.8</v>
+        <v>144</v>
       </c>
       <c r="E150" t="n">
-        <v>143.2</v>
+        <v>143</v>
       </c>
       <c r="F150" t="n">
-        <v>5244.1627</v>
+        <v>205.3243</v>
       </c>
       <c r="G150" t="n">
-        <v>150.2266666666667</v>
+        <v>43676.54085052002</v>
       </c>
       <c r="H150" t="n">
-        <v>145.3633333333334</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>1</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="inlineStr"/>
-      <c r="N150" t="n">
+      <c r="M150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6334,36 +5882,33 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C151" t="n">
-        <v>149.9</v>
+        <v>139</v>
       </c>
       <c r="D151" t="n">
-        <v>149.9</v>
+        <v>140</v>
       </c>
       <c r="E151" t="n">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="F151" t="n">
-        <v>11</v>
+        <v>3448.3433</v>
       </c>
       <c r="G151" t="n">
-        <v>150.62</v>
+        <v>40228.19755052002</v>
       </c>
       <c r="H151" t="n">
-        <v>145.5583333333334</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
-        <v>0</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="inlineStr"/>
-      <c r="N151" t="n">
+      <c r="M151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6372,36 +5917,33 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>148.8</v>
+        <v>145.6</v>
       </c>
       <c r="C152" t="n">
-        <v>143.2</v>
+        <v>145.6</v>
       </c>
       <c r="D152" t="n">
-        <v>148.8</v>
+        <v>145.6</v>
       </c>
       <c r="E152" t="n">
-        <v>143.2</v>
+        <v>145.6</v>
       </c>
       <c r="F152" t="n">
-        <v>3187.486</v>
+        <v>10</v>
       </c>
       <c r="G152" t="n">
-        <v>150.2333333333333</v>
+        <v>40238.19755052002</v>
       </c>
       <c r="H152" t="n">
-        <v>145.645</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>0</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="inlineStr"/>
-      <c r="N152" t="n">
+      <c r="M152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6410,36 +5952,33 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>144</v>
+        <v>144.7</v>
       </c>
       <c r="C153" t="n">
-        <v>144</v>
+        <v>144.7</v>
       </c>
       <c r="D153" t="n">
-        <v>144</v>
+        <v>144.7</v>
       </c>
       <c r="E153" t="n">
-        <v>144</v>
+        <v>144.7</v>
       </c>
       <c r="F153" t="n">
-        <v>219.0164</v>
+        <v>10</v>
       </c>
       <c r="G153" t="n">
-        <v>150.3533333333334</v>
+        <v>40228.19755052002</v>
       </c>
       <c r="H153" t="n">
-        <v>145.7666666666667</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>0</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="inlineStr"/>
-      <c r="N153" t="n">
+      <c r="M153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6448,36 +5987,33 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>144</v>
+        <v>142.9</v>
       </c>
       <c r="C154" t="n">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D154" t="n">
-        <v>144</v>
+        <v>142.9</v>
       </c>
       <c r="E154" t="n">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F154" t="n">
-        <v>97.95489999999999</v>
+        <v>210.9828</v>
       </c>
       <c r="G154" t="n">
-        <v>150.2466666666667</v>
+        <v>40017.21475052002</v>
       </c>
       <c r="H154" t="n">
-        <v>145.8183333333334</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>0</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="inlineStr"/>
-      <c r="N154" t="n">
+      <c r="M154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6486,36 +6022,33 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C155" t="n">
-        <v>142.2</v>
+        <v>140</v>
       </c>
       <c r="D155" t="n">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E155" t="n">
-        <v>142.2</v>
+        <v>140</v>
       </c>
       <c r="F155" t="n">
-        <v>5283.4723</v>
+        <v>9397.7261</v>
       </c>
       <c r="G155" t="n">
-        <v>149.5933333333333</v>
+        <v>30619.48865052002</v>
       </c>
       <c r="H155" t="n">
-        <v>145.8416666666667</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>0</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="inlineStr"/>
-      <c r="N155" t="n">
+      <c r="M155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6524,36 +6057,1064 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>142.2</v>
+        <v>141</v>
       </c>
       <c r="C156" t="n">
-        <v>142.2</v>
+        <v>141</v>
       </c>
       <c r="D156" t="n">
-        <v>142.2</v>
+        <v>141</v>
       </c>
       <c r="E156" t="n">
-        <v>142.2</v>
+        <v>141</v>
       </c>
       <c r="F156" t="n">
-        <v>239.3834</v>
+        <v>368.8861</v>
       </c>
       <c r="G156" t="n">
-        <v>148.82</v>
+        <v>30988.37475052002</v>
       </c>
       <c r="H156" t="n">
-        <v>145.8666666666667</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>0</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="inlineStr"/>
-      <c r="N156" t="n">
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>143</v>
+      </c>
+      <c r="C157" t="n">
+        <v>143</v>
+      </c>
+      <c r="D157" t="n">
+        <v>143</v>
+      </c>
+      <c r="E157" t="n">
+        <v>143</v>
+      </c>
+      <c r="F157" t="n">
+        <v>10</v>
+      </c>
+      <c r="G157" t="n">
+        <v>30998.37475052002</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>143</v>
+      </c>
+      <c r="C158" t="n">
+        <v>143.9</v>
+      </c>
+      <c r="D158" t="n">
+        <v>143.9</v>
+      </c>
+      <c r="E158" t="n">
+        <v>143</v>
+      </c>
+      <c r="F158" t="n">
+        <v>1374.6977</v>
+      </c>
+      <c r="G158" t="n">
+        <v>32373.07245052002</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>142.2</v>
+      </c>
+      <c r="C159" t="n">
+        <v>142.2</v>
+      </c>
+      <c r="D159" t="n">
+        <v>142.2</v>
+      </c>
+      <c r="E159" t="n">
+        <v>142.2</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1374.6977</v>
+      </c>
+      <c r="G159" t="n">
+        <v>30998.37475052002</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>147.8</v>
+      </c>
+      <c r="C160" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="D160" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="E160" t="n">
+        <v>147.8</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1672.874</v>
+      </c>
+      <c r="G160" t="n">
+        <v>32671.24875052002</v>
+      </c>
+      <c r="H160" t="n">
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>142.2</v>
+      </c>
+      <c r="K160" t="n">
+        <v>142.2</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>150.8</v>
+      </c>
+      <c r="C161" t="n">
+        <v>150.8</v>
+      </c>
+      <c r="D161" t="n">
+        <v>150.8</v>
+      </c>
+      <c r="E161" t="n">
+        <v>150.8</v>
+      </c>
+      <c r="F161" t="n">
+        <v>10</v>
+      </c>
+      <c r="G161" t="n">
+        <v>32681.24875052002</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>142.2</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>150.8</v>
+      </c>
+      <c r="C162" t="n">
+        <v>144</v>
+      </c>
+      <c r="D162" t="n">
+        <v>150.8</v>
+      </c>
+      <c r="E162" t="n">
+        <v>144</v>
+      </c>
+      <c r="F162" t="n">
+        <v>8</v>
+      </c>
+      <c r="G162" t="n">
+        <v>32673.24875052002</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>142.2</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>147.1</v>
+      </c>
+      <c r="C163" t="n">
+        <v>146.1</v>
+      </c>
+      <c r="D163" t="n">
+        <v>147.1</v>
+      </c>
+      <c r="E163" t="n">
+        <v>146.1</v>
+      </c>
+      <c r="F163" t="n">
+        <v>1379.277</v>
+      </c>
+      <c r="G163" t="n">
+        <v>34052.52575052002</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>146</v>
+      </c>
+      <c r="C164" t="n">
+        <v>144</v>
+      </c>
+      <c r="D164" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="E164" t="n">
+        <v>144</v>
+      </c>
+      <c r="F164" t="n">
+        <v>10726.12261618</v>
+      </c>
+      <c r="G164" t="n">
+        <v>23326.40313434002</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>144</v>
+      </c>
+      <c r="C165" t="n">
+        <v>144</v>
+      </c>
+      <c r="D165" t="n">
+        <v>144</v>
+      </c>
+      <c r="E165" t="n">
+        <v>144</v>
+      </c>
+      <c r="F165" t="n">
+        <v>2337.8456</v>
+      </c>
+      <c r="G165" t="n">
+        <v>23326.40313434002</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>144</v>
+      </c>
+      <c r="C166" t="n">
+        <v>149</v>
+      </c>
+      <c r="D166" t="n">
+        <v>149</v>
+      </c>
+      <c r="E166" t="n">
+        <v>143.3</v>
+      </c>
+      <c r="F166" t="n">
+        <v>2698.633</v>
+      </c>
+      <c r="G166" t="n">
+        <v>26025.03613434002</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>145</v>
+      </c>
+      <c r="C167" t="n">
+        <v>142.2</v>
+      </c>
+      <c r="D167" t="n">
+        <v>145</v>
+      </c>
+      <c r="E167" t="n">
+        <v>142.2</v>
+      </c>
+      <c r="F167" t="n">
+        <v>10158.7416</v>
+      </c>
+      <c r="G167" t="n">
+        <v>15866.29453434002</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>145.6</v>
+      </c>
+      <c r="C168" t="n">
+        <v>145.6</v>
+      </c>
+      <c r="D168" t="n">
+        <v>145.6</v>
+      </c>
+      <c r="E168" t="n">
+        <v>145.6</v>
+      </c>
+      <c r="F168" t="n">
+        <v>6</v>
+      </c>
+      <c r="G168" t="n">
+        <v>15872.29453434002</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>145.6</v>
+      </c>
+      <c r="C169" t="n">
+        <v>152</v>
+      </c>
+      <c r="D169" t="n">
+        <v>152</v>
+      </c>
+      <c r="E169" t="n">
+        <v>145.6</v>
+      </c>
+      <c r="F169" t="n">
+        <v>5620.2866</v>
+      </c>
+      <c r="G169" t="n">
+        <v>21492.58113434002</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>152</v>
+      </c>
+      <c r="C170" t="n">
+        <v>153.8</v>
+      </c>
+      <c r="D170" t="n">
+        <v>153.8</v>
+      </c>
+      <c r="E170" t="n">
+        <v>152</v>
+      </c>
+      <c r="F170" t="n">
+        <v>2581.487</v>
+      </c>
+      <c r="G170" t="n">
+        <v>24074.06813434002</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>153.7</v>
+      </c>
+      <c r="C171" t="n">
+        <v>153.9</v>
+      </c>
+      <c r="D171" t="n">
+        <v>153.9</v>
+      </c>
+      <c r="E171" t="n">
+        <v>153.7</v>
+      </c>
+      <c r="F171" t="n">
+        <v>5228.1627</v>
+      </c>
+      <c r="G171" t="n">
+        <v>29302.23083434003</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>153.8</v>
+      </c>
+      <c r="C172" t="n">
+        <v>153.3</v>
+      </c>
+      <c r="D172" t="n">
+        <v>153.8</v>
+      </c>
+      <c r="E172" t="n">
+        <v>153.3</v>
+      </c>
+      <c r="F172" t="n">
+        <v>227</v>
+      </c>
+      <c r="G172" t="n">
+        <v>29075.23083434003</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>153</v>
+      </c>
+      <c r="C173" t="n">
+        <v>153</v>
+      </c>
+      <c r="D173" t="n">
+        <v>153</v>
+      </c>
+      <c r="E173" t="n">
+        <v>153</v>
+      </c>
+      <c r="F173" t="n">
+        <v>5</v>
+      </c>
+      <c r="G173" t="n">
+        <v>29070.23083434003</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>152.9</v>
+      </c>
+      <c r="C174" t="n">
+        <v>152.9</v>
+      </c>
+      <c r="D174" t="n">
+        <v>152.9</v>
+      </c>
+      <c r="E174" t="n">
+        <v>152.9</v>
+      </c>
+      <c r="F174" t="n">
+        <v>972</v>
+      </c>
+      <c r="G174" t="n">
+        <v>28098.23083434003</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="C175" t="n">
+        <v>152.9</v>
+      </c>
+      <c r="D175" t="n">
+        <v>152.9</v>
+      </c>
+      <c r="E175" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="F175" t="n">
+        <v>5527.8557</v>
+      </c>
+      <c r="G175" t="n">
+        <v>28098.23083434003</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="C176" t="n">
+        <v>149.1</v>
+      </c>
+      <c r="D176" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="E176" t="n">
+        <v>149.1</v>
+      </c>
+      <c r="F176" t="n">
+        <v>835</v>
+      </c>
+      <c r="G176" t="n">
+        <v>27263.23083434003</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>151.9</v>
+      </c>
+      <c r="C177" t="n">
+        <v>151.9</v>
+      </c>
+      <c r="D177" t="n">
+        <v>151.9</v>
+      </c>
+      <c r="E177" t="n">
+        <v>151.9</v>
+      </c>
+      <c r="F177" t="n">
+        <v>5</v>
+      </c>
+      <c r="G177" t="n">
+        <v>27268.23083434003</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>151.9</v>
+      </c>
+      <c r="C178" t="n">
+        <v>151.9</v>
+      </c>
+      <c r="D178" t="n">
+        <v>151.9</v>
+      </c>
+      <c r="E178" t="n">
+        <v>151.9</v>
+      </c>
+      <c r="F178" t="n">
+        <v>5</v>
+      </c>
+      <c r="G178" t="n">
+        <v>27268.23083434003</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>145.6</v>
+      </c>
+      <c r="C179" t="n">
+        <v>147.9</v>
+      </c>
+      <c r="D179" t="n">
+        <v>150.8</v>
+      </c>
+      <c r="E179" t="n">
+        <v>143.2</v>
+      </c>
+      <c r="F179" t="n">
+        <v>5244.1627</v>
+      </c>
+      <c r="G179" t="n">
+        <v>22024.06813434002</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>148</v>
+      </c>
+      <c r="C180" t="n">
+        <v>149.9</v>
+      </c>
+      <c r="D180" t="n">
+        <v>149.9</v>
+      </c>
+      <c r="E180" t="n">
+        <v>148</v>
+      </c>
+      <c r="F180" t="n">
+        <v>11</v>
+      </c>
+      <c r="G180" t="n">
+        <v>22035.06813434002</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>148.8</v>
+      </c>
+      <c r="C181" t="n">
+        <v>143.2</v>
+      </c>
+      <c r="D181" t="n">
+        <v>148.8</v>
+      </c>
+      <c r="E181" t="n">
+        <v>143.2</v>
+      </c>
+      <c r="F181" t="n">
+        <v>3187.486</v>
+      </c>
+      <c r="G181" t="n">
+        <v>18847.58213434002</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>144</v>
+      </c>
+      <c r="C182" t="n">
+        <v>144</v>
+      </c>
+      <c r="D182" t="n">
+        <v>144</v>
+      </c>
+      <c r="E182" t="n">
+        <v>144</v>
+      </c>
+      <c r="F182" t="n">
+        <v>219.0164</v>
+      </c>
+      <c r="G182" t="n">
+        <v>19066.59853434002</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>144</v>
+      </c>
+      <c r="C183" t="n">
+        <v>144</v>
+      </c>
+      <c r="D183" t="n">
+        <v>144</v>
+      </c>
+      <c r="E183" t="n">
+        <v>144</v>
+      </c>
+      <c r="F183" t="n">
+        <v>97.95489999999999</v>
+      </c>
+      <c r="G183" t="n">
+        <v>19066.59853434002</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>143</v>
+      </c>
+      <c r="C184" t="n">
+        <v>142.2</v>
+      </c>
+      <c r="D184" t="n">
+        <v>143</v>
+      </c>
+      <c r="E184" t="n">
+        <v>142.2</v>
+      </c>
+      <c r="F184" t="n">
+        <v>5283.4723</v>
+      </c>
+      <c r="G184" t="n">
+        <v>13783.12623434002</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>142.2</v>
+      </c>
+      <c r="C185" t="n">
+        <v>142.2</v>
+      </c>
+      <c r="D185" t="n">
+        <v>142.2</v>
+      </c>
+      <c r="E185" t="n">
+        <v>142.2</v>
+      </c>
+      <c r="F185" t="n">
+        <v>239.3834</v>
+      </c>
+      <c r="G185" t="n">
+        <v>13783.12623434002</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-16 BackTest ARN.xlsx
+++ b/BackTest/2020-01-16 BackTest ARN.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M185"/>
+  <dimension ref="A1:N143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>148.2</v>
+        <v>145.6</v>
       </c>
       <c r="C2" t="n">
-        <v>148.2</v>
+        <v>153.9</v>
       </c>
       <c r="D2" t="n">
-        <v>148.2</v>
+        <v>153.9</v>
       </c>
       <c r="E2" t="n">
-        <v>148.2</v>
+        <v>145.6</v>
       </c>
       <c r="F2" t="n">
-        <v>182</v>
+        <v>5372.56903976</v>
       </c>
       <c r="G2" t="n">
-        <v>16156.87841076001</v>
+        <v>47407.61065052002</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>146.2</v>
+        <v>152</v>
       </c>
       <c r="C3" t="n">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D3" t="n">
-        <v>146.2</v>
+        <v>152</v>
       </c>
       <c r="E3" t="n">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="F3" t="n">
-        <v>4878.7779</v>
+        <v>8.1096</v>
       </c>
       <c r="G3" t="n">
-        <v>11278.10051076001</v>
+        <v>47399.50105052001</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>144.9</v>
+        <v>152</v>
       </c>
       <c r="C4" t="n">
-        <v>151.3</v>
+        <v>143.7</v>
       </c>
       <c r="D4" t="n">
-        <v>151.3</v>
+        <v>152</v>
       </c>
       <c r="E4" t="n">
-        <v>141.5</v>
+        <v>143.7</v>
       </c>
       <c r="F4" t="n">
-        <v>1477.6074</v>
+        <v>16</v>
       </c>
       <c r="G4" t="n">
-        <v>12755.70791076001</v>
+        <v>47383.50105052001</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,34 +539,35 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>142.1</v>
+        <v>152</v>
       </c>
       <c r="C5" t="n">
-        <v>142.1</v>
+        <v>152</v>
       </c>
       <c r="D5" t="n">
-        <v>142.1</v>
+        <v>152</v>
       </c>
       <c r="E5" t="n">
-        <v>142.1</v>
+        <v>152</v>
       </c>
       <c r="F5" t="n">
-        <v>6</v>
+        <v>3.8908</v>
       </c>
       <c r="G5" t="n">
-        <v>12749.70791076001</v>
+        <v>47387.39185052001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>150.8</v>
+        <v>152</v>
       </c>
       <c r="C6" t="n">
-        <v>150.8</v>
+        <v>143.7</v>
       </c>
       <c r="D6" t="n">
-        <v>150.8</v>
+        <v>152</v>
       </c>
       <c r="E6" t="n">
-        <v>150.8</v>
+        <v>143.7</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>12753.70791076001</v>
+        <v>47377.39185052001</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>142.1</v>
+        <v>152</v>
       </c>
       <c r="C7" t="n">
-        <v>142.1</v>
+        <v>144.7</v>
       </c>
       <c r="D7" t="n">
-        <v>142.1</v>
+        <v>152</v>
       </c>
       <c r="E7" t="n">
-        <v>142.1</v>
+        <v>144.7</v>
       </c>
       <c r="F7" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="G7" t="n">
-        <v>12747.70791076001</v>
+        <v>47393.39185052001</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,52 +647,50 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="C8" t="n">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="D8" t="n">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="E8" t="n">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F8" t="n">
-        <v>10758.3309</v>
+        <v>3.8098</v>
       </c>
       <c r="G8" t="n">
-        <v>23506.03881076002</v>
+        <v>47397.20165052002</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>142.1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>142.1</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="C9" t="n">
         <v>152</v>
@@ -691,34 +699,27 @@
         <v>152</v>
       </c>
       <c r="E9" t="n">
-        <v>143</v>
+        <v>144.7</v>
       </c>
       <c r="F9" t="n">
-        <v>16410.861</v>
+        <v>20.0012</v>
       </c>
       <c r="G9" t="n">
-        <v>39916.89981076002</v>
+        <v>47397.20165052002</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>143</v>
-      </c>
-      <c r="K9" t="n">
-        <v>142.1</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -728,68 +729,61 @@
         <v>152</v>
       </c>
       <c r="C10" t="n">
-        <v>152.9</v>
+        <v>152</v>
       </c>
       <c r="D10" t="n">
-        <v>152.9</v>
+        <v>152</v>
       </c>
       <c r="E10" t="n">
         <v>152</v>
       </c>
       <c r="F10" t="n">
-        <v>83</v>
+        <v>3.2991</v>
       </c>
       <c r="G10" t="n">
-        <v>39999.89981076002</v>
+        <v>47397.20165052002</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>152</v>
-      </c>
-      <c r="K10" t="n">
-        <v>142.1</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C11" t="n">
-        <v>153</v>
+        <v>144.7</v>
       </c>
       <c r="D11" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E11" t="n">
-        <v>153</v>
+        <v>144.7</v>
       </c>
       <c r="F11" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G11" t="n">
-        <v>40003.89981076002</v>
+        <v>47389.20165052002</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -797,34 +791,35 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>152.7</v>
+        <v>152</v>
       </c>
       <c r="C12" t="n">
         <v>152</v>
       </c>
       <c r="D12" t="n">
-        <v>152.9</v>
+        <v>152</v>
       </c>
       <c r="E12" t="n">
-        <v>147.1</v>
+        <v>152</v>
       </c>
       <c r="F12" t="n">
-        <v>158.3056</v>
+        <v>3.67</v>
       </c>
       <c r="G12" t="n">
-        <v>39845.59421076002</v>
+        <v>47392.87165052001</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -832,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -841,25 +837,25 @@
         <v>152</v>
       </c>
       <c r="C13" t="n">
-        <v>152.9</v>
+        <v>152</v>
       </c>
       <c r="D13" t="n">
-        <v>152.9</v>
+        <v>152</v>
       </c>
       <c r="E13" t="n">
-        <v>152</v>
+        <v>144.7</v>
       </c>
       <c r="F13" t="n">
-        <v>187</v>
+        <v>15.9999</v>
       </c>
       <c r="G13" t="n">
-        <v>40032.59421076002</v>
+        <v>47392.87165052001</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -867,34 +863,35 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>151.5</v>
+        <v>148.1</v>
       </c>
       <c r="C14" t="n">
-        <v>152.7</v>
+        <v>145.7</v>
       </c>
       <c r="D14" t="n">
-        <v>152.7</v>
+        <v>148.1</v>
       </c>
       <c r="E14" t="n">
-        <v>143</v>
+        <v>145.7</v>
       </c>
       <c r="F14" t="n">
-        <v>223.4128</v>
+        <v>1581.9718</v>
       </c>
       <c r="G14" t="n">
-        <v>39809.18141076002</v>
+        <v>45810.89985052001</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -902,34 +899,35 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>152.5</v>
+        <v>148.7</v>
       </c>
       <c r="C15" t="n">
-        <v>152.3</v>
+        <v>148.7</v>
       </c>
       <c r="D15" t="n">
-        <v>152.5</v>
+        <v>148.7</v>
       </c>
       <c r="E15" t="n">
-        <v>143.5</v>
+        <v>148.7</v>
       </c>
       <c r="F15" t="n">
-        <v>24</v>
+        <v>3.6809</v>
       </c>
       <c r="G15" t="n">
-        <v>39785.18141076002</v>
+        <v>45814.58075052001</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -937,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>151.8</v>
+        <v>147.6</v>
       </c>
       <c r="C16" t="n">
-        <v>150</v>
+        <v>147.6</v>
       </c>
       <c r="D16" t="n">
-        <v>151.8</v>
+        <v>147.6</v>
       </c>
       <c r="E16" t="n">
-        <v>150</v>
+        <v>147.6</v>
       </c>
       <c r="F16" t="n">
-        <v>26</v>
+        <v>233</v>
       </c>
       <c r="G16" t="n">
-        <v>39759.18141076002</v>
+        <v>45581.58075052001</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -972,34 +971,35 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>149.9</v>
+        <v>150.9</v>
       </c>
       <c r="C17" t="n">
-        <v>149.9</v>
+        <v>150.9</v>
       </c>
       <c r="D17" t="n">
-        <v>149.9</v>
+        <v>150.9</v>
       </c>
       <c r="E17" t="n">
-        <v>149.9</v>
+        <v>143.7</v>
       </c>
       <c r="F17" t="n">
-        <v>4</v>
+        <v>27.9089</v>
       </c>
       <c r="G17" t="n">
-        <v>39755.18141076002</v>
+        <v>45609.48965052002</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -1007,28 +1007,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>152.9</v>
+        <v>148.7</v>
       </c>
       <c r="C18" t="n">
-        <v>152.2</v>
+        <v>147.7</v>
       </c>
       <c r="D18" t="n">
-        <v>152.9</v>
+        <v>148.7</v>
       </c>
       <c r="E18" t="n">
-        <v>151.3</v>
+        <v>147.7</v>
       </c>
       <c r="F18" t="n">
-        <v>109</v>
+        <v>2010.5098</v>
       </c>
       <c r="G18" t="n">
-        <v>39864.18141076002</v>
+        <v>43598.97985052002</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1042,34 +1043,35 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>152</v>
+        <v>150.9</v>
       </c>
       <c r="C19" t="n">
-        <v>150.2</v>
+        <v>149.9</v>
       </c>
       <c r="D19" t="n">
-        <v>152</v>
+        <v>150.9</v>
       </c>
       <c r="E19" t="n">
-        <v>150.2</v>
+        <v>143.7</v>
       </c>
       <c r="F19" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G19" t="n">
-        <v>39844.18141076002</v>
+        <v>43616.97985052002</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1077,28 +1079,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>150.1</v>
+        <v>147.7</v>
       </c>
       <c r="C20" t="n">
-        <v>150.1</v>
+        <v>143.8</v>
       </c>
       <c r="D20" t="n">
-        <v>150.1</v>
+        <v>151</v>
       </c>
       <c r="E20" t="n">
-        <v>150.1</v>
+        <v>143.7</v>
       </c>
       <c r="F20" t="n">
-        <v>5</v>
+        <v>21.6544</v>
       </c>
       <c r="G20" t="n">
-        <v>39839.18141076002</v>
+        <v>43595.32545052002</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1112,34 +1115,35 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>149.7</v>
+        <v>147.9</v>
       </c>
       <c r="C21" t="n">
-        <v>144</v>
+        <v>147.9</v>
       </c>
       <c r="D21" t="n">
-        <v>149.7</v>
+        <v>147.9</v>
       </c>
       <c r="E21" t="n">
-        <v>144</v>
+        <v>147.9</v>
       </c>
       <c r="F21" t="n">
-        <v>119.4444</v>
+        <v>3.5669</v>
       </c>
       <c r="G21" t="n">
-        <v>39719.73701076002</v>
+        <v>43598.89235052001</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1147,28 +1151,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>144</v>
+        <v>147.9</v>
       </c>
       <c r="C22" t="n">
-        <v>152.9</v>
+        <v>143.7</v>
       </c>
       <c r="D22" t="n">
-        <v>152.9</v>
+        <v>148.5</v>
       </c>
       <c r="E22" t="n">
-        <v>144</v>
+        <v>143.7</v>
       </c>
       <c r="F22" t="n">
-        <v>26</v>
+        <v>152</v>
       </c>
       <c r="G22" t="n">
-        <v>39745.73701076002</v>
+        <v>43446.89235052001</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1182,28 +1187,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>151.6</v>
+        <v>147.9</v>
       </c>
       <c r="C23" t="n">
-        <v>151.6</v>
+        <v>147.9</v>
       </c>
       <c r="D23" t="n">
-        <v>151.6</v>
+        <v>147.9</v>
       </c>
       <c r="E23" t="n">
-        <v>151.6</v>
+        <v>147.9</v>
       </c>
       <c r="F23" t="n">
-        <v>4</v>
+        <v>3.78</v>
       </c>
       <c r="G23" t="n">
-        <v>39741.73701076002</v>
+        <v>43450.67235052001</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1217,28 +1223,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>144.5</v>
+        <v>147.9</v>
       </c>
       <c r="C24" t="n">
-        <v>151.6</v>
+        <v>148</v>
       </c>
       <c r="D24" t="n">
-        <v>151.6</v>
+        <v>148</v>
       </c>
       <c r="E24" t="n">
-        <v>144.5</v>
+        <v>147.9</v>
       </c>
       <c r="F24" t="n">
-        <v>12</v>
+        <v>2357.2797</v>
       </c>
       <c r="G24" t="n">
-        <v>39741.73701076002</v>
+        <v>45807.95205052001</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1252,28 +1259,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>151.6</v>
+        <v>148.6</v>
       </c>
       <c r="C25" t="n">
-        <v>151.6</v>
+        <v>148.6</v>
       </c>
       <c r="D25" t="n">
-        <v>151.6</v>
+        <v>148.6</v>
       </c>
       <c r="E25" t="n">
-        <v>151.6</v>
+        <v>148.6</v>
       </c>
       <c r="F25" t="n">
-        <v>5</v>
+        <v>472.4663</v>
       </c>
       <c r="G25" t="n">
-        <v>39741.73701076002</v>
+        <v>46280.41835052001</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1287,28 +1295,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>144.4</v>
+        <v>148.6</v>
       </c>
       <c r="C26" t="n">
-        <v>141.2</v>
+        <v>148.6</v>
       </c>
       <c r="D26" t="n">
-        <v>144.4</v>
+        <v>148.6</v>
       </c>
       <c r="E26" t="n">
-        <v>141.2</v>
+        <v>148.6</v>
       </c>
       <c r="F26" t="n">
-        <v>10468.5481</v>
+        <v>301.6493</v>
       </c>
       <c r="G26" t="n">
-        <v>29273.18891076002</v>
+        <v>46280.41835052001</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1322,28 +1331,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>141.5</v>
+        <v>149.9</v>
       </c>
       <c r="C27" t="n">
-        <v>141.3</v>
+        <v>150</v>
       </c>
       <c r="D27" t="n">
-        <v>141.5</v>
+        <v>150</v>
       </c>
       <c r="E27" t="n">
-        <v>141.3</v>
+        <v>149.9</v>
       </c>
       <c r="F27" t="n">
-        <v>11539.7764</v>
+        <v>2573.2263</v>
       </c>
       <c r="G27" t="n">
-        <v>40812.96531076002</v>
+        <v>48853.64465052001</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1357,28 +1367,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>145.7</v>
+        <v>150</v>
       </c>
       <c r="C28" t="n">
-        <v>145.7</v>
+        <v>150.9</v>
       </c>
       <c r="D28" t="n">
-        <v>145.7</v>
+        <v>150.9</v>
       </c>
       <c r="E28" t="n">
-        <v>145.7</v>
+        <v>150</v>
       </c>
       <c r="F28" t="n">
-        <v>4.0096</v>
+        <v>6351.5289</v>
       </c>
       <c r="G28" t="n">
-        <v>40816.97491076002</v>
+        <v>55205.17355052001</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1392,34 +1403,35 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>145.8</v>
+        <v>151</v>
       </c>
       <c r="C29" t="n">
-        <v>145.8</v>
+        <v>151</v>
       </c>
       <c r="D29" t="n">
-        <v>145.8</v>
+        <v>151</v>
       </c>
       <c r="E29" t="n">
-        <v>145.8</v>
+        <v>151</v>
       </c>
       <c r="F29" t="n">
-        <v>3.9998</v>
+        <v>719.1695</v>
       </c>
       <c r="G29" t="n">
-        <v>40820.97471076002</v>
+        <v>55924.34305052001</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1427,28 +1439,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>145.9</v>
+        <v>151</v>
       </c>
       <c r="C30" t="n">
-        <v>145.8</v>
+        <v>151</v>
       </c>
       <c r="D30" t="n">
-        <v>145.9</v>
+        <v>151</v>
       </c>
       <c r="E30" t="n">
-        <v>145.8</v>
+        <v>151</v>
       </c>
       <c r="F30" t="n">
-        <v>12</v>
+        <v>1035.998</v>
       </c>
       <c r="G30" t="n">
-        <v>40820.97471076002</v>
+        <v>55924.34305052001</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1462,34 +1475,35 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>144.6</v>
+        <v>150.9</v>
       </c>
       <c r="C31" t="n">
-        <v>146.9</v>
+        <v>150.9</v>
       </c>
       <c r="D31" t="n">
-        <v>146.9</v>
+        <v>150.9</v>
       </c>
       <c r="E31" t="n">
-        <v>144.6</v>
+        <v>150.9</v>
       </c>
       <c r="F31" t="n">
-        <v>17</v>
+        <v>7.3469</v>
       </c>
       <c r="G31" t="n">
-        <v>40837.97471076002</v>
+        <v>55916.99615052001</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1497,28 +1511,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>145.9</v>
+        <v>150.9</v>
       </c>
       <c r="C32" t="n">
-        <v>145.9</v>
+        <v>150.9</v>
       </c>
       <c r="D32" t="n">
-        <v>145.9</v>
+        <v>150.9</v>
       </c>
       <c r="E32" t="n">
-        <v>145.9</v>
+        <v>150.9</v>
       </c>
       <c r="F32" t="n">
-        <v>13</v>
+        <v>83.82980000000001</v>
       </c>
       <c r="G32" t="n">
-        <v>40824.97471076002</v>
+        <v>55916.99615052001</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1532,6 +1547,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1541,142 +1557,127 @@
         <v>145.7</v>
       </c>
       <c r="C33" t="n">
-        <v>147</v>
+        <v>142.1</v>
       </c>
       <c r="D33" t="n">
-        <v>147</v>
+        <v>145.7</v>
       </c>
       <c r="E33" t="n">
-        <v>145.7</v>
+        <v>142.1</v>
       </c>
       <c r="F33" t="n">
-        <v>15</v>
+        <v>5372.5691</v>
       </c>
       <c r="G33" t="n">
-        <v>40839.97471076002</v>
+        <v>50544.42705052001</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>145.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>146.7</v>
+        <v>143.3</v>
       </c>
       <c r="C34" t="n">
-        <v>147</v>
+        <v>146.6</v>
       </c>
       <c r="D34" t="n">
-        <v>147</v>
+        <v>146.6</v>
       </c>
       <c r="E34" t="n">
-        <v>146.7</v>
+        <v>142.3</v>
       </c>
       <c r="F34" t="n">
-        <v>11</v>
+        <v>1927.2109</v>
       </c>
       <c r="G34" t="n">
-        <v>40839.97471076002</v>
+        <v>52471.63795052001</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>147</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>147</v>
+        <v>147.7</v>
       </c>
       <c r="C35" t="n">
-        <v>147</v>
+        <v>146.7</v>
       </c>
       <c r="D35" t="n">
-        <v>147</v>
+        <v>147.7</v>
       </c>
       <c r="E35" t="n">
-        <v>147</v>
+        <v>146.7</v>
       </c>
       <c r="F35" t="n">
-        <v>336</v>
+        <v>17981.0959</v>
       </c>
       <c r="G35" t="n">
-        <v>40839.97471076002</v>
+        <v>70452.73385052002</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>147</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>146.7</v>
+        <v>142.3</v>
       </c>
       <c r="C36" t="n">
-        <v>148</v>
+        <v>142.3</v>
       </c>
       <c r="D36" t="n">
-        <v>148</v>
+        <v>142.3</v>
       </c>
       <c r="E36" t="n">
-        <v>146.7</v>
+        <v>142.3</v>
       </c>
       <c r="F36" t="n">
-        <v>700</v>
+        <v>884.2729</v>
       </c>
       <c r="G36" t="n">
-        <v>41539.97471076002</v>
+        <v>69568.46095052002</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1686,77 +1687,69 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>146.4</v>
+        <v>142.1</v>
       </c>
       <c r="C37" t="n">
-        <v>149</v>
+        <v>142.1</v>
       </c>
       <c r="D37" t="n">
-        <v>149</v>
+        <v>142.1</v>
       </c>
       <c r="E37" t="n">
-        <v>145.9</v>
+        <v>142.1</v>
       </c>
       <c r="F37" t="n">
-        <v>727</v>
+        <v>721.7712</v>
       </c>
       <c r="G37" t="n">
-        <v>42266.97471076002</v>
+        <v>68846.68975052002</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>148</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>149</v>
+        <v>142.1</v>
       </c>
       <c r="C38" t="n">
-        <v>149</v>
+        <v>142.1</v>
       </c>
       <c r="D38" t="n">
-        <v>149</v>
+        <v>142.1</v>
       </c>
       <c r="E38" t="n">
-        <v>149</v>
+        <v>142.1</v>
       </c>
       <c r="F38" t="n">
-        <v>20966.0828</v>
+        <v>2583.4435</v>
       </c>
       <c r="G38" t="n">
-        <v>42266.97471076002</v>
+        <v>68846.68975052002</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1766,36 +1759,33 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C39" t="n">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D39" t="n">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E39" t="n">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F39" t="n">
-        <v>5790.0684</v>
+        <v>4</v>
       </c>
       <c r="G39" t="n">
-        <v>42266.97471076002</v>
+        <v>68850.68975052002</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1805,159 +1795,141 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>150</v>
+        <v>142.4</v>
       </c>
       <c r="C40" t="n">
-        <v>141.5</v>
+        <v>142.3</v>
       </c>
       <c r="D40" t="n">
-        <v>150</v>
+        <v>142.4</v>
       </c>
       <c r="E40" t="n">
-        <v>141.5</v>
+        <v>142.3</v>
       </c>
       <c r="F40" t="n">
-        <v>237.9128</v>
+        <v>4136.108</v>
       </c>
       <c r="G40" t="n">
-        <v>42029.06191076002</v>
+        <v>64714.58175052002</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>149</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>149</v>
+        <v>142.4</v>
       </c>
       <c r="C41" t="n">
-        <v>141.6</v>
+        <v>142.3</v>
       </c>
       <c r="D41" t="n">
-        <v>149</v>
+        <v>142.4</v>
       </c>
       <c r="E41" t="n">
-        <v>141.6</v>
+        <v>142.3</v>
       </c>
       <c r="F41" t="n">
-        <v>15.9908</v>
+        <v>1449.5242</v>
       </c>
       <c r="G41" t="n">
-        <v>42045.05271076002</v>
+        <v>64714.58175052002</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>141.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>145.6</v>
+        <v>142.4</v>
       </c>
       <c r="C42" t="n">
-        <v>145.6</v>
+        <v>142.4</v>
       </c>
       <c r="D42" t="n">
-        <v>145.6</v>
+        <v>142.4</v>
       </c>
       <c r="E42" t="n">
-        <v>145.6</v>
+        <v>142.4</v>
       </c>
       <c r="F42" t="n">
-        <v>3.9889</v>
+        <v>1000</v>
       </c>
       <c r="G42" t="n">
-        <v>42049.04161076002</v>
+        <v>65714.58175052001</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>141.6</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>145.6</v>
+        <v>142.3</v>
       </c>
       <c r="C43" t="n">
-        <v>142.1</v>
+        <v>142.3</v>
       </c>
       <c r="D43" t="n">
-        <v>145.6</v>
+        <v>142.3</v>
       </c>
       <c r="E43" t="n">
-        <v>142.1</v>
+        <v>142.3</v>
       </c>
       <c r="F43" t="n">
-        <v>14</v>
+        <v>2730.6006</v>
       </c>
       <c r="G43" t="n">
-        <v>42035.04161076002</v>
+        <v>62983.98115052001</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1967,36 +1939,33 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>145.6</v>
+        <v>143</v>
       </c>
       <c r="C44" t="n">
-        <v>153.9</v>
+        <v>143</v>
       </c>
       <c r="D44" t="n">
-        <v>153.9</v>
+        <v>143</v>
       </c>
       <c r="E44" t="n">
-        <v>145.6</v>
+        <v>143</v>
       </c>
       <c r="F44" t="n">
-        <v>5372.56903976</v>
+        <v>327.9006</v>
       </c>
       <c r="G44" t="n">
-        <v>47407.61065052002</v>
+        <v>63311.88175052001</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2006,36 +1975,33 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>152</v>
+        <v>142.3</v>
       </c>
       <c r="C45" t="n">
-        <v>152</v>
+        <v>142.3</v>
       </c>
       <c r="D45" t="n">
-        <v>152</v>
+        <v>142.3</v>
       </c>
       <c r="E45" t="n">
-        <v>152</v>
+        <v>142.3</v>
       </c>
       <c r="F45" t="n">
-        <v>8.1096</v>
+        <v>947.6273</v>
       </c>
       <c r="G45" t="n">
-        <v>47399.50105052001</v>
+        <v>62364.25445052001</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2045,36 +2011,33 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>152</v>
+        <v>142.1</v>
       </c>
       <c r="C46" t="n">
-        <v>143.7</v>
+        <v>142.1</v>
       </c>
       <c r="D46" t="n">
-        <v>152</v>
+        <v>142.1</v>
       </c>
       <c r="E46" t="n">
-        <v>143.7</v>
+        <v>142.1</v>
       </c>
       <c r="F46" t="n">
-        <v>16</v>
+        <v>1583.8256</v>
       </c>
       <c r="G46" t="n">
-        <v>47383.50105052001</v>
+        <v>60780.42885052002</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2084,36 +2047,33 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>152</v>
+        <v>141.7</v>
       </c>
       <c r="C47" t="n">
-        <v>152</v>
+        <v>141.7</v>
       </c>
       <c r="D47" t="n">
-        <v>152</v>
+        <v>141.7</v>
       </c>
       <c r="E47" t="n">
-        <v>152</v>
+        <v>141.7</v>
       </c>
       <c r="F47" t="n">
-        <v>3.8908</v>
+        <v>551.9638</v>
       </c>
       <c r="G47" t="n">
-        <v>47387.39185052001</v>
+        <v>60228.46505052002</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2123,36 +2083,33 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>152</v>
+        <v>141.7</v>
       </c>
       <c r="C48" t="n">
-        <v>143.7</v>
+        <v>141.3</v>
       </c>
       <c r="D48" t="n">
-        <v>152</v>
+        <v>141.7</v>
       </c>
       <c r="E48" t="n">
-        <v>143.7</v>
+        <v>141.3</v>
       </c>
       <c r="F48" t="n">
-        <v>10</v>
+        <v>3829.1975</v>
       </c>
       <c r="G48" t="n">
-        <v>47377.39185052001</v>
+        <v>56399.26755052002</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2162,36 +2119,33 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>152</v>
+        <v>141.3</v>
       </c>
       <c r="C49" t="n">
-        <v>144.7</v>
+        <v>141.2</v>
       </c>
       <c r="D49" t="n">
-        <v>152</v>
+        <v>141.3</v>
       </c>
       <c r="E49" t="n">
-        <v>144.7</v>
+        <v>141.2</v>
       </c>
       <c r="F49" t="n">
-        <v>16</v>
+        <v>3112.4519</v>
       </c>
       <c r="G49" t="n">
-        <v>47393.39185052001</v>
+        <v>53286.81565052002</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2201,36 +2155,33 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>152</v>
+        <v>141.2</v>
       </c>
       <c r="C50" t="n">
-        <v>152</v>
+        <v>141.2</v>
       </c>
       <c r="D50" t="n">
-        <v>152</v>
+        <v>141.2</v>
       </c>
       <c r="E50" t="n">
-        <v>152</v>
+        <v>141.2</v>
       </c>
       <c r="F50" t="n">
-        <v>3.8098</v>
+        <v>1705.6744</v>
       </c>
       <c r="G50" t="n">
-        <v>47397.20165052002</v>
+        <v>53286.81565052002</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2240,36 +2191,33 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>152</v>
+        <v>141.2</v>
       </c>
       <c r="C51" t="n">
-        <v>152</v>
+        <v>141.2</v>
       </c>
       <c r="D51" t="n">
-        <v>152</v>
+        <v>141.2</v>
       </c>
       <c r="E51" t="n">
-        <v>144.7</v>
+        <v>141.2</v>
       </c>
       <c r="F51" t="n">
-        <v>20.0012</v>
+        <v>234.3453</v>
       </c>
       <c r="G51" t="n">
-        <v>47397.20165052002</v>
+        <v>53286.81565052002</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2279,36 +2227,33 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>152</v>
+        <v>136.2</v>
       </c>
       <c r="C52" t="n">
-        <v>152</v>
+        <v>136.2</v>
       </c>
       <c r="D52" t="n">
-        <v>152</v>
+        <v>136.2</v>
       </c>
       <c r="E52" t="n">
-        <v>152</v>
+        <v>136.2</v>
       </c>
       <c r="F52" t="n">
-        <v>3.2991</v>
+        <v>3198.8671</v>
       </c>
       <c r="G52" t="n">
-        <v>47397.20165052002</v>
+        <v>50087.94855052001</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2318,36 +2263,33 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>152</v>
+        <v>136.6</v>
       </c>
       <c r="C53" t="n">
-        <v>144.7</v>
+        <v>136.6</v>
       </c>
       <c r="D53" t="n">
-        <v>152</v>
+        <v>136.6</v>
       </c>
       <c r="E53" t="n">
-        <v>144.7</v>
+        <v>136.6</v>
       </c>
       <c r="F53" t="n">
-        <v>8</v>
+        <v>3483.2893</v>
       </c>
       <c r="G53" t="n">
-        <v>47389.20165052002</v>
+        <v>53571.23785052001</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2357,36 +2299,33 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>152</v>
+        <v>137.7</v>
       </c>
       <c r="C54" t="n">
-        <v>152</v>
+        <v>136.7</v>
       </c>
       <c r="D54" t="n">
-        <v>152</v>
+        <v>137.7</v>
       </c>
       <c r="E54" t="n">
-        <v>152</v>
+        <v>136.7</v>
       </c>
       <c r="F54" t="n">
-        <v>3.67</v>
+        <v>12</v>
       </c>
       <c r="G54" t="n">
-        <v>47392.87165052001</v>
+        <v>53583.23785052001</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2396,36 +2335,33 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>152</v>
+        <v>141.8</v>
       </c>
       <c r="C55" t="n">
-        <v>152</v>
+        <v>141.8</v>
       </c>
       <c r="D55" t="n">
-        <v>152</v>
+        <v>141.8</v>
       </c>
       <c r="E55" t="n">
-        <v>144.7</v>
+        <v>141.8</v>
       </c>
       <c r="F55" t="n">
-        <v>15.9999</v>
+        <v>384</v>
       </c>
       <c r="G55" t="n">
-        <v>47392.87165052001</v>
+        <v>53967.23785052001</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2435,36 +2371,33 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>148.1</v>
+        <v>142</v>
       </c>
       <c r="C56" t="n">
-        <v>145.7</v>
+        <v>137.6</v>
       </c>
       <c r="D56" t="n">
-        <v>148.1</v>
+        <v>142</v>
       </c>
       <c r="E56" t="n">
-        <v>145.7</v>
+        <v>137.6</v>
       </c>
       <c r="F56" t="n">
-        <v>1581.9718</v>
+        <v>5050.8311</v>
       </c>
       <c r="G56" t="n">
-        <v>45810.89985052001</v>
+        <v>48916.40675052001</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2474,36 +2407,33 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>148.7</v>
+        <v>136.3</v>
       </c>
       <c r="C57" t="n">
-        <v>148.7</v>
+        <v>136.3</v>
       </c>
       <c r="D57" t="n">
-        <v>148.7</v>
+        <v>136.3</v>
       </c>
       <c r="E57" t="n">
-        <v>148.7</v>
+        <v>136.3</v>
       </c>
       <c r="F57" t="n">
-        <v>3.6809</v>
+        <v>784.8547</v>
       </c>
       <c r="G57" t="n">
-        <v>45814.58075052001</v>
+        <v>48131.55205052</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2513,36 +2443,33 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>147.6</v>
+        <v>137.6</v>
       </c>
       <c r="C58" t="n">
-        <v>147.6</v>
+        <v>138</v>
       </c>
       <c r="D58" t="n">
-        <v>147.6</v>
+        <v>138</v>
       </c>
       <c r="E58" t="n">
-        <v>147.6</v>
+        <v>137.6</v>
       </c>
       <c r="F58" t="n">
-        <v>233</v>
+        <v>5788.9025</v>
       </c>
       <c r="G58" t="n">
-        <v>45581.58075052001</v>
+        <v>53920.45455052001</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2552,36 +2479,33 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>150.9</v>
+        <v>138</v>
       </c>
       <c r="C59" t="n">
-        <v>150.9</v>
+        <v>138</v>
       </c>
       <c r="D59" t="n">
-        <v>150.9</v>
+        <v>138</v>
       </c>
       <c r="E59" t="n">
-        <v>143.7</v>
+        <v>138</v>
       </c>
       <c r="F59" t="n">
-        <v>27.9089</v>
+        <v>1265.9897</v>
       </c>
       <c r="G59" t="n">
-        <v>45609.48965052002</v>
+        <v>53920.45455052001</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2591,36 +2515,33 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>148.7</v>
+        <v>136.6</v>
       </c>
       <c r="C60" t="n">
-        <v>147.7</v>
+        <v>136.6</v>
       </c>
       <c r="D60" t="n">
-        <v>148.7</v>
+        <v>136.6</v>
       </c>
       <c r="E60" t="n">
-        <v>147.7</v>
+        <v>136.6</v>
       </c>
       <c r="F60" t="n">
-        <v>2010.5098</v>
+        <v>1343.2549</v>
       </c>
       <c r="G60" t="n">
-        <v>43598.97985052002</v>
+        <v>52577.19965052001</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2630,123 +2551,130 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>150.9</v>
+        <v>138</v>
       </c>
       <c r="C61" t="n">
-        <v>149.9</v>
+        <v>138</v>
       </c>
       <c r="D61" t="n">
-        <v>150.9</v>
+        <v>138</v>
       </c>
       <c r="E61" t="n">
-        <v>143.7</v>
+        <v>138</v>
       </c>
       <c r="F61" t="n">
-        <v>18</v>
+        <v>1236.3853</v>
       </c>
       <c r="G61" t="n">
-        <v>43616.97985052002</v>
+        <v>53813.58495052001</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="K61" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>147.7</v>
+        <v>136.7</v>
       </c>
       <c r="C62" t="n">
-        <v>143.8</v>
+        <v>136.6</v>
       </c>
       <c r="D62" t="n">
-        <v>151</v>
+        <v>136.7</v>
       </c>
       <c r="E62" t="n">
-        <v>143.7</v>
+        <v>136.6</v>
       </c>
       <c r="F62" t="n">
-        <v>21.6544</v>
+        <v>5792.9077</v>
       </c>
       <c r="G62" t="n">
-        <v>43595.32545052002</v>
+        <v>48020.67725052001</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>138</v>
+      </c>
+      <c r="K62" t="n">
+        <v>136.6</v>
+      </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>147.9</v>
+        <v>141.8</v>
       </c>
       <c r="C63" t="n">
-        <v>147.9</v>
+        <v>138</v>
       </c>
       <c r="D63" t="n">
-        <v>147.9</v>
+        <v>141.8</v>
       </c>
       <c r="E63" t="n">
-        <v>147.9</v>
+        <v>138</v>
       </c>
       <c r="F63" t="n">
-        <v>3.5669</v>
+        <v>92.46380000000001</v>
       </c>
       <c r="G63" t="n">
-        <v>43598.89235052001</v>
+        <v>48113.14105052</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="K63" t="n">
+        <v>136.6</v>
+      </c>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2755,28 +2683,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>147.9</v>
+        <v>136.6</v>
       </c>
       <c r="C64" t="n">
-        <v>143.7</v>
+        <v>136.6</v>
       </c>
       <c r="D64" t="n">
-        <v>148.5</v>
+        <v>136.6</v>
       </c>
       <c r="E64" t="n">
-        <v>143.7</v>
+        <v>136.6</v>
       </c>
       <c r="F64" t="n">
-        <v>152</v>
+        <v>615.8954</v>
       </c>
       <c r="G64" t="n">
-        <v>43446.89235052001</v>
+        <v>47497.24565052</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2785,7 +2714,9 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>136.6</v>
+      </c>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2794,37 +2725,42 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>147.9</v>
+        <v>140.9</v>
       </c>
       <c r="C65" t="n">
-        <v>147.9</v>
+        <v>140.9</v>
       </c>
       <c r="D65" t="n">
-        <v>147.9</v>
+        <v>140.9</v>
       </c>
       <c r="E65" t="n">
-        <v>147.9</v>
+        <v>140.9</v>
       </c>
       <c r="F65" t="n">
-        <v>3.78</v>
+        <v>10</v>
       </c>
       <c r="G65" t="n">
-        <v>43450.67235052001</v>
+        <v>47507.24565052</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="K65" t="n">
+        <v>136.6</v>
+      </c>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2833,28 +2769,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>147.9</v>
+        <v>136.6</v>
       </c>
       <c r="C66" t="n">
-        <v>148</v>
+        <v>136.6</v>
       </c>
       <c r="D66" t="n">
-        <v>148</v>
+        <v>136.6</v>
       </c>
       <c r="E66" t="n">
-        <v>147.9</v>
+        <v>136.6</v>
       </c>
       <c r="F66" t="n">
-        <v>2357.2797</v>
+        <v>3.6884</v>
       </c>
       <c r="G66" t="n">
-        <v>45807.95205052001</v>
+        <v>47503.55725052</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2863,7 +2800,9 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>136.6</v>
+      </c>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2872,28 +2811,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>148.6</v>
+        <v>136.6</v>
       </c>
       <c r="C67" t="n">
-        <v>148.6</v>
+        <v>136.6</v>
       </c>
       <c r="D67" t="n">
-        <v>148.6</v>
+        <v>136.6</v>
       </c>
       <c r="E67" t="n">
-        <v>148.6</v>
+        <v>136.6</v>
       </c>
       <c r="F67" t="n">
-        <v>472.4663</v>
+        <v>548.625</v>
       </c>
       <c r="G67" t="n">
-        <v>46280.41835052001</v>
+        <v>47503.55725052</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2902,7 +2842,9 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>136.6</v>
+      </c>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2911,28 +2853,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>148.6</v>
+        <v>138.1</v>
       </c>
       <c r="C68" t="n">
-        <v>148.6</v>
+        <v>139.9</v>
       </c>
       <c r="D68" t="n">
-        <v>148.6</v>
+        <v>139.9</v>
       </c>
       <c r="E68" t="n">
-        <v>148.6</v>
+        <v>136.9</v>
       </c>
       <c r="F68" t="n">
-        <v>301.6493</v>
+        <v>1415.9897</v>
       </c>
       <c r="G68" t="n">
-        <v>46280.41835052001</v>
+        <v>48919.54695052</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2941,7 +2884,9 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>136.6</v>
+      </c>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2950,205 +2895,239 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>149.9</v>
+        <v>137.1</v>
       </c>
       <c r="C69" t="n">
-        <v>150</v>
+        <v>136.9</v>
       </c>
       <c r="D69" t="n">
-        <v>150</v>
+        <v>137.1</v>
       </c>
       <c r="E69" t="n">
-        <v>149.9</v>
+        <v>136.9</v>
       </c>
       <c r="F69" t="n">
-        <v>2573.2263</v>
+        <v>17495.8684</v>
       </c>
       <c r="G69" t="n">
-        <v>48853.64465052001</v>
+        <v>31423.67855052</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>136.6</v>
+      </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>150</v>
+        <v>139.5</v>
       </c>
       <c r="C70" t="n">
-        <v>150.9</v>
+        <v>139.5</v>
       </c>
       <c r="D70" t="n">
-        <v>150.9</v>
+        <v>139.5</v>
       </c>
       <c r="E70" t="n">
-        <v>150</v>
+        <v>139.5</v>
       </c>
       <c r="F70" t="n">
-        <v>6351.5289</v>
+        <v>2096.922</v>
       </c>
       <c r="G70" t="n">
-        <v>55205.17355052001</v>
+        <v>33520.60055052</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>151</v>
+        <v>139.9</v>
       </c>
       <c r="C71" t="n">
-        <v>151</v>
+        <v>139.9</v>
       </c>
       <c r="D71" t="n">
-        <v>151</v>
+        <v>139.9</v>
       </c>
       <c r="E71" t="n">
-        <v>151</v>
+        <v>139.8</v>
       </c>
       <c r="F71" t="n">
-        <v>719.1695</v>
+        <v>4384.448</v>
       </c>
       <c r="G71" t="n">
-        <v>55924.34305052001</v>
+        <v>37905.04855052</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>151</v>
+        <v>139.8</v>
       </c>
       <c r="C72" t="n">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="D72" t="n">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E72" t="n">
-        <v>151</v>
+        <v>139.8</v>
       </c>
       <c r="F72" t="n">
-        <v>1035.998</v>
+        <v>6840.905</v>
       </c>
       <c r="G72" t="n">
-        <v>55924.34305052001</v>
+        <v>44745.95355052</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>150.9</v>
+        <v>140.8</v>
       </c>
       <c r="C73" t="n">
-        <v>150.9</v>
+        <v>140.9</v>
       </c>
       <c r="D73" t="n">
-        <v>150.9</v>
+        <v>140.9</v>
       </c>
       <c r="E73" t="n">
-        <v>150.9</v>
+        <v>140.8</v>
       </c>
       <c r="F73" t="n">
-        <v>7.3469</v>
+        <v>3000</v>
       </c>
       <c r="G73" t="n">
-        <v>55916.99615052001</v>
+        <v>47745.95355052</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>150.9</v>
+        <v>140.9</v>
       </c>
       <c r="C74" t="n">
-        <v>150.9</v>
+        <v>140</v>
       </c>
       <c r="D74" t="n">
-        <v>150.9</v>
+        <v>140.9</v>
       </c>
       <c r="E74" t="n">
-        <v>150.9</v>
+        <v>140</v>
       </c>
       <c r="F74" t="n">
-        <v>83.82980000000001</v>
+        <v>1606.4054</v>
       </c>
       <c r="G74" t="n">
-        <v>55916.99615052001</v>
+        <v>46139.54815052</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3157,68 +3136,82 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>145.7</v>
+        <v>140.1</v>
       </c>
       <c r="C75" t="n">
-        <v>142.1</v>
+        <v>140.1</v>
       </c>
       <c r="D75" t="n">
-        <v>145.7</v>
+        <v>140.1</v>
       </c>
       <c r="E75" t="n">
-        <v>142.1</v>
+        <v>140.1</v>
       </c>
       <c r="F75" t="n">
-        <v>5372.5691</v>
+        <v>1206.2047</v>
       </c>
       <c r="G75" t="n">
-        <v>50544.42705052001</v>
+        <v>47345.75285052</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>143.3</v>
+        <v>140</v>
       </c>
       <c r="C76" t="n">
-        <v>146.6</v>
+        <v>140</v>
       </c>
       <c r="D76" t="n">
-        <v>146.6</v>
+        <v>140</v>
       </c>
       <c r="E76" t="n">
-        <v>142.3</v>
+        <v>140</v>
       </c>
       <c r="F76" t="n">
-        <v>1927.2109</v>
+        <v>1443.7855</v>
       </c>
       <c r="G76" t="n">
-        <v>52471.63795052001</v>
+        <v>45901.96735052</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3227,347 +3220,384 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>147.7</v>
+        <v>139.1</v>
       </c>
       <c r="C77" t="n">
-        <v>146.7</v>
+        <v>138.1</v>
       </c>
       <c r="D77" t="n">
-        <v>147.7</v>
+        <v>139.1</v>
       </c>
       <c r="E77" t="n">
-        <v>146.7</v>
+        <v>138.1</v>
       </c>
       <c r="F77" t="n">
-        <v>17981.0959</v>
+        <v>1801.0868</v>
       </c>
       <c r="G77" t="n">
-        <v>70452.73385052002</v>
+        <v>44100.88055052001</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
-      </c>
-      <c r="J77" t="n">
-        <v>146.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>146.6</v>
-      </c>
-      <c r="L77" t="inlineStr"/>
+        <v>136.6</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>142.3</v>
+        <v>138.2</v>
       </c>
       <c r="C78" t="n">
-        <v>142.3</v>
+        <v>138.2</v>
       </c>
       <c r="D78" t="n">
-        <v>142.3</v>
+        <v>138.2</v>
       </c>
       <c r="E78" t="n">
-        <v>142.3</v>
+        <v>138.2</v>
       </c>
       <c r="F78" t="n">
-        <v>884.2729</v>
+        <v>1169.8378</v>
       </c>
       <c r="G78" t="n">
-        <v>69568.46095052002</v>
+        <v>45270.71835052001</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
-      </c>
-      <c r="J78" t="n">
-        <v>146.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>146.6</v>
+        <v>136.6</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>142.1</v>
+        <v>138.2</v>
       </c>
       <c r="C79" t="n">
-        <v>142.1</v>
+        <v>138</v>
       </c>
       <c r="D79" t="n">
-        <v>142.1</v>
+        <v>138.2</v>
       </c>
       <c r="E79" t="n">
-        <v>142.1</v>
+        <v>138</v>
       </c>
       <c r="F79" t="n">
-        <v>721.7712</v>
+        <v>4115.3403</v>
       </c>
       <c r="G79" t="n">
-        <v>68846.68975052002</v>
+        <v>41155.37805052001</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>146.6</v>
+        <v>136.6</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>142.1</v>
+        <v>138</v>
       </c>
       <c r="C80" t="n">
-        <v>142.1</v>
+        <v>136.7</v>
       </c>
       <c r="D80" t="n">
-        <v>142.1</v>
+        <v>138</v>
       </c>
       <c r="E80" t="n">
-        <v>142.1</v>
+        <v>136.7</v>
       </c>
       <c r="F80" t="n">
-        <v>2583.4435</v>
+        <v>3000</v>
       </c>
       <c r="G80" t="n">
-        <v>68846.68975052002</v>
+        <v>38155.37805052001</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>142.1</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>142.1</v>
-      </c>
-      <c r="L80" t="inlineStr"/>
+        <v>136.6</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>146</v>
+        <v>140.9</v>
       </c>
       <c r="C81" t="n">
-        <v>146</v>
+        <v>140.9</v>
       </c>
       <c r="D81" t="n">
-        <v>146</v>
+        <v>140.9</v>
       </c>
       <c r="E81" t="n">
-        <v>146</v>
+        <v>140.9</v>
       </c>
       <c r="F81" t="n">
-        <v>4</v>
+        <v>6.9933</v>
       </c>
       <c r="G81" t="n">
-        <v>68850.68975052002</v>
+        <v>38162.37135052001</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>136.7</v>
+      </c>
       <c r="K81" t="n">
-        <v>142.1</v>
+        <v>136.6</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>142.4</v>
+        <v>140.8</v>
       </c>
       <c r="C82" t="n">
-        <v>142.3</v>
+        <v>140.8</v>
       </c>
       <c r="D82" t="n">
-        <v>142.4</v>
+        <v>140.8</v>
       </c>
       <c r="E82" t="n">
-        <v>142.3</v>
+        <v>140.8</v>
       </c>
       <c r="F82" t="n">
-        <v>4136.108</v>
+        <v>885.5684</v>
       </c>
       <c r="G82" t="n">
-        <v>64714.58175052002</v>
+        <v>37276.80295052002</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>140.9</v>
+      </c>
       <c r="K82" t="n">
-        <v>142.1</v>
+        <v>136.6</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>142.4</v>
+        <v>140.7</v>
       </c>
       <c r="C83" t="n">
-        <v>142.3</v>
+        <v>140.7</v>
       </c>
       <c r="D83" t="n">
-        <v>142.4</v>
+        <v>140.7</v>
       </c>
       <c r="E83" t="n">
-        <v>142.3</v>
+        <v>140.7</v>
       </c>
       <c r="F83" t="n">
-        <v>1449.5242</v>
+        <v>5.1684</v>
       </c>
       <c r="G83" t="n">
-        <v>64714.58175052002</v>
+        <v>37271.63455052002</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>140.8</v>
+      </c>
+      <c r="K83" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>142.4</v>
+        <v>141.9</v>
       </c>
       <c r="C84" t="n">
-        <v>142.4</v>
+        <v>144</v>
       </c>
       <c r="D84" t="n">
-        <v>142.4</v>
+        <v>144</v>
       </c>
       <c r="E84" t="n">
-        <v>142.4</v>
+        <v>141.9</v>
       </c>
       <c r="F84" t="n">
-        <v>1000</v>
+        <v>2806.403</v>
       </c>
       <c r="G84" t="n">
-        <v>65714.58175052001</v>
+        <v>40078.03755052001</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="K84" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>142.3</v>
+        <v>145</v>
       </c>
       <c r="C85" t="n">
-        <v>142.3</v>
+        <v>145</v>
       </c>
       <c r="D85" t="n">
-        <v>142.3</v>
+        <v>145</v>
       </c>
       <c r="E85" t="n">
-        <v>142.3</v>
+        <v>145</v>
       </c>
       <c r="F85" t="n">
-        <v>2730.6006</v>
+        <v>1000</v>
       </c>
       <c r="G85" t="n">
-        <v>62983.98115052001</v>
+        <v>41078.03755052001</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3576,68 +3606,84 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C86" t="n">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D86" t="n">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E86" t="n">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F86" t="n">
-        <v>327.9006</v>
+        <v>60.4902</v>
       </c>
       <c r="G86" t="n">
-        <v>63311.88175052001</v>
+        <v>41078.03755052001</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>145</v>
+      </c>
+      <c r="K86" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>142.3</v>
+        <v>143</v>
       </c>
       <c r="C87" t="n">
-        <v>142.3</v>
+        <v>143</v>
       </c>
       <c r="D87" t="n">
-        <v>142.3</v>
+        <v>143</v>
       </c>
       <c r="E87" t="n">
-        <v>142.3</v>
+        <v>143</v>
       </c>
       <c r="F87" t="n">
-        <v>947.6273</v>
+        <v>212</v>
       </c>
       <c r="G87" t="n">
-        <v>62364.25445052001</v>
+        <v>40866.03755052001</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3646,33 +3692,40 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>142.1</v>
+        <v>146</v>
       </c>
       <c r="C88" t="n">
-        <v>142.1</v>
+        <v>146</v>
       </c>
       <c r="D88" t="n">
-        <v>142.1</v>
+        <v>146</v>
       </c>
       <c r="E88" t="n">
-        <v>142.1</v>
+        <v>146</v>
       </c>
       <c r="F88" t="n">
-        <v>1583.8256</v>
+        <v>246</v>
       </c>
       <c r="G88" t="n">
-        <v>60780.42885052002</v>
+        <v>41112.03755052001</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3681,33 +3734,40 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>141.7</v>
+        <v>146</v>
       </c>
       <c r="C89" t="n">
-        <v>141.7</v>
+        <v>146</v>
       </c>
       <c r="D89" t="n">
-        <v>141.7</v>
+        <v>146</v>
       </c>
       <c r="E89" t="n">
-        <v>141.7</v>
+        <v>146</v>
       </c>
       <c r="F89" t="n">
-        <v>551.9638</v>
+        <v>212</v>
       </c>
       <c r="G89" t="n">
-        <v>60228.46505052002</v>
+        <v>41112.03755052001</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3716,33 +3776,40 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>141.7</v>
+        <v>147</v>
       </c>
       <c r="C90" t="n">
-        <v>141.3</v>
+        <v>147.9</v>
       </c>
       <c r="D90" t="n">
-        <v>141.7</v>
+        <v>147.9</v>
       </c>
       <c r="E90" t="n">
-        <v>141.3</v>
+        <v>147</v>
       </c>
       <c r="F90" t="n">
-        <v>3829.1975</v>
+        <v>5624.1496</v>
       </c>
       <c r="G90" t="n">
-        <v>56399.26755052002</v>
+        <v>46736.18715052001</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3751,33 +3818,40 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>141.3</v>
+        <v>148</v>
       </c>
       <c r="C91" t="n">
-        <v>141.2</v>
+        <v>148</v>
       </c>
       <c r="D91" t="n">
-        <v>141.3</v>
+        <v>148</v>
       </c>
       <c r="E91" t="n">
-        <v>141.2</v>
+        <v>148</v>
       </c>
       <c r="F91" t="n">
-        <v>3112.4519</v>
+        <v>2052.2179</v>
       </c>
       <c r="G91" t="n">
-        <v>53286.81565052002</v>
+        <v>48788.40505052001</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3786,33 +3860,40 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>141.2</v>
+        <v>147.9</v>
       </c>
       <c r="C92" t="n">
-        <v>141.2</v>
+        <v>147.9</v>
       </c>
       <c r="D92" t="n">
-        <v>141.2</v>
+        <v>147.9</v>
       </c>
       <c r="E92" t="n">
-        <v>141.2</v>
+        <v>147.9</v>
       </c>
       <c r="F92" t="n">
-        <v>1705.6744</v>
+        <v>246</v>
       </c>
       <c r="G92" t="n">
-        <v>53286.81565052002</v>
+        <v>48542.40505052001</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3821,158 +3902,166 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>141.2</v>
+        <v>148</v>
       </c>
       <c r="C93" t="n">
-        <v>141.2</v>
+        <v>148</v>
       </c>
       <c r="D93" t="n">
-        <v>141.2</v>
+        <v>148</v>
       </c>
       <c r="E93" t="n">
-        <v>141.2</v>
+        <v>148</v>
       </c>
       <c r="F93" t="n">
-        <v>234.3453</v>
+        <v>4531.7167</v>
       </c>
       <c r="G93" t="n">
-        <v>53286.81565052002</v>
+        <v>53074.12175052001</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>141.2</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>141.2</v>
-      </c>
-      <c r="L93" t="inlineStr"/>
+        <v>136.6</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>136.2</v>
+        <v>148</v>
       </c>
       <c r="C94" t="n">
-        <v>136.2</v>
+        <v>148</v>
       </c>
       <c r="D94" t="n">
-        <v>136.2</v>
+        <v>148</v>
       </c>
       <c r="E94" t="n">
-        <v>136.2</v>
+        <v>148</v>
       </c>
       <c r="F94" t="n">
-        <v>3198.8671</v>
+        <v>152.7465</v>
       </c>
       <c r="G94" t="n">
-        <v>50087.94855052001</v>
+        <v>53074.12175052001</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>141.2</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>141.2</v>
+        <v>136.6</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>136.6</v>
+        <v>147.9</v>
       </c>
       <c r="C95" t="n">
-        <v>136.6</v>
+        <v>147.9</v>
       </c>
       <c r="D95" t="n">
-        <v>136.6</v>
+        <v>147.9</v>
       </c>
       <c r="E95" t="n">
-        <v>136.6</v>
+        <v>147.9</v>
       </c>
       <c r="F95" t="n">
-        <v>3483.2893</v>
+        <v>1263.3586</v>
       </c>
       <c r="G95" t="n">
-        <v>53571.23785052001</v>
+        <v>51810.76315052001</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>136.2</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>141.2</v>
+        <v>136.6</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>137.7</v>
+        <v>144</v>
       </c>
       <c r="C96" t="n">
-        <v>136.7</v>
+        <v>144</v>
       </c>
       <c r="D96" t="n">
-        <v>137.7</v>
+        <v>144</v>
       </c>
       <c r="E96" t="n">
-        <v>136.7</v>
+        <v>144</v>
       </c>
       <c r="F96" t="n">
-        <v>12</v>
+        <v>820</v>
       </c>
       <c r="G96" t="n">
-        <v>53583.23785052001</v>
+        <v>50990.76315052001</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3981,33 +4070,40 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>141.8</v>
+        <v>143</v>
       </c>
       <c r="C97" t="n">
-        <v>141.8</v>
+        <v>143</v>
       </c>
       <c r="D97" t="n">
-        <v>141.8</v>
+        <v>143</v>
       </c>
       <c r="E97" t="n">
-        <v>141.8</v>
+        <v>143</v>
       </c>
       <c r="F97" t="n">
-        <v>384</v>
+        <v>12.8153</v>
       </c>
       <c r="G97" t="n">
-        <v>53967.23785052001</v>
+        <v>50977.94785052001</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4016,33 +4112,40 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C98" t="n">
-        <v>137.6</v>
+        <v>144</v>
       </c>
       <c r="D98" t="n">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E98" t="n">
-        <v>137.6</v>
+        <v>144</v>
       </c>
       <c r="F98" t="n">
-        <v>5050.8311</v>
+        <v>1682.375</v>
       </c>
       <c r="G98" t="n">
-        <v>48916.40675052001</v>
+        <v>52660.32285052001</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4051,68 +4154,82 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>136.3</v>
+        <v>148.6</v>
       </c>
       <c r="C99" t="n">
-        <v>136.3</v>
+        <v>148.6</v>
       </c>
       <c r="D99" t="n">
-        <v>136.3</v>
+        <v>148.6</v>
       </c>
       <c r="E99" t="n">
-        <v>136.3</v>
+        <v>148.6</v>
       </c>
       <c r="F99" t="n">
-        <v>784.8547</v>
+        <v>269.1077</v>
       </c>
       <c r="G99" t="n">
-        <v>48131.55205052</v>
+        <v>52929.43055052001</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>137.6</v>
+        <v>145.1</v>
       </c>
       <c r="C100" t="n">
-        <v>138</v>
+        <v>145.1</v>
       </c>
       <c r="D100" t="n">
-        <v>138</v>
+        <v>145.1</v>
       </c>
       <c r="E100" t="n">
-        <v>137.6</v>
+        <v>145.1</v>
       </c>
       <c r="F100" t="n">
-        <v>5788.9025</v>
+        <v>1671.261</v>
       </c>
       <c r="G100" t="n">
-        <v>53920.45455052001</v>
+        <v>51258.16955052001</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4121,33 +4238,40 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C101" t="n">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D101" t="n">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E101" t="n">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F101" t="n">
-        <v>1265.9897</v>
+        <v>5.1221</v>
       </c>
       <c r="G101" t="n">
-        <v>53920.45455052001</v>
+        <v>51253.04745052001</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4156,33 +4280,40 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>136.6</v>
+        <v>144.1</v>
       </c>
       <c r="C102" t="n">
-        <v>136.6</v>
+        <v>143</v>
       </c>
       <c r="D102" t="n">
-        <v>136.6</v>
+        <v>144.1</v>
       </c>
       <c r="E102" t="n">
-        <v>136.6</v>
+        <v>143</v>
       </c>
       <c r="F102" t="n">
-        <v>1343.2549</v>
+        <v>361.588</v>
       </c>
       <c r="G102" t="n">
-        <v>52577.19965052001</v>
+        <v>51253.04745052001</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4191,33 +4322,40 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C103" t="n">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D103" t="n">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E103" t="n">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F103" t="n">
-        <v>1236.3853</v>
+        <v>1589.8947</v>
       </c>
       <c r="G103" t="n">
-        <v>53813.58495052001</v>
+        <v>49663.15275052001</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4226,33 +4364,40 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>136.7</v>
+        <v>142</v>
       </c>
       <c r="C104" t="n">
-        <v>136.6</v>
+        <v>142</v>
       </c>
       <c r="D104" t="n">
-        <v>136.7</v>
+        <v>142</v>
       </c>
       <c r="E104" t="n">
-        <v>136.6</v>
+        <v>142</v>
       </c>
       <c r="F104" t="n">
-        <v>5792.9077</v>
+        <v>8.688800000000001</v>
       </c>
       <c r="G104" t="n">
-        <v>48020.67725052001</v>
+        <v>49663.15275052001</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4261,33 +4406,40 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>141.8</v>
+        <v>142</v>
       </c>
       <c r="C105" t="n">
-        <v>138</v>
+        <v>140.8</v>
       </c>
       <c r="D105" t="n">
-        <v>141.8</v>
+        <v>142</v>
       </c>
       <c r="E105" t="n">
-        <v>138</v>
+        <v>140.8</v>
       </c>
       <c r="F105" t="n">
-        <v>92.46380000000001</v>
+        <v>4112.5943</v>
       </c>
       <c r="G105" t="n">
-        <v>48113.14105052</v>
+        <v>45550.55845052002</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4296,33 +4448,40 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>136.6</v>
+        <v>140.8</v>
       </c>
       <c r="C106" t="n">
-        <v>136.6</v>
+        <v>142</v>
       </c>
       <c r="D106" t="n">
-        <v>136.6</v>
+        <v>142</v>
       </c>
       <c r="E106" t="n">
-        <v>136.6</v>
+        <v>140.7</v>
       </c>
       <c r="F106" t="n">
-        <v>615.8954</v>
+        <v>1469.0014</v>
       </c>
       <c r="G106" t="n">
-        <v>47497.24565052</v>
+        <v>47019.55985052002</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4331,33 +4490,40 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>140.9</v>
+        <v>141</v>
       </c>
       <c r="C107" t="n">
-        <v>140.9</v>
+        <v>141.7</v>
       </c>
       <c r="D107" t="n">
-        <v>140.9</v>
+        <v>141.7</v>
       </c>
       <c r="E107" t="n">
-        <v>140.9</v>
+        <v>141</v>
       </c>
       <c r="F107" t="n">
-        <v>10</v>
+        <v>3548.3433</v>
       </c>
       <c r="G107" t="n">
-        <v>47507.24565052</v>
+        <v>43471.21655052002</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4366,33 +4532,40 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>136.6</v>
+        <v>144</v>
       </c>
       <c r="C108" t="n">
-        <v>136.6</v>
+        <v>143</v>
       </c>
       <c r="D108" t="n">
-        <v>136.6</v>
+        <v>144</v>
       </c>
       <c r="E108" t="n">
-        <v>136.6</v>
+        <v>143</v>
       </c>
       <c r="F108" t="n">
-        <v>3.6884</v>
+        <v>205.3243</v>
       </c>
       <c r="G108" t="n">
-        <v>47503.55725052</v>
+        <v>43676.54085052002</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4401,33 +4574,40 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>136.6</v>
+        <v>140</v>
       </c>
       <c r="C109" t="n">
-        <v>136.6</v>
+        <v>139</v>
       </c>
       <c r="D109" t="n">
-        <v>136.6</v>
+        <v>140</v>
       </c>
       <c r="E109" t="n">
-        <v>136.6</v>
+        <v>139</v>
       </c>
       <c r="F109" t="n">
-        <v>548.625</v>
+        <v>3448.3433</v>
       </c>
       <c r="G109" t="n">
-        <v>47503.55725052</v>
+        <v>40228.19755052002</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4436,33 +4616,40 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>138.1</v>
+        <v>145.6</v>
       </c>
       <c r="C110" t="n">
-        <v>139.9</v>
+        <v>145.6</v>
       </c>
       <c r="D110" t="n">
-        <v>139.9</v>
+        <v>145.6</v>
       </c>
       <c r="E110" t="n">
-        <v>136.9</v>
+        <v>145.6</v>
       </c>
       <c r="F110" t="n">
-        <v>1415.9897</v>
+        <v>10</v>
       </c>
       <c r="G110" t="n">
-        <v>48919.54695052</v>
+        <v>40238.19755052002</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4471,33 +4658,40 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>137.1</v>
+        <v>144.7</v>
       </c>
       <c r="C111" t="n">
-        <v>136.9</v>
+        <v>144.7</v>
       </c>
       <c r="D111" t="n">
-        <v>137.1</v>
+        <v>144.7</v>
       </c>
       <c r="E111" t="n">
-        <v>136.9</v>
+        <v>144.7</v>
       </c>
       <c r="F111" t="n">
-        <v>17495.8684</v>
+        <v>10</v>
       </c>
       <c r="G111" t="n">
-        <v>31423.67855052</v>
+        <v>40228.19755052002</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4506,33 +4700,40 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>139.5</v>
+        <v>142.9</v>
       </c>
       <c r="C112" t="n">
-        <v>139.5</v>
+        <v>141</v>
       </c>
       <c r="D112" t="n">
-        <v>139.5</v>
+        <v>142.9</v>
       </c>
       <c r="E112" t="n">
-        <v>139.5</v>
+        <v>141</v>
       </c>
       <c r="F112" t="n">
-        <v>2096.922</v>
+        <v>210.9828</v>
       </c>
       <c r="G112" t="n">
-        <v>33520.60055052</v>
+        <v>40017.21475052002</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4541,33 +4742,40 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>139.9</v>
+        <v>140</v>
       </c>
       <c r="C113" t="n">
-        <v>139.9</v>
+        <v>140</v>
       </c>
       <c r="D113" t="n">
-        <v>139.9</v>
+        <v>140</v>
       </c>
       <c r="E113" t="n">
-        <v>139.8</v>
+        <v>140</v>
       </c>
       <c r="F113" t="n">
-        <v>4384.448</v>
+        <v>9397.7261</v>
       </c>
       <c r="G113" t="n">
-        <v>37905.04855052</v>
+        <v>30619.48865052002</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4576,208 +4784,260 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>139.8</v>
+        <v>141</v>
       </c>
       <c r="C114" t="n">
+        <v>141</v>
+      </c>
+      <c r="D114" t="n">
+        <v>141</v>
+      </c>
+      <c r="E114" t="n">
+        <v>141</v>
+      </c>
+      <c r="F114" t="n">
+        <v>368.8861</v>
+      </c>
+      <c r="G114" t="n">
+        <v>30988.37475052002</v>
+      </c>
+      <c r="H114" t="n">
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
         <v>140</v>
       </c>
-      <c r="D114" t="n">
-        <v>140</v>
-      </c>
-      <c r="E114" t="n">
-        <v>139.8</v>
-      </c>
-      <c r="F114" t="n">
-        <v>6840.905</v>
-      </c>
-      <c r="G114" t="n">
-        <v>44745.95355052</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>140.8</v>
+        <v>143</v>
       </c>
       <c r="C115" t="n">
-        <v>140.9</v>
+        <v>143</v>
       </c>
       <c r="D115" t="n">
-        <v>140.9</v>
+        <v>143</v>
       </c>
       <c r="E115" t="n">
-        <v>140.8</v>
+        <v>143</v>
       </c>
       <c r="F115" t="n">
-        <v>3000</v>
+        <v>10</v>
       </c>
       <c r="G115" t="n">
-        <v>47745.95355052</v>
+        <v>30998.37475052002</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>141</v>
+      </c>
+      <c r="K115" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>140.9</v>
+        <v>143</v>
       </c>
       <c r="C116" t="n">
-        <v>140</v>
+        <v>143.9</v>
       </c>
       <c r="D116" t="n">
-        <v>140.9</v>
+        <v>143.9</v>
       </c>
       <c r="E116" t="n">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F116" t="n">
-        <v>1606.4054</v>
+        <v>1374.6977</v>
       </c>
       <c r="G116" t="n">
-        <v>46139.54815052</v>
+        <v>32373.07245052002</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>143</v>
+      </c>
+      <c r="K116" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>140.1</v>
+        <v>142.2</v>
       </c>
       <c r="C117" t="n">
-        <v>140.1</v>
+        <v>142.2</v>
       </c>
       <c r="D117" t="n">
-        <v>140.1</v>
+        <v>142.2</v>
       </c>
       <c r="E117" t="n">
-        <v>140.1</v>
+        <v>142.2</v>
       </c>
       <c r="F117" t="n">
-        <v>1206.2047</v>
+        <v>1374.6977</v>
       </c>
       <c r="G117" t="n">
-        <v>47345.75285052</v>
+        <v>30998.37475052002</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>143.9</v>
+      </c>
+      <c r="K117" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>140</v>
+        <v>147.8</v>
       </c>
       <c r="C118" t="n">
-        <v>140</v>
+        <v>148.9</v>
       </c>
       <c r="D118" t="n">
-        <v>140</v>
+        <v>148.9</v>
       </c>
       <c r="E118" t="n">
-        <v>140</v>
+        <v>147.8</v>
       </c>
       <c r="F118" t="n">
-        <v>1443.7855</v>
+        <v>1672.874</v>
       </c>
       <c r="G118" t="n">
-        <v>45901.96735052</v>
+        <v>32671.24875052002</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>142.2</v>
+      </c>
+      <c r="K118" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>139.1</v>
+        <v>150.8</v>
       </c>
       <c r="C119" t="n">
-        <v>138.1</v>
+        <v>150.8</v>
       </c>
       <c r="D119" t="n">
-        <v>139.1</v>
+        <v>150.8</v>
       </c>
       <c r="E119" t="n">
-        <v>138.1</v>
+        <v>150.8</v>
       </c>
       <c r="F119" t="n">
-        <v>1801.0868</v>
+        <v>10</v>
       </c>
       <c r="G119" t="n">
-        <v>44100.88055052001</v>
+        <v>32681.24875052002</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4786,33 +5046,40 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>138.2</v>
+        <v>150.8</v>
       </c>
       <c r="C120" t="n">
-        <v>138.2</v>
+        <v>144</v>
       </c>
       <c r="D120" t="n">
-        <v>138.2</v>
+        <v>150.8</v>
       </c>
       <c r="E120" t="n">
-        <v>138.2</v>
+        <v>144</v>
       </c>
       <c r="F120" t="n">
-        <v>1169.8378</v>
+        <v>8</v>
       </c>
       <c r="G120" t="n">
-        <v>45270.71835052001</v>
+        <v>32673.24875052002</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4821,33 +5088,40 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>138.2</v>
+        <v>147.1</v>
       </c>
       <c r="C121" t="n">
-        <v>138</v>
+        <v>146.1</v>
       </c>
       <c r="D121" t="n">
-        <v>138.2</v>
+        <v>147.1</v>
       </c>
       <c r="E121" t="n">
-        <v>138</v>
+        <v>146.1</v>
       </c>
       <c r="F121" t="n">
-        <v>4115.3403</v>
+        <v>1379.277</v>
       </c>
       <c r="G121" t="n">
-        <v>41155.37805052001</v>
+        <v>34052.52575052002</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4856,33 +5130,40 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C122" t="n">
-        <v>136.7</v>
+        <v>144</v>
       </c>
       <c r="D122" t="n">
-        <v>138</v>
+        <v>148.9</v>
       </c>
       <c r="E122" t="n">
-        <v>136.7</v>
+        <v>144</v>
       </c>
       <c r="F122" t="n">
-        <v>3000</v>
+        <v>10726.12261618</v>
       </c>
       <c r="G122" t="n">
-        <v>38155.37805052001</v>
+        <v>23326.40313434002</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4891,33 +5172,40 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>140.9</v>
+        <v>144</v>
       </c>
       <c r="C123" t="n">
-        <v>140.9</v>
+        <v>144</v>
       </c>
       <c r="D123" t="n">
-        <v>140.9</v>
+        <v>144</v>
       </c>
       <c r="E123" t="n">
-        <v>140.9</v>
+        <v>144</v>
       </c>
       <c r="F123" t="n">
-        <v>6.9933</v>
+        <v>2337.8456</v>
       </c>
       <c r="G123" t="n">
-        <v>38162.37135052001</v>
+        <v>23326.40313434002</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4926,33 +5214,40 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>140.8</v>
+        <v>144</v>
       </c>
       <c r="C124" t="n">
-        <v>140.8</v>
+        <v>149</v>
       </c>
       <c r="D124" t="n">
-        <v>140.8</v>
+        <v>149</v>
       </c>
       <c r="E124" t="n">
-        <v>140.8</v>
+        <v>143.3</v>
       </c>
       <c r="F124" t="n">
-        <v>885.5684</v>
+        <v>2698.633</v>
       </c>
       <c r="G124" t="n">
-        <v>37276.80295052002</v>
+        <v>26025.03613434002</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4961,33 +5256,40 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>140.7</v>
+        <v>145</v>
       </c>
       <c r="C125" t="n">
-        <v>140.7</v>
+        <v>142.2</v>
       </c>
       <c r="D125" t="n">
-        <v>140.7</v>
+        <v>145</v>
       </c>
       <c r="E125" t="n">
-        <v>140.7</v>
+        <v>142.2</v>
       </c>
       <c r="F125" t="n">
-        <v>5.1684</v>
+        <v>10158.7416</v>
       </c>
       <c r="G125" t="n">
-        <v>37271.63455052002</v>
+        <v>15866.29453434002</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4996,33 +5298,40 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>141.9</v>
+        <v>145.6</v>
       </c>
       <c r="C126" t="n">
-        <v>144</v>
+        <v>145.6</v>
       </c>
       <c r="D126" t="n">
-        <v>144</v>
+        <v>145.6</v>
       </c>
       <c r="E126" t="n">
-        <v>141.9</v>
+        <v>145.6</v>
       </c>
       <c r="F126" t="n">
-        <v>2806.403</v>
+        <v>6</v>
       </c>
       <c r="G126" t="n">
-        <v>40078.03755052001</v>
+        <v>15872.29453434002</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5031,33 +5340,40 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>145</v>
+        <v>145.6</v>
       </c>
       <c r="C127" t="n">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D127" t="n">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E127" t="n">
-        <v>145</v>
+        <v>145.6</v>
       </c>
       <c r="F127" t="n">
-        <v>1000</v>
+        <v>5620.2866</v>
       </c>
       <c r="G127" t="n">
-        <v>41078.03755052001</v>
+        <v>21492.58113434002</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5066,33 +5382,40 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C128" t="n">
-        <v>145</v>
+        <v>153.8</v>
       </c>
       <c r="D128" t="n">
-        <v>145</v>
+        <v>153.8</v>
       </c>
       <c r="E128" t="n">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="F128" t="n">
-        <v>60.4902</v>
+        <v>2581.487</v>
       </c>
       <c r="G128" t="n">
-        <v>41078.03755052001</v>
+        <v>24074.06813434002</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5101,33 +5424,40 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>143</v>
+        <v>153.7</v>
       </c>
       <c r="C129" t="n">
-        <v>143</v>
+        <v>153.9</v>
       </c>
       <c r="D129" t="n">
-        <v>143</v>
+        <v>153.9</v>
       </c>
       <c r="E129" t="n">
-        <v>143</v>
+        <v>153.7</v>
       </c>
       <c r="F129" t="n">
-        <v>212</v>
+        <v>5228.1627</v>
       </c>
       <c r="G129" t="n">
-        <v>40866.03755052001</v>
+        <v>29302.23083434003</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5136,33 +5466,40 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>146</v>
+        <v>153.8</v>
       </c>
       <c r="C130" t="n">
-        <v>146</v>
+        <v>153.3</v>
       </c>
       <c r="D130" t="n">
-        <v>146</v>
+        <v>153.8</v>
       </c>
       <c r="E130" t="n">
-        <v>146</v>
+        <v>153.3</v>
       </c>
       <c r="F130" t="n">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="G130" t="n">
-        <v>41112.03755052001</v>
+        <v>29075.23083434003</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5171,33 +5508,40 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C131" t="n">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="D131" t="n">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E131" t="n">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="F131" t="n">
-        <v>212</v>
+        <v>5</v>
       </c>
       <c r="G131" t="n">
-        <v>41112.03755052001</v>
+        <v>29070.23083434003</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5206,33 +5550,40 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>147</v>
+        <v>152.9</v>
       </c>
       <c r="C132" t="n">
-        <v>147.9</v>
+        <v>152.9</v>
       </c>
       <c r="D132" t="n">
-        <v>147.9</v>
+        <v>152.9</v>
       </c>
       <c r="E132" t="n">
-        <v>147</v>
+        <v>152.9</v>
       </c>
       <c r="F132" t="n">
-        <v>5624.1496</v>
+        <v>972</v>
       </c>
       <c r="G132" t="n">
-        <v>46736.18715052001</v>
+        <v>28098.23083434003</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5241,33 +5592,40 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>148</v>
+        <v>152.2</v>
       </c>
       <c r="C133" t="n">
-        <v>148</v>
+        <v>152.9</v>
       </c>
       <c r="D133" t="n">
-        <v>148</v>
+        <v>152.9</v>
       </c>
       <c r="E133" t="n">
-        <v>148</v>
+        <v>152.2</v>
       </c>
       <c r="F133" t="n">
-        <v>2052.2179</v>
+        <v>5527.8557</v>
       </c>
       <c r="G133" t="n">
-        <v>48788.40505052001</v>
+        <v>28098.23083434003</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5276,33 +5634,40 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>147.9</v>
+        <v>151.6</v>
       </c>
       <c r="C134" t="n">
-        <v>147.9</v>
+        <v>149.1</v>
       </c>
       <c r="D134" t="n">
-        <v>147.9</v>
+        <v>151.6</v>
       </c>
       <c r="E134" t="n">
-        <v>147.9</v>
+        <v>149.1</v>
       </c>
       <c r="F134" t="n">
-        <v>246</v>
+        <v>835</v>
       </c>
       <c r="G134" t="n">
-        <v>48542.40505052001</v>
+        <v>27263.23083434003</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5311,33 +5676,40 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>148</v>
+        <v>151.9</v>
       </c>
       <c r="C135" t="n">
-        <v>148</v>
+        <v>151.9</v>
       </c>
       <c r="D135" t="n">
-        <v>148</v>
+        <v>151.9</v>
       </c>
       <c r="E135" t="n">
-        <v>148</v>
+        <v>151.9</v>
       </c>
       <c r="F135" t="n">
-        <v>4531.7167</v>
+        <v>5</v>
       </c>
       <c r="G135" t="n">
-        <v>53074.12175052001</v>
+        <v>27268.23083434003</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5346,33 +5718,40 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>148</v>
+        <v>151.9</v>
       </c>
       <c r="C136" t="n">
-        <v>148</v>
+        <v>151.9</v>
       </c>
       <c r="D136" t="n">
-        <v>148</v>
+        <v>151.9</v>
       </c>
       <c r="E136" t="n">
-        <v>148</v>
+        <v>151.9</v>
       </c>
       <c r="F136" t="n">
-        <v>152.7465</v>
+        <v>5</v>
       </c>
       <c r="G136" t="n">
-        <v>53074.12175052001</v>
+        <v>27268.23083434003</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5381,33 +5760,40 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>147.9</v>
+        <v>145.6</v>
       </c>
       <c r="C137" t="n">
         <v>147.9</v>
       </c>
       <c r="D137" t="n">
-        <v>147.9</v>
+        <v>150.8</v>
       </c>
       <c r="E137" t="n">
-        <v>147.9</v>
+        <v>143.2</v>
       </c>
       <c r="F137" t="n">
-        <v>1263.3586</v>
+        <v>5244.1627</v>
       </c>
       <c r="G137" t="n">
-        <v>51810.76315052001</v>
+        <v>22024.06813434002</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5416,33 +5802,40 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C138" t="n">
-        <v>144</v>
+        <v>149.9</v>
       </c>
       <c r="D138" t="n">
-        <v>144</v>
+        <v>149.9</v>
       </c>
       <c r="E138" t="n">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F138" t="n">
-        <v>820</v>
+        <v>11</v>
       </c>
       <c r="G138" t="n">
-        <v>50990.76315052001</v>
+        <v>22035.06813434002</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5451,33 +5844,40 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>143</v>
+        <v>148.8</v>
       </c>
       <c r="C139" t="n">
-        <v>143</v>
+        <v>143.2</v>
       </c>
       <c r="D139" t="n">
-        <v>143</v>
+        <v>148.8</v>
       </c>
       <c r="E139" t="n">
-        <v>143</v>
+        <v>143.2</v>
       </c>
       <c r="F139" t="n">
-        <v>12.8153</v>
+        <v>3187.486</v>
       </c>
       <c r="G139" t="n">
-        <v>50977.94785052001</v>
+        <v>18847.58213434002</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5486,11 +5886,18 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5509,10 +5916,10 @@
         <v>144</v>
       </c>
       <c r="F140" t="n">
-        <v>1682.375</v>
+        <v>219.0164</v>
       </c>
       <c r="G140" t="n">
-        <v>52660.32285052001</v>
+        <v>19066.59853434002</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5521,33 +5928,40 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>148.6</v>
+        <v>144</v>
       </c>
       <c r="C141" t="n">
-        <v>148.6</v>
+        <v>144</v>
       </c>
       <c r="D141" t="n">
-        <v>148.6</v>
+        <v>144</v>
       </c>
       <c r="E141" t="n">
-        <v>148.6</v>
+        <v>144</v>
       </c>
       <c r="F141" t="n">
-        <v>269.1077</v>
+        <v>97.95489999999999</v>
       </c>
       <c r="G141" t="n">
-        <v>52929.43055052001</v>
+        <v>19066.59853434002</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5556,33 +5970,40 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>145.1</v>
+        <v>143</v>
       </c>
       <c r="C142" t="n">
-        <v>145.1</v>
+        <v>142.2</v>
       </c>
       <c r="D142" t="n">
-        <v>145.1</v>
+        <v>143</v>
       </c>
       <c r="E142" t="n">
-        <v>145.1</v>
+        <v>142.2</v>
       </c>
       <c r="F142" t="n">
-        <v>1671.261</v>
+        <v>5283.4723</v>
       </c>
       <c r="G142" t="n">
-        <v>51258.16955052001</v>
+        <v>13783.12623434002</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5591,33 +6012,40 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>143</v>
+        <v>142.2</v>
       </c>
       <c r="C143" t="n">
-        <v>143</v>
+        <v>142.2</v>
       </c>
       <c r="D143" t="n">
-        <v>143</v>
+        <v>142.2</v>
       </c>
       <c r="E143" t="n">
-        <v>143</v>
+        <v>142.2</v>
       </c>
       <c r="F143" t="n">
-        <v>5.1221</v>
+        <v>239.3834</v>
       </c>
       <c r="G143" t="n">
-        <v>51253.04745052001</v>
+        <v>13783.12623434002</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5626,1497 +6054,18 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>144.1</v>
-      </c>
-      <c r="C144" t="n">
-        <v>143</v>
-      </c>
-      <c r="D144" t="n">
-        <v>144.1</v>
-      </c>
-      <c r="E144" t="n">
-        <v>143</v>
-      </c>
-      <c r="F144" t="n">
-        <v>361.588</v>
-      </c>
-      <c r="G144" t="n">
-        <v>51253.04745052001</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>143</v>
-      </c>
-      <c r="C145" t="n">
-        <v>142</v>
-      </c>
-      <c r="D145" t="n">
-        <v>143</v>
-      </c>
-      <c r="E145" t="n">
-        <v>142</v>
-      </c>
-      <c r="F145" t="n">
-        <v>1589.8947</v>
-      </c>
-      <c r="G145" t="n">
-        <v>49663.15275052001</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>142</v>
-      </c>
-      <c r="C146" t="n">
-        <v>142</v>
-      </c>
-      <c r="D146" t="n">
-        <v>142</v>
-      </c>
-      <c r="E146" t="n">
-        <v>142</v>
-      </c>
-      <c r="F146" t="n">
-        <v>8.688800000000001</v>
-      </c>
-      <c r="G146" t="n">
-        <v>49663.15275052001</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>142</v>
-      </c>
-      <c r="C147" t="n">
-        <v>140.8</v>
-      </c>
-      <c r="D147" t="n">
-        <v>142</v>
-      </c>
-      <c r="E147" t="n">
-        <v>140.8</v>
-      </c>
-      <c r="F147" t="n">
-        <v>4112.5943</v>
-      </c>
-      <c r="G147" t="n">
-        <v>45550.55845052002</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>140.8</v>
-      </c>
-      <c r="C148" t="n">
-        <v>142</v>
-      </c>
-      <c r="D148" t="n">
-        <v>142</v>
-      </c>
-      <c r="E148" t="n">
-        <v>140.7</v>
-      </c>
-      <c r="F148" t="n">
-        <v>1469.0014</v>
-      </c>
-      <c r="G148" t="n">
-        <v>47019.55985052002</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>141</v>
-      </c>
-      <c r="C149" t="n">
-        <v>141.7</v>
-      </c>
-      <c r="D149" t="n">
-        <v>141.7</v>
-      </c>
-      <c r="E149" t="n">
-        <v>141</v>
-      </c>
-      <c r="F149" t="n">
-        <v>3548.3433</v>
-      </c>
-      <c r="G149" t="n">
-        <v>43471.21655052002</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>144</v>
-      </c>
-      <c r="C150" t="n">
-        <v>143</v>
-      </c>
-      <c r="D150" t="n">
-        <v>144</v>
-      </c>
-      <c r="E150" t="n">
-        <v>143</v>
-      </c>
-      <c r="F150" t="n">
-        <v>205.3243</v>
-      </c>
-      <c r="G150" t="n">
-        <v>43676.54085052002</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>140</v>
-      </c>
-      <c r="C151" t="n">
-        <v>139</v>
-      </c>
-      <c r="D151" t="n">
-        <v>140</v>
-      </c>
-      <c r="E151" t="n">
-        <v>139</v>
-      </c>
-      <c r="F151" t="n">
-        <v>3448.3433</v>
-      </c>
-      <c r="G151" t="n">
-        <v>40228.19755052002</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>145.6</v>
-      </c>
-      <c r="C152" t="n">
-        <v>145.6</v>
-      </c>
-      <c r="D152" t="n">
-        <v>145.6</v>
-      </c>
-      <c r="E152" t="n">
-        <v>145.6</v>
-      </c>
-      <c r="F152" t="n">
-        <v>10</v>
-      </c>
-      <c r="G152" t="n">
-        <v>40238.19755052002</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>144.7</v>
-      </c>
-      <c r="C153" t="n">
-        <v>144.7</v>
-      </c>
-      <c r="D153" t="n">
-        <v>144.7</v>
-      </c>
-      <c r="E153" t="n">
-        <v>144.7</v>
-      </c>
-      <c r="F153" t="n">
-        <v>10</v>
-      </c>
-      <c r="G153" t="n">
-        <v>40228.19755052002</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>142.9</v>
-      </c>
-      <c r="C154" t="n">
-        <v>141</v>
-      </c>
-      <c r="D154" t="n">
-        <v>142.9</v>
-      </c>
-      <c r="E154" t="n">
-        <v>141</v>
-      </c>
-      <c r="F154" t="n">
-        <v>210.9828</v>
-      </c>
-      <c r="G154" t="n">
-        <v>40017.21475052002</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>140</v>
-      </c>
-      <c r="C155" t="n">
-        <v>140</v>
-      </c>
-      <c r="D155" t="n">
-        <v>140</v>
-      </c>
-      <c r="E155" t="n">
-        <v>140</v>
-      </c>
-      <c r="F155" t="n">
-        <v>9397.7261</v>
-      </c>
-      <c r="G155" t="n">
-        <v>30619.48865052002</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>141</v>
-      </c>
-      <c r="C156" t="n">
-        <v>141</v>
-      </c>
-      <c r="D156" t="n">
-        <v>141</v>
-      </c>
-      <c r="E156" t="n">
-        <v>141</v>
-      </c>
-      <c r="F156" t="n">
-        <v>368.8861</v>
-      </c>
-      <c r="G156" t="n">
-        <v>30988.37475052002</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>143</v>
-      </c>
-      <c r="C157" t="n">
-        <v>143</v>
-      </c>
-      <c r="D157" t="n">
-        <v>143</v>
-      </c>
-      <c r="E157" t="n">
-        <v>143</v>
-      </c>
-      <c r="F157" t="n">
-        <v>10</v>
-      </c>
-      <c r="G157" t="n">
-        <v>30998.37475052002</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>143</v>
-      </c>
-      <c r="C158" t="n">
-        <v>143.9</v>
-      </c>
-      <c r="D158" t="n">
-        <v>143.9</v>
-      </c>
-      <c r="E158" t="n">
-        <v>143</v>
-      </c>
-      <c r="F158" t="n">
-        <v>1374.6977</v>
-      </c>
-      <c r="G158" t="n">
-        <v>32373.07245052002</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>142.2</v>
-      </c>
-      <c r="C159" t="n">
-        <v>142.2</v>
-      </c>
-      <c r="D159" t="n">
-        <v>142.2</v>
-      </c>
-      <c r="E159" t="n">
-        <v>142.2</v>
-      </c>
-      <c r="F159" t="n">
-        <v>1374.6977</v>
-      </c>
-      <c r="G159" t="n">
-        <v>30998.37475052002</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>147.8</v>
-      </c>
-      <c r="C160" t="n">
-        <v>148.9</v>
-      </c>
-      <c r="D160" t="n">
-        <v>148.9</v>
-      </c>
-      <c r="E160" t="n">
-        <v>147.8</v>
-      </c>
-      <c r="F160" t="n">
-        <v>1672.874</v>
-      </c>
-      <c r="G160" t="n">
-        <v>32671.24875052002</v>
-      </c>
-      <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="n">
-        <v>142.2</v>
-      </c>
-      <c r="K160" t="n">
-        <v>142.2</v>
-      </c>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>150.8</v>
-      </c>
-      <c r="C161" t="n">
-        <v>150.8</v>
-      </c>
-      <c r="D161" t="n">
-        <v>150.8</v>
-      </c>
-      <c r="E161" t="n">
-        <v>150.8</v>
-      </c>
-      <c r="F161" t="n">
-        <v>10</v>
-      </c>
-      <c r="G161" t="n">
-        <v>32681.24875052002</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>142.2</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>150.8</v>
-      </c>
-      <c r="C162" t="n">
-        <v>144</v>
-      </c>
-      <c r="D162" t="n">
-        <v>150.8</v>
-      </c>
-      <c r="E162" t="n">
-        <v>144</v>
-      </c>
-      <c r="F162" t="n">
-        <v>8</v>
-      </c>
-      <c r="G162" t="n">
-        <v>32673.24875052002</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>142.2</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>147.1</v>
-      </c>
-      <c r="C163" t="n">
-        <v>146.1</v>
-      </c>
-      <c r="D163" t="n">
-        <v>147.1</v>
-      </c>
-      <c r="E163" t="n">
-        <v>146.1</v>
-      </c>
-      <c r="F163" t="n">
-        <v>1379.277</v>
-      </c>
-      <c r="G163" t="n">
-        <v>34052.52575052002</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>146</v>
-      </c>
-      <c r="C164" t="n">
-        <v>144</v>
-      </c>
-      <c r="D164" t="n">
-        <v>148.9</v>
-      </c>
-      <c r="E164" t="n">
-        <v>144</v>
-      </c>
-      <c r="F164" t="n">
-        <v>10726.12261618</v>
-      </c>
-      <c r="G164" t="n">
-        <v>23326.40313434002</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>144</v>
-      </c>
-      <c r="C165" t="n">
-        <v>144</v>
-      </c>
-      <c r="D165" t="n">
-        <v>144</v>
-      </c>
-      <c r="E165" t="n">
-        <v>144</v>
-      </c>
-      <c r="F165" t="n">
-        <v>2337.8456</v>
-      </c>
-      <c r="G165" t="n">
-        <v>23326.40313434002</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>144</v>
-      </c>
-      <c r="C166" t="n">
-        <v>149</v>
-      </c>
-      <c r="D166" t="n">
-        <v>149</v>
-      </c>
-      <c r="E166" t="n">
-        <v>143.3</v>
-      </c>
-      <c r="F166" t="n">
-        <v>2698.633</v>
-      </c>
-      <c r="G166" t="n">
-        <v>26025.03613434002</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>145</v>
-      </c>
-      <c r="C167" t="n">
-        <v>142.2</v>
-      </c>
-      <c r="D167" t="n">
-        <v>145</v>
-      </c>
-      <c r="E167" t="n">
-        <v>142.2</v>
-      </c>
-      <c r="F167" t="n">
-        <v>10158.7416</v>
-      </c>
-      <c r="G167" t="n">
-        <v>15866.29453434002</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>145.6</v>
-      </c>
-      <c r="C168" t="n">
-        <v>145.6</v>
-      </c>
-      <c r="D168" t="n">
-        <v>145.6</v>
-      </c>
-      <c r="E168" t="n">
-        <v>145.6</v>
-      </c>
-      <c r="F168" t="n">
-        <v>6</v>
-      </c>
-      <c r="G168" t="n">
-        <v>15872.29453434002</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>145.6</v>
-      </c>
-      <c r="C169" t="n">
-        <v>152</v>
-      </c>
-      <c r="D169" t="n">
-        <v>152</v>
-      </c>
-      <c r="E169" t="n">
-        <v>145.6</v>
-      </c>
-      <c r="F169" t="n">
-        <v>5620.2866</v>
-      </c>
-      <c r="G169" t="n">
-        <v>21492.58113434002</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>152</v>
-      </c>
-      <c r="C170" t="n">
-        <v>153.8</v>
-      </c>
-      <c r="D170" t="n">
-        <v>153.8</v>
-      </c>
-      <c r="E170" t="n">
-        <v>152</v>
-      </c>
-      <c r="F170" t="n">
-        <v>2581.487</v>
-      </c>
-      <c r="G170" t="n">
-        <v>24074.06813434002</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>153.7</v>
-      </c>
-      <c r="C171" t="n">
-        <v>153.9</v>
-      </c>
-      <c r="D171" t="n">
-        <v>153.9</v>
-      </c>
-      <c r="E171" t="n">
-        <v>153.7</v>
-      </c>
-      <c r="F171" t="n">
-        <v>5228.1627</v>
-      </c>
-      <c r="G171" t="n">
-        <v>29302.23083434003</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>153.8</v>
-      </c>
-      <c r="C172" t="n">
-        <v>153.3</v>
-      </c>
-      <c r="D172" t="n">
-        <v>153.8</v>
-      </c>
-      <c r="E172" t="n">
-        <v>153.3</v>
-      </c>
-      <c r="F172" t="n">
-        <v>227</v>
-      </c>
-      <c r="G172" t="n">
-        <v>29075.23083434003</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>153</v>
-      </c>
-      <c r="C173" t="n">
-        <v>153</v>
-      </c>
-      <c r="D173" t="n">
-        <v>153</v>
-      </c>
-      <c r="E173" t="n">
-        <v>153</v>
-      </c>
-      <c r="F173" t="n">
-        <v>5</v>
-      </c>
-      <c r="G173" t="n">
-        <v>29070.23083434003</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>152.9</v>
-      </c>
-      <c r="C174" t="n">
-        <v>152.9</v>
-      </c>
-      <c r="D174" t="n">
-        <v>152.9</v>
-      </c>
-      <c r="E174" t="n">
-        <v>152.9</v>
-      </c>
-      <c r="F174" t="n">
-        <v>972</v>
-      </c>
-      <c r="G174" t="n">
-        <v>28098.23083434003</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="C175" t="n">
-        <v>152.9</v>
-      </c>
-      <c r="D175" t="n">
-        <v>152.9</v>
-      </c>
-      <c r="E175" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="F175" t="n">
-        <v>5527.8557</v>
-      </c>
-      <c r="G175" t="n">
-        <v>28098.23083434003</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="C176" t="n">
-        <v>149.1</v>
-      </c>
-      <c r="D176" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="E176" t="n">
-        <v>149.1</v>
-      </c>
-      <c r="F176" t="n">
-        <v>835</v>
-      </c>
-      <c r="G176" t="n">
-        <v>27263.23083434003</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>151.9</v>
-      </c>
-      <c r="C177" t="n">
-        <v>151.9</v>
-      </c>
-      <c r="D177" t="n">
-        <v>151.9</v>
-      </c>
-      <c r="E177" t="n">
-        <v>151.9</v>
-      </c>
-      <c r="F177" t="n">
-        <v>5</v>
-      </c>
-      <c r="G177" t="n">
-        <v>27268.23083434003</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>151.9</v>
-      </c>
-      <c r="C178" t="n">
-        <v>151.9</v>
-      </c>
-      <c r="D178" t="n">
-        <v>151.9</v>
-      </c>
-      <c r="E178" t="n">
-        <v>151.9</v>
-      </c>
-      <c r="F178" t="n">
-        <v>5</v>
-      </c>
-      <c r="G178" t="n">
-        <v>27268.23083434003</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>145.6</v>
-      </c>
-      <c r="C179" t="n">
-        <v>147.9</v>
-      </c>
-      <c r="D179" t="n">
-        <v>150.8</v>
-      </c>
-      <c r="E179" t="n">
-        <v>143.2</v>
-      </c>
-      <c r="F179" t="n">
-        <v>5244.1627</v>
-      </c>
-      <c r="G179" t="n">
-        <v>22024.06813434002</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>148</v>
-      </c>
-      <c r="C180" t="n">
-        <v>149.9</v>
-      </c>
-      <c r="D180" t="n">
-        <v>149.9</v>
-      </c>
-      <c r="E180" t="n">
-        <v>148</v>
-      </c>
-      <c r="F180" t="n">
-        <v>11</v>
-      </c>
-      <c r="G180" t="n">
-        <v>22035.06813434002</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>148.8</v>
-      </c>
-      <c r="C181" t="n">
-        <v>143.2</v>
-      </c>
-      <c r="D181" t="n">
-        <v>148.8</v>
-      </c>
-      <c r="E181" t="n">
-        <v>143.2</v>
-      </c>
-      <c r="F181" t="n">
-        <v>3187.486</v>
-      </c>
-      <c r="G181" t="n">
-        <v>18847.58213434002</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>144</v>
-      </c>
-      <c r="C182" t="n">
-        <v>144</v>
-      </c>
-      <c r="D182" t="n">
-        <v>144</v>
-      </c>
-      <c r="E182" t="n">
-        <v>144</v>
-      </c>
-      <c r="F182" t="n">
-        <v>219.0164</v>
-      </c>
-      <c r="G182" t="n">
-        <v>19066.59853434002</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>144</v>
-      </c>
-      <c r="C183" t="n">
-        <v>144</v>
-      </c>
-      <c r="D183" t="n">
-        <v>144</v>
-      </c>
-      <c r="E183" t="n">
-        <v>144</v>
-      </c>
-      <c r="F183" t="n">
-        <v>97.95489999999999</v>
-      </c>
-      <c r="G183" t="n">
-        <v>19066.59853434002</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>143</v>
-      </c>
-      <c r="C184" t="n">
-        <v>142.2</v>
-      </c>
-      <c r="D184" t="n">
-        <v>143</v>
-      </c>
-      <c r="E184" t="n">
-        <v>142.2</v>
-      </c>
-      <c r="F184" t="n">
-        <v>5283.4723</v>
-      </c>
-      <c r="G184" t="n">
-        <v>13783.12623434002</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>142.2</v>
-      </c>
-      <c r="C185" t="n">
-        <v>142.2</v>
-      </c>
-      <c r="D185" t="n">
-        <v>142.2</v>
-      </c>
-      <c r="E185" t="n">
-        <v>142.2</v>
-      </c>
-      <c r="F185" t="n">
-        <v>239.3834</v>
-      </c>
-      <c r="G185" t="n">
-        <v>13783.12623434002</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
+      <c r="N143" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-16 BackTest ARN.xlsx
+++ b/BackTest/2020-01-16 BackTest ARN.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N214"/>
+  <dimension ref="A1:M214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>37574.12391076001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,15 @@
         <v>37613.60911076002</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,15 @@
         <v>25850.02141076001</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +550,15 @@
         <v>25859.89111076001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +583,15 @@
         <v>21951.51151076001</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +616,15 @@
         <v>21759.78651076002</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +649,15 @@
         <v>16165.70311076002</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,18 +715,15 @@
         <v>3270.129510760016</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -780,18 +748,15 @@
         <v>3270.129510760016</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +781,15 @@
         <v>-1004.095089239983</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -852,18 +814,15 @@
         <v>-938.2585892399833</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +847,15 @@
         <v>-946.2585892399833</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +880,15 @@
         <v>-1409.124089239983</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,18 +913,15 @@
         <v>-1409.124089239983</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -996,18 +946,15 @@
         <v>339.8207107600167</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1032,18 +979,15 @@
         <v>-4397.403289239984</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1068,18 +1012,15 @@
         <v>-4397.403289239984</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1045,15 @@
         <v>-8454.369689239984</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1140,18 +1078,15 @@
         <v>-8454.369689239984</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1176,18 +1111,15 @@
         <v>6355.630310760016</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1212,18 +1144,15 @@
         <v>6350.630310760016</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1248,18 +1177,15 @@
         <v>6350.630310760016</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1284,18 +1210,15 @@
         <v>6345.880310760016</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1320,18 +1243,15 @@
         <v>15316.95321076002</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1356,18 +1276,15 @@
         <v>15308.66751076001</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1392,18 +1309,15 @@
         <v>16049.66751076001</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1428,18 +1342,15 @@
         <v>16029.66751076001</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1464,18 +1375,15 @@
         <v>15974.87841076001</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1500,18 +1408,15 @@
         <v>16156.87841076001</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1536,18 +1441,15 @@
         <v>11278.10051076001</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1572,18 +1474,15 @@
         <v>12755.70791076001</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1608,18 +1507,15 @@
         <v>12749.70791076001</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1644,18 +1540,15 @@
         <v>12753.70791076001</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1680,18 +1573,15 @@
         <v>12747.70791076001</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1716,18 +1606,15 @@
         <v>23506.03881076002</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1932,18 +1804,15 @@
         <v>39809.18141076002</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1968,18 +1837,15 @@
         <v>39785.18141076002</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2004,18 +1870,15 @@
         <v>39759.18141076002</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2112,18 +1969,15 @@
         <v>39844.18141076002</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2256,18 +2101,15 @@
         <v>39741.73701076002</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2292,18 +2134,15 @@
         <v>39741.73701076002</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2436,18 +2266,15 @@
         <v>40816.97491076002</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3984,18 +3685,15 @@
         <v>55924.34305052001</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4128,18 +3817,15 @@
         <v>50544.42705052001</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4314,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4347,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4380,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4413,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4446,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4848,18 +4477,19 @@
         <v>53571.23785052001</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
+        <v>136.2</v>
+      </c>
+      <c r="J124" t="n">
+        <v>136.2</v>
+      </c>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4884,18 +4514,23 @@
         <v>53583.23785052001</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+        <v>136.6</v>
+      </c>
+      <c r="J125" t="n">
+        <v>136.2</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4557,19 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>136.2</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4596,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4629,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4662,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4695,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5100,18 +4726,19 @@
         <v>52577.19965052001</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
+        <v>138</v>
+      </c>
+      <c r="J131" t="n">
+        <v>138</v>
+      </c>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4765,19 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>138</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +4804,19 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>138</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5208,18 +4841,23 @@
         <v>48113.14105052</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+        <v>136.6</v>
+      </c>
+      <c r="J134" t="n">
+        <v>138</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5244,18 +4882,23 @@
         <v>47497.24565052</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+        <v>138</v>
+      </c>
+      <c r="J135" t="n">
+        <v>138</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5280,18 +4923,23 @@
         <v>47507.24565052</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+        <v>136.6</v>
+      </c>
+      <c r="J136" t="n">
+        <v>138</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5316,18 +4964,23 @@
         <v>47503.55725052</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+        <v>140.9</v>
+      </c>
+      <c r="J137" t="n">
+        <v>138</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5352,18 +5005,23 @@
         <v>47503.55725052</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+        <v>136.6</v>
+      </c>
+      <c r="J138" t="n">
+        <v>138</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5388,22 +5046,23 @@
         <v>48919.54695052</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>136.6</v>
       </c>
       <c r="J139" t="n">
-        <v>136.6</v>
-      </c>
-      <c r="K139" t="n">
-        <v>136.6</v>
-      </c>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+        <v>138</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5428,26 +5087,23 @@
         <v>31423.67855052</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>139.9</v>
       </c>
       <c r="J140" t="n">
-        <v>139.9</v>
-      </c>
-      <c r="K140" t="n">
-        <v>136.6</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+        <v>138</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5472,26 +5128,23 @@
         <v>33520.60055052</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>136.9</v>
       </c>
       <c r="J141" t="n">
-        <v>136.9</v>
-      </c>
-      <c r="K141" t="n">
-        <v>136.6</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+        <v>138</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5516,22 +5169,23 @@
         <v>37905.04855052</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
+        <v>139.5</v>
       </c>
       <c r="J142" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="K142" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+        <v>138</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5556,26 +5210,23 @@
         <v>44745.95355052</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>139.9</v>
       </c>
       <c r="J143" t="n">
-        <v>139.9</v>
-      </c>
-      <c r="K143" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+        <v>138</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5600,26 +5251,23 @@
         <v>47745.95355052</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="J144" t="n">
-        <v>140</v>
-      </c>
-      <c r="K144" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+        <v>138</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5644,26 +5292,23 @@
         <v>46139.54815052</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
+        <v>140.9</v>
       </c>
       <c r="J145" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="K145" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+        <v>138</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5688,26 +5333,23 @@
         <v>47345.75285052</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="J146" t="n">
-        <v>140</v>
-      </c>
-      <c r="K146" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="L146" t="inlineStr">
+        <v>138</v>
+      </c>
+      <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5732,26 +5374,23 @@
         <v>45901.96735052</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>140.1</v>
       </c>
       <c r="J147" t="n">
-        <v>140.1</v>
-      </c>
-      <c r="K147" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="L147" t="inlineStr">
+        <v>138</v>
+      </c>
+      <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5776,26 +5415,23 @@
         <v>44100.88055052001</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="J148" t="n">
-        <v>140</v>
-      </c>
-      <c r="K148" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="L148" t="inlineStr">
+        <v>138</v>
+      </c>
+      <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5820,26 +5456,23 @@
         <v>45270.71835052001</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
+        <v>138.1</v>
       </c>
       <c r="J149" t="n">
-        <v>138.1</v>
-      </c>
-      <c r="K149" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="L149" t="inlineStr">
+        <v>138</v>
+      </c>
+      <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5864,26 +5497,23 @@
         <v>41155.37805052001</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
+        <v>138.2</v>
       </c>
       <c r="J150" t="n">
-        <v>138.2</v>
-      </c>
-      <c r="K150" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="L150" t="inlineStr">
+        <v>138</v>
+      </c>
+      <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5908,26 +5538,23 @@
         <v>38155.37805052001</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="J151" t="n">
         <v>138</v>
       </c>
-      <c r="K151" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="L151" t="inlineStr">
+      <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5952,26 +5579,23 @@
         <v>38162.37135052001</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
+        <v>136.7</v>
       </c>
       <c r="J152" t="n">
-        <v>136.7</v>
-      </c>
-      <c r="K152" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="L152" t="inlineStr">
+        <v>138</v>
+      </c>
+      <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5996,26 +5620,23 @@
         <v>37276.80295052002</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
+        <v>140.9</v>
       </c>
       <c r="J153" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="K153" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="L153" t="inlineStr">
+        <v>138</v>
+      </c>
+      <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6040,26 +5661,23 @@
         <v>37271.63455052002</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
+        <v>140.8</v>
       </c>
       <c r="J154" t="n">
-        <v>140.8</v>
-      </c>
-      <c r="K154" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="L154" t="inlineStr">
+        <v>138</v>
+      </c>
+      <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6084,26 +5702,21 @@
         <v>40078.03755052001</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>140.7</v>
-      </c>
-      <c r="K155" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="L155" t="inlineStr">
+        <v>138</v>
+      </c>
+      <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6128,26 +5741,21 @@
         <v>41078.03755052001</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>144</v>
-      </c>
-      <c r="K156" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="L156" t="inlineStr">
+        <v>138</v>
+      </c>
+      <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6172,26 +5780,21 @@
         <v>41078.03755052001</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>145</v>
-      </c>
-      <c r="K157" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="L157" t="inlineStr">
+        <v>138</v>
+      </c>
+      <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6216,26 +5819,23 @@
         <v>40866.03755052001</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="J158" t="n">
-        <v>145</v>
-      </c>
-      <c r="K158" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="L158" t="inlineStr">
+        <v>138</v>
+      </c>
+      <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6260,26 +5860,21 @@
         <v>41112.03755052001</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>143</v>
-      </c>
-      <c r="K159" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="L159" t="inlineStr">
+        <v>138</v>
+      </c>
+      <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6304,26 +5899,21 @@
         <v>41112.03755052001</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>146</v>
-      </c>
-      <c r="K160" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="L160" t="inlineStr">
+        <v>138</v>
+      </c>
+      <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6348,26 +5938,23 @@
         <v>46736.18715052001</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="J161" t="n">
-        <v>146</v>
-      </c>
-      <c r="K161" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="L161" t="inlineStr">
+        <v>138</v>
+      </c>
+      <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6392,26 +5979,21 @@
         <v>48788.40505052001</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>147.9</v>
-      </c>
-      <c r="K162" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="L162" t="inlineStr">
+        <v>138</v>
+      </c>
+      <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6436,26 +6018,21 @@
         <v>48542.40505052001</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>148</v>
-      </c>
-      <c r="K163" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="L163" t="inlineStr">
+        <v>138</v>
+      </c>
+      <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6480,26 +6057,21 @@
         <v>53074.12175052001</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>147.9</v>
-      </c>
-      <c r="K164" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="L164" t="inlineStr">
+        <v>138</v>
+      </c>
+      <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6526,22 +6098,19 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="L165" t="inlineStr">
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>138</v>
+      </c>
+      <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6566,24 +6135,23 @@
         <v>51810.76315052001</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="L166" t="inlineStr">
+        <v>148</v>
+      </c>
+      <c r="J166" t="n">
+        <v>138</v>
+      </c>
+      <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6610,22 +6178,19 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="L167" t="inlineStr">
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>138</v>
+      </c>
+      <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6650,26 +6215,23 @@
         <v>50977.94785052001</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I168" t="n">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="J168" t="n">
-        <v>144</v>
-      </c>
-      <c r="K168" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="L168" t="inlineStr">
+        <v>138</v>
+      </c>
+      <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6694,24 +6256,23 @@
         <v>52660.32285052001</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="L169" t="inlineStr">
+        <v>143</v>
+      </c>
+      <c r="J169" t="n">
+        <v>138</v>
+      </c>
+      <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6736,26 +6297,23 @@
         <v>52929.43055052001</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I170" t="n">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="J170" t="n">
-        <v>144</v>
-      </c>
-      <c r="K170" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="L170" t="inlineStr">
+        <v>138</v>
+      </c>
+      <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6780,24 +6338,23 @@
         <v>51258.16955052001</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="L171" t="inlineStr">
+        <v>148.6</v>
+      </c>
+      <c r="J171" t="n">
+        <v>138</v>
+      </c>
+      <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6822,24 +6379,23 @@
         <v>51253.04745052001</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="L172" t="inlineStr">
+        <v>145.1</v>
+      </c>
+      <c r="J172" t="n">
+        <v>138</v>
+      </c>
+      <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6864,24 +6420,23 @@
         <v>51253.04745052001</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="L173" t="inlineStr">
+        <v>143</v>
+      </c>
+      <c r="J173" t="n">
+        <v>138</v>
+      </c>
+      <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6908,22 +6463,19 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="L174" t="inlineStr">
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>138</v>
+      </c>
+      <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6950,22 +6502,19 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="L175" t="inlineStr">
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>138</v>
+      </c>
+      <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6990,26 +6539,21 @@
         <v>45550.55845052002</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>142</v>
-      </c>
-      <c r="K176" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="L176" t="inlineStr">
+        <v>138</v>
+      </c>
+      <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7034,26 +6578,23 @@
         <v>47019.55985052002</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I177" t="n">
-        <v>0</v>
+        <v>140.8</v>
       </c>
       <c r="J177" t="n">
-        <v>140.8</v>
-      </c>
-      <c r="K177" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="L177" t="inlineStr">
+        <v>138</v>
+      </c>
+      <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7078,26 +6619,23 @@
         <v>43471.21655052002</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I178" t="n">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="J178" t="n">
-        <v>142</v>
-      </c>
-      <c r="K178" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="L178" t="inlineStr">
+        <v>138</v>
+      </c>
+      <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7122,26 +6660,23 @@
         <v>43676.54085052002</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I179" t="n">
-        <v>0</v>
+        <v>141.7</v>
       </c>
       <c r="J179" t="n">
-        <v>141.7</v>
-      </c>
-      <c r="K179" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="L179" t="inlineStr">
+        <v>138</v>
+      </c>
+      <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7166,26 +6701,23 @@
         <v>40228.19755052002</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I180" t="n">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="J180" t="n">
-        <v>143</v>
-      </c>
-      <c r="K180" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="L180" t="inlineStr">
+        <v>138</v>
+      </c>
+      <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7210,26 +6742,23 @@
         <v>40238.19755052002</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I181" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="J181" t="n">
-        <v>139</v>
-      </c>
-      <c r="K181" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="L181" t="inlineStr">
+        <v>138</v>
+      </c>
+      <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7254,26 +6783,23 @@
         <v>40228.19755052002</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I182" t="n">
-        <v>0</v>
+        <v>145.6</v>
       </c>
       <c r="J182" t="n">
-        <v>145.6</v>
-      </c>
-      <c r="K182" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="L182" t="inlineStr">
+        <v>138</v>
+      </c>
+      <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7298,26 +6824,23 @@
         <v>40017.21475052002</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I183" t="n">
-        <v>0</v>
+        <v>144.7</v>
       </c>
       <c r="J183" t="n">
-        <v>144.7</v>
-      </c>
-      <c r="K183" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="L183" t="inlineStr">
+        <v>138</v>
+      </c>
+      <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7342,26 +6865,23 @@
         <v>30619.48865052002</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I184" t="n">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="J184" t="n">
-        <v>141</v>
-      </c>
-      <c r="K184" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="L184" t="inlineStr">
+        <v>138</v>
+      </c>
+      <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7386,26 +6906,23 @@
         <v>30988.37475052002</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I185" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="J185" t="n">
-        <v>140</v>
-      </c>
-      <c r="K185" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="L185" t="inlineStr">
+        <v>138</v>
+      </c>
+      <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7430,26 +6947,21 @@
         <v>30998.37475052002</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>141</v>
-      </c>
-      <c r="K186" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="L186" t="inlineStr">
+        <v>138</v>
+      </c>
+      <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7474,26 +6986,21 @@
         <v>32373.07245052002</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>143</v>
-      </c>
-      <c r="K187" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="L187" t="inlineStr">
+        <v>138</v>
+      </c>
+      <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7518,26 +7025,21 @@
         <v>30998.37475052002</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>143.9</v>
-      </c>
-      <c r="K188" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="L188" t="inlineStr">
+        <v>138</v>
+      </c>
+      <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7562,26 +7064,21 @@
         <v>32671.24875052002</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>142.2</v>
-      </c>
-      <c r="K189" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="L189" t="inlineStr">
+        <v>138</v>
+      </c>
+      <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7608,22 +7105,19 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="L190" t="inlineStr">
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>138</v>
+      </c>
+      <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7650,22 +7144,19 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="L191" t="inlineStr">
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>138</v>
+      </c>
+      <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7692,22 +7183,19 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="L192" t="inlineStr">
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>138</v>
+      </c>
+      <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7734,22 +7222,19 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="L193" t="inlineStr">
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>138</v>
+      </c>
+      <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7776,22 +7261,19 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="L194" t="inlineStr">
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>138</v>
+      </c>
+      <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7818,22 +7300,19 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="L195" t="inlineStr">
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>138</v>
+      </c>
+      <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7860,22 +7339,19 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="L196" t="inlineStr">
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>138</v>
+      </c>
+      <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7902,22 +7378,19 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="L197" t="inlineStr">
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>138</v>
+      </c>
+      <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7944,22 +7417,19 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="L198" t="inlineStr">
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>138</v>
+      </c>
+      <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7986,22 +7456,19 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="L199" t="inlineStr">
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>138</v>
+      </c>
+      <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8028,22 +7495,19 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="L200" t="inlineStr">
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>138</v>
+      </c>
+      <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8070,22 +7534,19 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="L201" t="inlineStr">
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>138</v>
+      </c>
+      <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8110,24 +7571,21 @@
         <v>29070.23083434003</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="L202" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>138</v>
+      </c>
+      <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8152,24 +7610,21 @@
         <v>28098.23083434003</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="L203" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>138</v>
+      </c>
+      <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8194,24 +7649,21 @@
         <v>28098.23083434003</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="L204" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>138</v>
+      </c>
+      <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8236,24 +7688,21 @@
         <v>27263.23083434003</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="L205" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>138</v>
+      </c>
+      <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8278,24 +7727,21 @@
         <v>27268.23083434003</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="L206" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>138</v>
+      </c>
+      <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8320,24 +7766,21 @@
         <v>27268.23083434003</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="L207" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>138</v>
+      </c>
+      <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8362,24 +7805,21 @@
         <v>22024.06813434002</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="L208" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>138</v>
+      </c>
+      <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8404,24 +7844,21 @@
         <v>22035.06813434002</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="L209" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>138</v>
+      </c>
+      <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8446,24 +7883,21 @@
         <v>18847.58213434002</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="L210" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>138</v>
+      </c>
+      <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8488,24 +7922,21 @@
         <v>19066.59853434002</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="L211" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>138</v>
+      </c>
+      <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8530,24 +7961,21 @@
         <v>19066.59853434002</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="L212" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>138</v>
+      </c>
+      <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8572,24 +8000,21 @@
         <v>13783.12623434002</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="L213" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>138</v>
+      </c>
+      <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8614,26 +8039,23 @@
         <v>13783.12623434002</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="L214" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>138</v>
+      </c>
+      <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest ARN.xlsx
+++ b/BackTest/2020-01-16 BackTest ARN.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>37574.12391076001</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>37613.60911076002</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>25850.02141076001</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>25859.89111076001</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>21951.51151076001</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>21759.78651076002</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>16165.70311076002</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>16165.70311076002</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>3270.129510760016</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>3270.129510760016</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-1004.095089239983</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-938.2585892399833</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-946.2585892399833</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-1409.124089239983</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-1409.124089239983</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>339.8207107600167</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-4397.403289239984</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-4397.403289239984</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-8454.369689239984</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-8454.369689239984</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>6355.630310760016</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>6350.630310760016</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>6350.630310760016</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>6345.880310760016</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>15316.95321076002</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>15308.66751076001</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>16049.66751076001</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>16029.66751076001</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>15974.87841076001</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>16156.87841076001</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>11278.10051076001</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>12755.70791076001</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>12749.70791076001</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1542,8 +1542,12 @@
       <c r="H35" t="n">
         <v>1</v>
       </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>142.1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>142.1</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
@@ -1573,11 +1577,17 @@
         <v>12747.70791076001</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>142.1</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1606,11 +1616,17 @@
         <v>23506.03881076002</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>142.1</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1804,7 +1820,7 @@
         <v>39809.18141076002</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1853,7 @@
         <v>39785.18141076002</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1886,7 @@
         <v>39759.18141076002</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1969,7 +1985,7 @@
         <v>39844.18141076002</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2101,7 +2117,7 @@
         <v>39741.73701076002</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2150,7 @@
         <v>39741.73701076002</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2266,7 +2282,7 @@
         <v>40816.97491076002</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -3685,7 +3701,7 @@
         <v>55924.34305052001</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3817,7 +3833,7 @@
         <v>50544.42705052001</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4477,14 +4493,10 @@
         <v>53571.23785052001</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
-      </c>
-      <c r="I124" t="n">
-        <v>136.2</v>
-      </c>
-      <c r="J124" t="n">
-        <v>136.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
@@ -4514,19 +4526,11 @@
         <v>53583.23785052001</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
-      </c>
-      <c r="I125" t="n">
-        <v>136.6</v>
-      </c>
-      <c r="J125" t="n">
-        <v>136.2</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4558,14 +4562,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>136.2</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4726,14 +4724,10 @@
         <v>52577.19965052001</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
-      </c>
-      <c r="I131" t="n">
-        <v>138</v>
-      </c>
-      <c r="J131" t="n">
-        <v>138</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
@@ -4766,14 +4760,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>138</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4805,14 +4793,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>138</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4841,19 +4823,11 @@
         <v>48113.14105052</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
-      </c>
-      <c r="I134" t="n">
-        <v>136.6</v>
-      </c>
-      <c r="J134" t="n">
-        <v>138</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4882,7 +4856,7 @@
         <v>47497.24565052</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>138</v>
@@ -4890,11 +4864,7 @@
       <c r="J135" t="n">
         <v>138</v>
       </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4923,7 +4893,7 @@
         <v>47507.24565052</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>136.6</v>
@@ -4933,7 +4903,7 @@
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L136" t="n">
@@ -4964,7 +4934,7 @@
         <v>47503.55725052</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>140.9</v>
@@ -4974,7 +4944,7 @@
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L137" t="n">
@@ -5005,19 +4975,15 @@
         <v>47503.55725052</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>136.6</v>
       </c>
       <c r="J138" t="n">
-        <v>138</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>136.6</v>
+      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5046,17 +5012,17 @@
         <v>48919.54695052</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>136.6</v>
       </c>
       <c r="J139" t="n">
-        <v>138</v>
+        <v>136.6</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L139" t="n">
@@ -5087,17 +5053,17 @@
         <v>31423.67855052</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>139.9</v>
       </c>
       <c r="J140" t="n">
-        <v>138</v>
+        <v>136.6</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L140" t="n">
@@ -5128,19 +5094,15 @@
         <v>33520.60055052</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>136.9</v>
       </c>
       <c r="J141" t="n">
-        <v>138</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>136.9</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5169,17 +5131,17 @@
         <v>37905.04855052</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>139.5</v>
       </c>
       <c r="J142" t="n">
-        <v>138</v>
+        <v>136.9</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L142" t="n">
@@ -5210,17 +5172,17 @@
         <v>44745.95355052</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>139.9</v>
       </c>
       <c r="J143" t="n">
-        <v>138</v>
+        <v>136.9</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L143" t="n">
@@ -5251,19 +5213,15 @@
         <v>47745.95355052</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>140</v>
       </c>
       <c r="J144" t="n">
-        <v>138</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5292,17 +5250,17 @@
         <v>46139.54815052</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>140.9</v>
       </c>
       <c r="J145" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L145" t="n">
@@ -5333,13 +5291,13 @@
         <v>47345.75285052</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
         <v>140</v>
       </c>
       <c r="J146" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5374,13 +5332,13 @@
         <v>45901.96735052</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
         <v>140.1</v>
       </c>
       <c r="J147" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -5415,13 +5373,13 @@
         <v>44100.88055052001</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
         <v>140</v>
       </c>
       <c r="J148" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -5456,13 +5414,13 @@
         <v>45270.71835052001</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I149" t="n">
         <v>138.1</v>
       </c>
       <c r="J149" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -5497,13 +5455,13 @@
         <v>41155.37805052001</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
         <v>138.2</v>
       </c>
       <c r="J150" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -5538,13 +5496,13 @@
         <v>38155.37805052001</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
         <v>138</v>
       </c>
       <c r="J151" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -5579,13 +5537,13 @@
         <v>38162.37135052001</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
         <v>136.7</v>
       </c>
       <c r="J152" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -5620,13 +5578,13 @@
         <v>37276.80295052002</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
         <v>140.9</v>
       </c>
       <c r="J153" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -5661,13 +5619,13 @@
         <v>37271.63455052002</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I154" t="n">
         <v>140.8</v>
       </c>
       <c r="J154" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -5702,11 +5660,13 @@
         <v>40078.03755052001</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>140.7</v>
+      </c>
       <c r="J155" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -5741,11 +5701,13 @@
         <v>41078.03755052001</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>144</v>
+      </c>
       <c r="J156" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -5780,11 +5742,13 @@
         <v>41078.03755052001</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>145</v>
+      </c>
       <c r="J157" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -5819,13 +5783,13 @@
         <v>40866.03755052001</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I158" t="n">
         <v>145</v>
       </c>
       <c r="J158" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -5860,11 +5824,13 @@
         <v>41112.03755052001</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>143</v>
+      </c>
       <c r="J159" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -5903,7 +5869,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -5938,13 +5904,11 @@
         <v>46736.18715052001</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
-      </c>
-      <c r="I161" t="n">
-        <v>146</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -5983,7 +5947,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6022,7 +5986,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6061,7 +6025,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6100,7 +6064,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6135,13 +6099,11 @@
         <v>51810.76315052001</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
-      </c>
-      <c r="I166" t="n">
-        <v>148</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6180,7 +6142,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6215,13 +6177,11 @@
         <v>50977.94785052001</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
-      </c>
-      <c r="I168" t="n">
-        <v>144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6256,13 +6216,11 @@
         <v>52660.32285052001</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
-      </c>
-      <c r="I169" t="n">
-        <v>143</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6297,13 +6255,11 @@
         <v>52929.43055052001</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
-      </c>
-      <c r="I170" t="n">
-        <v>144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6338,13 +6294,11 @@
         <v>51258.16955052001</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
-      </c>
-      <c r="I171" t="n">
-        <v>148.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6379,13 +6333,11 @@
         <v>51253.04745052001</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
-      </c>
-      <c r="I172" t="n">
-        <v>145.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6420,13 +6372,11 @@
         <v>51253.04745052001</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
-      </c>
-      <c r="I173" t="n">
-        <v>143</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6465,7 +6415,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6504,7 +6454,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -6543,7 +6493,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -6578,13 +6528,13 @@
         <v>47019.55985052002</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I177" t="n">
         <v>140.8</v>
       </c>
       <c r="J177" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -6619,13 +6569,13 @@
         <v>43471.21655052002</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I178" t="n">
         <v>142</v>
       </c>
       <c r="J178" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -6660,13 +6610,13 @@
         <v>43676.54085052002</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I179" t="n">
         <v>141.7</v>
       </c>
       <c r="J179" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -6701,13 +6651,11 @@
         <v>40228.19755052002</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
-      </c>
-      <c r="I180" t="n">
-        <v>143</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -6742,13 +6690,11 @@
         <v>40238.19755052002</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
-      </c>
-      <c r="I181" t="n">
-        <v>139</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -6783,13 +6729,11 @@
         <v>40228.19755052002</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
-      </c>
-      <c r="I182" t="n">
-        <v>145.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -6824,13 +6768,11 @@
         <v>40017.21475052002</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
-      </c>
-      <c r="I183" t="n">
-        <v>144.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -6865,13 +6807,11 @@
         <v>30619.48865052002</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
-      </c>
-      <c r="I184" t="n">
-        <v>141</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -6906,13 +6846,11 @@
         <v>30988.37475052002</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
-      </c>
-      <c r="I185" t="n">
-        <v>140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -6951,7 +6889,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -6990,7 +6928,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -7029,7 +6967,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -7068,7 +7006,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -7107,7 +7045,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7146,7 +7084,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7185,7 +7123,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7224,7 +7162,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7263,7 +7201,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7302,7 +7240,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7341,7 +7279,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -7380,7 +7318,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -7419,7 +7357,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -7458,7 +7396,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -7497,7 +7435,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -7536,7 +7474,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -7571,11 +7509,11 @@
         <v>29070.23083434003</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -7610,11 +7548,11 @@
         <v>28098.23083434003</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -7649,11 +7587,11 @@
         <v>28098.23083434003</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -7688,11 +7626,11 @@
         <v>27263.23083434003</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -7727,11 +7665,11 @@
         <v>27268.23083434003</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -7766,11 +7704,11 @@
         <v>27268.23083434003</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -7805,11 +7743,11 @@
         <v>22024.06813434002</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -7844,11 +7782,11 @@
         <v>22035.06813434002</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -7883,11 +7821,11 @@
         <v>18847.58213434002</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -7922,11 +7860,11 @@
         <v>19066.59853434002</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -7961,11 +7899,11 @@
         <v>19066.59853434002</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -8000,11 +7938,11 @@
         <v>13783.12623434002</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -8039,11 +7977,11 @@
         <v>13783.12623434002</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -8056,6 +7994,6 @@
       <c r="M214" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest ARN.xlsx
+++ b/BackTest/2020-01-16 BackTest ARN.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>37574.12391076001</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>37613.60911076002</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>25850.02141076001</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>25859.89111076001</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>21951.51151076001</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>21759.78651076002</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>16165.70311076002</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>16165.70311076002</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -1507,10 +1507,14 @@
         <v>12749.70791076001</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>151.3</v>
+      </c>
+      <c r="J34" t="n">
+        <v>151.3</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
@@ -1546,9 +1550,13 @@
         <v>142.1</v>
       </c>
       <c r="J35" t="n">
-        <v>142.1</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
+        <v>151.3</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1581,7 +1589,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>142.1</v>
+        <v>151.3</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -1616,50 +1624,56 @@
         <v>23506.03881076002</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>142.1</v>
+      </c>
       <c r="J37" t="n">
         <v>142.1</v>
       </c>
-      <c r="K37" t="inlineStr">
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>143</v>
+      </c>
+      <c r="C38" t="n">
+        <v>152</v>
+      </c>
+      <c r="D38" t="n">
+        <v>152</v>
+      </c>
+      <c r="E38" t="n">
+        <v>143</v>
+      </c>
+      <c r="F38" t="n">
+        <v>16410.861</v>
+      </c>
+      <c r="G38" t="n">
+        <v>39916.89981076002</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>143</v>
+      </c>
+      <c r="J38" t="n">
+        <v>142.1</v>
+      </c>
+      <c r="K38" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>143</v>
-      </c>
-      <c r="C38" t="n">
-        <v>152</v>
-      </c>
-      <c r="D38" t="n">
-        <v>152</v>
-      </c>
-      <c r="E38" t="n">
-        <v>143</v>
-      </c>
-      <c r="F38" t="n">
-        <v>16410.861</v>
-      </c>
-      <c r="G38" t="n">
-        <v>39916.89981076002</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1688,11 +1702,19 @@
         <v>39999.89981076002</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>152</v>
+      </c>
+      <c r="J39" t="n">
+        <v>142.1</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -2909,7 +2931,7 @@
         <v>47387.39185052001</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2942,7 +2964,7 @@
         <v>47377.39185052001</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3074,7 +3096,7 @@
         <v>47397.20165052002</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3107,7 +3129,7 @@
         <v>47389.20165052002</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3140,7 +3162,7 @@
         <v>47392.87165052001</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3173,7 +3195,7 @@
         <v>47392.87165052001</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3767,7 +3789,7 @@
         <v>55916.99615052001</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3800,7 +3822,7 @@
         <v>55916.99615052001</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3833,7 +3855,7 @@
         <v>50544.42705052001</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3866,7 +3888,7 @@
         <v>52471.63795052001</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3932,7 +3954,7 @@
         <v>69568.46095052002</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3965,7 +3987,7 @@
         <v>68846.68975052002</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4064,7 +4086,7 @@
         <v>64714.58175052002</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4856,14 +4878,10 @@
         <v>47497.24565052</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>138</v>
-      </c>
-      <c r="J135" t="n">
-        <v>138</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
@@ -4893,19 +4911,11 @@
         <v>47507.24565052</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>136.6</v>
-      </c>
-      <c r="J136" t="n">
-        <v>138</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4934,19 +4944,11 @@
         <v>47503.55725052</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="J137" t="n">
-        <v>138</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4975,14 +4977,10 @@
         <v>47503.55725052</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>136.6</v>
-      </c>
-      <c r="J138" t="n">
-        <v>136.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
@@ -5012,19 +5010,11 @@
         <v>48919.54695052</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>136.6</v>
-      </c>
-      <c r="J139" t="n">
-        <v>136.6</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5053,19 +5043,11 @@
         <v>31423.67855052</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>139.9</v>
-      </c>
-      <c r="J140" t="n">
-        <v>136.6</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5094,14 +5076,10 @@
         <v>33520.60055052</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>136.9</v>
-      </c>
-      <c r="J141" t="n">
-        <v>136.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
@@ -5131,19 +5109,11 @@
         <v>37905.04855052</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="J142" t="n">
-        <v>136.9</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5172,19 +5142,11 @@
         <v>44745.95355052</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>139.9</v>
-      </c>
-      <c r="J143" t="n">
-        <v>136.9</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5213,14 +5175,10 @@
         <v>47745.95355052</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>140</v>
-      </c>
-      <c r="J144" t="n">
-        <v>140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
@@ -5250,19 +5208,11 @@
         <v>46139.54815052</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="J145" t="n">
-        <v>140</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5291,19 +5241,11 @@
         <v>47345.75285052</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>140</v>
-      </c>
-      <c r="J146" t="n">
-        <v>140</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5332,19 +5274,11 @@
         <v>45901.96735052</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>140.1</v>
-      </c>
-      <c r="J147" t="n">
-        <v>140</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5373,19 +5307,11 @@
         <v>44100.88055052001</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>140</v>
-      </c>
-      <c r="J148" t="n">
-        <v>140</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5414,19 +5340,11 @@
         <v>45270.71835052001</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>138.1</v>
-      </c>
-      <c r="J149" t="n">
-        <v>140</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5455,19 +5373,11 @@
         <v>41155.37805052001</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>138.2</v>
-      </c>
-      <c r="J150" t="n">
-        <v>140</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5496,19 +5406,11 @@
         <v>38155.37805052001</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>138</v>
-      </c>
-      <c r="J151" t="n">
-        <v>140</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5537,19 +5439,11 @@
         <v>38162.37135052001</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>136.7</v>
-      </c>
-      <c r="J152" t="n">
-        <v>140</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5578,19 +5472,11 @@
         <v>37276.80295052002</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="J153" t="n">
-        <v>140</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5619,19 +5505,11 @@
         <v>37271.63455052002</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>140.8</v>
-      </c>
-      <c r="J154" t="n">
-        <v>140</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5660,19 +5538,11 @@
         <v>40078.03755052001</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>140.7</v>
-      </c>
-      <c r="J155" t="n">
-        <v>140</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5701,19 +5571,11 @@
         <v>41078.03755052001</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>144</v>
-      </c>
-      <c r="J156" t="n">
-        <v>140</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5742,19 +5604,11 @@
         <v>41078.03755052001</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>145</v>
-      </c>
-      <c r="J157" t="n">
-        <v>140</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5783,19 +5637,11 @@
         <v>40866.03755052001</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>145</v>
-      </c>
-      <c r="J158" t="n">
-        <v>140</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5824,19 +5670,11 @@
         <v>41112.03755052001</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>143</v>
-      </c>
-      <c r="J159" t="n">
-        <v>140</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5868,14 +5706,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>140</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5907,14 +5739,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>140</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5946,14 +5772,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>140</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5982,17 +5802,11 @@
         <v>48542.40505052001</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>140</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6021,17 +5835,11 @@
         <v>53074.12175052001</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>140</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6060,17 +5868,11 @@
         <v>53074.12175052001</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>140</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6099,17 +5901,11 @@
         <v>51810.76315052001</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>140</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6138,17 +5934,11 @@
         <v>50990.76315052001</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>140</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6177,17 +5967,11 @@
         <v>50977.94785052001</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>140</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6216,17 +6000,11 @@
         <v>52660.32285052001</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>140</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6255,17 +6033,11 @@
         <v>52929.43055052001</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>140</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6294,17 +6066,11 @@
         <v>51258.16955052001</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>140</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6333,17 +6099,11 @@
         <v>51253.04745052001</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>140</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6375,14 +6135,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>140</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6414,14 +6168,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>140</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6453,14 +6201,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>140</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6492,14 +6234,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>140</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6528,19 +6264,11 @@
         <v>47019.55985052002</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>140.8</v>
-      </c>
-      <c r="J177" t="n">
-        <v>140</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6569,19 +6297,11 @@
         <v>43471.21655052002</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>142</v>
-      </c>
-      <c r="J178" t="n">
-        <v>140</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6610,19 +6330,11 @@
         <v>43676.54085052002</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>141.7</v>
-      </c>
-      <c r="J179" t="n">
-        <v>140</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6654,14 +6366,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>140</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6693,14 +6399,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>140</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6732,14 +6432,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>140</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6768,17 +6462,11 @@
         <v>40017.21475052002</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>140</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6810,14 +6498,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>140</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6849,14 +6531,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>140</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6888,14 +6564,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>140</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6927,14 +6597,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>140</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6966,14 +6630,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>140</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7005,14 +6663,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>140</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7041,17 +6693,11 @@
         <v>32681.24875052002</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>140</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7080,17 +6726,11 @@
         <v>32673.24875052002</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>140</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7119,17 +6759,11 @@
         <v>34052.52575052002</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>140</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7158,17 +6792,11 @@
         <v>23326.40313434002</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>140</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7197,17 +6825,11 @@
         <v>23326.40313434002</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>140</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7236,17 +6858,11 @@
         <v>26025.03613434002</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>140</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7275,17 +6891,11 @@
         <v>15866.29453434002</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>140</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7317,14 +6927,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>140</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7356,14 +6960,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>140</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7392,17 +6990,11 @@
         <v>24074.06813434002</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>140</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7431,17 +7023,11 @@
         <v>29302.23083434003</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>140</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7470,17 +7056,11 @@
         <v>29075.23083434003</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>140</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7509,17 +7089,11 @@
         <v>29070.23083434003</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>140</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7548,17 +7122,11 @@
         <v>28098.23083434003</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>140</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7587,17 +7155,11 @@
         <v>28098.23083434003</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>140</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7626,17 +7188,11 @@
         <v>27263.23083434003</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>140</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7665,17 +7221,11 @@
         <v>27268.23083434003</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>140</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7704,17 +7254,11 @@
         <v>27268.23083434003</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>140</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7743,17 +7287,11 @@
         <v>22024.06813434002</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>140</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7782,17 +7320,11 @@
         <v>22035.06813434002</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>140</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7824,14 +7356,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>140</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7863,14 +7389,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>140</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7902,14 +7422,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>140</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7941,14 +7455,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>140</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7980,20 +7488,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>140</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
       <c r="M214" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest ARN.xlsx
+++ b/BackTest/2020-01-16 BackTest ARN.xlsx
@@ -451,7 +451,7 @@
         <v>37574.12391076001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>37613.60911076002</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>25850.02141076001</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>25859.89111076001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>21951.51151076001</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>21759.78651076002</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>16165.70311076002</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>16165.70311076002</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>3270.129510760016</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>3270.129510760016</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-1004.095089239983</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-938.2585892399833</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-946.2585892399833</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-1409.124089239983</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-1409.124089239983</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>339.8207107600167</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-4397.403289239984</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-4397.403289239984</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-8454.369689239984</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-8454.369689239984</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>6355.630310760016</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,10 +1144,14 @@
         <v>6350.630310760016</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>151.1</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
@@ -1177,11 +1181,19 @@
         <v>6350.630310760016</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>150</v>
+      </c>
+      <c r="J24" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,11 +1222,19 @@
         <v>6345.880310760016</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>150</v>
+      </c>
+      <c r="J25" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1263,19 @@
         <v>15316.95321076002</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>145.1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1304,19 @@
         <v>15308.66751076001</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>154.9</v>
+      </c>
+      <c r="J27" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1309,11 +1345,17 @@
         <v>16049.66751076001</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1384,19 @@
         <v>16029.66751076001</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>154</v>
+      </c>
+      <c r="J29" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1425,19 @@
         <v>15974.87841076001</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>150.9</v>
+      </c>
+      <c r="J30" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1466,19 @@
         <v>16156.87841076001</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>146</v>
+      </c>
+      <c r="J31" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1507,19 @@
         <v>11278.10051076001</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>148.2</v>
+      </c>
+      <c r="J32" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1548,19 @@
         <v>12755.70791076001</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>145</v>
+      </c>
+      <c r="J33" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1513,9 +1595,13 @@
         <v>151.3</v>
       </c>
       <c r="J34" t="n">
-        <v>151.3</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
+        <v>151.1</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1550,11 +1636,11 @@
         <v>142.1</v>
       </c>
       <c r="J35" t="n">
-        <v>151.3</v>
+        <v>151.1</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L35" t="n">
@@ -1585,15 +1671,17 @@
         <v>12747.70791076001</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>150.8</v>
+      </c>
       <c r="J36" t="n">
-        <v>151.3</v>
+        <v>151.1</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L36" t="n">
@@ -1630,9 +1718,13 @@
         <v>142.1</v>
       </c>
       <c r="J37" t="n">
-        <v>142.1</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
+        <v>151.1</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1667,11 +1759,11 @@
         <v>143</v>
       </c>
       <c r="J38" t="n">
-        <v>142.1</v>
+        <v>151.1</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L38" t="n">
@@ -1708,11 +1800,11 @@
         <v>152</v>
       </c>
       <c r="J39" t="n">
-        <v>142.1</v>
+        <v>151.1</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L39" t="n">
@@ -1743,11 +1835,19 @@
         <v>40003.89981076002</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>152.9</v>
+      </c>
+      <c r="J40" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1776,11 +1876,19 @@
         <v>39845.59421076002</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>153</v>
+      </c>
+      <c r="J41" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1809,11 +1917,19 @@
         <v>40032.59421076002</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>152</v>
+      </c>
+      <c r="J42" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1842,11 +1958,19 @@
         <v>39809.18141076002</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>152.9</v>
+      </c>
+      <c r="J43" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1875,11 +1999,19 @@
         <v>39785.18141076002</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>152.7</v>
+      </c>
+      <c r="J44" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1908,11 +2040,19 @@
         <v>39759.18141076002</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>152.3</v>
+      </c>
+      <c r="J45" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1941,11 +2081,19 @@
         <v>39755.18141076002</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>150</v>
+      </c>
+      <c r="J46" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1974,11 +2122,19 @@
         <v>39864.18141076002</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>149.9</v>
+      </c>
+      <c r="J47" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2007,11 +2163,19 @@
         <v>39844.18141076002</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="J48" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2040,11 +2204,19 @@
         <v>39839.18141076002</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>150.2</v>
+      </c>
+      <c r="J49" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2073,11 +2245,19 @@
         <v>39719.73701076002</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>150.1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2106,11 +2286,19 @@
         <v>39745.73701076002</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>144</v>
+      </c>
+      <c r="J51" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2142,8 +2330,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2172,13 +2366,19 @@
         <v>39741.73701076002</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L53" t="n">
-        <v>1</v>
+        <v>0.9983090668431501</v>
       </c>
       <c r="M53" t="inlineStr"/>
     </row>
@@ -2205,10 +2405,14 @@
         <v>39741.73701076002</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="J54" t="n">
+        <v>151.6</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
@@ -2241,8 +2445,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2274,8 +2484,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2307,8 +2523,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2340,8 +2562,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2373,8 +2601,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2406,8 +2640,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2439,8 +2679,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2472,8 +2718,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2505,8 +2757,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2538,8 +2796,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2571,8 +2835,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2604,8 +2874,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2637,8 +2913,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2670,8 +2952,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2703,8 +2991,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2736,8 +3030,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2769,8 +3069,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2802,8 +3108,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2835,8 +3147,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2868,8 +3186,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2901,8 +3225,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2931,11 +3261,17 @@
         <v>47387.39185052001</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2964,11 +3300,17 @@
         <v>47377.39185052001</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3000,8 +3342,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3033,8 +3381,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3066,8 +3420,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3096,11 +3456,17 @@
         <v>47397.20165052002</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3129,11 +3495,17 @@
         <v>47389.20165052002</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3162,11 +3534,17 @@
         <v>47392.87165052001</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3195,11 +3573,17 @@
         <v>47392.87165052001</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3231,8 +3615,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3264,8 +3654,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3297,8 +3693,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3330,8 +3732,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3363,8 +3771,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3396,8 +3810,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3429,8 +3849,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3462,8 +3888,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3495,8 +3927,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3528,8 +3966,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3561,8 +4005,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3594,8 +4044,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3627,8 +4083,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3660,8 +4122,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3693,8 +4161,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3726,8 +4200,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3759,8 +4239,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3789,11 +4275,17 @@
         <v>55916.99615052001</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3822,11 +4314,17 @@
         <v>55916.99615052001</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3855,11 +4353,17 @@
         <v>50544.42705052001</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3888,11 +4392,17 @@
         <v>52471.63795052001</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3924,8 +4434,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3954,11 +4470,17 @@
         <v>69568.46095052002</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3987,11 +4509,17 @@
         <v>68846.68975052002</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4023,8 +4551,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4056,8 +4590,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4086,11 +4626,17 @@
         <v>64714.58175052002</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4122,8 +4668,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4155,8 +4707,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4188,8 +4746,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4221,8 +4785,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4254,8 +4824,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4287,8 +4863,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4320,8 +4902,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4353,8 +4941,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4386,8 +4980,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4419,8 +5019,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4452,8 +5058,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4485,8 +5097,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4518,8 +5136,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4551,8 +5175,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4584,8 +5214,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4617,8 +5253,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4650,8 +5292,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4683,8 +5331,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4716,8 +5370,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4749,8 +5409,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4782,8 +5448,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4815,8 +5487,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4848,8 +5526,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4881,8 +5565,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4914,8 +5604,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4947,8 +5643,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4980,8 +5682,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5013,8 +5721,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5046,8 +5760,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5079,8 +5799,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5112,8 +5838,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5145,8 +5877,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5178,8 +5916,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5211,8 +5955,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5244,8 +5994,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5277,8 +6033,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5310,8 +6072,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5343,8 +6111,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5376,8 +6150,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5406,11 +6186,19 @@
         <v>38155.37805052001</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>138</v>
+      </c>
+      <c r="J151" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5439,11 +6227,19 @@
         <v>38162.37135052001</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>136.7</v>
+      </c>
+      <c r="J152" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5472,11 +6268,19 @@
         <v>37276.80295052002</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="J153" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5508,8 +6312,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5538,11 +6348,19 @@
         <v>40078.03755052001</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="J155" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5574,8 +6392,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5604,11 +6428,19 @@
         <v>41078.03755052001</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>145</v>
+      </c>
+      <c r="J157" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5637,11 +6469,19 @@
         <v>40866.03755052001</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>145</v>
+      </c>
+      <c r="J158" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5670,11 +6510,19 @@
         <v>41112.03755052001</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>143</v>
+      </c>
+      <c r="J159" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5703,11 +6551,19 @@
         <v>41112.03755052001</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>146</v>
+      </c>
+      <c r="J160" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5736,11 +6592,19 @@
         <v>46736.18715052001</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>146</v>
+      </c>
+      <c r="J161" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5769,11 +6633,19 @@
         <v>48788.40505052001</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>147.9</v>
+      </c>
+      <c r="J162" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5802,11 +6674,19 @@
         <v>48542.40505052001</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>148</v>
+      </c>
+      <c r="J163" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5835,11 +6715,19 @@
         <v>53074.12175052001</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>147.9</v>
+      </c>
+      <c r="J164" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5868,11 +6756,19 @@
         <v>53074.12175052001</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>148</v>
+      </c>
+      <c r="J165" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5901,11 +6797,19 @@
         <v>51810.76315052001</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>148</v>
+      </c>
+      <c r="J166" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5934,11 +6838,19 @@
         <v>50990.76315052001</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>147.9</v>
+      </c>
+      <c r="J167" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5967,11 +6879,19 @@
         <v>50977.94785052001</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>144</v>
+      </c>
+      <c r="J168" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6000,11 +6920,19 @@
         <v>52660.32285052001</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>143</v>
+      </c>
+      <c r="J169" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6033,11 +6961,19 @@
         <v>52929.43055052001</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>144</v>
+      </c>
+      <c r="J170" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6066,11 +7002,19 @@
         <v>51258.16955052001</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>148.6</v>
+      </c>
+      <c r="J171" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6099,11 +7043,19 @@
         <v>51253.04745052001</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>145.1</v>
+      </c>
+      <c r="J172" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6132,11 +7084,19 @@
         <v>51253.04745052001</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>143</v>
+      </c>
+      <c r="J173" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6165,11 +7125,19 @@
         <v>49663.15275052001</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>143</v>
+      </c>
+      <c r="J174" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6198,11 +7166,19 @@
         <v>49663.15275052001</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>142</v>
+      </c>
+      <c r="J175" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6231,11 +7207,19 @@
         <v>45550.55845052002</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>142</v>
+      </c>
+      <c r="J176" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6264,11 +7248,19 @@
         <v>47019.55985052002</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>140.8</v>
+      </c>
+      <c r="J177" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6297,11 +7289,19 @@
         <v>43471.21655052002</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>142</v>
+      </c>
+      <c r="J178" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6330,11 +7330,19 @@
         <v>43676.54085052002</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>141.7</v>
+      </c>
+      <c r="J179" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6363,11 +7371,19 @@
         <v>40228.19755052002</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>143</v>
+      </c>
+      <c r="J180" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6396,11 +7412,19 @@
         <v>40238.19755052002</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>139</v>
+      </c>
+      <c r="J181" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6429,11 +7453,19 @@
         <v>40228.19755052002</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>145.6</v>
+      </c>
+      <c r="J182" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6462,11 +7494,19 @@
         <v>40017.21475052002</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>144.7</v>
+      </c>
+      <c r="J183" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6495,11 +7535,19 @@
         <v>30619.48865052002</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>141</v>
+      </c>
+      <c r="J184" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6528,11 +7576,19 @@
         <v>30988.37475052002</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>140</v>
+      </c>
+      <c r="J185" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6561,11 +7617,19 @@
         <v>30998.37475052002</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>141</v>
+      </c>
+      <c r="J186" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6594,11 +7658,19 @@
         <v>32373.07245052002</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>143</v>
+      </c>
+      <c r="J187" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6630,8 +7702,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6660,11 +7738,19 @@
         <v>32671.24875052002</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>142.2</v>
+      </c>
+      <c r="J189" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6693,11 +7779,17 @@
         <v>32681.24875052002</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6726,11 +7818,17 @@
         <v>32673.24875052002</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6759,11 +7857,17 @@
         <v>34052.52575052002</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6792,11 +7896,17 @@
         <v>23326.40313434002</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6825,11 +7935,17 @@
         <v>23326.40313434002</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6858,11 +7974,19 @@
         <v>26025.03613434002</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>144</v>
+      </c>
+      <c r="J195" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6891,11 +8015,19 @@
         <v>15866.29453434002</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>149</v>
+      </c>
+      <c r="J196" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6924,11 +8056,19 @@
         <v>15872.29453434002</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>142.2</v>
+      </c>
+      <c r="J197" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6960,8 +8100,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6990,11 +8136,17 @@
         <v>24074.06813434002</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7023,11 +8175,17 @@
         <v>29302.23083434003</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7056,11 +8214,17 @@
         <v>29075.23083434003</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7089,11 +8253,17 @@
         <v>29070.23083434003</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7122,11 +8292,17 @@
         <v>28098.23083434003</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7155,11 +8331,17 @@
         <v>28098.23083434003</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7188,11 +8370,17 @@
         <v>27263.23083434003</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7221,11 +8409,17 @@
         <v>27268.23083434003</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7254,11 +8448,17 @@
         <v>27268.23083434003</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7287,11 +8487,17 @@
         <v>22024.06813434002</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7320,11 +8526,17 @@
         <v>22035.06813434002</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7356,8 +8568,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7389,8 +8607,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7419,11 +8643,19 @@
         <v>19066.59853434002</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>144</v>
+      </c>
+      <c r="J212" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7452,11 +8684,19 @@
         <v>13783.12623434002</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>144</v>
+      </c>
+      <c r="J213" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7485,11 +8725,19 @@
         <v>13783.12623434002</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>142.2</v>
+      </c>
+      <c r="J214" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-16 BackTest ARN.xlsx
+++ b/BackTest/2020-01-16 BackTest ARN.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M214"/>
+  <dimension ref="A1:L214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>42.4883</v>
       </c>
       <c r="G2" t="n">
-        <v>37574.12391076001</v>
-      </c>
-      <c r="H2" t="n">
         <v>2</v>
       </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>39.4852</v>
       </c>
       <c r="G3" t="n">
-        <v>37613.60911076002</v>
-      </c>
-      <c r="H3" t="n">
         <v>2</v>
       </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>11763.5877</v>
       </c>
       <c r="G4" t="n">
-        <v>25850.02141076001</v>
-      </c>
-      <c r="H4" t="n">
         <v>2</v>
       </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>9.8697</v>
       </c>
       <c r="G5" t="n">
-        <v>25859.89111076001</v>
-      </c>
-      <c r="H5" t="n">
         <v>2</v>
       </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>3908.3796</v>
       </c>
       <c r="G6" t="n">
-        <v>21951.51151076001</v>
-      </c>
-      <c r="H6" t="n">
         <v>2</v>
       </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>191.725</v>
       </c>
       <c r="G7" t="n">
-        <v>21759.78651076002</v>
-      </c>
-      <c r="H7" t="n">
         <v>2</v>
       </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>5594.0834</v>
       </c>
       <c r="G8" t="n">
-        <v>16165.70311076002</v>
-      </c>
-      <c r="H8" t="n">
         <v>2</v>
       </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>545.1528</v>
       </c>
       <c r="G9" t="n">
-        <v>16165.70311076002</v>
-      </c>
-      <c r="H9" t="n">
         <v>2</v>
       </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>12895.5736</v>
       </c>
       <c r="G10" t="n">
-        <v>3270.129510760016</v>
-      </c>
-      <c r="H10" t="n">
         <v>2</v>
       </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>4383.0002</v>
       </c>
       <c r="G11" t="n">
-        <v>3270.129510760016</v>
-      </c>
-      <c r="H11" t="n">
         <v>2</v>
       </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>4274.2246</v>
       </c>
       <c r="G12" t="n">
-        <v>-1004.095089239983</v>
-      </c>
-      <c r="H12" t="n">
         <v>2</v>
       </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>65.8365</v>
       </c>
       <c r="G13" t="n">
-        <v>-938.2585892399833</v>
-      </c>
-      <c r="H13" t="n">
         <v>2</v>
       </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>8</v>
       </c>
       <c r="G14" t="n">
-        <v>-946.2585892399833</v>
-      </c>
-      <c r="H14" t="n">
         <v>2</v>
       </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>462.8655</v>
       </c>
       <c r="G15" t="n">
-        <v>-1409.124089239983</v>
-      </c>
-      <c r="H15" t="n">
         <v>2</v>
       </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>7498.4184</v>
       </c>
       <c r="G16" t="n">
-        <v>-1409.124089239983</v>
-      </c>
-      <c r="H16" t="n">
         <v>2</v>
       </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>1748.9448</v>
       </c>
       <c r="G17" t="n">
-        <v>339.8207107600167</v>
-      </c>
-      <c r="H17" t="n">
         <v>2</v>
       </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>4737.224</v>
       </c>
       <c r="G18" t="n">
-        <v>-4397.403289239984</v>
-      </c>
-      <c r="H18" t="n">
         <v>2</v>
       </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>130.1953</v>
       </c>
       <c r="G19" t="n">
-        <v>-4397.403289239984</v>
-      </c>
-      <c r="H19" t="n">
         <v>2</v>
       </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>4056.9664</v>
       </c>
       <c r="G20" t="n">
-        <v>-8454.369689239984</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>5441.319</v>
       </c>
       <c r="G21" t="n">
-        <v>-8454.369689239984</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>14810</v>
       </c>
       <c r="G22" t="n">
-        <v>6355.630310760016</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,22 +1073,15 @@
         <v>5</v>
       </c>
       <c r="G23" t="n">
-        <v>6350.630310760016</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>151.1</v>
-      </c>
-      <c r="J23" t="n">
-        <v>151.1</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1178,26 +1103,15 @@
         <v>3261.3075</v>
       </c>
       <c r="G24" t="n">
-        <v>6350.630310760016</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>150</v>
-      </c>
-      <c r="J24" t="n">
-        <v>151.1</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1219,26 +1133,15 @@
         <v>4.75</v>
       </c>
       <c r="G25" t="n">
-        <v>6345.880310760016</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>150</v>
-      </c>
-      <c r="J25" t="n">
-        <v>151.1</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1260,26 +1163,15 @@
         <v>8971.072899999999</v>
       </c>
       <c r="G26" t="n">
-        <v>15316.95321076002</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>145.1</v>
-      </c>
-      <c r="J26" t="n">
-        <v>151.1</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1301,26 +1193,15 @@
         <v>8.2857</v>
       </c>
       <c r="G27" t="n">
-        <v>15308.66751076001</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>154.9</v>
-      </c>
-      <c r="J27" t="n">
-        <v>151.1</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1342,24 +1223,15 @@
         <v>741</v>
       </c>
       <c r="G28" t="n">
-        <v>16049.66751076001</v>
-      </c>
-      <c r="H28" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>151.1</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1381,26 +1253,15 @@
         <v>20</v>
       </c>
       <c r="G29" t="n">
-        <v>16029.66751076001</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>154</v>
-      </c>
-      <c r="J29" t="n">
-        <v>151.1</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1422,26 +1283,15 @@
         <v>54.7891</v>
       </c>
       <c r="G30" t="n">
-        <v>15974.87841076001</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>150.9</v>
-      </c>
-      <c r="J30" t="n">
-        <v>151.1</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1463,26 +1313,15 @@
         <v>182</v>
       </c>
       <c r="G31" t="n">
-        <v>16156.87841076001</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>146</v>
-      </c>
-      <c r="J31" t="n">
-        <v>151.1</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1504,26 +1343,15 @@
         <v>4878.7779</v>
       </c>
       <c r="G32" t="n">
-        <v>11278.10051076001</v>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>148.2</v>
-      </c>
-      <c r="J32" t="n">
-        <v>151.1</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1545,26 +1373,15 @@
         <v>1477.6074</v>
       </c>
       <c r="G33" t="n">
-        <v>12755.70791076001</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>145</v>
-      </c>
-      <c r="J33" t="n">
-        <v>151.1</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1586,26 +1403,15 @@
         <v>6</v>
       </c>
       <c r="G34" t="n">
-        <v>12749.70791076001</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>151.3</v>
-      </c>
-      <c r="J34" t="n">
-        <v>151.1</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1627,26 +1433,15 @@
         <v>4</v>
       </c>
       <c r="G35" t="n">
-        <v>12753.70791076001</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>142.1</v>
-      </c>
-      <c r="J35" t="n">
-        <v>151.1</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1668,26 +1463,15 @@
         <v>6</v>
       </c>
       <c r="G36" t="n">
-        <v>12747.70791076001</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>150.8</v>
-      </c>
-      <c r="J36" t="n">
-        <v>151.1</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1709,26 +1493,15 @@
         <v>10758.3309</v>
       </c>
       <c r="G37" t="n">
-        <v>23506.03881076002</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>142.1</v>
-      </c>
-      <c r="J37" t="n">
-        <v>151.1</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1750,26 +1523,15 @@
         <v>16410.861</v>
       </c>
       <c r="G38" t="n">
-        <v>39916.89981076002</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>143</v>
-      </c>
-      <c r="J38" t="n">
-        <v>151.1</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1791,26 +1553,15 @@
         <v>83</v>
       </c>
       <c r="G39" t="n">
-        <v>39999.89981076002</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>152</v>
-      </c>
-      <c r="J39" t="n">
-        <v>151.1</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1832,26 +1583,15 @@
         <v>4</v>
       </c>
       <c r="G40" t="n">
-        <v>40003.89981076002</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>152.9</v>
-      </c>
-      <c r="J40" t="n">
-        <v>151.1</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1873,26 +1613,15 @@
         <v>158.3056</v>
       </c>
       <c r="G41" t="n">
-        <v>39845.59421076002</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>153</v>
-      </c>
-      <c r="J41" t="n">
-        <v>151.1</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1914,26 +1643,15 @@
         <v>187</v>
       </c>
       <c r="G42" t="n">
-        <v>40032.59421076002</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>152</v>
-      </c>
-      <c r="J42" t="n">
-        <v>151.1</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1955,26 +1673,15 @@
         <v>223.4128</v>
       </c>
       <c r="G43" t="n">
-        <v>39809.18141076002</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>152.9</v>
-      </c>
-      <c r="J43" t="n">
-        <v>151.1</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1996,26 +1703,15 @@
         <v>24</v>
       </c>
       <c r="G44" t="n">
-        <v>39785.18141076002</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>152.7</v>
-      </c>
-      <c r="J44" t="n">
-        <v>151.1</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2037,26 +1733,15 @@
         <v>26</v>
       </c>
       <c r="G45" t="n">
-        <v>39759.18141076002</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>152.3</v>
-      </c>
-      <c r="J45" t="n">
-        <v>151.1</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2078,26 +1763,15 @@
         <v>4</v>
       </c>
       <c r="G46" t="n">
-        <v>39755.18141076002</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>150</v>
-      </c>
-      <c r="J46" t="n">
-        <v>151.1</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2119,26 +1793,15 @@
         <v>109</v>
       </c>
       <c r="G47" t="n">
-        <v>39864.18141076002</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>149.9</v>
-      </c>
-      <c r="J47" t="n">
-        <v>151.1</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2160,26 +1823,15 @@
         <v>20</v>
       </c>
       <c r="G48" t="n">
-        <v>39844.18141076002</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="J48" t="n">
-        <v>151.1</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2201,26 +1853,15 @@
         <v>5</v>
       </c>
       <c r="G49" t="n">
-        <v>39839.18141076002</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>150.2</v>
-      </c>
-      <c r="J49" t="n">
-        <v>151.1</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2242,26 +1883,15 @@
         <v>119.4444</v>
       </c>
       <c r="G50" t="n">
-        <v>39719.73701076002</v>
-      </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>150.1</v>
-      </c>
-      <c r="J50" t="n">
-        <v>151.1</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2283,26 +1913,15 @@
         <v>26</v>
       </c>
       <c r="G51" t="n">
-        <v>39745.73701076002</v>
-      </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>144</v>
-      </c>
-      <c r="J51" t="n">
-        <v>151.1</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2324,24 +1943,15 @@
         <v>4</v>
       </c>
       <c r="G52" t="n">
-        <v>39741.73701076002</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>151.1</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2363,24 +1973,15 @@
         <v>12</v>
       </c>
       <c r="G53" t="n">
-        <v>39741.73701076002</v>
-      </c>
-      <c r="H53" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>151.1</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>0.9983090668431501</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2402,22 +2003,15 @@
         <v>5</v>
       </c>
       <c r="G54" t="n">
-        <v>39741.73701076002</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="J54" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2439,24 +2033,15 @@
         <v>10468.5481</v>
       </c>
       <c r="G55" t="n">
-        <v>29273.18891076002</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2478,24 +2063,15 @@
         <v>11539.7764</v>
       </c>
       <c r="G56" t="n">
-        <v>40812.96531076002</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2517,24 +2093,15 @@
         <v>4.0096</v>
       </c>
       <c r="G57" t="n">
-        <v>40816.97491076002</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2556,24 +2123,15 @@
         <v>3.9998</v>
       </c>
       <c r="G58" t="n">
-        <v>40820.97471076002</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2595,24 +2153,15 @@
         <v>12</v>
       </c>
       <c r="G59" t="n">
-        <v>40820.97471076002</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2634,24 +2183,15 @@
         <v>17</v>
       </c>
       <c r="G60" t="n">
-        <v>40837.97471076002</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2673,24 +2213,15 @@
         <v>13</v>
       </c>
       <c r="G61" t="n">
-        <v>40824.97471076002</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2712,24 +2243,15 @@
         <v>15</v>
       </c>
       <c r="G62" t="n">
-        <v>40839.97471076002</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2751,24 +2273,15 @@
         <v>11</v>
       </c>
       <c r="G63" t="n">
-        <v>40839.97471076002</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2790,24 +2303,15 @@
         <v>336</v>
       </c>
       <c r="G64" t="n">
-        <v>40839.97471076002</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2829,24 +2333,15 @@
         <v>700</v>
       </c>
       <c r="G65" t="n">
-        <v>41539.97471076002</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2868,24 +2363,15 @@
         <v>727</v>
       </c>
       <c r="G66" t="n">
-        <v>42266.97471076002</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2907,24 +2393,15 @@
         <v>20966.0828</v>
       </c>
       <c r="G67" t="n">
-        <v>42266.97471076002</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2946,24 +2423,15 @@
         <v>5790.0684</v>
       </c>
       <c r="G68" t="n">
-        <v>42266.97471076002</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2985,24 +2453,15 @@
         <v>237.9128</v>
       </c>
       <c r="G69" t="n">
-        <v>42029.06191076002</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3024,24 +2483,15 @@
         <v>15.9908</v>
       </c>
       <c r="G70" t="n">
-        <v>42045.05271076002</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3063,24 +2513,15 @@
         <v>3.9889</v>
       </c>
       <c r="G71" t="n">
-        <v>42049.04161076002</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3102,24 +2543,15 @@
         <v>14</v>
       </c>
       <c r="G72" t="n">
-        <v>42035.04161076002</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3141,24 +2573,15 @@
         <v>5372.56903976</v>
       </c>
       <c r="G73" t="n">
-        <v>47407.61065052002</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3180,24 +2603,15 @@
         <v>8.1096</v>
       </c>
       <c r="G74" t="n">
-        <v>47399.50105052001</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3219,24 +2633,15 @@
         <v>16</v>
       </c>
       <c r="G75" t="n">
-        <v>47383.50105052001</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3258,24 +2663,15 @@
         <v>3.8908</v>
       </c>
       <c r="G76" t="n">
-        <v>47387.39185052001</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3297,24 +2693,15 @@
         <v>10</v>
       </c>
       <c r="G77" t="n">
-        <v>47377.39185052001</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3336,24 +2723,15 @@
         <v>16</v>
       </c>
       <c r="G78" t="n">
-        <v>47393.39185052001</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3375,24 +2753,15 @@
         <v>3.8098</v>
       </c>
       <c r="G79" t="n">
-        <v>47397.20165052002</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3414,24 +2783,15 @@
         <v>20.0012</v>
       </c>
       <c r="G80" t="n">
-        <v>47397.20165052002</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3453,24 +2813,15 @@
         <v>3.2991</v>
       </c>
       <c r="G81" t="n">
-        <v>47397.20165052002</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3492,24 +2843,15 @@
         <v>8</v>
       </c>
       <c r="G82" t="n">
-        <v>47389.20165052002</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3531,24 +2873,15 @@
         <v>3.67</v>
       </c>
       <c r="G83" t="n">
-        <v>47392.87165052001</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3570,24 +2903,15 @@
         <v>15.9999</v>
       </c>
       <c r="G84" t="n">
-        <v>47392.87165052001</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3609,24 +2933,15 @@
         <v>1581.9718</v>
       </c>
       <c r="G85" t="n">
-        <v>45810.89985052001</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3648,24 +2963,15 @@
         <v>3.6809</v>
       </c>
       <c r="G86" t="n">
-        <v>45814.58075052001</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3687,24 +2993,15 @@
         <v>233</v>
       </c>
       <c r="G87" t="n">
-        <v>45581.58075052001</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3726,24 +3023,15 @@
         <v>27.9089</v>
       </c>
       <c r="G88" t="n">
-        <v>45609.48965052002</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3765,24 +3053,15 @@
         <v>2010.5098</v>
       </c>
       <c r="G89" t="n">
-        <v>43598.97985052002</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3804,24 +3083,15 @@
         <v>18</v>
       </c>
       <c r="G90" t="n">
-        <v>43616.97985052002</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3843,24 +3113,15 @@
         <v>21.6544</v>
       </c>
       <c r="G91" t="n">
-        <v>43595.32545052002</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3882,24 +3143,15 @@
         <v>3.5669</v>
       </c>
       <c r="G92" t="n">
-        <v>43598.89235052001</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3921,24 +3173,15 @@
         <v>152</v>
       </c>
       <c r="G93" t="n">
-        <v>43446.89235052001</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3960,24 +3203,15 @@
         <v>3.78</v>
       </c>
       <c r="G94" t="n">
-        <v>43450.67235052001</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3999,24 +3233,15 @@
         <v>2357.2797</v>
       </c>
       <c r="G95" t="n">
-        <v>45807.95205052001</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4038,24 +3263,15 @@
         <v>472.4663</v>
       </c>
       <c r="G96" t="n">
-        <v>46280.41835052001</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4077,24 +3293,15 @@
         <v>301.6493</v>
       </c>
       <c r="G97" t="n">
-        <v>46280.41835052001</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4116,24 +3323,15 @@
         <v>2573.2263</v>
       </c>
       <c r="G98" t="n">
-        <v>48853.64465052001</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4155,24 +3353,15 @@
         <v>6351.5289</v>
       </c>
       <c r="G99" t="n">
-        <v>55205.17355052001</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4194,24 +3383,15 @@
         <v>719.1695</v>
       </c>
       <c r="G100" t="n">
-        <v>55924.34305052001</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4233,24 +3413,15 @@
         <v>1035.998</v>
       </c>
       <c r="G101" t="n">
-        <v>55924.34305052001</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4272,24 +3443,15 @@
         <v>7.3469</v>
       </c>
       <c r="G102" t="n">
-        <v>55916.99615052001</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4311,24 +3473,15 @@
         <v>83.82980000000001</v>
       </c>
       <c r="G103" t="n">
-        <v>55916.99615052001</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4350,24 +3503,15 @@
         <v>5372.5691</v>
       </c>
       <c r="G104" t="n">
-        <v>50544.42705052001</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4389,24 +3533,15 @@
         <v>1927.2109</v>
       </c>
       <c r="G105" t="n">
-        <v>52471.63795052001</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4428,24 +3563,15 @@
         <v>17981.0959</v>
       </c>
       <c r="G106" t="n">
-        <v>70452.73385052002</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4467,24 +3593,15 @@
         <v>884.2729</v>
       </c>
       <c r="G107" t="n">
-        <v>69568.46095052002</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4506,24 +3623,15 @@
         <v>721.7712</v>
       </c>
       <c r="G108" t="n">
-        <v>68846.68975052002</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4545,24 +3653,15 @@
         <v>2583.4435</v>
       </c>
       <c r="G109" t="n">
-        <v>68846.68975052002</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4584,24 +3683,15 @@
         <v>4</v>
       </c>
       <c r="G110" t="n">
-        <v>68850.68975052002</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4623,24 +3713,15 @@
         <v>4136.108</v>
       </c>
       <c r="G111" t="n">
-        <v>64714.58175052002</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4662,24 +3743,15 @@
         <v>1449.5242</v>
       </c>
       <c r="G112" t="n">
-        <v>64714.58175052002</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4701,24 +3773,15 @@
         <v>1000</v>
       </c>
       <c r="G113" t="n">
-        <v>65714.58175052001</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4740,24 +3803,15 @@
         <v>2730.6006</v>
       </c>
       <c r="G114" t="n">
-        <v>62983.98115052001</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4779,24 +3833,15 @@
         <v>327.9006</v>
       </c>
       <c r="G115" t="n">
-        <v>63311.88175052001</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4818,24 +3863,15 @@
         <v>947.6273</v>
       </c>
       <c r="G116" t="n">
-        <v>62364.25445052001</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4857,24 +3893,15 @@
         <v>1583.8256</v>
       </c>
       <c r="G117" t="n">
-        <v>60780.42885052002</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4896,24 +3923,15 @@
         <v>551.9638</v>
       </c>
       <c r="G118" t="n">
-        <v>60228.46505052002</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4935,24 +3953,15 @@
         <v>3829.1975</v>
       </c>
       <c r="G119" t="n">
-        <v>56399.26755052002</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4974,24 +3983,15 @@
         <v>3112.4519</v>
       </c>
       <c r="G120" t="n">
-        <v>53286.81565052002</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5013,24 +4013,15 @@
         <v>1705.6744</v>
       </c>
       <c r="G121" t="n">
-        <v>53286.81565052002</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5052,24 +4043,15 @@
         <v>234.3453</v>
       </c>
       <c r="G122" t="n">
-        <v>53286.81565052002</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5091,24 +4073,15 @@
         <v>3198.8671</v>
       </c>
       <c r="G123" t="n">
-        <v>50087.94855052001</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5130,24 +4103,15 @@
         <v>3483.2893</v>
       </c>
       <c r="G124" t="n">
-        <v>53571.23785052001</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5169,24 +4133,15 @@
         <v>12</v>
       </c>
       <c r="G125" t="n">
-        <v>53583.23785052001</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5208,24 +4163,15 @@
         <v>384</v>
       </c>
       <c r="G126" t="n">
-        <v>53967.23785052001</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5247,24 +4193,15 @@
         <v>5050.8311</v>
       </c>
       <c r="G127" t="n">
-        <v>48916.40675052001</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5286,24 +4223,15 @@
         <v>784.8547</v>
       </c>
       <c r="G128" t="n">
-        <v>48131.55205052</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5325,24 +4253,15 @@
         <v>5788.9025</v>
       </c>
       <c r="G129" t="n">
-        <v>53920.45455052001</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5364,24 +4283,15 @@
         <v>1265.9897</v>
       </c>
       <c r="G130" t="n">
-        <v>53920.45455052001</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5403,24 +4313,15 @@
         <v>1343.2549</v>
       </c>
       <c r="G131" t="n">
-        <v>52577.19965052001</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5442,24 +4343,15 @@
         <v>1236.3853</v>
       </c>
       <c r="G132" t="n">
-        <v>53813.58495052001</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5481,24 +4373,15 @@
         <v>5792.9077</v>
       </c>
       <c r="G133" t="n">
-        <v>48020.67725052001</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5520,24 +4403,15 @@
         <v>92.46380000000001</v>
       </c>
       <c r="G134" t="n">
-        <v>48113.14105052</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5559,24 +4433,15 @@
         <v>615.8954</v>
       </c>
       <c r="G135" t="n">
-        <v>47497.24565052</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5598,24 +4463,15 @@
         <v>10</v>
       </c>
       <c r="G136" t="n">
-        <v>47507.24565052</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5637,24 +4493,15 @@
         <v>3.6884</v>
       </c>
       <c r="G137" t="n">
-        <v>47503.55725052</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5676,24 +4523,19 @@
         <v>548.625</v>
       </c>
       <c r="G138" t="n">
-        <v>47503.55725052</v>
+        <v>1</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>136.6</v>
+      </c>
+      <c r="I138" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5715,24 +4557,23 @@
         <v>1415.9897</v>
       </c>
       <c r="G139" t="n">
-        <v>48919.54695052</v>
+        <v>1</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>136.6</v>
+      </c>
+      <c r="I139" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5754,24 +4595,23 @@
         <v>17495.8684</v>
       </c>
       <c r="G140" t="n">
-        <v>31423.67855052</v>
+        <v>1</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>139.9</v>
+      </c>
+      <c r="I140" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5793,24 +4633,19 @@
         <v>2096.922</v>
       </c>
       <c r="G141" t="n">
-        <v>33520.60055052</v>
+        <v>1</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>136.9</v>
+      </c>
+      <c r="I141" t="n">
+        <v>136.9</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5832,24 +4667,23 @@
         <v>4384.448</v>
       </c>
       <c r="G142" t="n">
-        <v>37905.04855052</v>
+        <v>1</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>139.5</v>
+      </c>
+      <c r="I142" t="n">
+        <v>136.9</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5871,24 +4705,23 @@
         <v>6840.905</v>
       </c>
       <c r="G143" t="n">
-        <v>44745.95355052</v>
+        <v>1</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>139.9</v>
+      </c>
+      <c r="I143" t="n">
+        <v>136.9</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5910,24 +4743,15 @@
         <v>3000</v>
       </c>
       <c r="G144" t="n">
-        <v>47745.95355052</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5949,24 +4773,15 @@
         <v>1606.4054</v>
       </c>
       <c r="G145" t="n">
-        <v>46139.54815052</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5988,24 +4803,19 @@
         <v>1206.2047</v>
       </c>
       <c r="G146" t="n">
-        <v>47345.75285052</v>
+        <v>1</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>140</v>
+      </c>
+      <c r="I146" t="n">
+        <v>140</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6027,24 +4837,23 @@
         <v>1443.7855</v>
       </c>
       <c r="G147" t="n">
-        <v>45901.96735052</v>
+        <v>1</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>140.1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>140</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6066,24 +4875,23 @@
         <v>1801.0868</v>
       </c>
       <c r="G148" t="n">
-        <v>44100.88055052001</v>
+        <v>1</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>140</v>
+      </c>
+      <c r="I148" t="n">
+        <v>140</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6105,24 +4913,23 @@
         <v>1169.8378</v>
       </c>
       <c r="G149" t="n">
-        <v>45270.71835052001</v>
+        <v>1</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K149" t="inlineStr">
+        <v>138.1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>140</v>
+      </c>
+      <c r="J149" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6144,24 +4951,23 @@
         <v>4115.3403</v>
       </c>
       <c r="G150" t="n">
-        <v>41155.37805052001</v>
+        <v>1</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K150" t="inlineStr">
+        <v>138.2</v>
+      </c>
+      <c r="I150" t="n">
+        <v>140</v>
+      </c>
+      <c r="J150" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6183,26 +4989,23 @@
         <v>3000</v>
       </c>
       <c r="G151" t="n">
-        <v>38155.37805052001</v>
+        <v>1</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>138</v>
       </c>
       <c r="I151" t="n">
-        <v>138</v>
-      </c>
-      <c r="J151" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K151" t="inlineStr">
+        <v>140</v>
+      </c>
+      <c r="J151" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6224,26 +5027,23 @@
         <v>6.9933</v>
       </c>
       <c r="G152" t="n">
-        <v>38162.37135052001</v>
+        <v>1</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>136.7</v>
       </c>
       <c r="I152" t="n">
-        <v>136.7</v>
-      </c>
-      <c r="J152" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K152" t="inlineStr">
+        <v>140</v>
+      </c>
+      <c r="J152" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6265,26 +5065,21 @@
         <v>885.5684</v>
       </c>
       <c r="G153" t="n">
-        <v>37276.80295052002</v>
-      </c>
-      <c r="H153" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="J153" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K153" t="inlineStr">
+        <v>140</v>
+      </c>
+      <c r="J153" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6306,24 +5101,21 @@
         <v>5.1684</v>
       </c>
       <c r="G154" t="n">
-        <v>37271.63455052002</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K154" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="n">
+        <v>140</v>
+      </c>
+      <c r="J154" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6345,26 +5137,21 @@
         <v>2806.403</v>
       </c>
       <c r="G155" t="n">
-        <v>40078.03755052001</v>
-      </c>
-      <c r="H155" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="n">
-        <v>140.7</v>
-      </c>
-      <c r="J155" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K155" t="inlineStr">
+        <v>140</v>
+      </c>
+      <c r="J155" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6386,24 +5173,21 @@
         <v>1000</v>
       </c>
       <c r="G156" t="n">
-        <v>41078.03755052001</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K156" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="n">
+        <v>140</v>
+      </c>
+      <c r="J156" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6425,26 +5209,21 @@
         <v>60.4902</v>
       </c>
       <c r="G157" t="n">
-        <v>41078.03755052001</v>
-      </c>
-      <c r="H157" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="n">
-        <v>145</v>
-      </c>
-      <c r="J157" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K157" t="inlineStr">
+        <v>140</v>
+      </c>
+      <c r="J157" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6466,26 +5245,21 @@
         <v>212</v>
       </c>
       <c r="G158" t="n">
-        <v>40866.03755052001</v>
-      </c>
-      <c r="H158" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="n">
-        <v>145</v>
-      </c>
-      <c r="J158" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K158" t="inlineStr">
+        <v>140</v>
+      </c>
+      <c r="J158" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6507,26 +5281,21 @@
         <v>246</v>
       </c>
       <c r="G159" t="n">
-        <v>41112.03755052001</v>
-      </c>
-      <c r="H159" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="n">
-        <v>143</v>
-      </c>
-      <c r="J159" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K159" t="inlineStr">
+        <v>140</v>
+      </c>
+      <c r="J159" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6548,26 +5317,21 @@
         <v>212</v>
       </c>
       <c r="G160" t="n">
-        <v>41112.03755052001</v>
-      </c>
-      <c r="H160" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="n">
-        <v>146</v>
-      </c>
-      <c r="J160" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K160" t="inlineStr">
+        <v>140</v>
+      </c>
+      <c r="J160" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6589,26 +5353,21 @@
         <v>5624.1496</v>
       </c>
       <c r="G161" t="n">
-        <v>46736.18715052001</v>
-      </c>
-      <c r="H161" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="n">
-        <v>146</v>
-      </c>
-      <c r="J161" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K161" t="inlineStr">
+        <v>140</v>
+      </c>
+      <c r="J161" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6630,26 +5389,21 @@
         <v>2052.2179</v>
       </c>
       <c r="G162" t="n">
-        <v>48788.40505052001</v>
-      </c>
-      <c r="H162" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="n">
-        <v>147.9</v>
-      </c>
-      <c r="J162" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K162" t="inlineStr">
+        <v>140</v>
+      </c>
+      <c r="J162" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6671,26 +5425,21 @@
         <v>246</v>
       </c>
       <c r="G163" t="n">
-        <v>48542.40505052001</v>
-      </c>
-      <c r="H163" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="n">
-        <v>148</v>
-      </c>
-      <c r="J163" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K163" t="inlineStr">
+        <v>140</v>
+      </c>
+      <c r="J163" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6712,26 +5461,21 @@
         <v>4531.7167</v>
       </c>
       <c r="G164" t="n">
-        <v>53074.12175052001</v>
-      </c>
-      <c r="H164" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="n">
-        <v>147.9</v>
-      </c>
-      <c r="J164" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K164" t="inlineStr">
+        <v>140</v>
+      </c>
+      <c r="J164" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6753,26 +5497,21 @@
         <v>152.7465</v>
       </c>
       <c r="G165" t="n">
-        <v>53074.12175052001</v>
-      </c>
-      <c r="H165" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="n">
-        <v>148</v>
-      </c>
-      <c r="J165" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K165" t="inlineStr">
+        <v>140</v>
+      </c>
+      <c r="J165" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6794,26 +5533,21 @@
         <v>1263.3586</v>
       </c>
       <c r="G166" t="n">
-        <v>51810.76315052001</v>
-      </c>
-      <c r="H166" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="n">
-        <v>148</v>
-      </c>
-      <c r="J166" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K166" t="inlineStr">
+        <v>140</v>
+      </c>
+      <c r="J166" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6835,26 +5569,21 @@
         <v>820</v>
       </c>
       <c r="G167" t="n">
-        <v>50990.76315052001</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="n">
-        <v>147.9</v>
-      </c>
-      <c r="J167" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K167" t="inlineStr">
+        <v>140</v>
+      </c>
+      <c r="J167" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6876,26 +5605,21 @@
         <v>12.8153</v>
       </c>
       <c r="G168" t="n">
-        <v>50977.94785052001</v>
-      </c>
-      <c r="H168" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="n">
-        <v>144</v>
-      </c>
-      <c r="J168" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K168" t="inlineStr">
+        <v>140</v>
+      </c>
+      <c r="J168" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6917,26 +5641,21 @@
         <v>1682.375</v>
       </c>
       <c r="G169" t="n">
-        <v>52660.32285052001</v>
-      </c>
-      <c r="H169" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="n">
-        <v>143</v>
-      </c>
-      <c r="J169" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K169" t="inlineStr">
+        <v>140</v>
+      </c>
+      <c r="J169" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6958,26 +5677,21 @@
         <v>269.1077</v>
       </c>
       <c r="G170" t="n">
-        <v>52929.43055052001</v>
-      </c>
-      <c r="H170" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="n">
-        <v>144</v>
-      </c>
-      <c r="J170" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K170" t="inlineStr">
+        <v>140</v>
+      </c>
+      <c r="J170" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6999,26 +5713,21 @@
         <v>1671.261</v>
       </c>
       <c r="G171" t="n">
-        <v>51258.16955052001</v>
-      </c>
-      <c r="H171" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="n">
-        <v>148.6</v>
-      </c>
-      <c r="J171" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K171" t="inlineStr">
+        <v>140</v>
+      </c>
+      <c r="J171" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7040,26 +5749,21 @@
         <v>5.1221</v>
       </c>
       <c r="G172" t="n">
-        <v>51253.04745052001</v>
-      </c>
-      <c r="H172" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="n">
-        <v>145.1</v>
-      </c>
-      <c r="J172" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K172" t="inlineStr">
+        <v>140</v>
+      </c>
+      <c r="J172" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7081,26 +5785,21 @@
         <v>361.588</v>
       </c>
       <c r="G173" t="n">
-        <v>51253.04745052001</v>
-      </c>
-      <c r="H173" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="n">
-        <v>143</v>
-      </c>
-      <c r="J173" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K173" t="inlineStr">
+        <v>140</v>
+      </c>
+      <c r="J173" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7122,26 +5821,21 @@
         <v>1589.8947</v>
       </c>
       <c r="G174" t="n">
-        <v>49663.15275052001</v>
-      </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="n">
-        <v>143</v>
-      </c>
-      <c r="J174" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K174" t="inlineStr">
+        <v>140</v>
+      </c>
+      <c r="J174" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7163,26 +5857,21 @@
         <v>8.688800000000001</v>
       </c>
       <c r="G175" t="n">
-        <v>49663.15275052001</v>
-      </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="n">
-        <v>142</v>
-      </c>
-      <c r="J175" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K175" t="inlineStr">
+        <v>140</v>
+      </c>
+      <c r="J175" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7204,26 +5893,21 @@
         <v>4112.5943</v>
       </c>
       <c r="G176" t="n">
-        <v>45550.55845052002</v>
-      </c>
-      <c r="H176" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="n">
-        <v>142</v>
-      </c>
-      <c r="J176" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K176" t="inlineStr">
+        <v>140</v>
+      </c>
+      <c r="J176" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7245,26 +5929,21 @@
         <v>1469.0014</v>
       </c>
       <c r="G177" t="n">
-        <v>47019.55985052002</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="n">
-        <v>140.8</v>
-      </c>
-      <c r="J177" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K177" t="inlineStr">
+        <v>140</v>
+      </c>
+      <c r="J177" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7286,26 +5965,21 @@
         <v>3548.3433</v>
       </c>
       <c r="G178" t="n">
-        <v>43471.21655052002</v>
-      </c>
-      <c r="H178" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="n">
-        <v>142</v>
-      </c>
-      <c r="J178" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K178" t="inlineStr">
+        <v>140</v>
+      </c>
+      <c r="J178" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7327,26 +6001,21 @@
         <v>205.3243</v>
       </c>
       <c r="G179" t="n">
-        <v>43676.54085052002</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="n">
-        <v>141.7</v>
-      </c>
-      <c r="J179" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K179" t="inlineStr">
+        <v>140</v>
+      </c>
+      <c r="J179" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7368,26 +6037,21 @@
         <v>3448.3433</v>
       </c>
       <c r="G180" t="n">
-        <v>40228.19755052002</v>
-      </c>
-      <c r="H180" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="n">
-        <v>143</v>
-      </c>
-      <c r="J180" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K180" t="inlineStr">
+        <v>140</v>
+      </c>
+      <c r="J180" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7409,26 +6073,21 @@
         <v>10</v>
       </c>
       <c r="G181" t="n">
-        <v>40238.19755052002</v>
-      </c>
-      <c r="H181" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="n">
-        <v>139</v>
-      </c>
-      <c r="J181" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K181" t="inlineStr">
+        <v>140</v>
+      </c>
+      <c r="J181" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7450,26 +6109,21 @@
         <v>10</v>
       </c>
       <c r="G182" t="n">
-        <v>40228.19755052002</v>
-      </c>
-      <c r="H182" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="n">
-        <v>145.6</v>
-      </c>
-      <c r="J182" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K182" t="inlineStr">
+        <v>140</v>
+      </c>
+      <c r="J182" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7491,26 +6145,21 @@
         <v>210.9828</v>
       </c>
       <c r="G183" t="n">
-        <v>40017.21475052002</v>
-      </c>
-      <c r="H183" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="n">
-        <v>144.7</v>
-      </c>
-      <c r="J183" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K183" t="inlineStr">
+        <v>140</v>
+      </c>
+      <c r="J183" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7532,26 +6181,21 @@
         <v>9397.7261</v>
       </c>
       <c r="G184" t="n">
-        <v>30619.48865052002</v>
-      </c>
-      <c r="H184" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="n">
-        <v>141</v>
-      </c>
-      <c r="J184" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K184" t="inlineStr">
+        <v>140</v>
+      </c>
+      <c r="J184" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7573,26 +6217,21 @@
         <v>368.8861</v>
       </c>
       <c r="G185" t="n">
-        <v>30988.37475052002</v>
-      </c>
-      <c r="H185" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="n">
         <v>140</v>
       </c>
-      <c r="J185" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K185" t="inlineStr">
+      <c r="J185" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7614,26 +6253,21 @@
         <v>10</v>
       </c>
       <c r="G186" t="n">
-        <v>30998.37475052002</v>
-      </c>
-      <c r="H186" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="n">
-        <v>141</v>
-      </c>
-      <c r="J186" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K186" t="inlineStr">
+        <v>140</v>
+      </c>
+      <c r="J186" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7655,26 +6289,21 @@
         <v>1374.6977</v>
       </c>
       <c r="G187" t="n">
-        <v>32373.07245052002</v>
-      </c>
-      <c r="H187" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="n">
-        <v>143</v>
-      </c>
-      <c r="J187" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K187" t="inlineStr">
+        <v>140</v>
+      </c>
+      <c r="J187" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7696,24 +6325,21 @@
         <v>1374.6977</v>
       </c>
       <c r="G188" t="n">
-        <v>30998.37475052002</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K188" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="n">
+        <v>140</v>
+      </c>
+      <c r="J188" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7735,26 +6361,21 @@
         <v>1672.874</v>
       </c>
       <c r="G189" t="n">
-        <v>32671.24875052002</v>
-      </c>
-      <c r="H189" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="n">
-        <v>142.2</v>
-      </c>
-      <c r="J189" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K189" t="inlineStr">
+        <v>140</v>
+      </c>
+      <c r="J189" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7776,24 +6397,21 @@
         <v>10</v>
       </c>
       <c r="G190" t="n">
-        <v>32681.24875052002</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K190" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="n">
+        <v>140</v>
+      </c>
+      <c r="J190" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7815,24 +6433,21 @@
         <v>8</v>
       </c>
       <c r="G191" t="n">
-        <v>32673.24875052002</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K191" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="n">
+        <v>140</v>
+      </c>
+      <c r="J191" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7854,24 +6469,21 @@
         <v>1379.277</v>
       </c>
       <c r="G192" t="n">
-        <v>34052.52575052002</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K192" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="n">
+        <v>140</v>
+      </c>
+      <c r="J192" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7893,24 +6505,21 @@
         <v>10726.12261618</v>
       </c>
       <c r="G193" t="n">
-        <v>23326.40313434002</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K193" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="n">
+        <v>140</v>
+      </c>
+      <c r="J193" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7932,24 +6541,21 @@
         <v>2337.8456</v>
       </c>
       <c r="G194" t="n">
-        <v>23326.40313434002</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K194" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="n">
+        <v>140</v>
+      </c>
+      <c r="J194" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7971,26 +6577,21 @@
         <v>2698.633</v>
       </c>
       <c r="G195" t="n">
-        <v>26025.03613434002</v>
-      </c>
-      <c r="H195" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="n">
-        <v>144</v>
-      </c>
-      <c r="J195" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K195" t="inlineStr">
+        <v>140</v>
+      </c>
+      <c r="J195" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8012,26 +6613,21 @@
         <v>10158.7416</v>
       </c>
       <c r="G196" t="n">
-        <v>15866.29453434002</v>
-      </c>
-      <c r="H196" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="n">
-        <v>149</v>
-      </c>
-      <c r="J196" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K196" t="inlineStr">
+        <v>140</v>
+      </c>
+      <c r="J196" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8053,26 +6649,21 @@
         <v>6</v>
       </c>
       <c r="G197" t="n">
-        <v>15872.29453434002</v>
-      </c>
-      <c r="H197" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="n">
-        <v>142.2</v>
-      </c>
-      <c r="J197" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K197" t="inlineStr">
+        <v>140</v>
+      </c>
+      <c r="J197" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8094,24 +6685,21 @@
         <v>5620.2866</v>
       </c>
       <c r="G198" t="n">
-        <v>21492.58113434002</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K198" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="n">
+        <v>140</v>
+      </c>
+      <c r="J198" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8133,24 +6721,21 @@
         <v>2581.487</v>
       </c>
       <c r="G199" t="n">
-        <v>24074.06813434002</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K199" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="n">
+        <v>140</v>
+      </c>
+      <c r="J199" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8172,24 +6757,21 @@
         <v>5228.1627</v>
       </c>
       <c r="G200" t="n">
-        <v>29302.23083434003</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K200" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="n">
+        <v>140</v>
+      </c>
+      <c r="J200" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8211,24 +6793,21 @@
         <v>227</v>
       </c>
       <c r="G201" t="n">
-        <v>29075.23083434003</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K201" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="n">
+        <v>140</v>
+      </c>
+      <c r="J201" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8250,24 +6829,21 @@
         <v>5</v>
       </c>
       <c r="G202" t="n">
-        <v>29070.23083434003</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K202" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="n">
+        <v>140</v>
+      </c>
+      <c r="J202" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8289,24 +6865,21 @@
         <v>972</v>
       </c>
       <c r="G203" t="n">
-        <v>28098.23083434003</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K203" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="n">
+        <v>140</v>
+      </c>
+      <c r="J203" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8328,24 +6901,21 @@
         <v>5527.8557</v>
       </c>
       <c r="G204" t="n">
-        <v>28098.23083434003</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K204" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="n">
+        <v>140</v>
+      </c>
+      <c r="J204" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8367,24 +6937,21 @@
         <v>835</v>
       </c>
       <c r="G205" t="n">
-        <v>27263.23083434003</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K205" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="n">
+        <v>140</v>
+      </c>
+      <c r="J205" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8406,24 +6973,21 @@
         <v>5</v>
       </c>
       <c r="G206" t="n">
-        <v>27268.23083434003</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K206" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="n">
+        <v>140</v>
+      </c>
+      <c r="J206" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8445,24 +7009,21 @@
         <v>5</v>
       </c>
       <c r="G207" t="n">
-        <v>27268.23083434003</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K207" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="n">
+        <v>140</v>
+      </c>
+      <c r="J207" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8484,24 +7045,21 @@
         <v>5244.1627</v>
       </c>
       <c r="G208" t="n">
-        <v>22024.06813434002</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K208" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="n">
+        <v>140</v>
+      </c>
+      <c r="J208" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8523,24 +7081,21 @@
         <v>11</v>
       </c>
       <c r="G209" t="n">
-        <v>22035.06813434002</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K209" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="n">
+        <v>140</v>
+      </c>
+      <c r="J209" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8562,24 +7117,21 @@
         <v>3187.486</v>
       </c>
       <c r="G210" t="n">
-        <v>18847.58213434002</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K210" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
+      <c r="I210" t="n">
+        <v>140</v>
+      </c>
+      <c r="J210" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8601,24 +7153,21 @@
         <v>219.0164</v>
       </c>
       <c r="G211" t="n">
-        <v>19066.59853434002</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K211" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
+      <c r="I211" t="n">
+        <v>140</v>
+      </c>
+      <c r="J211" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8640,26 +7189,21 @@
         <v>97.95489999999999</v>
       </c>
       <c r="G212" t="n">
-        <v>19066.59853434002</v>
-      </c>
-      <c r="H212" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="n">
-        <v>144</v>
-      </c>
-      <c r="J212" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K212" t="inlineStr">
+        <v>140</v>
+      </c>
+      <c r="J212" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8681,26 +7225,21 @@
         <v>5283.4723</v>
       </c>
       <c r="G213" t="n">
-        <v>13783.12623434002</v>
-      </c>
-      <c r="H213" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="n">
-        <v>144</v>
-      </c>
-      <c r="J213" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K213" t="inlineStr">
+        <v>140</v>
+      </c>
+      <c r="J213" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8722,26 +7261,21 @@
         <v>239.3834</v>
       </c>
       <c r="G214" t="n">
-        <v>13783.12623434002</v>
-      </c>
-      <c r="H214" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="n">
-        <v>142.2</v>
-      </c>
-      <c r="J214" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="K214" t="inlineStr">
+        <v>140</v>
+      </c>
+      <c r="J214" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
